--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Mods de Juegos\starbound-mod-wnamok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C735E169-9A44-484B-B7A5-149D211E416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34654FF2-E7D5-4EC3-B701-5A2AB2F26F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tier 1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="394">
   <si>
     <t>Tier</t>
   </si>
@@ -137,24 +137,15 @@
     <t>namokbed1</t>
   </si>
   <si>
-    <t>cabinstooltable</t>
-  </si>
-  <si>
     <t>medievaldiningtable</t>
   </si>
   <si>
-    <t>vasodevidrio</t>
-  </si>
-  <si>
     <t>emptyhands</t>
   </si>
   <si>
     <t>flagnamok</t>
   </si>
   <si>
-    <t>platodelosa</t>
-  </si>
-  <si>
     <t>goldenpedestal</t>
   </si>
   <si>
@@ -194,21 +185,12 @@
     <t>basicbath</t>
   </si>
   <si>
-    <t>namoktorch (x4)</t>
-  </si>
-  <si>
-    <t>marmolwinfence (x50)</t>
-  </si>
-  <si>
     <t>mirror (x50)</t>
   </si>
   <si>
     <t>silverplatform (x50)</t>
   </si>
   <si>
-    <t>pisomarmolwin (x50)</t>
-  </si>
-  <si>
     <t>goldenplatform (x50)</t>
   </si>
   <si>
@@ -221,15 +203,9 @@
     <t>goldwintiles (x50)</t>
   </si>
   <si>
-    <t>pillarwin (x50)</t>
-  </si>
-  <si>
     <t>marmolwinplatform (x50)</t>
   </si>
   <si>
-    <t>marmolwinbrick (x50)</t>
-  </si>
-  <si>
     <t>marmolwin (x50)</t>
   </si>
   <si>
@@ -311,9 +287,6 @@
     <t>namoksword2</t>
   </si>
   <si>
-    <t>namokpickaxe2</t>
-  </si>
-  <si>
     <t>classiccurtain1</t>
   </si>
   <si>
@@ -323,9 +296,6 @@
     <t>classiccurtain3</t>
   </si>
   <si>
-    <t>namokbed2</t>
-  </si>
-  <si>
     <t>namokmetalchair</t>
   </si>
   <si>
@@ -359,9 +329,6 @@
     <t>manipulatormodule</t>
   </si>
   <si>
-    <t>siliconboard</t>
-  </si>
-  <si>
     <t>stickofram</t>
   </si>
   <si>
@@ -395,9 +362,6 @@
     <t>avioncazadepapel (x16)</t>
   </si>
   <si>
-    <t>tiendanamok1</t>
-  </si>
-  <si>
     <t>cuadrodeluz</t>
   </si>
   <si>
@@ -410,9 +374,6 @@
     <t>namokcubeblue</t>
   </si>
   <si>
-    <t>fluidobase</t>
-  </si>
-  <si>
     <t>platinumbar</t>
   </si>
   <si>
@@ -437,9 +398,6 @@
     <t>wingo</t>
   </si>
   <si>
-    <t>vasodevidrio, ironbar, logblock, livingroot (x8), paper (x2), essence (x40)</t>
-  </si>
-  <si>
     <t>platinumore (x2)</t>
   </si>
   <si>
@@ -464,21 +422,12 @@
     <t>firedclay (x2)</t>
   </si>
   <si>
-    <t>firedclay (x2), ironbar, coalore</t>
-  </si>
-  <si>
-    <t>firedclay (x3)</t>
-  </si>
-  <si>
     <t>firedclay (x10), ironbar (x5), coalore (x5)</t>
   </si>
   <si>
     <t>ironbar (x2), coalore (x2)</t>
   </si>
   <si>
-    <t>firedclay (x3), ironbar (x2), coalore (x2), darkwoodmaterial (x10)</t>
-  </si>
-  <si>
     <t>paper (x32)</t>
   </si>
   <si>
@@ -512,9 +461,6 @@
     <t>trungstenbar, brain, oktolojim, namokinteligencia (x4), namokfuncion (x2)</t>
   </si>
   <si>
-    <t>silk (x30), tungstenbar (x10), oktolojim (x2), cryonicextract (x2), scorchedcore (x2)</t>
-  </si>
-  <si>
     <t>titaniumore (x2)</t>
   </si>
   <si>
@@ -560,18 +506,6 @@
     <t>paper (x16), triangliumwinpyramid</t>
   </si>
   <si>
-    <t>relojbase, darkwoodmaterial (x5), wire</t>
-  </si>
-  <si>
-    <t>relojbase, darkwoodmaterial (x20), wire, browndye (x5)</t>
-  </si>
-  <si>
-    <t>relojbase, tingstenbar (x3), wire</t>
-  </si>
-  <si>
-    <t>relojbase, goldbar (x3), oktolojim, siliconboard</t>
-  </si>
-  <si>
     <t>namokmetaltable1</t>
   </si>
   <si>
@@ -977,21 +911,6 @@
     <t>plutoniumore (x2)</t>
   </si>
   <si>
-    <t>scorchedcore</t>
-  </si>
-  <si>
-    <t>cryonicextract</t>
-  </si>
-  <si>
-    <t>venomsample</t>
-  </si>
-  <si>
-    <t>staticcell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">liquidlava  </t>
-  </si>
-  <si>
     <t>liquidlava (x2)</t>
   </si>
   <si>
@@ -1037,17 +956,269 @@
     <t>swampwater, fluidobase</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>liquidwater, cryonicextract</t>
+    <t>titaniumbar (x20), glass (x20), namokforma (x16), namokfuncion (x16), chipnamok (x4), laserdiode (x8), stickofram (x4), battery(x2)</t>
+  </si>
+  <si>
+    <t>cobblestonematerial (x4), bone (x4), liquidwater (x4)</t>
+  </si>
+  <si>
+    <t>marmolwinbrick (x30)</t>
+  </si>
+  <si>
+    <t>marmolwin (x10), firedclay (x5), rice (x5)</t>
+  </si>
+  <si>
+    <t>marmolwinfence (x30)</t>
+  </si>
+  <si>
+    <t>marmolwin (x10), liquidwater (x5)</t>
+  </si>
+  <si>
+    <t>ironbar (x16), coalore (x16), goldbar (x8), climbingrope</t>
+  </si>
+  <si>
+    <t>copperbar (x4), ironbar (x8), colaore (x8)</t>
+  </si>
+  <si>
+    <t>vasodevidrio (x3)</t>
+  </si>
+  <si>
+    <t>glass (x5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>silverbar (x16), tungstenbar (x8), cryonicextract, namokpoder (x4)</t>
+  </si>
+  <si>
+    <t>goldbar, marmolwin (x10)</t>
+  </si>
+  <si>
+    <t>namokbasicsheld, upgrademodule (x2), silverbar (x8), tungstenbar (x8)</t>
+  </si>
+  <si>
+    <t>goldbar (x5), ironbar (x10), coalore (x10), cobblestonematerial (x5)</t>
+  </si>
+  <si>
+    <t>namokteleporter</t>
+  </si>
+  <si>
+    <t>goldbar, marmolwin (x30), chipnamok (x2), teleportercore</t>
+  </si>
+  <si>
+    <t>goldbar, darkwoodmaterial (x10)</t>
+  </si>
+  <si>
+    <t>pillarwin (x30)</t>
+  </si>
+  <si>
+    <t>marmolwin (x10), bone (x5)</t>
+  </si>
+  <si>
+    <t>pisomarmolwin (x30)</t>
+  </si>
+  <si>
+    <t>marmolwin (x10), cobblestonematerial (x5), bone (x5)</t>
+  </si>
+  <si>
+    <t>firedclay (x5)</t>
+  </si>
+  <si>
+    <t>firedclay (x3), ironbar, coalore</t>
+  </si>
+  <si>
+    <t>platodelosa (x8)</t>
+  </si>
+  <si>
+    <t>firedclay (x4)</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Recetas</t>
+  </si>
+  <si>
+    <t>goldbar (x8), diamond, titaniumbar (x4), namokessence (x4)</t>
+  </si>
+  <si>
+    <t>goldbar (x2)</t>
+  </si>
+  <si>
+    <t>ironbar (x2), copperbar (x2), coalore (x2), cottonwoll (x10)</t>
+  </si>
+  <si>
+    <t>namoktorch (x8)</t>
+  </si>
+  <si>
+    <t>coalore (x8), goldbar</t>
+  </si>
+  <si>
+    <t>leather (x20), tungstenbar (x8), oktolojim (x2), cryonicextract (x2), scorchedcore (x2)</t>
+  </si>
+  <si>
+    <t>vasodevidrio, ironbar, coalore, logblock, livingroot (x8), paper (x2), money (x256)</t>
+  </si>
+  <si>
+    <t>darkwoodmaterial (x20), goldbar, fabric (x50), whitedye</t>
+  </si>
+  <si>
+    <t>mesitademadera</t>
+  </si>
+  <si>
+    <t>darkwoodmaterial (x10)</t>
+  </si>
+  <si>
+    <t>goldbar (x8), cottonwool (x5), whitedye, reddye</t>
+  </si>
+  <si>
+    <t>darkwoodmaterial (x8), cottonwool (x5)</t>
+  </si>
+  <si>
+    <t>darkwoodmaterial (x20)</t>
+  </si>
+  <si>
+    <t>basictoilet, protectoratedormtoiletroll, ironbar (x2), coalore (x2), darkwoodmaterial (x10)</t>
+  </si>
+  <si>
+    <t>ironbar (x2)</t>
+  </si>
+  <si>
+    <t>namoktent1</t>
+  </si>
+  <si>
+    <t>namokballesta, upgrademodule, goldbar (x4)</t>
+  </si>
+  <si>
+    <t>estacionnamok3</t>
+  </si>
+  <si>
+    <t>battery (x4)</t>
+  </si>
+  <si>
+    <t>titaniumbar (x4), goldbar (x2), sulphure (x20), wire (x16), namokenergia (x4)</t>
+  </si>
+  <si>
+    <t>ironbar (x4), glass (x2), namokpoder(x2)</t>
+  </si>
+  <si>
+    <t>diamond, goldbar (x4), laserdiode, namokfuncion, namokforma</t>
+  </si>
+  <si>
+    <t>sand2 (x25), wire (x8), namokforma</t>
+  </si>
+  <si>
+    <t>siliconboard (x8)</t>
+  </si>
+  <si>
+    <t>goldbar, siliconboard (x2), namokfuncion (x2)</t>
+  </si>
+  <si>
+    <t>techcard</t>
+  </si>
+  <si>
+    <t>stickofram, siliconboard (x2), goldbar, namokpoder (x4), namokfuncion (x2)</t>
+  </si>
+  <si>
+    <t>teleportercore</t>
+  </si>
+  <si>
+    <t>tungstenbar (x10), corefragmentore (x4), namokespacio (x2), namoktiempo</t>
+  </si>
+  <si>
+    <t>diamond, tungstenbar (x10), stickofram (x2)namokforma, namokpoder, namokfuncion (x2)</t>
+  </si>
+  <si>
+    <t>namoksword, tungstenbar (x8), silverbar (x4), upgrademodule</t>
+  </si>
+  <si>
+    <t>relojbase, tingstenbar (x3), smallbattery (x2)</t>
+  </si>
+  <si>
+    <t>relojbase, darkwoodmaterial (x5), smallbattery (x2)</t>
+  </si>
+  <si>
+    <t>relojbase, darkwoodmaterial (x20), smallbattery (x2), browndye (x5)</t>
+  </si>
+  <si>
+    <t>firedclay (x5), triangliumwinpyramid, steelpipe (x4)</t>
+  </si>
+  <si>
+    <t>tungstenbar (x5)</t>
+  </si>
+  <si>
+    <t>tungstenbar (x2)</t>
+  </si>
+  <si>
+    <t>tungstenbar (x2), leather (x2), whitedye</t>
+  </si>
+  <si>
+    <t>namokwallclock</t>
+  </si>
+  <si>
+    <t>relojbase, goldbar (x3), oktolojim, siliconboard, smallbattery (x2)</t>
+  </si>
+  <si>
+    <t>silverbar (x16), tungstenbar (x8), venomsample, namokpoder (x4)</t>
+  </si>
+  <si>
+    <t>silverbar (x16), tungstenbar (x8), staticcell, namokpoder (x4)</t>
+  </si>
+  <si>
+    <t>silverbar (x16), tungstenbar (x8), scorchedcore, namokpoder (x4)</t>
+  </si>
+  <si>
+    <t>scorchedcore (x5)</t>
+  </si>
+  <si>
+    <t>corefragmentore (x5), obsidian (x10), namokessence</t>
+  </si>
+  <si>
+    <t>staticcell (x5)</t>
+  </si>
+  <si>
+    <t>cellmatter (x5), namokessence, namokpoder (x2)</t>
+  </si>
+  <si>
+    <t>venomsample (x5)</t>
+  </si>
+  <si>
+    <t>liquidpoison (x100), namokessence</t>
+  </si>
+  <si>
+    <t>ice (x50), namokessence</t>
+  </si>
+  <si>
+    <t>cryonicextract (x5)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liquidhealing (x50), liquidmilk (x50), namokexistencia (x8) </t>
+  </si>
+  <si>
+    <t>fluidobase (x100)</t>
+  </si>
+  <si>
+    <t>ice (x100)</t>
+  </si>
+  <si>
+    <t>liquidwater (x100), cryonicextract</t>
+  </si>
+  <si>
+    <t>tungstenbar (x10), glass (x20), triangliumwinpyramid (x8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">titaniumbar (x10), chipnamok (x4), stickofram (x4), wire (x16) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1076,8 +1247,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1162,8 +1341,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1570,11 +1755,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1741,6 +1972,49 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1771,27 +2045,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1855,7 +2108,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2143,10 +2405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F197"/>
+  <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,2069 +2416,2203 @@
     <col min="1" max="1" width="11.44140625" style="2" customWidth="1"/>
     <col min="2" max="2" width="18.21875" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="49" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.5546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.88671875" style="2"/>
     <col min="7" max="7" width="31.5546875" style="2" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>336</v>
+      </c>
+      <c r="E1" s="68"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="64">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70">
-        <v>1</v>
-      </c>
-      <c r="B2" s="70" t="s">
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="55"/>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>135</v>
+      <c r="C3" s="78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="F3" s="55"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="71"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="66" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="4" t="s">
+    <row r="4" spans="1:6" s="1" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="63" t="s">
+        <v>121</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="F5" s="54"/>
-    </row>
-    <row r="6" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F6" s="54"/>
-    </row>
-    <row r="7" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="71"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="54"/>
+    </row>
+    <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" s="54"/>
-    </row>
-    <row r="8" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="71"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="F8" s="54"/>
+    </row>
+    <row r="9" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F8" s="54"/>
-    </row>
-    <row r="9" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="71"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="10" t="s">
+      <c r="E9" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="F9" s="54"/>
+    </row>
+    <row r="10" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="F10" s="54"/>
+    </row>
+    <row r="11" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="F11" s="54"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="65"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="54"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="54"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65"/>
+      <c r="B14" s="65"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="54"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="54"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="65"/>
+      <c r="B16" s="65"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="50" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F9" s="54"/>
-    </row>
-    <row r="10" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F10" s="54"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="71"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="71"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="71"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="50" t="s">
+      <c r="F16" s="54"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="50" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="71"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="71"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="71"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="15" t="s">
+      <c r="F17" s="54"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F18" s="54"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="65"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F19" s="54"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="54"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="54"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="54"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="65"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="54"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="54"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="65"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="54"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="65"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F26" s="54"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="65"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E17" s="50" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="71"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="71"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="68"/>
-      <c r="D19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="71"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="71"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="71"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="71"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="71"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="71"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="94"/>
-      <c r="D25" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="71"/>
-      <c r="B26" s="71"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="71"/>
-      <c r="B27" s="71"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>309</v>
-      </c>
       <c r="F27" s="54"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="66" t="s">
+    <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="65"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="F28" s="54"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="13"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="71"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="66"/>
-      <c r="D29" s="3" t="s">
+      <c r="E29" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="54"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="65"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="71"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="3" t="s">
+      <c r="E30" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="F30" s="54"/>
+    </row>
+    <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" s="71"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="3" t="s">
+      <c r="E31" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" s="54"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="71"/>
-      <c r="B32" s="71"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="3" t="s">
+      <c r="E32" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="54"/>
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="9"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="71"/>
-      <c r="B33" s="71"/>
-      <c r="C33" s="66"/>
-      <c r="D33" s="3" t="s">
-        <v>59</v>
-      </c>
       <c r="E33" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="71"/>
-      <c r="B34" s="71"/>
-      <c r="C34" s="66"/>
+        <v>337</v>
+      </c>
+      <c r="F33" s="54"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="63"/>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E34" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="71"/>
-      <c r="B35" s="71"/>
-      <c r="C35" s="66"/>
+      <c r="F34" s="54"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="65"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="63"/>
       <c r="D35" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="66"/>
+      <c r="F35" s="54"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="65"/>
+      <c r="B36" s="65"/>
+      <c r="C36" s="63"/>
       <c r="D36" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="66"/>
+      <c r="F36" s="54"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="65"/>
+      <c r="B37" s="65"/>
+      <c r="C37" s="63"/>
       <c r="D37" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E37" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="66"/>
+      <c r="F37" s="54"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="65"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E38" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="66"/>
+      <c r="F38" s="54"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="63"/>
       <c r="D39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="54"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F40" s="54"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="65"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" s="54"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="65"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F42" s="54"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="65"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F43" s="54"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="65"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="54"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="65"/>
+      <c r="B45" s="65"/>
+      <c r="C45" s="63"/>
+      <c r="D45" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="F45" s="54"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="65"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="65"/>
+      <c r="B47" s="65"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="F47" s="54"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="65"/>
+      <c r="B48" s="65"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="F48" s="54"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="65"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="54"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="65"/>
+      <c r="B50" s="65"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="54"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="65"/>
+      <c r="B51" s="65"/>
+      <c r="C51" s="63"/>
+      <c r="D51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="F51" s="54"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" s="54"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="65"/>
+      <c r="B53" s="65"/>
+      <c r="C53" s="63"/>
+      <c r="D53" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F53" s="54"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F54" s="54"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="65"/>
+      <c r="B55" s="65"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F55" s="54"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F56" s="54"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="65"/>
+      <c r="B57" s="65"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="54"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="54"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="65"/>
+      <c r="B59" s="65"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="54"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F60" s="54"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F61" s="54"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="65"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F62" s="54"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="65"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" s="54"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="65"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F64" s="54"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="65"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F65" s="54"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="65"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F66" s="54"/>
+    </row>
+    <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F67" s="54"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="65"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="54"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="65"/>
+      <c r="B69" s="65"/>
+      <c r="C69" s="63"/>
+      <c r="D69" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F69" s="54"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="65"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F70" s="54"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="65"/>
+      <c r="B71" s="65"/>
+      <c r="C71" s="63"/>
+      <c r="D71" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F71" s="54"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="65"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="11"/>
+    </row>
+    <row r="73" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="65"/>
+      <c r="B73" s="65"/>
+      <c r="C73" s="73" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="54"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="65"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="9"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="3" t="s">
+      <c r="E74" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="54"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="65"/>
+      <c r="B75" s="65"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" s="54"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="65"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F76" s="54"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="65"/>
+      <c r="B77" s="65"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="54"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="65"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78" s="54"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="65"/>
+      <c r="B79" s="65"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="54"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="65"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" s="54"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="65"/>
+      <c r="B81" s="65"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E81" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="9"/>
-    </row>
-    <row r="41" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E41" s="9"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="66"/>
-      <c r="D42" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E42" s="9"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="66"/>
-      <c r="D43" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="9"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="71"/>
-      <c r="B44" s="71"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="9"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="71"/>
-      <c r="B45" s="71"/>
-      <c r="C45" s="66"/>
-      <c r="D45" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E45" s="9"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="71"/>
-      <c r="B46" s="71"/>
-      <c r="C46" s="66"/>
-      <c r="D46" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="9"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="71"/>
-      <c r="B47" s="71"/>
-      <c r="C47" s="66"/>
-      <c r="D47" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E47" s="9"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="71"/>
-      <c r="B48" s="71"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" s="9"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="71"/>
-      <c r="B49" s="71"/>
-      <c r="C49" s="66"/>
-      <c r="D49" s="3" t="s">
+      <c r="F81" s="54"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="65"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="74"/>
+      <c r="D82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F82" s="54"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="65"/>
+      <c r="B83" s="65"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F83" s="54"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="65"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="74"/>
+      <c r="D84" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="54"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="65"/>
+      <c r="B85" s="65"/>
+      <c r="C85" s="74"/>
+      <c r="D85" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="54"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="65"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="74"/>
+      <c r="D86" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="F86" s="54"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="65"/>
+      <c r="B87" s="65"/>
+      <c r="C87" s="74"/>
+      <c r="D87" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="54"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="65"/>
+      <c r="B88" s="65"/>
+      <c r="C88" s="74"/>
+      <c r="D88" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F88" s="54"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="65"/>
+      <c r="B89" s="65"/>
+      <c r="C89" s="74"/>
+      <c r="D89" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F89" s="54"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="65"/>
+      <c r="B90" s="65"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="71" t="s">
+        <v>81</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="54"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="65"/>
+      <c r="B91" s="65"/>
+      <c r="C91" s="74"/>
+      <c r="D91" s="76"/>
+      <c r="E91" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="F91" s="54"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="65"/>
+      <c r="B92" s="65"/>
+      <c r="C92" s="74"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" s="54"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="65"/>
+      <c r="B93" s="65"/>
+      <c r="C93" s="74"/>
+      <c r="D93" s="77" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F93" s="54"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="65"/>
+      <c r="B94" s="65"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="77"/>
+      <c r="E94" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F94" s="54"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="65"/>
+      <c r="B95" s="65"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="77"/>
+      <c r="E95" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F95" s="54"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="65"/>
+      <c r="B96" s="65"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="77"/>
+      <c r="E96" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F96" s="54"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="65"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="65"/>
+      <c r="B98" s="65"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="54"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="65"/>
+      <c r="B99" s="65"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F99" s="54"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="65"/>
+      <c r="B100" s="65"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="77"/>
+      <c r="E100" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F100" s="54"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="65"/>
+      <c r="B101" s="65"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F101" s="54"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="65"/>
+      <c r="B102" s="65"/>
+      <c r="C102" s="74"/>
+      <c r="D102" s="77"/>
+      <c r="E102" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102" s="54"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="65"/>
+      <c r="B103" s="65"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="65"/>
+      <c r="B104" s="65"/>
+      <c r="C104" s="74"/>
+      <c r="D104" s="77"/>
+      <c r="E104" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="54"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="65"/>
+      <c r="B105" s="65"/>
+      <c r="C105" s="74"/>
+      <c r="D105" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="E49" s="9"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="71"/>
-      <c r="B50" s="71"/>
-      <c r="C50" s="66"/>
-      <c r="D50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="9"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="71"/>
-      <c r="B51" s="71"/>
-      <c r="C51" s="66"/>
-      <c r="D51" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E51" s="9"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="71"/>
-      <c r="B52" s="71"/>
-      <c r="C52" s="66"/>
-      <c r="D52" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="11"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="71"/>
-      <c r="B53" s="71"/>
-      <c r="C53" s="66"/>
-      <c r="D53" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="71"/>
-      <c r="B54" s="71"/>
-      <c r="C54" s="66"/>
-      <c r="D54" s="10" t="s">
+      <c r="E105" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F105" s="54"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="65"/>
+      <c r="B106" s="65"/>
+      <c r="C106" s="74"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F106" s="54"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="65"/>
+      <c r="B107" s="65"/>
+      <c r="C107" s="74"/>
+      <c r="D107" s="76"/>
+      <c r="E107" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F107" s="54"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="65"/>
+      <c r="B108" s="65"/>
+      <c r="C108" s="74"/>
+      <c r="D108" s="76"/>
+      <c r="E108" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F108" s="54"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="65"/>
+      <c r="B109" s="65"/>
+      <c r="C109" s="74"/>
+      <c r="D109" s="72"/>
+      <c r="E109" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" s="54"/>
+    </row>
+    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A110" s="65"/>
+      <c r="B110" s="65"/>
+      <c r="C110" s="74"/>
+      <c r="D110" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F110" s="54"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="65"/>
+      <c r="B111" s="65"/>
+      <c r="C111" s="74"/>
+      <c r="D111" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F111" s="54"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="65"/>
+      <c r="B112" s="65"/>
+      <c r="C112" s="74"/>
+      <c r="D112" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F112" s="54"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="65"/>
+      <c r="B113" s="65"/>
+      <c r="C113" s="74"/>
+      <c r="D113" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F113" s="54"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="65"/>
+      <c r="B114" s="65"/>
+      <c r="C114" s="74"/>
+      <c r="D114" s="72"/>
+      <c r="E114" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F114" s="54"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="65"/>
+      <c r="B115" s="65"/>
+      <c r="C115" s="74"/>
+      <c r="D115" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E115" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F115" s="54"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="65"/>
+      <c r="B116" s="65"/>
+      <c r="C116" s="74"/>
+      <c r="D116" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="E116" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F116" s="54"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="65"/>
+      <c r="B117" s="65"/>
+      <c r="C117" s="74"/>
+      <c r="D117" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="E117" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F117" s="54"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="65"/>
+      <c r="B118" s="65"/>
+      <c r="C118" s="74"/>
+      <c r="D118" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E118" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F118" s="54"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="65"/>
+      <c r="B119" s="65"/>
+      <c r="C119" s="74"/>
+      <c r="D119" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="E119" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F119" s="54"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="65"/>
+      <c r="B120" s="65"/>
+      <c r="C120" s="74"/>
+      <c r="D120" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F120" s="54"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="65"/>
+      <c r="B121" s="65"/>
+      <c r="C121" s="74"/>
+      <c r="D121" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E121" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F121" s="54"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="65"/>
+      <c r="B122" s="65"/>
+      <c r="C122" s="74"/>
+      <c r="D122" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F122" s="54"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="65"/>
+      <c r="B123" s="65"/>
+      <c r="C123" s="74"/>
+      <c r="D123" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E123" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F123" s="54"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="65"/>
+      <c r="B124" s="65"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="E124" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="F124" s="54"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="65"/>
+      <c r="B125" s="65"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="72"/>
+      <c r="E125" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F125" s="54"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="65"/>
+      <c r="B126" s="65"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="E126" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F126" s="54"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="65"/>
+      <c r="B127" s="65"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E127" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F127" s="54"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="65"/>
+      <c r="B128" s="65"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E128" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F128" s="54"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="65"/>
+      <c r="B129" s="65"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="E129" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F129" s="54"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="65"/>
+      <c r="B130" s="65"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" s="54"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="65"/>
+      <c r="B131" s="65"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="76"/>
+      <c r="E131" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="F131" s="54"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="65"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="74"/>
+      <c r="D132" s="76"/>
+      <c r="E132" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="F132" s="54"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="65"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="74"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F133" s="54"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="65"/>
+      <c r="B134" s="65"/>
+      <c r="C134" s="74"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="71"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="66"/>
-      <c r="D55" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E55" s="11"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="71"/>
-      <c r="B56" s="71"/>
-      <c r="C56" s="66"/>
-      <c r="D56" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E56" s="11"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="71"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="66"/>
-      <c r="D57" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E57" s="11"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="71"/>
-      <c r="B58" s="71"/>
-      <c r="C58" s="66"/>
-      <c r="D58" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="71"/>
-      <c r="B59" s="71"/>
-      <c r="C59" s="66"/>
-      <c r="D59" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="E59" s="11"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="71"/>
-      <c r="B60" s="71"/>
-      <c r="C60" s="66"/>
-      <c r="D60" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E60" s="11"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="71"/>
-      <c r="B61" s="71"/>
-      <c r="C61" s="66"/>
-      <c r="D61" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E61" s="11"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="71"/>
-      <c r="B62" s="71"/>
-      <c r="C62" s="66"/>
-      <c r="D62" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="71"/>
-      <c r="B63" s="71"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="71"/>
-      <c r="B64" s="71"/>
-      <c r="C64" s="66"/>
-      <c r="D64" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" s="11" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="71"/>
-      <c r="B65" s="71"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E65" s="11"/>
-    </row>
-    <row r="66" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A66" s="71"/>
-      <c r="B66" s="71"/>
-      <c r="C66" s="66"/>
-      <c r="D66" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="71"/>
-      <c r="B68" s="71"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="71"/>
-      <c r="B69" s="71"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E69" s="11"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="71"/>
-      <c r="B70" s="71"/>
-      <c r="C70" s="66"/>
-      <c r="D70" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="11"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="71"/>
-      <c r="B71" s="71"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="11"/>
-    </row>
-    <row r="72" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="71"/>
-      <c r="B72" s="71"/>
-      <c r="C72" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F72" s="54"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="71"/>
-      <c r="B73" s="71"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="54"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="71"/>
-      <c r="B74" s="71"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F74" s="54"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="71"/>
-      <c r="B75" s="71"/>
-      <c r="C75" s="59"/>
-      <c r="D75" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F75" s="54"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="71"/>
-      <c r="B76" s="71"/>
-      <c r="C76" s="59"/>
-      <c r="D76" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E76" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F76" s="54"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="71"/>
-      <c r="B77" s="71"/>
-      <c r="C77" s="59"/>
-      <c r="D77" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E77" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="54"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="71"/>
-      <c r="B78" s="71"/>
-      <c r="C78" s="59"/>
-      <c r="D78" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E78" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="54"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="71"/>
-      <c r="B79" s="71"/>
-      <c r="C79" s="59"/>
-      <c r="D79" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="54"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="71"/>
-      <c r="B80" s="71"/>
-      <c r="C80" s="59"/>
-      <c r="D80" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="E80" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="F80" s="54"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="71"/>
-      <c r="B81" s="71"/>
-      <c r="C81" s="59"/>
-      <c r="D81" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="F81" s="54"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="71"/>
-      <c r="B82" s="71"/>
-      <c r="C82" s="59"/>
-      <c r="D82" s="3" t="s">
+      <c r="F134" s="54"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="65"/>
+      <c r="B135" s="65"/>
+      <c r="C135" s="74"/>
+      <c r="D135" s="76"/>
+      <c r="E135" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="F135" s="54"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="65"/>
+      <c r="B136" s="65"/>
+      <c r="C136" s="74"/>
+      <c r="D136" s="76"/>
+      <c r="E136" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F136" s="54"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="65"/>
+      <c r="B137" s="65"/>
+      <c r="C137" s="74"/>
+      <c r="D137" s="76"/>
+      <c r="E137" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F137" s="54"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="65"/>
+      <c r="B138" s="65"/>
+      <c r="C138" s="74"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F138" s="54"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="65"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="74"/>
+      <c r="D139" s="72"/>
+      <c r="E139" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F139" s="54"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="65"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="74"/>
+      <c r="D140" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="E140" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="E82" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" s="54"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="71"/>
-      <c r="B83" s="71"/>
-      <c r="C83" s="59"/>
-      <c r="D83" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E83" s="9" t="s">
+      <c r="F140" s="54"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="65"/>
+      <c r="B141" s="65"/>
+      <c r="C141" s="74"/>
+      <c r="D141" s="76"/>
+      <c r="E141" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F141" s="54"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="65"/>
+      <c r="B142" s="65"/>
+      <c r="C142" s="74"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F142" s="54"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="65"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="74"/>
+      <c r="D143" s="76"/>
+      <c r="E143" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F143" s="54"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="65"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="72"/>
+      <c r="E144" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F144" s="54"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="65"/>
+      <c r="B145" s="65"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F145" s="54"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="65"/>
+      <c r="B146" s="65"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="E146" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F83" s="54"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="71"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="59"/>
-      <c r="D84" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="F84" s="54"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="71"/>
-      <c r="B85" s="71"/>
-      <c r="C85" s="59"/>
-      <c r="D85" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F85" s="54"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="71"/>
-      <c r="B86" s="71"/>
-      <c r="C86" s="59"/>
-      <c r="D86" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F86" s="54"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="71"/>
-      <c r="B87" s="71"/>
-      <c r="C87" s="59"/>
-      <c r="D87" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F87" s="54"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="71"/>
-      <c r="B88" s="71"/>
-      <c r="C88" s="59"/>
-      <c r="D88" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="F88" s="54"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="71"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="59"/>
-      <c r="D89" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="F89" s="54"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="71"/>
-      <c r="B90" s="71"/>
-      <c r="C90" s="59"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F90" s="54"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="71"/>
-      <c r="B91" s="71"/>
-      <c r="C91" s="59"/>
-      <c r="D91" s="57"/>
-      <c r="E91" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="F91" s="54"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="71"/>
-      <c r="B92" s="71"/>
-      <c r="C92" s="59"/>
-      <c r="D92" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="E92" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="F92" s="54"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="71"/>
-      <c r="B93" s="71"/>
-      <c r="C93" s="59"/>
-      <c r="D93" s="62"/>
-      <c r="E93" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F93" s="54"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="71"/>
-      <c r="B94" s="71"/>
-      <c r="C94" s="59"/>
-      <c r="D94" s="62"/>
-      <c r="E94" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F94" s="54"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="71"/>
-      <c r="B95" s="71"/>
-      <c r="C95" s="59"/>
-      <c r="D95" s="62"/>
-      <c r="E95" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="F95" s="54"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="71"/>
-      <c r="B96" s="71"/>
-      <c r="C96" s="59"/>
-      <c r="D96" s="62"/>
-      <c r="E96" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="F96" s="54"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="71"/>
-      <c r="B97" s="71"/>
-      <c r="C97" s="59"/>
-      <c r="D97" s="62"/>
-      <c r="E97" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="54"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="71"/>
-      <c r="B98" s="71"/>
-      <c r="C98" s="59"/>
-      <c r="D98" s="62"/>
-      <c r="E98" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="F98" s="54"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="71"/>
-      <c r="B99" s="71"/>
-      <c r="C99" s="59"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="F99" s="54"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="71"/>
-      <c r="B100" s="71"/>
-      <c r="C100" s="59"/>
-      <c r="D100" s="62"/>
-      <c r="E100" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="F100" s="54"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="71"/>
-      <c r="B101" s="71"/>
-      <c r="C101" s="59"/>
-      <c r="D101" s="62"/>
-      <c r="E101" s="11" t="s">
+      <c r="F146" s="54"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="65"/>
+      <c r="B147" s="65"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F147" s="54"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="65"/>
+      <c r="B148" s="65"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F148" s="54"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="65"/>
+      <c r="B149" s="65"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F149" s="54"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="65"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F150" s="54"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="65"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F151" s="54"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="65"/>
+      <c r="B152" s="65"/>
+      <c r="C152" s="74"/>
+      <c r="D152" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F152" s="54"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="65"/>
+      <c r="B153" s="65"/>
+      <c r="C153" s="74"/>
+      <c r="D153" s="71" t="s">
+        <v>238</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F153" s="54"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="65"/>
+      <c r="B154" s="65"/>
+      <c r="C154" s="74"/>
+      <c r="D154" s="76"/>
+      <c r="E154" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="F154" s="54"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="65"/>
+      <c r="B155" s="65"/>
+      <c r="C155" s="74"/>
+      <c r="D155" s="76"/>
+      <c r="E155" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="F155" s="54"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="65"/>
+      <c r="B156" s="65"/>
+      <c r="C156" s="74"/>
+      <c r="D156" s="72"/>
+      <c r="E156" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F156" s="54"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="65"/>
+      <c r="B157" s="65"/>
+      <c r="C157" s="74"/>
+      <c r="D157" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="F157" s="54"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="65"/>
+      <c r="B158" s="65"/>
+      <c r="C158" s="74"/>
+      <c r="D158" s="71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E158" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F101" s="54"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="71"/>
-      <c r="B102" s="71"/>
-      <c r="C102" s="59"/>
-      <c r="D102" s="62"/>
-      <c r="E102" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F102" s="54"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="71"/>
-      <c r="B103" s="71"/>
-      <c r="C103" s="59"/>
-      <c r="D103" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="E103" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="F103" s="54"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="71"/>
-      <c r="B104" s="71"/>
-      <c r="C104" s="59"/>
-      <c r="D104" s="61"/>
-      <c r="E104" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F104" s="54"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="71"/>
-      <c r="B105" s="71"/>
-      <c r="C105" s="59"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="F105" s="54"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="71"/>
-      <c r="B106" s="71"/>
-      <c r="C106" s="59"/>
-      <c r="D106" s="61"/>
-      <c r="E106" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="F106" s="54"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="71"/>
-      <c r="B107" s="71"/>
-      <c r="C107" s="59"/>
-      <c r="D107" s="57"/>
-      <c r="E107" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="F107" s="54"/>
-    </row>
-    <row r="108" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A108" s="71"/>
-      <c r="B108" s="71"/>
-      <c r="C108" s="59"/>
-      <c r="D108" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="F108" s="54"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="71"/>
-      <c r="B109" s="71"/>
-      <c r="C109" s="59"/>
-      <c r="D109" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="F109" s="54"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="71"/>
-      <c r="B110" s="71"/>
-      <c r="C110" s="59"/>
-      <c r="D110" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="F110" s="54"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="71"/>
-      <c r="B111" s="71"/>
-      <c r="C111" s="59"/>
-      <c r="D111" s="56" t="s">
-        <v>200</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="F111" s="54"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="71"/>
-      <c r="B112" s="71"/>
-      <c r="C112" s="59"/>
-      <c r="D112" s="57"/>
-      <c r="E112" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="F112" s="54"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="71"/>
-      <c r="B113" s="71"/>
-      <c r="C113" s="59"/>
-      <c r="D113" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="E113" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="F113" s="54"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="71"/>
-      <c r="B114" s="71"/>
-      <c r="C114" s="59"/>
-      <c r="D114" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="E114" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="F114" s="54"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="71"/>
-      <c r="B115" s="71"/>
-      <c r="C115" s="59"/>
-      <c r="D115" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="E115" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="F115" s="54"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="71"/>
-      <c r="B116" s="71"/>
-      <c r="C116" s="59"/>
-      <c r="D116" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="E116" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="F116" s="54"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="71"/>
-      <c r="B117" s="71"/>
-      <c r="C117" s="59"/>
-      <c r="D117" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="E117" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="F117" s="54"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="71"/>
-      <c r="B118" s="71"/>
-      <c r="C118" s="59"/>
-      <c r="D118" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="E118" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="F118" s="54"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="71"/>
-      <c r="B119" s="71"/>
-      <c r="C119" s="59"/>
-      <c r="D119" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="E119" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="F119" s="54"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="71"/>
-      <c r="B120" s="71"/>
-      <c r="C120" s="59"/>
-      <c r="D120" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="E120" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="F120" s="54"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="71"/>
-      <c r="B121" s="71"/>
-      <c r="C121" s="59"/>
-      <c r="D121" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E121" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="F121" s="54"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="71"/>
-      <c r="B122" s="71"/>
-      <c r="C122" s="59"/>
-      <c r="D122" s="56" t="s">
-        <v>221</v>
-      </c>
-      <c r="E122" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="F122" s="54"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="71"/>
-      <c r="B123" s="71"/>
-      <c r="C123" s="59"/>
-      <c r="D123" s="57"/>
-      <c r="E123" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="F123" s="54"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="71"/>
-      <c r="B124" s="71"/>
-      <c r="C124" s="59"/>
-      <c r="D124" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="E124" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="F124" s="54"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="71"/>
-      <c r="B125" s="71"/>
-      <c r="C125" s="59"/>
-      <c r="D125" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="E125" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="F125" s="54"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="71"/>
-      <c r="B126" s="71"/>
-      <c r="C126" s="59"/>
-      <c r="D126" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="E126" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="F126" s="54"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="71"/>
-      <c r="B127" s="71"/>
-      <c r="C127" s="59"/>
-      <c r="D127" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="F127" s="54"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="71"/>
-      <c r="B128" s="71"/>
-      <c r="C128" s="59"/>
-      <c r="D128" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F128" s="54"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="71"/>
-      <c r="B129" s="71"/>
-      <c r="C129" s="59"/>
-      <c r="D129" s="61"/>
-      <c r="E129" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="F129" s="54"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="71"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="59"/>
-      <c r="D130" s="61"/>
-      <c r="E130" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="F130" s="54"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="71"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="59"/>
-      <c r="D131" s="61"/>
-      <c r="E131" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="F131" s="54"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="71"/>
-      <c r="B132" s="71"/>
-      <c r="C132" s="59"/>
-      <c r="D132" s="61"/>
-      <c r="E132" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F132" s="54"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="71"/>
-      <c r="B133" s="71"/>
-      <c r="C133" s="59"/>
-      <c r="D133" s="61"/>
-      <c r="E133" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="F133" s="54"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="71"/>
-      <c r="B134" s="71"/>
-      <c r="C134" s="59"/>
-      <c r="D134" s="61"/>
-      <c r="E134" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="F134" s="54"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="71"/>
-      <c r="B135" s="71"/>
-      <c r="C135" s="59"/>
-      <c r="D135" s="61"/>
-      <c r="E135" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="F135" s="54"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="71"/>
-      <c r="B136" s="71"/>
-      <c r="C136" s="59"/>
-      <c r="D136" s="61"/>
-      <c r="E136" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F136" s="54"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="71"/>
-      <c r="B137" s="71"/>
-      <c r="C137" s="59"/>
-      <c r="D137" s="57"/>
-      <c r="E137" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="F137" s="54"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="71"/>
-      <c r="B138" s="71"/>
-      <c r="C138" s="59"/>
-      <c r="D138" s="56" t="s">
-        <v>240</v>
-      </c>
-      <c r="E138" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="F138" s="54"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="71"/>
-      <c r="B139" s="71"/>
-      <c r="C139" s="59"/>
-      <c r="D139" s="61"/>
-      <c r="E139" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="F139" s="54"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="71"/>
-      <c r="B140" s="71"/>
-      <c r="C140" s="59"/>
-      <c r="D140" s="61"/>
-      <c r="E140" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="F140" s="54"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="71"/>
-      <c r="B141" s="71"/>
-      <c r="C141" s="59"/>
-      <c r="D141" s="61"/>
-      <c r="E141" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F141" s="54"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="71"/>
-      <c r="B142" s="71"/>
-      <c r="C142" s="59"/>
-      <c r="D142" s="57"/>
-      <c r="E142" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="F142" s="54"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="71"/>
-      <c r="B143" s="71"/>
-      <c r="C143" s="59"/>
-      <c r="D143" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F143" s="54"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="71"/>
-      <c r="B144" s="71"/>
-      <c r="C144" s="59"/>
-      <c r="D144" s="10" t="s">
+      <c r="F158" s="54"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="65"/>
+      <c r="B159" s="65"/>
+      <c r="C159" s="74"/>
+      <c r="D159" s="76"/>
+      <c r="E159" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F159" s="54"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="65"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="76"/>
+      <c r="E160" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="E144" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="F144" s="54"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="71"/>
-      <c r="B145" s="71"/>
-      <c r="C145" s="59"/>
-      <c r="D145" s="10" t="s">
+      <c r="F160" s="54"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="65"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="74"/>
+      <c r="D161" s="76"/>
+      <c r="E161" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="F161" s="54"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="65"/>
+      <c r="B162" s="65"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="E145" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="F145" s="54"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="71"/>
-      <c r="B146" s="71"/>
-      <c r="C146" s="59"/>
-      <c r="D146" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E146" s="11" t="s">
+      <c r="F162" s="54"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="65"/>
+      <c r="B163" s="65"/>
+      <c r="C163" s="74"/>
+      <c r="D163" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="E163" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F146" s="54"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="71"/>
-      <c r="B147" s="71"/>
-      <c r="C147" s="59"/>
-      <c r="D147" s="10" t="s">
+      <c r="F163" s="54"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="65"/>
+      <c r="B164" s="65"/>
+      <c r="C164" s="74"/>
+      <c r="D164" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F164" s="54"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="65"/>
+      <c r="B165" s="65"/>
+      <c r="C165" s="74"/>
+      <c r="D165" s="72"/>
+      <c r="E165" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F165" s="54"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="65"/>
+      <c r="B166" s="65"/>
+      <c r="C166" s="74"/>
+      <c r="D166" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F166" s="54"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="65"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="F167" s="54"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="65"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="74"/>
+      <c r="D168" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E168" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="F168" s="54"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="65"/>
+      <c r="B169" s="65"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="F147" s="54"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="71"/>
-      <c r="B148" s="71"/>
-      <c r="C148" s="59"/>
-      <c r="D148" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E148" s="11" t="s">
+      <c r="E169" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F148" s="54"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="71"/>
-      <c r="B149" s="71"/>
-      <c r="C149" s="59"/>
-      <c r="D149" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E149" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="F149" s="54"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="71"/>
-      <c r="B150" s="71"/>
-      <c r="C150" s="59"/>
-      <c r="D150" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="E150" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="F150" s="54"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="71"/>
-      <c r="B151" s="71"/>
-      <c r="C151" s="59"/>
-      <c r="D151" s="56" t="s">
-        <v>260</v>
-      </c>
-      <c r="E151" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="F151" s="54"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="71"/>
-      <c r="B152" s="71"/>
-      <c r="C152" s="59"/>
-      <c r="D152" s="61"/>
-      <c r="E152" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F152" s="54"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="71"/>
-      <c r="B153" s="71"/>
-      <c r="C153" s="59"/>
-      <c r="D153" s="61"/>
-      <c r="E153" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="F153" s="54"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="71"/>
-      <c r="B154" s="71"/>
-      <c r="C154" s="59"/>
-      <c r="D154" s="57"/>
-      <c r="E154" s="11" t="s">
-        <v>259</v>
-      </c>
-      <c r="F154" s="54"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="71"/>
-      <c r="B155" s="71"/>
-      <c r="C155" s="59"/>
-      <c r="D155" s="10" t="s">
+      <c r="F169" s="54"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="65"/>
+      <c r="B170" s="65"/>
+      <c r="C170" s="74"/>
+      <c r="D170" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E155" s="11" t="s">
+      <c r="E170" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F155" s="54"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="71"/>
-      <c r="B156" s="71"/>
-      <c r="C156" s="59"/>
-      <c r="D156" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="E156" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="F156" s="54"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="71"/>
-      <c r="B157" s="71"/>
-      <c r="C157" s="59"/>
-      <c r="D157" s="61"/>
-      <c r="E157" s="11" t="s">
-        <v>276</v>
-      </c>
-      <c r="F157" s="54"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="71"/>
-      <c r="B158" s="71"/>
-      <c r="C158" s="59"/>
-      <c r="D158" s="61"/>
-      <c r="E158" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="F158" s="54"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="71"/>
-      <c r="B159" s="71"/>
-      <c r="C159" s="59"/>
-      <c r="D159" s="61"/>
-      <c r="E159" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="F159" s="54"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="71"/>
-      <c r="B160" s="71"/>
-      <c r="C160" s="59"/>
-      <c r="D160" s="57"/>
-      <c r="E160" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="F160" s="54"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="71"/>
-      <c r="B161" s="71"/>
-      <c r="C161" s="59"/>
-      <c r="D161" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="E161" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F161" s="54"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="71"/>
-      <c r="B162" s="71"/>
-      <c r="C162" s="59"/>
-      <c r="D162" s="56" t="s">
-        <v>283</v>
-      </c>
-      <c r="E162" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="F162" s="54"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="71"/>
-      <c r="B163" s="71"/>
-      <c r="C163" s="59"/>
-      <c r="D163" s="57"/>
-      <c r="E163" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="F163" s="54"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="71"/>
-      <c r="B164" s="71"/>
-      <c r="C164" s="59"/>
-      <c r="D164" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E164" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F164" s="54"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="71"/>
-      <c r="B165" s="71"/>
-      <c r="C165" s="59"/>
-      <c r="D165" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E165" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="F165" s="54"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="71"/>
-      <c r="B166" s="71"/>
-      <c r="C166" s="59"/>
-      <c r="D166" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="E166" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="F166" s="54"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="71"/>
-      <c r="B167" s="71"/>
-      <c r="C167" s="59"/>
-      <c r="D167" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="E167" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="F167" s="54"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="71"/>
-      <c r="B168" s="71"/>
-      <c r="C168" s="59"/>
-      <c r="D168" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E168" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="F168" s="54"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="71"/>
-      <c r="B169" s="71"/>
-      <c r="C169" s="59"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="11"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="71"/>
-      <c r="B170" s="71"/>
-      <c r="C170" s="59"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="11"/>
+      <c r="F170" s="54"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="71"/>
-      <c r="B171" s="71"/>
-      <c r="C171" s="59"/>
+      <c r="A171" s="65"/>
+      <c r="B171" s="65"/>
+      <c r="C171" s="74"/>
       <c r="D171" s="3"/>
       <c r="E171" s="11"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="71"/>
-      <c r="B172" s="71"/>
-      <c r="C172" s="59"/>
+      <c r="A172" s="65"/>
+      <c r="B172" s="65"/>
+      <c r="C172" s="74"/>
       <c r="D172" s="3"/>
       <c r="E172" s="11"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="71"/>
-      <c r="B173" s="71"/>
-      <c r="C173" s="59"/>
+      <c r="A173" s="65"/>
+      <c r="B173" s="65"/>
+      <c r="C173" s="74"/>
       <c r="D173" s="3"/>
       <c r="E173" s="11"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="71"/>
-      <c r="B174" s="71"/>
-      <c r="C174" s="59"/>
+      <c r="A174" s="65"/>
+      <c r="B174" s="65"/>
+      <c r="C174" s="74"/>
       <c r="D174" s="3"/>
       <c r="E174" s="11"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="71"/>
-      <c r="B175" s="71"/>
-      <c r="C175" s="59"/>
+      <c r="A175" s="65"/>
+      <c r="B175" s="65"/>
+      <c r="C175" s="74"/>
       <c r="D175" s="3"/>
       <c r="E175" s="11"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="71"/>
-      <c r="B176" s="71"/>
-      <c r="C176" s="59"/>
+      <c r="A176" s="65"/>
+      <c r="B176" s="65"/>
+      <c r="C176" s="74"/>
       <c r="D176" s="3"/>
       <c r="E176" s="11"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="71"/>
-      <c r="B177" s="71"/>
-      <c r="C177" s="59"/>
+      <c r="A177" s="65"/>
+      <c r="B177" s="65"/>
+      <c r="C177" s="74"/>
       <c r="D177" s="3"/>
       <c r="E177" s="11"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="71"/>
-      <c r="B178" s="71"/>
-      <c r="C178" s="59"/>
+      <c r="A178" s="65"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="74"/>
       <c r="D178" s="3"/>
       <c r="E178" s="11"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="71"/>
-      <c r="B179" s="71"/>
-      <c r="C179" s="59"/>
+      <c r="A179" s="65"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="74"/>
       <c r="D179" s="3"/>
       <c r="E179" s="11"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="71"/>
-      <c r="B180" s="71"/>
-      <c r="C180" s="59"/>
+      <c r="A180" s="65"/>
+      <c r="B180" s="65"/>
+      <c r="C180" s="74"/>
       <c r="D180" s="3"/>
       <c r="E180" s="11"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="71"/>
-      <c r="B181" s="71"/>
-      <c r="C181" s="59"/>
+      <c r="A181" s="65"/>
+      <c r="B181" s="65"/>
+      <c r="C181" s="74"/>
       <c r="D181" s="3"/>
       <c r="E181" s="11"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="71"/>
-      <c r="B182" s="71"/>
-      <c r="C182" s="59"/>
+      <c r="A182" s="65"/>
+      <c r="B182" s="65"/>
+      <c r="C182" s="74"/>
       <c r="D182" s="3"/>
       <c r="E182" s="11"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="71"/>
-      <c r="B183" s="71"/>
-      <c r="C183" s="59"/>
+      <c r="A183" s="65"/>
+      <c r="B183" s="65"/>
+      <c r="C183" s="74"/>
       <c r="D183" s="3"/>
       <c r="E183" s="11"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="71"/>
-      <c r="B184" s="71"/>
-      <c r="C184" s="59"/>
+      <c r="A184" s="65"/>
+      <c r="B184" s="65"/>
+      <c r="C184" s="74"/>
       <c r="D184" s="3"/>
       <c r="E184" s="11"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="71"/>
-      <c r="B185" s="71"/>
-      <c r="C185" s="59"/>
+      <c r="A185" s="65"/>
+      <c r="B185" s="65"/>
+      <c r="C185" s="74"/>
       <c r="D185" s="3"/>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="71"/>
-      <c r="B186" s="71"/>
-      <c r="C186" s="59"/>
+      <c r="A186" s="65"/>
+      <c r="B186" s="65"/>
+      <c r="C186" s="74"/>
       <c r="D186" s="3"/>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="71"/>
-      <c r="B187" s="71"/>
-      <c r="C187" s="59"/>
+      <c r="A187" s="65"/>
+      <c r="B187" s="65"/>
+      <c r="C187" s="74"/>
       <c r="D187" s="3"/>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="71"/>
-      <c r="B188" s="71"/>
-      <c r="C188" s="59"/>
+      <c r="A188" s="65"/>
+      <c r="B188" s="65"/>
+      <c r="C188" s="74"/>
       <c r="D188" s="3"/>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="71"/>
-      <c r="B189" s="71"/>
-      <c r="C189" s="59"/>
+      <c r="A189" s="65"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="74"/>
       <c r="D189" s="3"/>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="71"/>
-      <c r="B190" s="71"/>
-      <c r="C190" s="59"/>
+      <c r="A190" s="65"/>
+      <c r="B190" s="65"/>
+      <c r="C190" s="74"/>
       <c r="D190" s="3"/>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="71"/>
-      <c r="B191" s="71"/>
-      <c r="C191" s="59"/>
+      <c r="A191" s="65"/>
+      <c r="B191" s="65"/>
+      <c r="C191" s="74"/>
       <c r="D191" s="3"/>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="71"/>
-      <c r="B192" s="71"/>
-      <c r="C192" s="59"/>
+      <c r="A192" s="65"/>
+      <c r="B192" s="65"/>
+      <c r="C192" s="74"/>
       <c r="D192" s="3"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="71"/>
-      <c r="B193" s="71"/>
-      <c r="C193" s="59"/>
+      <c r="A193" s="65"/>
+      <c r="B193" s="65"/>
+      <c r="C193" s="74"/>
       <c r="D193" s="3"/>
       <c r="E193" s="11"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="71"/>
-      <c r="B194" s="71"/>
-      <c r="C194" s="59"/>
+      <c r="A194" s="65"/>
+      <c r="B194" s="65"/>
+      <c r="C194" s="74"/>
       <c r="D194" s="3"/>
       <c r="E194" s="11"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="71"/>
-      <c r="B195" s="71"/>
-      <c r="C195" s="59"/>
+      <c r="A195" s="65"/>
+      <c r="B195" s="65"/>
+      <c r="C195" s="74"/>
       <c r="D195" s="3"/>
       <c r="E195" s="11"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="71"/>
-      <c r="B196" s="71"/>
-      <c r="C196" s="59"/>
+      <c r="A196" s="65"/>
+      <c r="B196" s="65"/>
+      <c r="C196" s="74"/>
       <c r="D196" s="3"/>
       <c r="E196" s="11"/>
     </row>
-    <row r="197" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="72"/>
-      <c r="B197" s="72"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="53"/>
-      <c r="E197" s="8"/>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="65"/>
+      <c r="B197" s="65"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="11"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="65"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="11"/>
+    </row>
+    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A199" s="66"/>
+      <c r="B199" s="66"/>
+      <c r="C199" s="75"/>
+      <c r="D199" s="53"/>
+      <c r="E199" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="C5:C10"/>
-    <mergeCell ref="C11:C27"/>
-    <mergeCell ref="C28:C71"/>
-    <mergeCell ref="A2:A197"/>
-    <mergeCell ref="B2:B197"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C72:C197"/>
-    <mergeCell ref="D128:D137"/>
-    <mergeCell ref="D138:D142"/>
-    <mergeCell ref="D151:D154"/>
-    <mergeCell ref="D156:D160"/>
-    <mergeCell ref="D162:D163"/>
-    <mergeCell ref="D92:D102"/>
-    <mergeCell ref="D103:D107"/>
-    <mergeCell ref="D89:D91"/>
-    <mergeCell ref="D111:D112"/>
+  <mergeCells count="20">
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C28"/>
+    <mergeCell ref="C29:C72"/>
+    <mergeCell ref="A3:A199"/>
+    <mergeCell ref="B3:B199"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="C73:C199"/>
+    <mergeCell ref="D130:D139"/>
+    <mergeCell ref="D140:D144"/>
+    <mergeCell ref="D153:D156"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="D93:D104"/>
+    <mergeCell ref="D105:D109"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4226,10 +4622,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596F201-0AA7-4C08-8FDD-0B7FA43A81F9}">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4238,11 +4634,11 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="39.6640625" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
     <col min="8" max="8" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -4259,722 +4655,897 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76">
+    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="84">
         <v>2</v>
       </c>
-      <c r="B2" s="76" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="73" t="s">
-        <v>91</v>
+      <c r="B2" s="84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="81" t="s">
+        <v>83</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="39"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="74"/>
+      <c r="E2" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="40"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="74"/>
+      <c r="E3" s="40" t="s">
+        <v>353</v>
+      </c>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="85"/>
+      <c r="B7" s="85"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>372</v>
+      </c>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>374</v>
+      </c>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>376</v>
+      </c>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="82"/>
+      <c r="D15" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>368</v>
+      </c>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="82"/>
+      <c r="D16" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="40"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="18" t="s">
+      <c r="E16" s="40" t="s">
+        <v>369</v>
+      </c>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="40"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="74"/>
-      <c r="D6" s="18" t="s">
+      <c r="E17" s="40" t="s">
+        <v>370</v>
+      </c>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="40"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="40" t="s">
+      <c r="E20" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="82"/>
+      <c r="D21" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="56"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" s="56"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="F23" s="56"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>357</v>
+      </c>
+      <c r="F24" s="56"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>358</v>
+      </c>
+      <c r="F25" s="56"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="18" t="s">
+        <v>362</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>365</v>
+      </c>
+      <c r="F27" s="56"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="82"/>
+      <c r="D28" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="F28" s="56"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>377</v>
+      </c>
+      <c r="F29" s="56"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>378</v>
+      </c>
+      <c r="F30" s="56"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>379</v>
+      </c>
+      <c r="F31" s="56"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F32" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="85"/>
+      <c r="B33" s="85"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="18" t="s">
+        <v>360</v>
+      </c>
+      <c r="E33" s="40" t="s">
+        <v>359</v>
+      </c>
+      <c r="F33" s="56"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="85"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E34" s="40" t="s">
+        <v>361</v>
+      </c>
+      <c r="F34" s="56"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="85"/>
+      <c r="B35" s="85"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="F35" s="56"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="85"/>
+      <c r="B36" s="85"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="F36" s="56"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="85"/>
+      <c r="B37" s="85"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F37" s="56"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="85"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="E38" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="F38" s="56"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="85"/>
+      <c r="B39" s="85"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="56"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="85"/>
+      <c r="B40" s="85"/>
+      <c r="C40" s="82"/>
+      <c r="D40" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="56"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="85"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>139</v>
+      </c>
+      <c r="F41" s="56"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="1:8" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="85"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="82"/>
+      <c r="D42" s="43" t="s">
+        <v>354</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="F42" s="56"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="1:8" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="85"/>
+      <c r="B43" s="85"/>
+      <c r="C43" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E43" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F43" s="56"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="E44" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F44" s="56"/>
+    </row>
+    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="85"/>
+      <c r="B45" s="85"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="56"/>
+    </row>
+    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="85"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="E46" s="40" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="85"/>
+      <c r="B47" s="85"/>
+      <c r="C47" s="83"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="42"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="85"/>
+      <c r="B48" s="85"/>
+      <c r="C48" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="85"/>
+      <c r="B49" s="85"/>
+      <c r="C49" s="82"/>
+      <c r="D49" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="F49" s="56"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="85"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="E50" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" s="56"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="85"/>
+      <c r="B51" s="85"/>
+      <c r="C51" s="82"/>
+      <c r="D51" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="E51" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="F51" s="56"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="85"/>
+      <c r="B52" s="85"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="56"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="85"/>
+      <c r="B53" s="85"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="F53" s="56"/>
+    </row>
+    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="85"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="F54" s="56"/>
+    </row>
+    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="85"/>
+      <c r="B55" s="85"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="E55" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F55" s="56"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="85"/>
+      <c r="B56" s="85"/>
+      <c r="C56" s="82"/>
+      <c r="D56" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="F56" s="56"/>
+    </row>
+    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="85"/>
+      <c r="B57" s="85"/>
+      <c r="C57" s="82"/>
+      <c r="D57" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="E57" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="F57" s="56"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="85"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="F58" s="56"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="85"/>
+      <c r="B59" s="85"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="43" t="s">
+        <v>384</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="F59" s="56"/>
+    </row>
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="85"/>
+      <c r="B60" s="85"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="F60" s="56"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="85"/>
+      <c r="B61" s="85"/>
+      <c r="C61" s="82"/>
+      <c r="D61" s="43"/>
+      <c r="E61" s="44"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="85"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="82"/>
+      <c r="D62" s="43" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="85"/>
+      <c r="B63" s="85"/>
+      <c r="C63" s="82"/>
+      <c r="D63" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="E63" s="44" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="40" t="s">
+      <c r="F63" s="56"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="85"/>
+      <c r="B64" s="85"/>
+      <c r="C64" s="82"/>
+      <c r="D64" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="E64" s="44" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="E10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="77"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="E11" s="40"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="40"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="77"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="40" t="s">
+      <c r="F64" s="56"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="85"/>
+      <c r="B65" s="85"/>
+      <c r="C65" s="82"/>
+      <c r="D65" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="E65" s="44" t="s">
+        <v>304</v>
+      </c>
+      <c r="F65" s="56"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="85"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="82"/>
+      <c r="D66" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="56"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="85"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="E67" s="44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F67" s="56"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="85"/>
+      <c r="B68" s="85"/>
+      <c r="C68" s="82"/>
+      <c r="D68" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>306</v>
+      </c>
+      <c r="F68" s="56"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="85"/>
+      <c r="B69" s="85"/>
+      <c r="C69" s="82"/>
+      <c r="D69" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="E69" s="44" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="77"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E14" s="40"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="40" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="40" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="77"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="40" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="77"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="40" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="77"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="74"/>
-      <c r="D20" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="77"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="74"/>
-      <c r="D21" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="77"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="74"/>
-      <c r="D22" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="40" t="s">
-        <v>304</v>
-      </c>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="77"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E23" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="77"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="74"/>
-      <c r="D24" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="40" t="s">
-        <v>306</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="77"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="74"/>
-      <c r="D25" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E25" s="40"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="77"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="77"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="40"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="74"/>
-      <c r="D29" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="40"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E30" s="40"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E31" s="40"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" s="40"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="74"/>
-      <c r="D34" s="43" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="74"/>
-      <c r="D35" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="74"/>
-      <c r="D36" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>303</v>
-      </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="72" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="E38" s="44" t="s">
-        <v>130</v>
-      </c>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="E40" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="39" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="74"/>
-      <c r="D42" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E42" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="74"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="75"/>
-      <c r="D44" s="41" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="D45" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="74"/>
-      <c r="D46" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="74"/>
-      <c r="D47" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="74"/>
-      <c r="D48" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E48" s="40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="74"/>
-      <c r="D49" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="74"/>
-      <c r="D50" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="74"/>
-      <c r="D51" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="74"/>
-      <c r="D52" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="E52" s="44"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E53" s="40" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="77"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="74"/>
-      <c r="D54" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="E54" s="44"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="77"/>
-      <c r="B55" s="77"/>
-      <c r="C55" s="74"/>
-      <c r="D55" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="E55" s="44"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="77"/>
-      <c r="B56" s="77"/>
-      <c r="C56" s="74"/>
-      <c r="D56" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="E56" s="44"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="77"/>
-      <c r="B57" s="77"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="E57" s="44"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="77"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="74"/>
-      <c r="D58" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="E58" s="44"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="77"/>
-      <c r="B59" s="77"/>
-      <c r="C59" s="74"/>
-      <c r="D59" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="77"/>
-      <c r="B60" s="77"/>
-      <c r="C60" s="74"/>
-      <c r="D60" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="77"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="74"/>
-      <c r="D61" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="E61" s="44" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="77"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="74"/>
-      <c r="D62" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="77"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="74"/>
-      <c r="D63" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" s="44" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="77"/>
-      <c r="B64" s="77"/>
-      <c r="C64" s="74"/>
-      <c r="D64" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="77"/>
-      <c r="B65" s="77"/>
-      <c r="C65" s="74"/>
-      <c r="D65" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="E65" s="44" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="77"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="74"/>
-      <c r="D66" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="77"/>
-      <c r="B67" s="77"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="43" t="s">
-        <v>335</v>
-      </c>
-      <c r="E67" s="44" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="78"/>
-      <c r="B68" s="78"/>
-      <c r="C68" s="75"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="42"/>
+      <c r="F69" s="56"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="85"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="82"/>
+      <c r="D70" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="F70" s="56"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="85"/>
+      <c r="B71" s="85"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="43"/>
+      <c r="E71" s="44"/>
+    </row>
+    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="85"/>
+      <c r="B72" s="85"/>
+      <c r="C72" s="103"/>
+      <c r="D72" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E72" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F72" s="56"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="85"/>
+      <c r="B73" s="85"/>
+      <c r="C73" s="82"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="105"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="86"/>
+      <c r="B74" s="86"/>
+      <c r="C74" s="83"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C2:C39"/>
-    <mergeCell ref="C40:C44"/>
-    <mergeCell ref="C45:C68"/>
-    <mergeCell ref="A2:A68"/>
-    <mergeCell ref="B2:B68"/>
+    <mergeCell ref="A2:A74"/>
+    <mergeCell ref="B2:B74"/>
+    <mergeCell ref="C2:C42"/>
+    <mergeCell ref="C43:C47"/>
+    <mergeCell ref="C48:C74"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4983,10 +5554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A1ADC2-C8F5-4708-942A-7686AE3B4EDB}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:F87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4998,7 +5569,7 @@
     <col min="5" max="5" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -5015,642 +5586,654 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="79">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="87">
         <v>3</v>
       </c>
-      <c r="B2" s="79" t="s">
-        <v>90</v>
-      </c>
-      <c r="C2" s="82" t="s">
-        <v>116</v>
+      <c r="B2" s="87" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="90" t="s">
+        <v>105</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="E2" s="46"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="80"/>
-      <c r="B3" s="80"/>
-      <c r="C3" s="83"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="91"/>
       <c r="D3" s="51" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="E3" s="52"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="80"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="83"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="51" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="E4" s="52"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="80"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="83"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="22" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="E5" s="47"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="80"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="83"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="91"/>
       <c r="D6" s="22" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="E6" s="47"/>
     </row>
-    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="80"/>
-      <c r="B8" s="80"/>
-      <c r="C8" s="82" t="s">
-        <v>112</v>
+    <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="48" t="s">
+        <v>323</v>
+      </c>
+      <c r="E7" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="90" t="s">
+        <v>133</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="E8" s="46"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="80"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="83"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="91"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="47"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="83"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="22" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E10" s="47"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
-      <c r="C11" s="83"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E11" s="47"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="83"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="91"/>
       <c r="D12" s="22" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E12" s="47"/>
     </row>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="84"/>
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="48"/>
       <c r="E13" s="49"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="80"/>
-      <c r="B14" s="80"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="80"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="21"/>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="90" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="80"/>
-      <c r="B16" s="80"/>
-      <c r="C16" s="21"/>
+      <c r="E15" s="47"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="91"/>
       <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="21"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="91"/>
       <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="80"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="21"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="91"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+      <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="21"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="91"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="21"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="21"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="21"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="91"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
+      <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="21"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="91"/>
       <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="E25" s="47"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="88"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
+      <c r="A35" s="88"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="88"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
+      <c r="A37" s="88"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
+      <c r="A38" s="88"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
+      <c r="A39" s="88"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
+      <c r="A40" s="88"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="88"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="88"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="88"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="80"/>
-      <c r="B49" s="80"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="80"/>
-      <c r="B51" s="80"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="80"/>
-      <c r="B52" s="80"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="80"/>
-      <c r="B54" s="80"/>
+      <c r="A54" s="88"/>
+      <c r="B54" s="88"/>
       <c r="C54" s="21"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="80"/>
-      <c r="B55" s="80"/>
+      <c r="A55" s="88"/>
+      <c r="B55" s="88"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="80"/>
-      <c r="B56" s="80"/>
+      <c r="A56" s="88"/>
+      <c r="B56" s="88"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="80"/>
-      <c r="B57" s="80"/>
+      <c r="A57" s="88"/>
+      <c r="B57" s="88"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="80"/>
-      <c r="B58" s="80"/>
+      <c r="A58" s="88"/>
+      <c r="B58" s="88"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
+      <c r="A59" s="88"/>
+      <c r="B59" s="88"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="80"/>
-      <c r="B60" s="80"/>
+      <c r="A60" s="88"/>
+      <c r="B60" s="88"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="80"/>
-      <c r="B61" s="80"/>
+      <c r="A61" s="88"/>
+      <c r="B61" s="88"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="80"/>
-      <c r="B62" s="80"/>
+      <c r="A62" s="88"/>
+      <c r="B62" s="88"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
+      <c r="A63" s="88"/>
+      <c r="B63" s="88"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="80"/>
-      <c r="B64" s="80"/>
+      <c r="A64" s="88"/>
+      <c r="B64" s="88"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="80"/>
-      <c r="B65" s="80"/>
+      <c r="A65" s="88"/>
+      <c r="B65" s="88"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="80"/>
-      <c r="B66" s="80"/>
+      <c r="A66" s="88"/>
+      <c r="B66" s="88"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="80"/>
-      <c r="B67" s="80"/>
+      <c r="A67" s="88"/>
+      <c r="B67" s="88"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="88"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="80"/>
-      <c r="B69" s="80"/>
+      <c r="A69" s="88"/>
+      <c r="B69" s="88"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
+      <c r="A70" s="88"/>
+      <c r="B70" s="88"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="80"/>
-      <c r="B71" s="80"/>
+      <c r="A71" s="88"/>
+      <c r="B71" s="88"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="80"/>
-      <c r="B72" s="80"/>
+      <c r="A72" s="88"/>
+      <c r="B72" s="88"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="80"/>
-      <c r="B73" s="80"/>
+      <c r="A73" s="88"/>
+      <c r="B73" s="88"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
+      <c r="A74" s="88"/>
+      <c r="B74" s="88"/>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="80"/>
-      <c r="B75" s="80"/>
+      <c r="A75" s="88"/>
+      <c r="B75" s="88"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="80"/>
-      <c r="B76" s="80"/>
+      <c r="A76" s="88"/>
+      <c r="B76" s="88"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="80"/>
-      <c r="B77" s="80"/>
+      <c r="A77" s="88"/>
+      <c r="B77" s="88"/>
       <c r="C77" s="21"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="80"/>
-      <c r="B78" s="80"/>
+      <c r="A78" s="88"/>
+      <c r="B78" s="88"/>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="80"/>
-      <c r="B79" s="80"/>
+      <c r="A79" s="88"/>
+      <c r="B79" s="88"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="80"/>
-      <c r="B80" s="80"/>
+      <c r="A80" s="88"/>
+      <c r="B80" s="88"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="80"/>
-      <c r="B81" s="80"/>
+      <c r="A81" s="88"/>
+      <c r="B81" s="88"/>
       <c r="C81" s="21"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="80"/>
-      <c r="B82" s="80"/>
+      <c r="A82" s="88"/>
+      <c r="B82" s="88"/>
       <c r="C82" s="21"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="80"/>
-      <c r="B83" s="80"/>
+      <c r="A83" s="88"/>
+      <c r="B83" s="88"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="80"/>
-      <c r="B84" s="80"/>
+      <c r="A84" s="88"/>
+      <c r="B84" s="88"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="80"/>
-      <c r="B85" s="80"/>
+      <c r="A85" s="88"/>
+      <c r="B85" s="88"/>
       <c r="C85" s="21"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="80"/>
-      <c r="B86" s="80"/>
+      <c r="A86" s="88"/>
+      <c r="B86" s="88"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="81"/>
-      <c r="B87" s="81"/>
+      <c r="A87" s="89"/>
+      <c r="B87" s="89"/>
       <c r="C87" s="21"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:A87"/>
     <mergeCell ref="B2:B87"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
+    <mergeCell ref="C14:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5691,593 +6274,593 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="85">
+      <c r="A2" s="93">
         <v>2</v>
       </c>
-      <c r="B2" s="85" t="s">
-        <v>90</v>
+      <c r="B2" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
+      <c r="A4" s="94"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="31"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="86"/>
-      <c r="B7" s="86"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="86"/>
-      <c r="B8" s="86"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="86"/>
-      <c r="B9" s="86"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="86"/>
-      <c r="B12" s="86"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="86"/>
-      <c r="B13" s="86"/>
+      <c r="A13" s="94"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="86"/>
-      <c r="B14" s="86"/>
+      <c r="A14" s="94"/>
+      <c r="B14" s="94"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="86"/>
-      <c r="B15" s="86"/>
+      <c r="A15" s="94"/>
+      <c r="B15" s="94"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="86"/>
-      <c r="B16" s="86"/>
+      <c r="A16" s="94"/>
+      <c r="B16" s="94"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="86"/>
-      <c r="B17" s="86"/>
+      <c r="A17" s="94"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="86"/>
-      <c r="B18" s="86"/>
+      <c r="A18" s="94"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
-      <c r="B19" s="86"/>
+      <c r="A19" s="94"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="86"/>
-      <c r="B20" s="86"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="94"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="86"/>
-      <c r="B21" s="86"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="86"/>
-      <c r="B22" s="86"/>
+      <c r="A22" s="94"/>
+      <c r="B22" s="94"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="86"/>
-      <c r="B23" s="86"/>
+      <c r="A23" s="94"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="86"/>
-      <c r="B25" s="86"/>
+      <c r="A25" s="94"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="86"/>
-      <c r="B26" s="86"/>
+      <c r="A26" s="94"/>
+      <c r="B26" s="94"/>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="86"/>
-      <c r="B27" s="86"/>
+      <c r="A27" s="94"/>
+      <c r="B27" s="94"/>
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
-      <c r="B28" s="86"/>
+      <c r="A28" s="94"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
-      <c r="B29" s="86"/>
+      <c r="A29" s="94"/>
+      <c r="B29" s="94"/>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
-      <c r="B30" s="86"/>
+      <c r="A30" s="94"/>
+      <c r="B30" s="94"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
-      <c r="B31" s="86"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="86"/>
-      <c r="B32" s="86"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="94"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="86"/>
-      <c r="B33" s="86"/>
+      <c r="A33" s="94"/>
+      <c r="B33" s="94"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="86"/>
-      <c r="B34" s="86"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="31"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="86"/>
-      <c r="B35" s="86"/>
+      <c r="A35" s="94"/>
+      <c r="B35" s="94"/>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="86"/>
-      <c r="B36" s="86"/>
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="86"/>
-      <c r="B37" s="86"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="86"/>
-      <c r="B38" s="86"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="94"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="86"/>
-      <c r="B39" s="86"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="94"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="86"/>
-      <c r="B40" s="86"/>
+      <c r="A40" s="94"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="31"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="86"/>
-      <c r="B41" s="86"/>
+      <c r="A41" s="94"/>
+      <c r="B41" s="94"/>
       <c r="C41" s="31"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="86"/>
-      <c r="B42" s="86"/>
+      <c r="A42" s="94"/>
+      <c r="B42" s="94"/>
       <c r="C42" s="31"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="86"/>
-      <c r="B43" s="86"/>
+      <c r="A43" s="94"/>
+      <c r="B43" s="94"/>
       <c r="C43" s="31"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="86"/>
-      <c r="B44" s="86"/>
+      <c r="A44" s="94"/>
+      <c r="B44" s="94"/>
       <c r="C44" s="31"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="86"/>
-      <c r="B45" s="86"/>
+      <c r="A45" s="94"/>
+      <c r="B45" s="94"/>
       <c r="C45" s="31"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="86"/>
-      <c r="B46" s="86"/>
+      <c r="A46" s="94"/>
+      <c r="B46" s="94"/>
       <c r="C46" s="31"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="86"/>
-      <c r="B47" s="86"/>
+      <c r="A47" s="94"/>
+      <c r="B47" s="94"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="86"/>
-      <c r="B48" s="86"/>
+      <c r="A48" s="94"/>
+      <c r="B48" s="94"/>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="86"/>
-      <c r="B49" s="86"/>
+      <c r="A49" s="94"/>
+      <c r="B49" s="94"/>
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="86"/>
-      <c r="B50" s="86"/>
+      <c r="A50" s="94"/>
+      <c r="B50" s="94"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="86"/>
-      <c r="B51" s="86"/>
+      <c r="A51" s="94"/>
+      <c r="B51" s="94"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="86"/>
-      <c r="B52" s="86"/>
+      <c r="A52" s="94"/>
+      <c r="B52" s="94"/>
       <c r="C52" s="31"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="86"/>
-      <c r="B53" s="86"/>
+      <c r="A53" s="94"/>
+      <c r="B53" s="94"/>
       <c r="C53" s="31"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="86"/>
-      <c r="B54" s="86"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="94"/>
       <c r="C54" s="31"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
+      <c r="A55" s="94"/>
+      <c r="B55" s="94"/>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
+      <c r="A56" s="94"/>
+      <c r="B56" s="94"/>
       <c r="C56" s="31"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="86"/>
-      <c r="B57" s="86"/>
+      <c r="A57" s="94"/>
+      <c r="B57" s="94"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="86"/>
-      <c r="B58" s="86"/>
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="86"/>
-      <c r="B59" s="86"/>
+      <c r="A59" s="94"/>
+      <c r="B59" s="94"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="86"/>
-      <c r="B60" s="86"/>
+      <c r="A60" s="94"/>
+      <c r="B60" s="94"/>
       <c r="C60" s="31"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="86"/>
-      <c r="B61" s="86"/>
+      <c r="A61" s="94"/>
+      <c r="B61" s="94"/>
       <c r="C61" s="31"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="86"/>
-      <c r="B62" s="86"/>
+      <c r="A62" s="94"/>
+      <c r="B62" s="94"/>
       <c r="C62" s="31"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="86"/>
-      <c r="B63" s="86"/>
+      <c r="A63" s="94"/>
+      <c r="B63" s="94"/>
       <c r="C63" s="31"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="86"/>
-      <c r="B64" s="86"/>
+      <c r="A64" s="94"/>
+      <c r="B64" s="94"/>
       <c r="C64" s="31"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="86"/>
-      <c r="B65" s="86"/>
+      <c r="A65" s="94"/>
+      <c r="B65" s="94"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="86"/>
-      <c r="B66" s="86"/>
+      <c r="A66" s="94"/>
+      <c r="B66" s="94"/>
       <c r="C66" s="31"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="86"/>
-      <c r="B67" s="86"/>
+      <c r="A67" s="94"/>
+      <c r="B67" s="94"/>
       <c r="C67" s="31"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="86"/>
-      <c r="B68" s="86"/>
+      <c r="A68" s="94"/>
+      <c r="B68" s="94"/>
       <c r="C68" s="31"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="86"/>
-      <c r="B69" s="86"/>
+      <c r="A69" s="94"/>
+      <c r="B69" s="94"/>
       <c r="C69" s="31"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="86"/>
-      <c r="B70" s="86"/>
+      <c r="A70" s="94"/>
+      <c r="B70" s="94"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="86"/>
-      <c r="B71" s="86"/>
+      <c r="A71" s="94"/>
+      <c r="B71" s="94"/>
       <c r="C71" s="31"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="86"/>
-      <c r="B72" s="86"/>
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
       <c r="C72" s="31"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="86"/>
-      <c r="B73" s="86"/>
+      <c r="A73" s="94"/>
+      <c r="B73" s="94"/>
       <c r="C73" s="31"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="86"/>
-      <c r="B74" s="86"/>
+      <c r="A74" s="94"/>
+      <c r="B74" s="94"/>
       <c r="C74" s="31"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="86"/>
-      <c r="B75" s="86"/>
+      <c r="A75" s="94"/>
+      <c r="B75" s="94"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="86"/>
-      <c r="B76" s="86"/>
+      <c r="A76" s="94"/>
+      <c r="B76" s="94"/>
       <c r="C76" s="31"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="86"/>
-      <c r="B77" s="86"/>
+      <c r="A77" s="94"/>
+      <c r="B77" s="94"/>
       <c r="C77" s="31"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="86"/>
-      <c r="B78" s="86"/>
+      <c r="A78" s="94"/>
+      <c r="B78" s="94"/>
       <c r="C78" s="31"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="86"/>
-      <c r="B79" s="86"/>
+      <c r="A79" s="94"/>
+      <c r="B79" s="94"/>
       <c r="C79" s="31"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="86"/>
-      <c r="B80" s="86"/>
+      <c r="A80" s="94"/>
+      <c r="B80" s="94"/>
       <c r="C80" s="31"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="86"/>
-      <c r="B81" s="86"/>
+      <c r="A81" s="94"/>
+      <c r="B81" s="94"/>
       <c r="C81" s="31"/>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="86"/>
-      <c r="B82" s="86"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="94"/>
       <c r="C82" s="31"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="86"/>
-      <c r="B83" s="86"/>
+      <c r="A83" s="94"/>
+      <c r="B83" s="94"/>
       <c r="C83" s="31"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="86"/>
-      <c r="B84" s="86"/>
+      <c r="A84" s="94"/>
+      <c r="B84" s="94"/>
       <c r="C84" s="31"/>
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="87"/>
-      <c r="B85" s="87"/>
+      <c r="A85" s="95"/>
+      <c r="B85" s="95"/>
       <c r="C85" s="31"/>
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
@@ -6326,593 +6909,593 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="88">
+      <c r="A2" s="96">
         <v>2</v>
       </c>
-      <c r="B2" s="88" t="s">
-        <v>90</v>
+      <c r="B2" s="96" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="23"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
+      <c r="A3" s="97"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="97"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="25"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="25"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="97"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="97"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="97"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="97"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="97"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="97"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="97"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="97"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="97"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="97"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="97"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="97"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="97"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="97"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
+      <c r="A24" s="97"/>
+      <c r="B24" s="97"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
+      <c r="A25" s="97"/>
+      <c r="B25" s="97"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
+      <c r="A26" s="97"/>
+      <c r="B26" s="97"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
+      <c r="A27" s="97"/>
+      <c r="B27" s="97"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
+      <c r="A28" s="97"/>
+      <c r="B28" s="97"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="89"/>
-      <c r="B45" s="89"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="89"/>
-      <c r="B46" s="89"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
       <c r="C46" s="25"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="97"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="97"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="97"/>
       <c r="C55" s="25"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
+      <c r="A56" s="97"/>
+      <c r="B56" s="97"/>
       <c r="C56" s="25"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
+      <c r="A57" s="97"/>
+      <c r="B57" s="97"/>
       <c r="C57" s="25"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
+      <c r="A58" s="97"/>
+      <c r="B58" s="97"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
+      <c r="A59" s="97"/>
+      <c r="B59" s="97"/>
       <c r="C59" s="25"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
+      <c r="A60" s="97"/>
+      <c r="B60" s="97"/>
       <c r="C60" s="25"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
+      <c r="A61" s="97"/>
+      <c r="B61" s="97"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
+      <c r="A62" s="97"/>
+      <c r="B62" s="97"/>
       <c r="C62" s="25"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
+      <c r="A63" s="97"/>
+      <c r="B63" s="97"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
+      <c r="A64" s="97"/>
+      <c r="B64" s="97"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89"/>
+      <c r="A65" s="97"/>
+      <c r="B65" s="97"/>
       <c r="C65" s="25"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
+      <c r="A66" s="97"/>
+      <c r="B66" s="97"/>
       <c r="C66" s="25"/>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
+      <c r="A67" s="97"/>
+      <c r="B67" s="97"/>
       <c r="C67" s="25"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="89"/>
-      <c r="B68" s="89"/>
+      <c r="A68" s="97"/>
+      <c r="B68" s="97"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="89"/>
-      <c r="B69" s="89"/>
+      <c r="A69" s="97"/>
+      <c r="B69" s="97"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="89"/>
-      <c r="B70" s="89"/>
+      <c r="A70" s="97"/>
+      <c r="B70" s="97"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="89"/>
-      <c r="B71" s="89"/>
+      <c r="A71" s="97"/>
+      <c r="B71" s="97"/>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="89"/>
-      <c r="B72" s="89"/>
+      <c r="A72" s="97"/>
+      <c r="B72" s="97"/>
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
+      <c r="A73" s="97"/>
+      <c r="B73" s="97"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="89"/>
-      <c r="B74" s="89"/>
+      <c r="A74" s="97"/>
+      <c r="B74" s="97"/>
       <c r="C74" s="25"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="89"/>
-      <c r="B75" s="89"/>
+      <c r="A75" s="97"/>
+      <c r="B75" s="97"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
+      <c r="A76" s="97"/>
+      <c r="B76" s="97"/>
       <c r="C76" s="25"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="89"/>
-      <c r="B77" s="89"/>
+      <c r="A77" s="97"/>
+      <c r="B77" s="97"/>
       <c r="C77" s="25"/>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="89"/>
-      <c r="B78" s="89"/>
+      <c r="A78" s="97"/>
+      <c r="B78" s="97"/>
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="89"/>
-      <c r="B79" s="89"/>
+      <c r="A79" s="97"/>
+      <c r="B79" s="97"/>
       <c r="C79" s="25"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
+      <c r="A80" s="97"/>
+      <c r="B80" s="97"/>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
+      <c r="A81" s="97"/>
+      <c r="B81" s="97"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
+      <c r="A82" s="97"/>
+      <c r="B82" s="97"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="89"/>
-      <c r="B83" s="89"/>
+      <c r="A83" s="97"/>
+      <c r="B83" s="97"/>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="89"/>
-      <c r="B84" s="89"/>
+      <c r="A84" s="97"/>
+      <c r="B84" s="97"/>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="90"/>
-      <c r="B85" s="90"/>
+      <c r="A85" s="98"/>
+      <c r="B85" s="98"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -6961,593 +7544,593 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="91">
+      <c r="A2" s="99">
         <v>2</v>
       </c>
-      <c r="B2" s="91" t="s">
-        <v>90</v>
+      <c r="B2" s="99" t="s">
+        <v>82</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="92"/>
-      <c r="B3" s="92"/>
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="92"/>
-      <c r="B4" s="92"/>
+      <c r="A4" s="100"/>
+      <c r="B4" s="100"/>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="92"/>
-      <c r="B5" s="92"/>
+      <c r="A5" s="100"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="92"/>
-      <c r="B6" s="92"/>
+      <c r="A6" s="100"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="92"/>
-      <c r="B7" s="92"/>
+      <c r="A7" s="100"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="92"/>
-      <c r="B8" s="92"/>
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="92"/>
-      <c r="B9" s="92"/>
+      <c r="A9" s="100"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="92"/>
-      <c r="B10" s="92"/>
+      <c r="A10" s="100"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="92"/>
-      <c r="B11" s="92"/>
+      <c r="A11" s="100"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
+      <c r="A12" s="100"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="92"/>
-      <c r="B13" s="92"/>
+      <c r="A13" s="100"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="92"/>
-      <c r="B14" s="92"/>
+      <c r="A14" s="100"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="92"/>
-      <c r="B15" s="92"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="92"/>
-      <c r="B16" s="92"/>
+      <c r="A16" s="100"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="92"/>
-      <c r="B17" s="92"/>
+      <c r="A17" s="100"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="92"/>
-      <c r="B18" s="92"/>
+      <c r="A18" s="100"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="92"/>
-      <c r="B19" s="92"/>
+      <c r="A19" s="100"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="92"/>
-      <c r="B20" s="92"/>
+      <c r="A20" s="100"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+      <c r="A21" s="100"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+      <c r="A22" s="100"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+      <c r="A23" s="100"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="92"/>
-      <c r="B24" s="92"/>
+      <c r="A24" s="100"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="92"/>
-      <c r="B25" s="92"/>
+      <c r="A25" s="100"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="92"/>
-      <c r="B26" s="92"/>
+      <c r="A26" s="100"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="92"/>
-      <c r="B27" s="92"/>
+      <c r="A27" s="100"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="92"/>
-      <c r="B28" s="92"/>
+      <c r="A28" s="100"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="92"/>
-      <c r="B29" s="92"/>
+      <c r="A29" s="100"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="92"/>
-      <c r="B30" s="92"/>
+      <c r="A30" s="100"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="36"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="92"/>
-      <c r="B31" s="92"/>
+      <c r="A31" s="100"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="92"/>
-      <c r="B32" s="92"/>
+      <c r="A32" s="100"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="36"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="92"/>
-      <c r="B33" s="92"/>
+      <c r="A33" s="100"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
+      <c r="A34" s="100"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="92"/>
-      <c r="B35" s="92"/>
+      <c r="A35" s="100"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="36"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="92"/>
-      <c r="B36" s="92"/>
+      <c r="A36" s="100"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="36"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="92"/>
-      <c r="B37" s="92"/>
+      <c r="A37" s="100"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
-      <c r="B38" s="92"/>
+      <c r="A38" s="100"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="100"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="36"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="92"/>
-      <c r="B40" s="92"/>
+      <c r="A40" s="100"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="36"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="92"/>
-      <c r="B41" s="92"/>
+      <c r="A41" s="100"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="36"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
-      <c r="B42" s="92"/>
+      <c r="A42" s="100"/>
+      <c r="B42" s="100"/>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="92"/>
-      <c r="B43" s="92"/>
+      <c r="A43" s="100"/>
+      <c r="B43" s="100"/>
       <c r="C43" s="36"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="92"/>
-      <c r="B44" s="92"/>
+      <c r="A44" s="100"/>
+      <c r="B44" s="100"/>
       <c r="C44" s="36"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="92"/>
-      <c r="B45" s="92"/>
+      <c r="A45" s="100"/>
+      <c r="B45" s="100"/>
       <c r="C45" s="36"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
-      <c r="B46" s="92"/>
+      <c r="A46" s="100"/>
+      <c r="B46" s="100"/>
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="92"/>
-      <c r="B47" s="92"/>
+      <c r="A47" s="100"/>
+      <c r="B47" s="100"/>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
+      <c r="A48" s="100"/>
+      <c r="B48" s="100"/>
       <c r="C48" s="36"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="92"/>
-      <c r="B49" s="92"/>
+      <c r="A49" s="100"/>
+      <c r="B49" s="100"/>
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
-      <c r="B50" s="92"/>
+      <c r="A50" s="100"/>
+      <c r="B50" s="100"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="92"/>
-      <c r="B51" s="92"/>
+      <c r="A51" s="100"/>
+      <c r="B51" s="100"/>
       <c r="C51" s="36"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="92"/>
-      <c r="B52" s="92"/>
+      <c r="A52" s="100"/>
+      <c r="B52" s="100"/>
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="92"/>
-      <c r="B53" s="92"/>
+      <c r="A53" s="100"/>
+      <c r="B53" s="100"/>
       <c r="C53" s="36"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="92"/>
-      <c r="B54" s="92"/>
+      <c r="A54" s="100"/>
+      <c r="B54" s="100"/>
       <c r="C54" s="36"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="92"/>
-      <c r="B55" s="92"/>
+      <c r="A55" s="100"/>
+      <c r="B55" s="100"/>
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="92"/>
-      <c r="B56" s="92"/>
+      <c r="A56" s="100"/>
+      <c r="B56" s="100"/>
       <c r="C56" s="36"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="92"/>
-      <c r="B57" s="92"/>
+      <c r="A57" s="100"/>
+      <c r="B57" s="100"/>
       <c r="C57" s="36"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="92"/>
-      <c r="B58" s="92"/>
+      <c r="A58" s="100"/>
+      <c r="B58" s="100"/>
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="92"/>
-      <c r="B59" s="92"/>
+      <c r="A59" s="100"/>
+      <c r="B59" s="100"/>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="92"/>
-      <c r="B60" s="92"/>
+      <c r="A60" s="100"/>
+      <c r="B60" s="100"/>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="92"/>
-      <c r="B61" s="92"/>
+      <c r="A61" s="100"/>
+      <c r="B61" s="100"/>
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="92"/>
-      <c r="B62" s="92"/>
+      <c r="A62" s="100"/>
+      <c r="B62" s="100"/>
       <c r="C62" s="36"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="92"/>
-      <c r="B63" s="92"/>
+      <c r="A63" s="100"/>
+      <c r="B63" s="100"/>
       <c r="C63" s="36"/>
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="92"/>
-      <c r="B64" s="92"/>
+      <c r="A64" s="100"/>
+      <c r="B64" s="100"/>
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="92"/>
-      <c r="B65" s="92"/>
+      <c r="A65" s="100"/>
+      <c r="B65" s="100"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
-      <c r="B66" s="92"/>
+      <c r="A66" s="100"/>
+      <c r="B66" s="100"/>
       <c r="C66" s="36"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="92"/>
-      <c r="B67" s="92"/>
+      <c r="A67" s="100"/>
+      <c r="B67" s="100"/>
       <c r="C67" s="36"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="92"/>
-      <c r="B68" s="92"/>
+      <c r="A68" s="100"/>
+      <c r="B68" s="100"/>
       <c r="C68" s="36"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="92"/>
-      <c r="B69" s="92"/>
+      <c r="A69" s="100"/>
+      <c r="B69" s="100"/>
       <c r="C69" s="36"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="92"/>
-      <c r="B70" s="92"/>
+      <c r="A70" s="100"/>
+      <c r="B70" s="100"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="92"/>
-      <c r="B71" s="92"/>
+      <c r="A71" s="100"/>
+      <c r="B71" s="100"/>
       <c r="C71" s="36"/>
       <c r="D71" s="37"/>
       <c r="E71" s="37"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
+      <c r="A72" s="100"/>
+      <c r="B72" s="100"/>
       <c r="C72" s="36"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="92"/>
-      <c r="B73" s="92"/>
+      <c r="A73" s="100"/>
+      <c r="B73" s="100"/>
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="92"/>
-      <c r="B74" s="92"/>
+      <c r="A74" s="100"/>
+      <c r="B74" s="100"/>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="92"/>
-      <c r="B75" s="92"/>
+      <c r="A75" s="100"/>
+      <c r="B75" s="100"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="37"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="92"/>
-      <c r="B76" s="92"/>
+      <c r="A76" s="100"/>
+      <c r="B76" s="100"/>
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="92"/>
-      <c r="B77" s="92"/>
+      <c r="A77" s="100"/>
+      <c r="B77" s="100"/>
       <c r="C77" s="36"/>
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="92"/>
-      <c r="B78" s="92"/>
+      <c r="A78" s="100"/>
+      <c r="B78" s="100"/>
       <c r="C78" s="36"/>
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="92"/>
-      <c r="B79" s="92"/>
+      <c r="A79" s="100"/>
+      <c r="B79" s="100"/>
       <c r="C79" s="36"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="92"/>
-      <c r="B80" s="92"/>
+      <c r="A80" s="100"/>
+      <c r="B80" s="100"/>
       <c r="C80" s="36"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="92"/>
-      <c r="B81" s="92"/>
+      <c r="A81" s="100"/>
+      <c r="B81" s="100"/>
       <c r="C81" s="36"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="92"/>
-      <c r="B82" s="92"/>
+      <c r="A82" s="100"/>
+      <c r="B82" s="100"/>
       <c r="C82" s="36"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="92"/>
-      <c r="B83" s="92"/>
+      <c r="A83" s="100"/>
+      <c r="B83" s="100"/>
       <c r="C83" s="36"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="92"/>
-      <c r="B84" s="92"/>
+      <c r="A84" s="100"/>
+      <c r="B84" s="100"/>
       <c r="C84" s="36"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="93"/>
-      <c r="B85" s="93"/>
+      <c r="A85" s="101"/>
+      <c r="B85" s="101"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Mods de Juegos\starbound-mod-wnamok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34654FF2-E7D5-4EC3-B701-5A2AB2F26F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92C7BB-E9A0-460D-B80E-2489BA44FAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="402">
   <si>
     <t>Tier</t>
   </si>
@@ -959,9 +959,6 @@
     <t>titaniumbar (x20), glass (x20), namokforma (x16), namokfuncion (x16), chipnamok (x4), laserdiode (x8), stickofram (x4), battery(x2)</t>
   </si>
   <si>
-    <t>cobblestonematerial (x4), bone (x4), liquidwater (x4)</t>
-  </si>
-  <si>
     <t>marmolwinbrick (x30)</t>
   </si>
   <si>
@@ -1013,15 +1010,9 @@
     <t>pillarwin (x30)</t>
   </si>
   <si>
-    <t>marmolwin (x10), bone (x5)</t>
-  </si>
-  <si>
     <t>pisomarmolwin (x30)</t>
   </si>
   <si>
-    <t>marmolwin (x10), cobblestonematerial (x5), bone (x5)</t>
-  </si>
-  <si>
     <t>firedclay (x5)</t>
   </si>
   <si>
@@ -1212,6 +1203,39 @@
   </si>
   <si>
     <t xml:space="preserve">titaniumbar (x10), chipnamok (x4), stickofram (x4), wire (x16) </t>
+  </si>
+  <si>
+    <t>cobblestonematerial (x4), calciorefinado, liquidwater (x4)</t>
+  </si>
+  <si>
+    <t>marmolwin (x10), calciorefinado</t>
+  </si>
+  <si>
+    <t>marmolwin (x10), cobblestonematerial (x5), calciorefinado</t>
+  </si>
+  <si>
+    <t>calcio</t>
+  </si>
+  <si>
+    <t>bone (x5)</t>
+  </si>
+  <si>
+    <t>calcio (x2)</t>
+  </si>
+  <si>
+    <t>limestone (x30)</t>
+  </si>
+  <si>
+    <t>calcio, sand2 (x5)</t>
+  </si>
+  <si>
+    <t>cobblestonematerial (x50)</t>
+  </si>
+  <si>
+    <t>calcio (x2), sand2 (x5)</t>
+  </si>
+  <si>
+    <t>rock12 (x50)</t>
   </si>
 </sst>
 </file>
@@ -1979,6 +2003,36 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1991,9 +2045,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2015,12 +2066,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2030,19 +2075,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2054,13 +2096,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2106,18 +2142,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2407,8 +2431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F174" sqref="F174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2424,38 +2448,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="69" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
-        <v>336</v>
-      </c>
-      <c r="E1" s="68"/>
+      <c r="D1" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="E1" s="77"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
       <c r="D2" s="58" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="64">
+      <c r="A3" s="73">
         <v>1</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="65" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2467,28 +2491,28 @@
       <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="79"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="66"/>
       <c r="D4" s="3" t="s">
         <v>121</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="80"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="67"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="63" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="68" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2500,9 +2524,9 @@
       <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="63"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2512,9 +2536,9 @@
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="63"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2524,9 +2548,9 @@
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="63"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2536,9 +2560,9 @@
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="63"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
@@ -2548,9 +2572,9 @@
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="65"/>
-      <c r="B11" s="65"/>
-      <c r="C11" s="63"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2560,9 +2584,9 @@
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="59" t="s">
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2574,9 +2598,9 @@
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="60"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="70"/>
       <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
@@ -2586,9 +2610,9 @@
       <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="65"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="70"/>
       <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
@@ -2598,9 +2622,9 @@
       <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="70"/>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
@@ -2610,9 +2634,9 @@
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
@@ -2622,9 +2646,9 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="60"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
@@ -2634,9 +2658,9 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="65"/>
-      <c r="C18" s="60"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="15" t="s">
         <v>114</v>
       </c>
@@ -2646,9 +2670,9 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="60"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
@@ -2658,9 +2682,9 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="60"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="15" t="s">
         <v>4</v>
       </c>
@@ -2670,9 +2694,9 @@
       <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
-      <c r="B21" s="65"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="74"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
@@ -2682,9 +2706,9 @@
       <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="65"/>
-      <c r="C22" s="60"/>
+      <c r="A22" s="74"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="70"/>
       <c r="D22" s="15" t="s">
         <v>17</v>
       </c>
@@ -2694,9 +2718,9 @@
       <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="65"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="70"/>
       <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
@@ -2706,9 +2730,9 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="65"/>
-      <c r="B24" s="65"/>
-      <c r="C24" s="60"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
@@ -2718,9 +2742,9 @@
       <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="65"/>
-      <c r="B25" s="65"/>
-      <c r="C25" s="60"/>
+      <c r="A25" s="74"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="70"/>
       <c r="D25" s="16" t="s">
         <v>278</v>
       </c>
@@ -2730,9 +2754,9 @@
       <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="65"/>
-      <c r="B26" s="65"/>
-      <c r="C26" s="61"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="71"/>
       <c r="D26" s="16" t="s">
         <v>288</v>
       </c>
@@ -2742,9 +2766,9 @@
       <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="65"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="61"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="71"/>
       <c r="D27" s="17" t="s">
         <v>63</v>
       </c>
@@ -2754,9 +2778,9 @@
       <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="65"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="17" t="s">
         <v>101</v>
       </c>
@@ -2766,47 +2790,47 @@
       <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="65"/>
-      <c r="B29" s="65"/>
-      <c r="C29" s="63" t="s">
+      <c r="A29" s="74"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="68" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="63"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="68"/>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="65"/>
-      <c r="B31" s="65"/>
-      <c r="C31" s="63"/>
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="68"/>
       <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="63"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="68"/>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2816,21 +2840,21 @@
       <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="63"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="68"/>
       <c r="D33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
-      <c r="B34" s="65"/>
-      <c r="C34" s="63"/>
+      <c r="A34" s="74"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="68"/>
       <c r="D34" s="3" t="s">
         <v>53</v>
       </c>
@@ -2840,9 +2864,9 @@
       <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="65"/>
-      <c r="B35" s="65"/>
-      <c r="C35" s="63"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="68"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
@@ -2852,9 +2876,9 @@
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="65"/>
-      <c r="B36" s="65"/>
-      <c r="C36" s="63"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="68"/>
       <c r="D36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2864,9 +2888,9 @@
       <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="65"/>
-      <c r="B37" s="65"/>
-      <c r="C37" s="63"/>
+      <c r="A37" s="74"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="68"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
@@ -2876,9 +2900,9 @@
       <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="65"/>
-      <c r="B38" s="65"/>
-      <c r="C38" s="63"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="74"/>
+      <c r="C38" s="68"/>
       <c r="D38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2888,9 +2912,9 @@
       <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="63"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="68"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -2900,57 +2924,57 @@
       <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="63"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="68"/>
       <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="F40" s="54"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="74"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="68"/>
+      <c r="D41" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="F40" s="54"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="65"/>
-      <c r="B41" s="65"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="F41" s="54"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="74"/>
+      <c r="B42" s="74"/>
+      <c r="C42" s="68"/>
+      <c r="D42" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="F41" s="54"/>
-    </row>
-    <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65"/>
-      <c r="B42" s="65"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="3" t="s">
+      <c r="E42" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="E42" s="9" t="s">
-        <v>313</v>
-      </c>
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="65"/>
-      <c r="B43" s="65"/>
-      <c r="C43" s="63"/>
+      <c r="A43" s="74"/>
+      <c r="B43" s="74"/>
+      <c r="C43" s="68"/>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="65"/>
-      <c r="B44" s="65"/>
-      <c r="C44" s="63"/>
+      <c r="A44" s="74"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
@@ -2960,57 +2984,57 @@
       <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="65"/>
-      <c r="B45" s="65"/>
-      <c r="C45" s="63"/>
+      <c r="A45" s="74"/>
+      <c r="B45" s="74"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="65"/>
-      <c r="B46" s="65"/>
-      <c r="C46" s="63"/>
+      <c r="A46" s="74"/>
+      <c r="B46" s="74"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E46" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="F46" s="54"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="74"/>
+      <c r="B47" s="74"/>
+      <c r="C47" s="68"/>
+      <c r="D47" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F46" s="54"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="65"/>
-      <c r="B47" s="65"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="3" t="s">
+      <c r="E47" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="F47" s="54"/>
+    </row>
+    <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="74"/>
+      <c r="B48" s="74"/>
+      <c r="C48" s="68"/>
+      <c r="D48" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>327</v>
-      </c>
-      <c r="F47" s="54"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="65"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="3" t="s">
-        <v>328</v>
-      </c>
       <c r="E48" s="9" t="s">
-        <v>329</v>
+        <v>393</v>
       </c>
       <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="65"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="63"/>
+      <c r="A49" s="74"/>
+      <c r="B49" s="74"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
@@ -3020,9 +3044,9 @@
       <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="63"/>
+      <c r="A50" s="74"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
@@ -3032,81 +3056,81 @@
       <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="65"/>
-      <c r="B51" s="65"/>
-      <c r="C51" s="63"/>
+      <c r="A51" s="74"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="65"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="63"/>
+      <c r="A52" s="74"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="65"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="63"/>
+      <c r="A53" s="74"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="68"/>
       <c r="D53" s="10" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="65"/>
-      <c r="B54" s="65"/>
-      <c r="C54" s="63"/>
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="E54" s="11" t="s">
-        <v>317</v>
-      </c>
       <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="65"/>
-      <c r="B55" s="65"/>
-      <c r="C55" s="63"/>
+      <c r="A55" s="74"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="10" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E55" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="65"/>
-      <c r="B56" s="65"/>
-      <c r="C56" s="63"/>
+      <c r="A56" s="74"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="10" t="s">
         <v>38</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F56" s="54"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="65"/>
-      <c r="B57" s="65"/>
-      <c r="C57" s="63"/>
+      <c r="A57" s="74"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="10" t="s">
         <v>39</v>
       </c>
@@ -3116,9 +3140,9 @@
       <c r="F57" s="54"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="65"/>
-      <c r="B58" s="65"/>
-      <c r="C58" s="63"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="74"/>
+      <c r="C58" s="68"/>
       <c r="D58" s="10" t="s">
         <v>40</v>
       </c>
@@ -3128,57 +3152,57 @@
       <c r="F58" s="54"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="65"/>
-      <c r="B59" s="65"/>
-      <c r="C59" s="63"/>
+      <c r="A59" s="74"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="10" t="s">
         <v>41</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F59" s="54"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="65"/>
-      <c r="B60" s="65"/>
-      <c r="C60" s="63"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F60" s="54"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="63"/>
+      <c r="A61" s="74"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="10" t="s">
         <v>43</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F61" s="54"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="65"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="63"/>
+      <c r="A62" s="74"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F62" s="54"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="65"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="63"/>
+      <c r="A63" s="74"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="10" t="s">
         <v>62</v>
       </c>
@@ -3188,21 +3212,21 @@
       <c r="F63" s="54"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="65"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="63"/>
+      <c r="A64" s="74"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="68"/>
       <c r="D64" s="10" t="s">
         <v>45</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="65"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="63"/>
+      <c r="A65" s="74"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
@@ -3212,33 +3236,33 @@
       <c r="F65" s="54"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="65"/>
-      <c r="B66" s="65"/>
-      <c r="C66" s="63"/>
+      <c r="A66" s="74"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="10" t="s">
         <v>47</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F66" s="54"/>
     </row>
     <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="65"/>
-      <c r="B67" s="65"/>
-      <c r="C67" s="63"/>
+      <c r="A67" s="74"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="68"/>
       <c r="D67" s="10" t="s">
         <v>48</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F67" s="54"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="65"/>
-      <c r="B68" s="65"/>
-      <c r="C68" s="63"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="74"/>
+      <c r="C68" s="68"/>
       <c r="D68" s="10" t="s">
         <v>49</v>
       </c>
@@ -3248,9 +3272,9 @@
       <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="65"/>
-      <c r="B69" s="65"/>
-      <c r="C69" s="63"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="74"/>
+      <c r="C69" s="68"/>
       <c r="D69" s="10" t="s">
         <v>50</v>
       </c>
@@ -3260,40 +3284,40 @@
       <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="65"/>
-      <c r="B70" s="65"/>
-      <c r="C70" s="63"/>
+      <c r="A70" s="74"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="68"/>
       <c r="D70" s="10" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E70" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="65"/>
-      <c r="B71" s="65"/>
-      <c r="C71" s="63"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="74"/>
+      <c r="C71" s="68"/>
       <c r="D71" s="10" t="s">
         <v>83</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F71" s="54"/>
     </row>
     <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="65"/>
-      <c r="B72" s="65"/>
-      <c r="C72" s="63"/>
+      <c r="A72" s="74"/>
+      <c r="B72" s="74"/>
+      <c r="C72" s="68"/>
       <c r="D72" s="10"/>
       <c r="E72" s="11"/>
     </row>
     <row r="73" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="65"/>
-      <c r="B73" s="65"/>
-      <c r="C73" s="73" t="s">
+      <c r="A73" s="74"/>
+      <c r="B73" s="74"/>
+      <c r="C73" s="80" t="s">
         <v>64</v>
       </c>
       <c r="D73" s="5" t="s">
@@ -3305,9 +3329,9 @@
       <c r="F73" s="54"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="65"/>
-      <c r="B74" s="65"/>
-      <c r="C74" s="74"/>
+      <c r="A74" s="74"/>
+      <c r="B74" s="74"/>
+      <c r="C74" s="81"/>
       <c r="D74" s="4" t="s">
         <v>66</v>
       </c>
@@ -3317,9 +3341,9 @@
       <c r="F74" s="54"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="65"/>
-      <c r="B75" s="65"/>
-      <c r="C75" s="74"/>
+      <c r="A75" s="74"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="81"/>
       <c r="D75" s="3" t="s">
         <v>69</v>
       </c>
@@ -3329,9 +3353,9 @@
       <c r="F75" s="54"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="65"/>
-      <c r="B76" s="65"/>
-      <c r="C76" s="74"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="74"/>
+      <c r="C76" s="81"/>
       <c r="D76" s="3" t="s">
         <v>70</v>
       </c>
@@ -3341,9 +3365,9 @@
       <c r="F76" s="54"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="65"/>
-      <c r="B77" s="65"/>
-      <c r="C77" s="74"/>
+      <c r="A77" s="74"/>
+      <c r="B77" s="74"/>
+      <c r="C77" s="81"/>
       <c r="D77" s="3" t="s">
         <v>71</v>
       </c>
@@ -3353,9 +3377,9 @@
       <c r="F77" s="54"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="74"/>
+      <c r="A78" s="74"/>
+      <c r="B78" s="74"/>
+      <c r="C78" s="81"/>
       <c r="D78" s="3" t="s">
         <v>72</v>
       </c>
@@ -3365,9 +3389,9 @@
       <c r="F78" s="54"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="65"/>
-      <c r="B79" s="65"/>
-      <c r="C79" s="74"/>
+      <c r="A79" s="74"/>
+      <c r="B79" s="74"/>
+      <c r="C79" s="81"/>
       <c r="D79" s="3" t="s">
         <v>79</v>
       </c>
@@ -3377,9 +3401,9 @@
       <c r="F79" s="54"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="65"/>
-      <c r="B80" s="65"/>
-      <c r="C80" s="74"/>
+      <c r="A80" s="74"/>
+      <c r="B80" s="74"/>
+      <c r="C80" s="81"/>
       <c r="D80" s="3" t="s">
         <v>68</v>
       </c>
@@ -3389,9 +3413,9 @@
       <c r="F80" s="54"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="65"/>
-      <c r="B81" s="65"/>
-      <c r="C81" s="74"/>
+      <c r="A81" s="74"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="81"/>
       <c r="D81" s="3" t="s">
         <v>209</v>
       </c>
@@ -3401,9 +3425,9 @@
       <c r="F81" s="54"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="65"/>
-      <c r="B82" s="65"/>
-      <c r="C82" s="74"/>
+      <c r="A82" s="74"/>
+      <c r="B82" s="74"/>
+      <c r="C82" s="81"/>
       <c r="D82" s="3" t="s">
         <v>73</v>
       </c>
@@ -3413,9 +3437,9 @@
       <c r="F82" s="54"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="65"/>
-      <c r="B83" s="65"/>
-      <c r="C83" s="74"/>
+      <c r="A83" s="74"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="81"/>
       <c r="D83" s="3" t="s">
         <v>197</v>
       </c>
@@ -3425,9 +3449,9 @@
       <c r="F83" s="54"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="65"/>
-      <c r="B84" s="65"/>
-      <c r="C84" s="74"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="74"/>
+      <c r="C84" s="81"/>
       <c r="D84" s="3" t="s">
         <v>74</v>
       </c>
@@ -3437,9 +3461,9 @@
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="65"/>
-      <c r="B85" s="65"/>
-      <c r="C85" s="74"/>
+      <c r="A85" s="74"/>
+      <c r="B85" s="74"/>
+      <c r="C85" s="81"/>
       <c r="D85" s="3" t="s">
         <v>75</v>
       </c>
@@ -3449,9 +3473,9 @@
       <c r="F85" s="54"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="65"/>
-      <c r="B86" s="65"/>
-      <c r="C86" s="74"/>
+      <c r="A86" s="74"/>
+      <c r="B86" s="74"/>
+      <c r="C86" s="81"/>
       <c r="D86" s="3" t="s">
         <v>201</v>
       </c>
@@ -3461,9 +3485,9 @@
       <c r="F86" s="54"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="65"/>
-      <c r="B87" s="65"/>
-      <c r="C87" s="74"/>
+      <c r="A87" s="74"/>
+      <c r="B87" s="74"/>
+      <c r="C87" s="81"/>
       <c r="D87" s="3" t="s">
         <v>76</v>
       </c>
@@ -3473,9 +3497,9 @@
       <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="65"/>
-      <c r="B88" s="65"/>
-      <c r="C88" s="74"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="74"/>
+      <c r="C88" s="81"/>
       <c r="D88" s="3" t="s">
         <v>168</v>
       </c>
@@ -3485,9 +3509,9 @@
       <c r="F88" s="54"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="65"/>
-      <c r="B89" s="65"/>
-      <c r="C89" s="74"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="74"/>
+      <c r="C89" s="81"/>
       <c r="D89" s="3" t="s">
         <v>171</v>
       </c>
@@ -3497,10 +3521,10 @@
       <c r="F89" s="54"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="65"/>
-      <c r="B90" s="65"/>
-      <c r="C90" s="74"/>
-      <c r="D90" s="71" t="s">
+      <c r="A90" s="74"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="62" t="s">
         <v>81</v>
       </c>
       <c r="E90" s="9" t="s">
@@ -3509,30 +3533,30 @@
       <c r="F90" s="54"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="65"/>
-      <c r="B91" s="65"/>
-      <c r="C91" s="74"/>
-      <c r="D91" s="76"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="63"/>
       <c r="E91" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F91" s="54"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="65"/>
-      <c r="B92" s="65"/>
-      <c r="C92" s="74"/>
-      <c r="D92" s="72"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="74"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="64"/>
       <c r="E92" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F92" s="54"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="65"/>
-      <c r="B93" s="65"/>
-      <c r="C93" s="74"/>
-      <c r="D93" s="77" t="s">
+      <c r="A93" s="74"/>
+      <c r="B93" s="74"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="83" t="s">
         <v>149</v>
       </c>
       <c r="E93" s="11" t="s">
@@ -3541,120 +3565,120 @@
       <c r="F93" s="54"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="65"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="74"/>
-      <c r="D94" s="77"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="74"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="83"/>
       <c r="E94" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F94" s="54"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="65"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="74"/>
-      <c r="D95" s="77"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="74"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="83"/>
       <c r="E95" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F95" s="54"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="65"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="74"/>
-      <c r="D96" s="77"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="74"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="83"/>
       <c r="E96" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F96" s="54"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="65"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="77"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="83"/>
       <c r="E97" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F97" s="54"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="65"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="74"/>
-      <c r="D98" s="77"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="74"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="83"/>
       <c r="E98" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F98" s="54"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="65"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="74"/>
-      <c r="D99" s="77"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="83"/>
       <c r="E99" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F99" s="54"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="65"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="74"/>
-      <c r="D100" s="77"/>
+      <c r="A100" s="74"/>
+      <c r="B100" s="74"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="83"/>
       <c r="E100" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F100" s="54"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="65"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="74"/>
-      <c r="D101" s="77"/>
+      <c r="A101" s="74"/>
+      <c r="B101" s="74"/>
+      <c r="C101" s="81"/>
+      <c r="D101" s="83"/>
       <c r="E101" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F101" s="54"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="65"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="74"/>
-      <c r="D102" s="77"/>
+      <c r="A102" s="74"/>
+      <c r="B102" s="74"/>
+      <c r="C102" s="81"/>
+      <c r="D102" s="83"/>
       <c r="E102" s="11" t="s">
         <v>231</v>
       </c>
       <c r="F102" s="54"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="65"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="74"/>
-      <c r="D103" s="77"/>
+      <c r="A103" s="74"/>
+      <c r="B103" s="74"/>
+      <c r="C103" s="81"/>
+      <c r="D103" s="83"/>
       <c r="E103" s="11" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F103" s="54"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="65"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="74"/>
-      <c r="D104" s="77"/>
+      <c r="A104" s="74"/>
+      <c r="B104" s="74"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="83"/>
       <c r="E104" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F104" s="54"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="65"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="74"/>
-      <c r="D105" s="71" t="s">
+      <c r="A105" s="74"/>
+      <c r="B105" s="74"/>
+      <c r="C105" s="81"/>
+      <c r="D105" s="62" t="s">
         <v>69</v>
       </c>
       <c r="E105" s="11" t="s">
@@ -3663,49 +3687,49 @@
       <c r="F105" s="54"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="65"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="74"/>
-      <c r="D106" s="76"/>
+      <c r="A106" s="74"/>
+      <c r="B106" s="74"/>
+      <c r="C106" s="81"/>
+      <c r="D106" s="63"/>
       <c r="E106" s="11" t="s">
         <v>161</v>
       </c>
       <c r="F106" s="54"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="65"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="74"/>
-      <c r="D107" s="76"/>
+      <c r="A107" s="74"/>
+      <c r="B107" s="74"/>
+      <c r="C107" s="81"/>
+      <c r="D107" s="63"/>
       <c r="E107" s="11" t="s">
         <v>162</v>
       </c>
       <c r="F107" s="54"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="65"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="74"/>
-      <c r="D108" s="76"/>
+      <c r="A108" s="74"/>
+      <c r="B108" s="74"/>
+      <c r="C108" s="81"/>
+      <c r="D108" s="63"/>
       <c r="E108" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F108" s="54"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="65"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="74"/>
-      <c r="D109" s="72"/>
+      <c r="A109" s="74"/>
+      <c r="B109" s="74"/>
+      <c r="C109" s="81"/>
+      <c r="D109" s="64"/>
       <c r="E109" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F109" s="54"/>
     </row>
     <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="65"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="74"/>
+      <c r="A110" s="74"/>
+      <c r="B110" s="74"/>
+      <c r="C110" s="81"/>
       <c r="D110" s="10" t="s">
         <v>166</v>
       </c>
@@ -3715,9 +3739,9 @@
       <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="65"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="74"/>
+      <c r="A111" s="74"/>
+      <c r="B111" s="74"/>
+      <c r="C111" s="81"/>
       <c r="D111" s="10" t="s">
         <v>175</v>
       </c>
@@ -3727,9 +3751,9 @@
       <c r="F111" s="54"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="65"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="74"/>
+      <c r="A112" s="74"/>
+      <c r="B112" s="74"/>
+      <c r="C112" s="81"/>
       <c r="D112" s="10" t="s">
         <v>177</v>
       </c>
@@ -3739,10 +3763,10 @@
       <c r="F112" s="54"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="65"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="74"/>
-      <c r="D113" s="71" t="s">
+      <c r="A113" s="74"/>
+      <c r="B113" s="74"/>
+      <c r="C113" s="81"/>
+      <c r="D113" s="62" t="s">
         <v>178</v>
       </c>
       <c r="E113" s="11" t="s">
@@ -3751,19 +3775,19 @@
       <c r="F113" s="54"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="65"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="74"/>
-      <c r="D114" s="72"/>
+      <c r="A114" s="74"/>
+      <c r="B114" s="74"/>
+      <c r="C114" s="81"/>
+      <c r="D114" s="64"/>
       <c r="E114" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F114" s="54"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="65"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="74"/>
+      <c r="A115" s="74"/>
+      <c r="B115" s="74"/>
+      <c r="C115" s="81"/>
       <c r="D115" s="10" t="s">
         <v>181</v>
       </c>
@@ -3773,9 +3797,9 @@
       <c r="F115" s="54"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="65"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="74"/>
+      <c r="A116" s="74"/>
+      <c r="B116" s="74"/>
+      <c r="C116" s="81"/>
       <c r="D116" s="10" t="s">
         <v>184</v>
       </c>
@@ -3785,9 +3809,9 @@
       <c r="F116" s="54"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="65"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="74"/>
+      <c r="A117" s="74"/>
+      <c r="B117" s="74"/>
+      <c r="C117" s="81"/>
       <c r="D117" s="10" t="s">
         <v>186</v>
       </c>
@@ -3797,9 +3821,9 @@
       <c r="F117" s="54"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="65"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="74"/>
+      <c r="A118" s="74"/>
+      <c r="B118" s="74"/>
+      <c r="C118" s="81"/>
       <c r="D118" s="10" t="s">
         <v>188</v>
       </c>
@@ -3809,9 +3833,9 @@
       <c r="F118" s="54"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="65"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="74"/>
+      <c r="A119" s="74"/>
+      <c r="B119" s="74"/>
+      <c r="C119" s="81"/>
       <c r="D119" s="10" t="s">
         <v>190</v>
       </c>
@@ -3821,9 +3845,9 @@
       <c r="F119" s="54"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="65"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="74"/>
+      <c r="A120" s="74"/>
+      <c r="B120" s="74"/>
+      <c r="C120" s="81"/>
       <c r="D120" s="10" t="s">
         <v>212</v>
       </c>
@@ -3833,9 +3857,9 @@
       <c r="F120" s="54"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="65"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="74"/>
+      <c r="A121" s="74"/>
+      <c r="B121" s="74"/>
+      <c r="C121" s="81"/>
       <c r="D121" s="10" t="s">
         <v>192</v>
       </c>
@@ -3845,9 +3869,9 @@
       <c r="F121" s="54"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="65"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="74"/>
+      <c r="A122" s="74"/>
+      <c r="B122" s="74"/>
+      <c r="C122" s="81"/>
       <c r="D122" s="10" t="s">
         <v>194</v>
       </c>
@@ -3857,9 +3881,9 @@
       <c r="F122" s="54"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="65"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="74"/>
+      <c r="A123" s="74"/>
+      <c r="B123" s="74"/>
+      <c r="C123" s="81"/>
       <c r="D123" s="10" t="s">
         <v>196</v>
       </c>
@@ -3869,10 +3893,10 @@
       <c r="F123" s="54"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="65"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="74"/>
-      <c r="D124" s="71" t="s">
+      <c r="A124" s="74"/>
+      <c r="B124" s="74"/>
+      <c r="C124" s="81"/>
+      <c r="D124" s="62" t="s">
         <v>199</v>
       </c>
       <c r="E124" s="11" t="s">
@@ -3881,19 +3905,19 @@
       <c r="F124" s="54"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="65"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="74"/>
-      <c r="D125" s="72"/>
+      <c r="A125" s="74"/>
+      <c r="B125" s="74"/>
+      <c r="C125" s="81"/>
+      <c r="D125" s="64"/>
       <c r="E125" s="11" t="s">
         <v>200</v>
       </c>
       <c r="F125" s="54"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="65"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="74"/>
+      <c r="A126" s="74"/>
+      <c r="B126" s="74"/>
+      <c r="C126" s="81"/>
       <c r="D126" s="10" t="s">
         <v>204</v>
       </c>
@@ -3903,9 +3927,9 @@
       <c r="F126" s="54"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="65"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="74"/>
+      <c r="A127" s="74"/>
+      <c r="B127" s="74"/>
+      <c r="C127" s="81"/>
       <c r="D127" s="10" t="s">
         <v>207</v>
       </c>
@@ -3915,9 +3939,9 @@
       <c r="F127" s="54"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="65"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="74"/>
+      <c r="A128" s="74"/>
+      <c r="B128" s="74"/>
+      <c r="C128" s="81"/>
       <c r="D128" s="10" t="s">
         <v>213</v>
       </c>
@@ -3927,9 +3951,9 @@
       <c r="F128" s="54"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="65"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="74"/>
+      <c r="A129" s="74"/>
+      <c r="B129" s="74"/>
+      <c r="C129" s="81"/>
       <c r="D129" s="10" t="s">
         <v>216</v>
       </c>
@@ -3939,10 +3963,10 @@
       <c r="F129" s="54"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="65"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="74"/>
-      <c r="D130" s="71" t="s">
+      <c r="A130" s="74"/>
+      <c r="B130" s="74"/>
+      <c r="C130" s="81"/>
+      <c r="D130" s="62" t="s">
         <v>70</v>
       </c>
       <c r="E130" s="11" t="s">
@@ -3951,100 +3975,100 @@
       <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="65"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="74"/>
-      <c r="D131" s="76"/>
+      <c r="A131" s="74"/>
+      <c r="B131" s="74"/>
+      <c r="C131" s="81"/>
+      <c r="D131" s="63"/>
       <c r="E131" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F131" s="54"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="65"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="74"/>
-      <c r="D132" s="76"/>
+      <c r="A132" s="74"/>
+      <c r="B132" s="74"/>
+      <c r="C132" s="81"/>
+      <c r="D132" s="63"/>
       <c r="E132" s="11" t="s">
         <v>223</v>
       </c>
       <c r="F132" s="54"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="65"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="74"/>
-      <c r="D133" s="76"/>
+      <c r="A133" s="74"/>
+      <c r="B133" s="74"/>
+      <c r="C133" s="81"/>
+      <c r="D133" s="63"/>
       <c r="E133" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F133" s="54"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="65"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="74"/>
-      <c r="D134" s="76"/>
+      <c r="A134" s="74"/>
+      <c r="B134" s="74"/>
+      <c r="C134" s="81"/>
+      <c r="D134" s="63"/>
       <c r="E134" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F134" s="54"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="65"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="74"/>
-      <c r="D135" s="76"/>
+      <c r="A135" s="74"/>
+      <c r="B135" s="74"/>
+      <c r="C135" s="81"/>
+      <c r="D135" s="63"/>
       <c r="E135" s="11" t="s">
         <v>225</v>
       </c>
       <c r="F135" s="54"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="65"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="74"/>
-      <c r="D136" s="76"/>
+      <c r="A136" s="74"/>
+      <c r="B136" s="74"/>
+      <c r="C136" s="81"/>
+      <c r="D136" s="63"/>
       <c r="E136" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F136" s="54"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="65"/>
-      <c r="B137" s="65"/>
-      <c r="C137" s="74"/>
-      <c r="D137" s="76"/>
+      <c r="A137" s="74"/>
+      <c r="B137" s="74"/>
+      <c r="C137" s="81"/>
+      <c r="D137" s="63"/>
       <c r="E137" s="11" t="s">
         <v>228</v>
       </c>
       <c r="F137" s="54"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="65"/>
-      <c r="B138" s="65"/>
-      <c r="C138" s="74"/>
-      <c r="D138" s="76"/>
+      <c r="A138" s="74"/>
+      <c r="B138" s="74"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="63"/>
       <c r="E138" s="11" t="s">
         <v>251</v>
       </c>
       <c r="F138" s="54"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="65"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="74"/>
-      <c r="D139" s="72"/>
+      <c r="A139" s="74"/>
+      <c r="B139" s="74"/>
+      <c r="C139" s="81"/>
+      <c r="D139" s="64"/>
       <c r="E139" s="11" t="s">
         <v>217</v>
       </c>
       <c r="F139" s="54"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="65"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="74"/>
-      <c r="D140" s="71" t="s">
+      <c r="A140" s="74"/>
+      <c r="B140" s="74"/>
+      <c r="C140" s="81"/>
+      <c r="D140" s="62" t="s">
         <v>218</v>
       </c>
       <c r="E140" s="11" t="s">
@@ -4053,49 +4077,49 @@
       <c r="F140" s="54"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="65"/>
-      <c r="B141" s="65"/>
-      <c r="C141" s="74"/>
-      <c r="D141" s="76"/>
+      <c r="A141" s="74"/>
+      <c r="B141" s="74"/>
+      <c r="C141" s="81"/>
+      <c r="D141" s="63"/>
       <c r="E141" s="11" t="s">
         <v>220</v>
       </c>
       <c r="F141" s="54"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="65"/>
-      <c r="B142" s="65"/>
-      <c r="C142" s="74"/>
-      <c r="D142" s="76"/>
+      <c r="A142" s="74"/>
+      <c r="B142" s="74"/>
+      <c r="C142" s="81"/>
+      <c r="D142" s="63"/>
       <c r="E142" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F142" s="54"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="65"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="74"/>
-      <c r="D143" s="76"/>
+      <c r="A143" s="74"/>
+      <c r="B143" s="74"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="63"/>
       <c r="E143" s="11" t="s">
         <v>226</v>
       </c>
       <c r="F143" s="54"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="65"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="74"/>
-      <c r="D144" s="72"/>
+      <c r="A144" s="74"/>
+      <c r="B144" s="74"/>
+      <c r="C144" s="81"/>
+      <c r="D144" s="64"/>
       <c r="E144" s="11" t="s">
         <v>227</v>
       </c>
       <c r="F144" s="54"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="65"/>
-      <c r="B145" s="65"/>
-      <c r="C145" s="74"/>
+      <c r="A145" s="74"/>
+      <c r="B145" s="74"/>
+      <c r="C145" s="81"/>
       <c r="D145" s="10" t="s">
         <v>230</v>
       </c>
@@ -4105,9 +4129,9 @@
       <c r="F145" s="54"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="65"/>
-      <c r="B146" s="65"/>
-      <c r="C146" s="74"/>
+      <c r="A146" s="74"/>
+      <c r="B146" s="74"/>
+      <c r="C146" s="81"/>
       <c r="D146" s="10" t="s">
         <v>233</v>
       </c>
@@ -4117,9 +4141,9 @@
       <c r="F146" s="54"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="65"/>
-      <c r="B147" s="65"/>
-      <c r="C147" s="74"/>
+      <c r="A147" s="74"/>
+      <c r="B147" s="74"/>
+      <c r="C147" s="81"/>
       <c r="D147" s="10" t="s">
         <v>235</v>
       </c>
@@ -4129,9 +4153,9 @@
       <c r="F147" s="54"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="65"/>
-      <c r="B148" s="65"/>
-      <c r="C148" s="74"/>
+      <c r="A148" s="74"/>
+      <c r="B148" s="74"/>
+      <c r="C148" s="81"/>
       <c r="D148" s="10" t="s">
         <v>68</v>
       </c>
@@ -4141,9 +4165,9 @@
       <c r="F148" s="54"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="65"/>
-      <c r="B149" s="65"/>
-      <c r="C149" s="74"/>
+      <c r="A149" s="74"/>
+      <c r="B149" s="74"/>
+      <c r="C149" s="81"/>
       <c r="D149" s="10" t="s">
         <v>246</v>
       </c>
@@ -4153,9 +4177,9 @@
       <c r="F149" s="54"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="65"/>
-      <c r="B150" s="65"/>
-      <c r="C150" s="74"/>
+      <c r="A150" s="74"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="81"/>
       <c r="D150" s="10" t="s">
         <v>67</v>
       </c>
@@ -4165,9 +4189,9 @@
       <c r="F150" s="54"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="65"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="74"/>
+      <c r="A151" s="74"/>
+      <c r="B151" s="74"/>
+      <c r="C151" s="81"/>
       <c r="D151" s="10" t="s">
         <v>240</v>
       </c>
@@ -4177,9 +4201,9 @@
       <c r="F151" s="54"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="65"/>
-      <c r="B152" s="65"/>
-      <c r="C152" s="74"/>
+      <c r="A152" s="74"/>
+      <c r="B152" s="74"/>
+      <c r="C152" s="81"/>
       <c r="D152" s="10" t="s">
         <v>242</v>
       </c>
@@ -4189,10 +4213,10 @@
       <c r="F152" s="54"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="65"/>
-      <c r="B153" s="65"/>
-      <c r="C153" s="74"/>
-      <c r="D153" s="71" t="s">
+      <c r="A153" s="74"/>
+      <c r="B153" s="74"/>
+      <c r="C153" s="81"/>
+      <c r="D153" s="62" t="s">
         <v>238</v>
       </c>
       <c r="E153" s="11" t="s">
@@ -4201,39 +4225,39 @@
       <c r="F153" s="54"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="65"/>
-      <c r="B154" s="65"/>
-      <c r="C154" s="74"/>
-      <c r="D154" s="76"/>
+      <c r="A154" s="74"/>
+      <c r="B154" s="74"/>
+      <c r="C154" s="81"/>
+      <c r="D154" s="63"/>
       <c r="E154" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F154" s="54"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="65"/>
-      <c r="B155" s="65"/>
-      <c r="C155" s="74"/>
-      <c r="D155" s="76"/>
+      <c r="A155" s="74"/>
+      <c r="B155" s="74"/>
+      <c r="C155" s="81"/>
+      <c r="D155" s="63"/>
       <c r="E155" s="11" t="s">
         <v>245</v>
       </c>
       <c r="F155" s="54"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="65"/>
-      <c r="B156" s="65"/>
-      <c r="C156" s="74"/>
-      <c r="D156" s="72"/>
+      <c r="A156" s="74"/>
+      <c r="B156" s="74"/>
+      <c r="C156" s="81"/>
+      <c r="D156" s="64"/>
       <c r="E156" s="11" t="s">
         <v>237</v>
       </c>
       <c r="F156" s="54"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="65"/>
-      <c r="B157" s="65"/>
-      <c r="C157" s="74"/>
+      <c r="A157" s="74"/>
+      <c r="B157" s="74"/>
+      <c r="C157" s="81"/>
       <c r="D157" s="10" t="s">
         <v>250</v>
       </c>
@@ -4243,10 +4267,10 @@
       <c r="F157" s="54"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="65"/>
-      <c r="B158" s="65"/>
-      <c r="C158" s="74"/>
-      <c r="D158" s="71" t="s">
+      <c r="A158" s="74"/>
+      <c r="B158" s="74"/>
+      <c r="C158" s="81"/>
+      <c r="D158" s="62" t="s">
         <v>252</v>
       </c>
       <c r="E158" s="11" t="s">
@@ -4255,49 +4279,49 @@
       <c r="F158" s="54"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="65"/>
-      <c r="B159" s="65"/>
-      <c r="C159" s="74"/>
-      <c r="D159" s="76"/>
+      <c r="A159" s="74"/>
+      <c r="B159" s="74"/>
+      <c r="C159" s="81"/>
+      <c r="D159" s="63"/>
       <c r="E159" s="11" t="s">
         <v>254</v>
       </c>
       <c r="F159" s="54"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="65"/>
-      <c r="B160" s="65"/>
-      <c r="C160" s="74"/>
-      <c r="D160" s="76"/>
+      <c r="A160" s="74"/>
+      <c r="B160" s="74"/>
+      <c r="C160" s="81"/>
+      <c r="D160" s="63"/>
       <c r="E160" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F160" s="54"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="65"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="74"/>
-      <c r="D161" s="76"/>
+      <c r="A161" s="74"/>
+      <c r="B161" s="74"/>
+      <c r="C161" s="81"/>
+      <c r="D161" s="63"/>
       <c r="E161" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F161" s="54"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="65"/>
-      <c r="B162" s="65"/>
-      <c r="C162" s="74"/>
-      <c r="D162" s="72"/>
+      <c r="A162" s="74"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="64"/>
       <c r="E162" s="11" t="s">
         <v>257</v>
       </c>
       <c r="F162" s="54"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="65"/>
-      <c r="B163" s="65"/>
-      <c r="C163" s="74"/>
+      <c r="A163" s="74"/>
+      <c r="B163" s="74"/>
+      <c r="C163" s="81"/>
       <c r="D163" s="10" t="s">
         <v>259</v>
       </c>
@@ -4307,10 +4331,10 @@
       <c r="F163" s="54"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="65"/>
-      <c r="B164" s="65"/>
-      <c r="C164" s="74"/>
-      <c r="D164" s="71" t="s">
+      <c r="A164" s="74"/>
+      <c r="B164" s="74"/>
+      <c r="C164" s="81"/>
+      <c r="D164" s="62" t="s">
         <v>261</v>
       </c>
       <c r="E164" s="11" t="s">
@@ -4319,19 +4343,19 @@
       <c r="F164" s="54"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="65"/>
-      <c r="B165" s="65"/>
-      <c r="C165" s="74"/>
-      <c r="D165" s="72"/>
+      <c r="A165" s="74"/>
+      <c r="B165" s="74"/>
+      <c r="C165" s="81"/>
+      <c r="D165" s="64"/>
       <c r="E165" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F165" s="54"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="65"/>
-      <c r="B166" s="65"/>
-      <c r="C166" s="74"/>
+      <c r="A166" s="74"/>
+      <c r="B166" s="74"/>
+      <c r="C166" s="81"/>
       <c r="D166" s="3" t="s">
         <v>263</v>
       </c>
@@ -4341,9 +4365,9 @@
       <c r="F166" s="54"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="65"/>
-      <c r="B167" s="65"/>
-      <c r="C167" s="74"/>
+      <c r="A167" s="74"/>
+      <c r="B167" s="74"/>
+      <c r="C167" s="81"/>
       <c r="D167" s="3" t="s">
         <v>264</v>
       </c>
@@ -4353,9 +4377,9 @@
       <c r="F167" s="54"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="65"/>
-      <c r="B168" s="65"/>
-      <c r="C168" s="74"/>
+      <c r="A168" s="74"/>
+      <c r="B168" s="74"/>
+      <c r="C168" s="81"/>
       <c r="D168" s="3" t="s">
         <v>265</v>
       </c>
@@ -4365,9 +4389,9 @@
       <c r="F168" s="54"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="65"/>
-      <c r="B169" s="65"/>
-      <c r="C169" s="74"/>
+      <c r="A169" s="74"/>
+      <c r="B169" s="74"/>
+      <c r="C169" s="81"/>
       <c r="D169" s="3" t="s">
         <v>269</v>
       </c>
@@ -4377,9 +4401,9 @@
       <c r="F169" s="54"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="65"/>
-      <c r="B170" s="65"/>
-      <c r="C170" s="74"/>
+      <c r="A170" s="74"/>
+      <c r="B170" s="74"/>
+      <c r="C170" s="81"/>
       <c r="D170" s="3" t="s">
         <v>272</v>
       </c>
@@ -4389,216 +4413,230 @@
       <c r="F170" s="54"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="65"/>
-      <c r="B171" s="65"/>
-      <c r="C171" s="74"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="11"/>
+      <c r="A171" s="74"/>
+      <c r="B171" s="74"/>
+      <c r="C171" s="81"/>
+      <c r="D171" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F171" s="54"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="65"/>
-      <c r="B172" s="65"/>
-      <c r="C172" s="74"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="11"/>
+      <c r="A172" s="74"/>
+      <c r="B172" s="74"/>
+      <c r="C172" s="81"/>
+      <c r="D172" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F172" s="54"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="65"/>
-      <c r="B173" s="65"/>
-      <c r="C173" s="74"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="11"/>
+      <c r="A173" s="74"/>
+      <c r="B173" s="74"/>
+      <c r="C173" s="81"/>
+      <c r="D173" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="F173" s="54"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="65"/>
-      <c r="B174" s="65"/>
-      <c r="C174" s="74"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="11"/>
+      <c r="A174" s="74"/>
+      <c r="B174" s="74"/>
+      <c r="C174" s="81"/>
+      <c r="D174" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="F174" s="54"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="65"/>
-      <c r="B175" s="65"/>
-      <c r="C175" s="74"/>
+      <c r="A175" s="74"/>
+      <c r="B175" s="74"/>
+      <c r="C175" s="81"/>
       <c r="D175" s="3"/>
       <c r="E175" s="11"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="65"/>
-      <c r="B176" s="65"/>
-      <c r="C176" s="74"/>
+      <c r="A176" s="74"/>
+      <c r="B176" s="74"/>
+      <c r="C176" s="81"/>
       <c r="D176" s="3"/>
       <c r="E176" s="11"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="65"/>
-      <c r="B177" s="65"/>
-      <c r="C177" s="74"/>
+      <c r="A177" s="74"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="81"/>
       <c r="D177" s="3"/>
       <c r="E177" s="11"/>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="65"/>
-      <c r="B178" s="65"/>
-      <c r="C178" s="74"/>
+      <c r="A178" s="74"/>
+      <c r="B178" s="74"/>
+      <c r="C178" s="81"/>
       <c r="D178" s="3"/>
       <c r="E178" s="11"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="65"/>
-      <c r="B179" s="65"/>
-      <c r="C179" s="74"/>
+      <c r="A179" s="74"/>
+      <c r="B179" s="74"/>
+      <c r="C179" s="81"/>
       <c r="D179" s="3"/>
       <c r="E179" s="11"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="65"/>
-      <c r="B180" s="65"/>
-      <c r="C180" s="74"/>
+      <c r="A180" s="74"/>
+      <c r="B180" s="74"/>
+      <c r="C180" s="81"/>
       <c r="D180" s="3"/>
       <c r="E180" s="11"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="65"/>
-      <c r="B181" s="65"/>
-      <c r="C181" s="74"/>
+      <c r="A181" s="74"/>
+      <c r="B181" s="74"/>
+      <c r="C181" s="81"/>
       <c r="D181" s="3"/>
       <c r="E181" s="11"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="65"/>
-      <c r="B182" s="65"/>
-      <c r="C182" s="74"/>
+      <c r="A182" s="74"/>
+      <c r="B182" s="74"/>
+      <c r="C182" s="81"/>
       <c r="D182" s="3"/>
       <c r="E182" s="11"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="65"/>
-      <c r="B183" s="65"/>
-      <c r="C183" s="74"/>
+      <c r="A183" s="74"/>
+      <c r="B183" s="74"/>
+      <c r="C183" s="81"/>
       <c r="D183" s="3"/>
       <c r="E183" s="11"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="65"/>
-      <c r="B184" s="65"/>
-      <c r="C184" s="74"/>
+      <c r="A184" s="74"/>
+      <c r="B184" s="74"/>
+      <c r="C184" s="81"/>
       <c r="D184" s="3"/>
       <c r="E184" s="11"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="65"/>
-      <c r="B185" s="65"/>
-      <c r="C185" s="74"/>
+      <c r="A185" s="74"/>
+      <c r="B185" s="74"/>
+      <c r="C185" s="81"/>
       <c r="D185" s="3"/>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="65"/>
-      <c r="B186" s="65"/>
-      <c r="C186" s="74"/>
+      <c r="A186" s="74"/>
+      <c r="B186" s="74"/>
+      <c r="C186" s="81"/>
       <c r="D186" s="3"/>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="65"/>
-      <c r="B187" s="65"/>
-      <c r="C187" s="74"/>
+      <c r="A187" s="74"/>
+      <c r="B187" s="74"/>
+      <c r="C187" s="81"/>
       <c r="D187" s="3"/>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="65"/>
-      <c r="B188" s="65"/>
-      <c r="C188" s="74"/>
+      <c r="A188" s="74"/>
+      <c r="B188" s="74"/>
+      <c r="C188" s="81"/>
       <c r="D188" s="3"/>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="65"/>
-      <c r="B189" s="65"/>
-      <c r="C189" s="74"/>
+      <c r="A189" s="74"/>
+      <c r="B189" s="74"/>
+      <c r="C189" s="81"/>
       <c r="D189" s="3"/>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="65"/>
-      <c r="B190" s="65"/>
-      <c r="C190" s="74"/>
+      <c r="A190" s="74"/>
+      <c r="B190" s="74"/>
+      <c r="C190" s="81"/>
       <c r="D190" s="3"/>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="65"/>
-      <c r="B191" s="65"/>
-      <c r="C191" s="74"/>
+      <c r="A191" s="74"/>
+      <c r="B191" s="74"/>
+      <c r="C191" s="81"/>
       <c r="D191" s="3"/>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="65"/>
-      <c r="B192" s="65"/>
-      <c r="C192" s="74"/>
+      <c r="A192" s="74"/>
+      <c r="B192" s="74"/>
+      <c r="C192" s="81"/>
       <c r="D192" s="3"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="65"/>
-      <c r="B193" s="65"/>
-      <c r="C193" s="74"/>
+      <c r="A193" s="74"/>
+      <c r="B193" s="74"/>
+      <c r="C193" s="81"/>
       <c r="D193" s="3"/>
       <c r="E193" s="11"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="65"/>
-      <c r="B194" s="65"/>
-      <c r="C194" s="74"/>
+      <c r="A194" s="74"/>
+      <c r="B194" s="74"/>
+      <c r="C194" s="81"/>
       <c r="D194" s="3"/>
       <c r="E194" s="11"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="65"/>
-      <c r="B195" s="65"/>
-      <c r="C195" s="74"/>
+      <c r="A195" s="74"/>
+      <c r="B195" s="74"/>
+      <c r="C195" s="81"/>
       <c r="D195" s="3"/>
       <c r="E195" s="11"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="65"/>
-      <c r="B196" s="65"/>
-      <c r="C196" s="74"/>
+      <c r="A196" s="74"/>
+      <c r="B196" s="74"/>
+      <c r="C196" s="81"/>
       <c r="D196" s="3"/>
       <c r="E196" s="11"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="65"/>
-      <c r="B197" s="65"/>
-      <c r="C197" s="74"/>
+      <c r="A197" s="74"/>
+      <c r="B197" s="74"/>
+      <c r="C197" s="81"/>
       <c r="D197" s="3"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="65"/>
-      <c r="B198" s="65"/>
-      <c r="C198" s="74"/>
+      <c r="A198" s="74"/>
+      <c r="B198" s="74"/>
+      <c r="C198" s="81"/>
       <c r="D198" s="3"/>
       <c r="E198" s="11"/>
     </row>
     <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="66"/>
-      <c r="B199" s="66"/>
-      <c r="C199" s="75"/>
+      <c r="A199" s="75"/>
+      <c r="B199" s="75"/>
+      <c r="C199" s="82"/>
       <c r="D199" s="53"/>
       <c r="E199" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C12:C28"/>
-    <mergeCell ref="C29:C72"/>
     <mergeCell ref="A3:A199"/>
     <mergeCell ref="B3:B199"/>
     <mergeCell ref="D1:E1"/>
@@ -4613,6 +4651,12 @@
     <mergeCell ref="D164:D165"/>
     <mergeCell ref="D93:D104"/>
     <mergeCell ref="D105:D109"/>
+    <mergeCell ref="D90:D92"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C28"/>
+    <mergeCell ref="C29:C72"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4662,45 +4706,45 @@
       <c r="B2" s="84" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="87" t="s">
         <v>83</v>
       </c>
       <c r="D2" s="38" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="85"/>
       <c r="B3" s="85"/>
-      <c r="C3" s="82"/>
+      <c r="C3" s="88"/>
       <c r="D3" s="18" t="s">
         <v>30</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F3" s="56"/>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="85"/>
       <c r="B4" s="85"/>
-      <c r="C4" s="82"/>
+      <c r="C4" s="88"/>
       <c r="D4" s="18" t="s">
         <v>84</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F4" s="56"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
-      <c r="C5" s="82"/>
+      <c r="C5" s="88"/>
       <c r="D5" s="18" t="s">
         <v>147</v>
       </c>
@@ -4712,7 +4756,7 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="85"/>
       <c r="B6" s="85"/>
-      <c r="C6" s="82"/>
+      <c r="C6" s="88"/>
       <c r="D6" s="18" t="s">
         <v>85</v>
       </c>
@@ -4724,7 +4768,7 @@
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="85"/>
       <c r="B7" s="85"/>
-      <c r="C7" s="82"/>
+      <c r="C7" s="88"/>
       <c r="D7" s="18" t="s">
         <v>86</v>
       </c>
@@ -4736,7 +4780,7 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="85"/>
       <c r="B8" s="85"/>
-      <c r="C8" s="82"/>
+      <c r="C8" s="88"/>
       <c r="D8" s="18" t="s">
         <v>87</v>
       </c>
@@ -4748,43 +4792,43 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
-      <c r="C9" s="82"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="85"/>
       <c r="B10" s="85"/>
-      <c r="C10" s="82"/>
+      <c r="C10" s="88"/>
       <c r="D10" s="18" t="s">
         <v>159</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F10" s="56"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="85"/>
       <c r="B11" s="85"/>
-      <c r="C11" s="82"/>
+      <c r="C11" s="88"/>
       <c r="D11" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F11" s="56"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="85"/>
       <c r="B12" s="85"/>
-      <c r="C12" s="82"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="18" t="s">
         <v>89</v>
       </c>
@@ -4796,67 +4840,67 @@
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
       <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
+      <c r="C13" s="88"/>
       <c r="D13" s="18" t="s">
         <v>90</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F13" s="56"/>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="85"/>
       <c r="B14" s="85"/>
-      <c r="C14" s="82"/>
+      <c r="C14" s="88"/>
       <c r="D14" s="18" t="s">
         <v>94</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="85"/>
       <c r="B15" s="85"/>
-      <c r="C15" s="82"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="82"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="18" t="s">
         <v>92</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F16" s="56"/>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
-      <c r="C17" s="82"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="18" t="s">
         <v>93</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F17" s="56"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
       <c r="B18" s="85"/>
-      <c r="C18" s="82"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="18" t="s">
         <v>95</v>
       </c>
@@ -4868,7 +4912,7 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
       <c r="B19" s="85"/>
-      <c r="C19" s="82"/>
+      <c r="C19" s="88"/>
       <c r="D19" s="18" t="s">
         <v>96</v>
       </c>
@@ -4880,7 +4924,7 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="85"/>
       <c r="B20" s="85"/>
-      <c r="C20" s="82"/>
+      <c r="C20" s="88"/>
       <c r="D20" s="18" t="s">
         <v>97</v>
       </c>
@@ -4892,7 +4936,7 @@
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
-      <c r="C21" s="82"/>
+      <c r="C21" s="88"/>
       <c r="D21" s="18" t="s">
         <v>31</v>
       </c>
@@ -4904,7 +4948,7 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
-      <c r="C22" s="82"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="18" t="s">
         <v>147</v>
       </c>
@@ -4917,7 +4961,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
-      <c r="C23" s="82"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="18" t="s">
         <v>283</v>
       </c>
@@ -4930,12 +4974,12 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
-      <c r="C24" s="82"/>
+      <c r="C24" s="88"/>
       <c r="D24" s="18" t="s">
         <v>119</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F24" s="56"/>
       <c r="H24" s="2"/>
@@ -4943,12 +4987,12 @@
     <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
-      <c r="C25" s="82"/>
+      <c r="C25" s="88"/>
       <c r="D25" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F25" s="56"/>
       <c r="H25" s="2"/>
@@ -4956,12 +5000,12 @@
     <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
       <c r="B26" s="85"/>
-      <c r="C26" s="82"/>
+      <c r="C26" s="88"/>
       <c r="D26" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F26" s="56"/>
       <c r="H26" s="2"/>
@@ -4969,12 +5013,12 @@
     <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="85"/>
       <c r="B27" s="85"/>
-      <c r="C27" s="82"/>
+      <c r="C27" s="88"/>
       <c r="D27" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F27" s="56"/>
       <c r="H27" s="2"/>
@@ -4982,12 +5026,12 @@
     <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="85"/>
       <c r="B28" s="85"/>
-      <c r="C28" s="82"/>
+      <c r="C28" s="88"/>
       <c r="D28" s="18" t="s">
         <v>100</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F28" s="56"/>
       <c r="H28" s="2"/>
@@ -4995,12 +5039,12 @@
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
       <c r="B29" s="85"/>
-      <c r="C29" s="82"/>
+      <c r="C29" s="88"/>
       <c r="D29" s="18" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F29" s="56"/>
       <c r="H29" s="2"/>
@@ -5008,12 +5052,12 @@
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="85"/>
-      <c r="C30" s="82"/>
+      <c r="C30" s="88"/>
       <c r="D30" s="18" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F30" s="56"/>
       <c r="H30" s="2"/>
@@ -5021,12 +5065,12 @@
     <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="85"/>
-      <c r="C31" s="82"/>
+      <c r="C31" s="88"/>
       <c r="D31" s="18" t="s">
         <v>106</v>
       </c>
       <c r="E31" s="40" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F31" s="56"/>
       <c r="H31" s="2"/>
@@ -5034,27 +5078,27 @@
     <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
       <c r="B32" s="85"/>
-      <c r="C32" s="82"/>
+      <c r="C32" s="88"/>
       <c r="D32" s="18" t="s">
         <v>33</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F32" s="56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
       <c r="B33" s="85"/>
-      <c r="C33" s="82"/>
+      <c r="C33" s="88"/>
       <c r="D33" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F33" s="56"/>
       <c r="H33" s="2"/>
@@ -5062,12 +5106,12 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="85"/>
       <c r="B34" s="85"/>
-      <c r="C34" s="82"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="18" t="s">
         <v>99</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F34" s="56"/>
       <c r="H34" s="2"/>
@@ -5075,7 +5119,7 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
       <c r="B35" s="85"/>
-      <c r="C35" s="82"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="43" t="s">
         <v>109</v>
       </c>
@@ -5088,7 +5132,7 @@
     <row r="36" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
       <c r="B36" s="85"/>
-      <c r="C36" s="82"/>
+      <c r="C36" s="88"/>
       <c r="D36" s="43" t="s">
         <v>141</v>
       </c>
@@ -5101,7 +5145,7 @@
     <row r="37" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
       <c r="B37" s="85"/>
-      <c r="C37" s="82"/>
+      <c r="C37" s="88"/>
       <c r="D37" s="43" t="s">
         <v>110</v>
       </c>
@@ -5114,12 +5158,12 @@
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="85"/>
       <c r="B38" s="85"/>
-      <c r="C38" s="82"/>
+      <c r="C38" s="88"/>
       <c r="D38" s="43" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E38" s="44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F38" s="56"/>
       <c r="H38" s="2"/>
@@ -5127,7 +5171,7 @@
     <row r="39" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="85"/>
       <c r="B39" s="85"/>
-      <c r="C39" s="82"/>
+      <c r="C39" s="88"/>
       <c r="D39" s="43" t="s">
         <v>116</v>
       </c>
@@ -5140,7 +5184,7 @@
     <row r="40" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="85"/>
       <c r="B40" s="85"/>
-      <c r="C40" s="82"/>
+      <c r="C40" s="88"/>
       <c r="D40" s="43" t="s">
         <v>5</v>
       </c>
@@ -5153,7 +5197,7 @@
     <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85"/>
       <c r="B41" s="85"/>
-      <c r="C41" s="82"/>
+      <c r="C41" s="88"/>
       <c r="D41" s="43" t="s">
         <v>105</v>
       </c>
@@ -5166,12 +5210,12 @@
     <row r="42" spans="1:8" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="85"/>
       <c r="B42" s="85"/>
-      <c r="C42" s="82"/>
+      <c r="C42" s="88"/>
       <c r="D42" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F42" s="56"/>
       <c r="H42" s="2"/>
@@ -5179,7 +5223,7 @@
     <row r="43" spans="1:8" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="85"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="87" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="38" t="s">
@@ -5194,7 +5238,7 @@
     <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="85"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="82"/>
+      <c r="C44" s="88"/>
       <c r="D44" s="18" t="s">
         <v>113</v>
       </c>
@@ -5206,7 +5250,7 @@
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="85"/>
       <c r="B45" s="85"/>
-      <c r="C45" s="82"/>
+      <c r="C45" s="88"/>
       <c r="D45" s="18" t="s">
         <v>137</v>
       </c>
@@ -5218,25 +5262,25 @@
     <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="85"/>
       <c r="B46" s="85"/>
-      <c r="C46" s="82"/>
+      <c r="C46" s="88"/>
       <c r="D46" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E46" s="40" t="s">
         <v>323</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="85"/>
       <c r="B47" s="85"/>
-      <c r="C47" s="83"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="41"/>
       <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
       <c r="B48" s="85"/>
-      <c r="C48" s="81" t="s">
+      <c r="C48" s="87" t="s">
         <v>101</v>
       </c>
       <c r="D48" s="38" t="s">
@@ -5250,7 +5294,7 @@
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="85"/>
       <c r="B49" s="85"/>
-      <c r="C49" s="82"/>
+      <c r="C49" s="88"/>
       <c r="D49" s="18" t="s">
         <v>103</v>
       </c>
@@ -5262,7 +5306,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="85"/>
       <c r="B50" s="85"/>
-      <c r="C50" s="82"/>
+      <c r="C50" s="88"/>
       <c r="D50" s="18" t="s">
         <v>289</v>
       </c>
@@ -5274,7 +5318,7 @@
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="85"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="82"/>
+      <c r="C51" s="88"/>
       <c r="D51" s="18" t="s">
         <v>290</v>
       </c>
@@ -5286,7 +5330,7 @@
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="85"/>
       <c r="B52" s="85"/>
-      <c r="C52" s="82"/>
+      <c r="C52" s="88"/>
       <c r="D52" s="18" t="s">
         <v>147</v>
       </c>
@@ -5298,7 +5342,7 @@
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="85"/>
       <c r="B53" s="85"/>
-      <c r="C53" s="82"/>
+      <c r="C53" s="88"/>
       <c r="D53" s="18" t="s">
         <v>206</v>
       </c>
@@ -5310,7 +5354,7 @@
     <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A54" s="85"/>
       <c r="B54" s="85"/>
-      <c r="C54" s="82"/>
+      <c r="C54" s="88"/>
       <c r="D54" s="18" t="s">
         <v>111</v>
       </c>
@@ -5322,19 +5366,19 @@
     <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="85"/>
       <c r="B55" s="85"/>
-      <c r="C55" s="82"/>
+      <c r="C55" s="88"/>
       <c r="D55" s="43" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F55" s="56"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="85"/>
       <c r="B56" s="85"/>
-      <c r="C56" s="82"/>
+      <c r="C56" s="88"/>
       <c r="D56" s="18" t="s">
         <v>283</v>
       </c>
@@ -5346,62 +5390,62 @@
     <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="85"/>
       <c r="B57" s="85"/>
-      <c r="C57" s="82"/>
+      <c r="C57" s="88"/>
       <c r="D57" s="43" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E57" s="44" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F57" s="56"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="85"/>
       <c r="B58" s="85"/>
-      <c r="C58" s="82"/>
+      <c r="C58" s="88"/>
       <c r="D58" s="43" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F58" s="56"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="85"/>
       <c r="B59" s="85"/>
-      <c r="C59" s="82"/>
+      <c r="C59" s="88"/>
       <c r="D59" s="43" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F59" s="56"/>
     </row>
     <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="85"/>
       <c r="B60" s="85"/>
-      <c r="C60" s="82"/>
+      <c r="C60" s="88"/>
       <c r="D60" s="43" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F60" s="56"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="85"/>
       <c r="B61" s="85"/>
-      <c r="C61" s="82"/>
+      <c r="C61" s="88"/>
       <c r="D61" s="43"/>
       <c r="E61" s="44"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="85"/>
       <c r="B62" s="85"/>
-      <c r="C62" s="82"/>
+      <c r="C62" s="88"/>
       <c r="D62" s="43" t="s">
         <v>293</v>
       </c>
@@ -5413,7 +5457,7 @@
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="85"/>
       <c r="B63" s="85"/>
-      <c r="C63" s="82"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="43" t="s">
         <v>294</v>
       </c>
@@ -5425,7 +5469,7 @@
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="85"/>
       <c r="B64" s="85"/>
-      <c r="C64" s="82"/>
+      <c r="C64" s="88"/>
       <c r="D64" s="43" t="s">
         <v>295</v>
       </c>
@@ -5437,7 +5481,7 @@
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="85"/>
       <c r="B65" s="85"/>
-      <c r="C65" s="82"/>
+      <c r="C65" s="88"/>
       <c r="D65" s="43" t="s">
         <v>296</v>
       </c>
@@ -5449,7 +5493,7 @@
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="85"/>
       <c r="B66" s="85"/>
-      <c r="C66" s="82"/>
+      <c r="C66" s="88"/>
       <c r="D66" s="43" t="s">
         <v>68</v>
       </c>
@@ -5461,7 +5505,7 @@
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="85"/>
       <c r="B67" s="85"/>
-      <c r="C67" s="82"/>
+      <c r="C67" s="88"/>
       <c r="D67" s="43" t="s">
         <v>297</v>
       </c>
@@ -5473,7 +5517,7 @@
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="85"/>
       <c r="B68" s="85"/>
-      <c r="C68" s="82"/>
+      <c r="C68" s="88"/>
       <c r="D68" s="43" t="s">
         <v>298</v>
       </c>
@@ -5485,7 +5529,7 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="85"/>
       <c r="B69" s="85"/>
-      <c r="C69" s="82"/>
+      <c r="C69" s="88"/>
       <c r="D69" s="43" t="s">
         <v>299</v>
       </c>
@@ -5497,26 +5541,26 @@
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="85"/>
       <c r="B70" s="85"/>
-      <c r="C70" s="82"/>
+      <c r="C70" s="88"/>
       <c r="D70" s="43" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F70" s="56"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="85"/>
       <c r="B71" s="85"/>
-      <c r="C71" s="82"/>
+      <c r="C71" s="88"/>
       <c r="D71" s="43"/>
       <c r="E71" s="44"/>
     </row>
     <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="85"/>
       <c r="B72" s="85"/>
-      <c r="C72" s="103"/>
+      <c r="C72" s="90"/>
       <c r="D72" s="18" t="s">
         <v>133</v>
       </c>
@@ -5528,14 +5572,14 @@
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="85"/>
       <c r="B73" s="85"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="105"/>
+      <c r="C73" s="88"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="61"/>
     </row>
     <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="86"/>
       <c r="B74" s="86"/>
-      <c r="C74" s="83"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="41"/>
       <c r="E74" s="42"/>
     </row>
@@ -5587,13 +5631,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="87">
+      <c r="A2" s="91">
         <v>3</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="94" t="s">
         <v>105</v>
       </c>
       <c r="D2" s="45" t="s">
@@ -5602,57 +5646,57 @@
       <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="91"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="92"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="51" t="s">
         <v>135</v>
       </c>
       <c r="E3" s="52"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="91"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="51" t="s">
         <v>136</v>
       </c>
       <c r="E4" s="52"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="91"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="22" t="s">
         <v>133</v>
       </c>
       <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="91"/>
+      <c r="A6" s="92"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="92"/>
+      <c r="A7" s="92"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="96"/>
       <c r="D7" s="48" t="s">
+        <v>322</v>
+      </c>
+      <c r="E7" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="E7" s="49" t="s">
-        <v>324</v>
-      </c>
       <c r="F7" s="56"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="90" t="s">
+      <c r="A8" s="92"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="94" t="s">
         <v>133</v>
       </c>
       <c r="D8" s="45" t="s">
@@ -5661,568 +5705,568 @@
       <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="91"/>
+      <c r="A9" s="92"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="47"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="91"/>
+      <c r="A10" s="92"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="22" t="s">
         <v>103</v>
       </c>
       <c r="E10" s="47"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="91"/>
+      <c r="A11" s="92"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="22" t="s">
         <v>104</v>
       </c>
       <c r="E11" s="47"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="91"/>
+      <c r="A12" s="92"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="95"/>
       <c r="D12" s="22" t="s">
         <v>111</v>
       </c>
       <c r="E12" s="47"/>
     </row>
     <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="92"/>
+      <c r="A13" s="92"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="96"/>
       <c r="D13" s="48"/>
       <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="90" t="s">
-        <v>354</v>
+      <c r="A14" s="92"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="94" t="s">
+        <v>351</v>
       </c>
       <c r="D14" s="45" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E14" s="46" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="91"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="95"/>
       <c r="D15" s="22"/>
       <c r="E15" s="47"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="91"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="95"/>
       <c r="D16" s="22"/>
       <c r="E16" s="47"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="91"/>
+      <c r="A17" s="92"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="95"/>
       <c r="D17" s="22"/>
       <c r="E17" s="47"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="91"/>
+      <c r="A18" s="92"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="95"/>
       <c r="D18" s="22"/>
       <c r="E18" s="47"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="91"/>
+      <c r="A19" s="92"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="95"/>
       <c r="D19" s="22"/>
       <c r="E19" s="47"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="91"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="95"/>
       <c r="D20" s="22"/>
       <c r="E20" s="47"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="91"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="95"/>
       <c r="D21" s="22"/>
       <c r="E21" s="47"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="22"/>
       <c r="E22" s="47"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="91"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="22"/>
       <c r="E23" s="47"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="91"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="95"/>
       <c r="D24" s="22"/>
       <c r="E24" s="47"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="91"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="22"/>
       <c r="E25" s="47"/>
     </row>
     <row r="26" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="92"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="48"/>
       <c r="E26" s="49"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="102"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="59"/>
       <c r="D27" s="51"/>
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
+      <c r="A29" s="92"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="22"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
+      <c r="A30" s="92"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
+      <c r="A31" s="92"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="21"/>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="21"/>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="92"/>
       <c r="C33" s="21"/>
       <c r="D33" s="22"/>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="88"/>
-      <c r="B34" s="88"/>
+      <c r="A34" s="92"/>
+      <c r="B34" s="92"/>
       <c r="C34" s="21"/>
       <c r="D34" s="22"/>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="88"/>
-      <c r="B35" s="88"/>
+      <c r="A35" s="92"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="21"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="88"/>
-      <c r="B36" s="88"/>
+      <c r="A36" s="92"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="21"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="88"/>
-      <c r="B37" s="88"/>
+      <c r="A37" s="92"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="21"/>
       <c r="D37" s="22"/>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
-      <c r="B38" s="88"/>
+      <c r="A38" s="92"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="21"/>
       <c r="D38" s="22"/>
       <c r="E38" s="22"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="88"/>
-      <c r="B39" s="88"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="21"/>
       <c r="D39" s="22"/>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88"/>
+      <c r="A40" s="92"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="21"/>
       <c r="D40" s="22"/>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
+      <c r="A41" s="92"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="21"/>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
+      <c r="A42" s="92"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="21"/>
       <c r="D42" s="22"/>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
+      <c r="A43" s="92"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
+      <c r="A44" s="92"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
+      <c r="A45" s="92"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
+      <c r="A46" s="92"/>
+      <c r="B46" s="92"/>
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
+      <c r="A47" s="92"/>
+      <c r="B47" s="92"/>
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
+      <c r="A48" s="92"/>
+      <c r="B48" s="92"/>
       <c r="C48" s="21"/>
       <c r="D48" s="22"/>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
+      <c r="A49" s="92"/>
+      <c r="B49" s="92"/>
       <c r="C49" s="21"/>
       <c r="D49" s="22"/>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
+      <c r="A50" s="92"/>
+      <c r="B50" s="92"/>
       <c r="C50" s="21"/>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
+      <c r="A51" s="92"/>
+      <c r="B51" s="92"/>
       <c r="C51" s="21"/>
       <c r="D51" s="22"/>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
+      <c r="A52" s="92"/>
+      <c r="B52" s="92"/>
       <c r="C52" s="21"/>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
+      <c r="A53" s="92"/>
+      <c r="B53" s="92"/>
       <c r="C53" s="21"/>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="88"/>
-      <c r="B54" s="88"/>
+      <c r="A54" s="92"/>
+      <c r="B54" s="92"/>
       <c r="C54" s="21"/>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="88"/>
-      <c r="B55" s="88"/>
+      <c r="A55" s="92"/>
+      <c r="B55" s="92"/>
       <c r="C55" s="21"/>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="88"/>
-      <c r="B56" s="88"/>
+      <c r="A56" s="92"/>
+      <c r="B56" s="92"/>
       <c r="C56" s="21"/>
       <c r="D56" s="22"/>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="88"/>
-      <c r="B57" s="88"/>
+      <c r="A57" s="92"/>
+      <c r="B57" s="92"/>
       <c r="C57" s="21"/>
       <c r="D57" s="22"/>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="88"/>
-      <c r="B58" s="88"/>
+      <c r="A58" s="92"/>
+      <c r="B58" s="92"/>
       <c r="C58" s="21"/>
       <c r="D58" s="22"/>
       <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="88"/>
-      <c r="B59" s="88"/>
+      <c r="A59" s="92"/>
+      <c r="B59" s="92"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="88"/>
-      <c r="B60" s="88"/>
+      <c r="A60" s="92"/>
+      <c r="B60" s="92"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
       <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="88"/>
-      <c r="B61" s="88"/>
+      <c r="A61" s="92"/>
+      <c r="B61" s="92"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="88"/>
-      <c r="B62" s="88"/>
+      <c r="A62" s="92"/>
+      <c r="B62" s="92"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
       <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="88"/>
-      <c r="B63" s="88"/>
+      <c r="A63" s="92"/>
+      <c r="B63" s="92"/>
       <c r="C63" s="21"/>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="88"/>
-      <c r="B64" s="88"/>
+      <c r="A64" s="92"/>
+      <c r="B64" s="92"/>
       <c r="C64" s="21"/>
       <c r="D64" s="22"/>
       <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="88"/>
-      <c r="B65" s="88"/>
+      <c r="A65" s="92"/>
+      <c r="B65" s="92"/>
       <c r="C65" s="21"/>
       <c r="D65" s="22"/>
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="88"/>
-      <c r="B66" s="88"/>
+      <c r="A66" s="92"/>
+      <c r="B66" s="92"/>
       <c r="C66" s="21"/>
       <c r="D66" s="22"/>
       <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="88"/>
-      <c r="B67" s="88"/>
+      <c r="A67" s="92"/>
+      <c r="B67" s="92"/>
       <c r="C67" s="21"/>
       <c r="D67" s="22"/>
       <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="88"/>
-      <c r="B68" s="88"/>
+      <c r="A68" s="92"/>
+      <c r="B68" s="92"/>
       <c r="C68" s="21"/>
       <c r="D68" s="22"/>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="88"/>
-      <c r="B69" s="88"/>
+      <c r="A69" s="92"/>
+      <c r="B69" s="92"/>
       <c r="C69" s="21"/>
       <c r="D69" s="22"/>
       <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="88"/>
-      <c r="B70" s="88"/>
+      <c r="A70" s="92"/>
+      <c r="B70" s="92"/>
       <c r="C70" s="21"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="88"/>
-      <c r="B71" s="88"/>
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
       <c r="C71" s="21"/>
       <c r="D71" s="22"/>
       <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="88"/>
-      <c r="B72" s="88"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
       <c r="C72" s="21"/>
       <c r="D72" s="22"/>
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="88"/>
-      <c r="B73" s="88"/>
+      <c r="A73" s="92"/>
+      <c r="B73" s="92"/>
       <c r="C73" s="21"/>
       <c r="D73" s="22"/>
       <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="88"/>
-      <c r="B74" s="88"/>
+      <c r="A74" s="92"/>
+      <c r="B74" s="92"/>
       <c r="C74" s="21"/>
       <c r="D74" s="22"/>
       <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="88"/>
-      <c r="B75" s="88"/>
+      <c r="A75" s="92"/>
+      <c r="B75" s="92"/>
       <c r="C75" s="21"/>
       <c r="D75" s="22"/>
       <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="88"/>
-      <c r="B76" s="88"/>
+      <c r="A76" s="92"/>
+      <c r="B76" s="92"/>
       <c r="C76" s="21"/>
       <c r="D76" s="22"/>
       <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="88"/>
-      <c r="B77" s="88"/>
+      <c r="A77" s="92"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="21"/>
       <c r="D77" s="22"/>
       <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="88"/>
-      <c r="B78" s="88"/>
+      <c r="A78" s="92"/>
+      <c r="B78" s="92"/>
       <c r="C78" s="21"/>
       <c r="D78" s="22"/>
       <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="88"/>
-      <c r="B79" s="88"/>
+      <c r="A79" s="92"/>
+      <c r="B79" s="92"/>
       <c r="C79" s="21"/>
       <c r="D79" s="22"/>
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="88"/>
-      <c r="B80" s="88"/>
+      <c r="A80" s="92"/>
+      <c r="B80" s="92"/>
       <c r="C80" s="21"/>
       <c r="D80" s="22"/>
       <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="88"/>
-      <c r="B81" s="88"/>
+      <c r="A81" s="92"/>
+      <c r="B81" s="92"/>
       <c r="C81" s="21"/>
       <c r="D81" s="22"/>
       <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="88"/>
-      <c r="B82" s="88"/>
+      <c r="A82" s="92"/>
+      <c r="B82" s="92"/>
       <c r="C82" s="21"/>
       <c r="D82" s="22"/>
       <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="88"/>
-      <c r="B83" s="88"/>
+      <c r="A83" s="92"/>
+      <c r="B83" s="92"/>
       <c r="C83" s="21"/>
       <c r="D83" s="22"/>
       <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="88"/>
-      <c r="B84" s="88"/>
+      <c r="A84" s="92"/>
+      <c r="B84" s="92"/>
       <c r="C84" s="21"/>
       <c r="D84" s="22"/>
       <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="88"/>
-      <c r="B85" s="88"/>
+      <c r="A85" s="92"/>
+      <c r="B85" s="92"/>
       <c r="C85" s="21"/>
       <c r="D85" s="22"/>
       <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="88"/>
-      <c r="B86" s="88"/>
+      <c r="A86" s="92"/>
+      <c r="B86" s="92"/>
       <c r="C86" s="21"/>
       <c r="D86" s="22"/>
       <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
+      <c r="A87" s="93"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="21"/>
       <c r="D87" s="22"/>
       <c r="E87" s="22"/>
@@ -6274,10 +6318,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="93">
+      <c r="A2" s="97">
         <v>2</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="97" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="29"/>
@@ -6285,582 +6329,582 @@
       <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="94"/>
-      <c r="B3" s="94"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
       <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
-      <c r="B4" s="94"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
       <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="94"/>
-      <c r="B5" s="94"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
       <c r="C5" s="31"/>
       <c r="D5" s="32"/>
       <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
       <c r="C6" s="31"/>
       <c r="D6" s="32"/>
       <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="31"/>
       <c r="D7" s="32"/>
       <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
       <c r="C8" s="31"/>
       <c r="D8" s="32"/>
       <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
+      <c r="A9" s="98"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="31"/>
       <c r="D9" s="32"/>
       <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="94"/>
-      <c r="B10" s="94"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
       <c r="C10" s="31"/>
       <c r="D10" s="32"/>
       <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="94"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
       <c r="C11" s="31"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="94"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
       <c r="C12" s="31"/>
       <c r="D12" s="32"/>
       <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="94"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
       <c r="C13" s="31"/>
       <c r="D13" s="32"/>
       <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
       <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="94"/>
-      <c r="B15" s="94"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
       <c r="C15" s="31"/>
       <c r="D15" s="32"/>
       <c r="E15" s="32"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="94"/>
-      <c r="B16" s="94"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="94"/>
-      <c r="B17" s="94"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
       <c r="C17" s="31"/>
       <c r="D17" s="32"/>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="94"/>
-      <c r="B18" s="94"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
       <c r="C18" s="31"/>
       <c r="D18" s="32"/>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="94"/>
-      <c r="B19" s="94"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
       <c r="C19" s="31"/>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="94"/>
-      <c r="B20" s="94"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
       <c r="C20" s="31"/>
       <c r="D20" s="32"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="94"/>
-      <c r="B21" s="94"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
       <c r="C21" s="31"/>
       <c r="D21" s="32"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
       <c r="C22" s="31"/>
       <c r="D22" s="32"/>
       <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
       <c r="C23" s="31"/>
       <c r="D23" s="32"/>
       <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
       <c r="C24" s="31"/>
       <c r="D24" s="32"/>
       <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="94"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
       <c r="C25" s="31"/>
       <c r="D25" s="32"/>
       <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="94"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
       <c r="C26" s="31"/>
       <c r="D26" s="32"/>
       <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="31"/>
       <c r="D27" s="32"/>
       <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="94"/>
-      <c r="B28" s="94"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="31"/>
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="94"/>
-      <c r="B29" s="94"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="31"/>
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="94"/>
-      <c r="B30" s="94"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="31"/>
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
-      <c r="B31" s="94"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
       <c r="C31" s="31"/>
       <c r="D31" s="32"/>
       <c r="E31" s="32"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="94"/>
-      <c r="B32" s="94"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
       <c r="C32" s="31"/>
       <c r="D32" s="32"/>
       <c r="E32" s="32"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="94"/>
-      <c r="B33" s="94"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="31"/>
       <c r="D33" s="32"/>
       <c r="E33" s="32"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="94"/>
-      <c r="B34" s="94"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
       <c r="C34" s="31"/>
       <c r="D34" s="32"/>
       <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="94"/>
-      <c r="B35" s="94"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
       <c r="C35" s="31"/>
       <c r="D35" s="32"/>
       <c r="E35" s="32"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="94"/>
-      <c r="B36" s="94"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="31"/>
       <c r="D36" s="32"/>
       <c r="E36" s="32"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="94"/>
-      <c r="B37" s="94"/>
+      <c r="A37" s="98"/>
+      <c r="B37" s="98"/>
       <c r="C37" s="31"/>
       <c r="D37" s="32"/>
       <c r="E37" s="32"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="94"/>
-      <c r="B38" s="94"/>
+      <c r="A38" s="98"/>
+      <c r="B38" s="98"/>
       <c r="C38" s="31"/>
       <c r="D38" s="32"/>
       <c r="E38" s="32"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="94"/>
-      <c r="B39" s="94"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
       <c r="C39" s="31"/>
       <c r="D39" s="32"/>
       <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
+      <c r="A40" s="98"/>
+      <c r="B40" s="98"/>
       <c r="C40" s="31"/>
       <c r="D40" s="32"/>
       <c r="E40" s="32"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
       <c r="C41" s="31"/>
       <c r="D41" s="32"/>
       <c r="E41" s="32"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
       <c r="C42" s="31"/>
       <c r="D42" s="32"/>
       <c r="E42" s="32"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="94"/>
-      <c r="B43" s="94"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
       <c r="C43" s="31"/>
       <c r="D43" s="32"/>
       <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="94"/>
-      <c r="B44" s="94"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="31"/>
       <c r="D44" s="32"/>
       <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="94"/>
-      <c r="B45" s="94"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="31"/>
       <c r="D45" s="32"/>
       <c r="E45" s="32"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="31"/>
       <c r="D46" s="32"/>
       <c r="E46" s="32"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="94"/>
-      <c r="B47" s="94"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
       <c r="C47" s="31"/>
       <c r="D47" s="32"/>
       <c r="E47" s="32"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="94"/>
-      <c r="B48" s="94"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="31"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="94"/>
-      <c r="B49" s="94"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="31"/>
       <c r="D49" s="32"/>
       <c r="E49" s="32"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="94"/>
-      <c r="B50" s="94"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="31"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="94"/>
-      <c r="B51" s="94"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="31"/>
       <c r="D51" s="32"/>
       <c r="E51" s="32"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="94"/>
-      <c r="B52" s="94"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="31"/>
       <c r="D52" s="32"/>
       <c r="E52" s="32"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="94"/>
-      <c r="B53" s="94"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
       <c r="C53" s="31"/>
       <c r="D53" s="32"/>
       <c r="E53" s="32"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
       <c r="C54" s="31"/>
       <c r="D54" s="32"/>
       <c r="E54" s="32"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="94"/>
-      <c r="B55" s="94"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="31"/>
       <c r="D55" s="32"/>
       <c r="E55" s="32"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="94"/>
-      <c r="B56" s="94"/>
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
       <c r="C56" s="31"/>
       <c r="D56" s="32"/>
       <c r="E56" s="32"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="94"/>
-      <c r="B57" s="94"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
       <c r="C57" s="31"/>
       <c r="D57" s="32"/>
       <c r="E57" s="32"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="94"/>
-      <c r="B58" s="94"/>
+      <c r="A58" s="98"/>
+      <c r="B58" s="98"/>
       <c r="C58" s="31"/>
       <c r="D58" s="32"/>
       <c r="E58" s="32"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="94"/>
-      <c r="B59" s="94"/>
+      <c r="A59" s="98"/>
+      <c r="B59" s="98"/>
       <c r="C59" s="31"/>
       <c r="D59" s="32"/>
       <c r="E59" s="32"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="94"/>
-      <c r="B60" s="94"/>
+      <c r="A60" s="98"/>
+      <c r="B60" s="98"/>
       <c r="C60" s="31"/>
       <c r="D60" s="32"/>
       <c r="E60" s="32"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="94"/>
-      <c r="B61" s="94"/>
+      <c r="A61" s="98"/>
+      <c r="B61" s="98"/>
       <c r="C61" s="31"/>
       <c r="D61" s="32"/>
       <c r="E61" s="32"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="94"/>
-      <c r="B62" s="94"/>
+      <c r="A62" s="98"/>
+      <c r="B62" s="98"/>
       <c r="C62" s="31"/>
       <c r="D62" s="32"/>
       <c r="E62" s="32"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="94"/>
-      <c r="B63" s="94"/>
+      <c r="A63" s="98"/>
+      <c r="B63" s="98"/>
       <c r="C63" s="31"/>
       <c r="D63" s="32"/>
       <c r="E63" s="32"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="94"/>
-      <c r="B64" s="94"/>
+      <c r="A64" s="98"/>
+      <c r="B64" s="98"/>
       <c r="C64" s="31"/>
       <c r="D64" s="32"/>
       <c r="E64" s="32"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="94"/>
-      <c r="B65" s="94"/>
+      <c r="A65" s="98"/>
+      <c r="B65" s="98"/>
       <c r="C65" s="31"/>
       <c r="D65" s="32"/>
       <c r="E65" s="32"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="94"/>
-      <c r="B66" s="94"/>
+      <c r="A66" s="98"/>
+      <c r="B66" s="98"/>
       <c r="C66" s="31"/>
       <c r="D66" s="32"/>
       <c r="E66" s="32"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="94"/>
-      <c r="B67" s="94"/>
+      <c r="A67" s="98"/>
+      <c r="B67" s="98"/>
       <c r="C67" s="31"/>
       <c r="D67" s="32"/>
       <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="94"/>
-      <c r="B68" s="94"/>
+      <c r="A68" s="98"/>
+      <c r="B68" s="98"/>
       <c r="C68" s="31"/>
       <c r="D68" s="32"/>
       <c r="E68" s="32"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="94"/>
-      <c r="B69" s="94"/>
+      <c r="A69" s="98"/>
+      <c r="B69" s="98"/>
       <c r="C69" s="31"/>
       <c r="D69" s="32"/>
       <c r="E69" s="32"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="94"/>
-      <c r="B70" s="94"/>
+      <c r="A70" s="98"/>
+      <c r="B70" s="98"/>
       <c r="C70" s="31"/>
       <c r="D70" s="32"/>
       <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="94"/>
-      <c r="B71" s="94"/>
+      <c r="A71" s="98"/>
+      <c r="B71" s="98"/>
       <c r="C71" s="31"/>
       <c r="D71" s="32"/>
       <c r="E71" s="32"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
+      <c r="A72" s="98"/>
+      <c r="B72" s="98"/>
       <c r="C72" s="31"/>
       <c r="D72" s="32"/>
       <c r="E72" s="32"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="94"/>
-      <c r="B73" s="94"/>
+      <c r="A73" s="98"/>
+      <c r="B73" s="98"/>
       <c r="C73" s="31"/>
       <c r="D73" s="32"/>
       <c r="E73" s="32"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="94"/>
-      <c r="B74" s="94"/>
+      <c r="A74" s="98"/>
+      <c r="B74" s="98"/>
       <c r="C74" s="31"/>
       <c r="D74" s="32"/>
       <c r="E74" s="32"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="94"/>
-      <c r="B75" s="94"/>
+      <c r="A75" s="98"/>
+      <c r="B75" s="98"/>
       <c r="C75" s="31"/>
       <c r="D75" s="32"/>
       <c r="E75" s="32"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="94"/>
-      <c r="B76" s="94"/>
+      <c r="A76" s="98"/>
+      <c r="B76" s="98"/>
       <c r="C76" s="31"/>
       <c r="D76" s="32"/>
       <c r="E76" s="32"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="94"/>
-      <c r="B77" s="94"/>
+      <c r="A77" s="98"/>
+      <c r="B77" s="98"/>
       <c r="C77" s="31"/>
       <c r="D77" s="32"/>
       <c r="E77" s="32"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="94"/>
-      <c r="B78" s="94"/>
+      <c r="A78" s="98"/>
+      <c r="B78" s="98"/>
       <c r="C78" s="31"/>
       <c r="D78" s="32"/>
       <c r="E78" s="32"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="94"/>
-      <c r="B79" s="94"/>
+      <c r="A79" s="98"/>
+      <c r="B79" s="98"/>
       <c r="C79" s="31"/>
       <c r="D79" s="32"/>
       <c r="E79" s="32"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="94"/>
-      <c r="B80" s="94"/>
+      <c r="A80" s="98"/>
+      <c r="B80" s="98"/>
       <c r="C80" s="31"/>
       <c r="D80" s="32"/>
       <c r="E80" s="32"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="94"/>
-      <c r="B81" s="94"/>
+      <c r="A81" s="98"/>
+      <c r="B81" s="98"/>
       <c r="C81" s="31"/>
       <c r="D81" s="32"/>
       <c r="E81" s="32"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="94"/>
-      <c r="B82" s="94"/>
+      <c r="A82" s="98"/>
+      <c r="B82" s="98"/>
       <c r="C82" s="31"/>
       <c r="D82" s="32"/>
       <c r="E82" s="32"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="94"/>
-      <c r="B83" s="94"/>
+      <c r="A83" s="98"/>
+      <c r="B83" s="98"/>
       <c r="C83" s="31"/>
       <c r="D83" s="32"/>
       <c r="E83" s="32"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="94"/>
-      <c r="B84" s="94"/>
+      <c r="A84" s="98"/>
+      <c r="B84" s="98"/>
       <c r="C84" s="31"/>
       <c r="D84" s="32"/>
       <c r="E84" s="32"/>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="95"/>
-      <c r="B85" s="95"/>
+      <c r="A85" s="99"/>
+      <c r="B85" s="99"/>
       <c r="C85" s="31"/>
       <c r="D85" s="32"/>
       <c r="E85" s="32"/>
@@ -6909,10 +6953,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="96">
+      <c r="A2" s="100">
         <v>2</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="100" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="23"/>
@@ -6920,582 +6964,582 @@
       <c r="E2" s="24"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="97"/>
-      <c r="B3" s="97"/>
+      <c r="A3" s="101"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="25"/>
       <c r="D3" s="26"/>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="97"/>
-      <c r="B4" s="97"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="25"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="97"/>
-      <c r="B5" s="97"/>
+      <c r="A5" s="101"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="25"/>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="97"/>
-      <c r="B6" s="97"/>
+      <c r="A6" s="101"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="25"/>
       <c r="D6" s="26"/>
       <c r="E6" s="26"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="97"/>
-      <c r="B7" s="97"/>
+      <c r="A7" s="101"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="25"/>
       <c r="D7" s="26"/>
       <c r="E7" s="26"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
+      <c r="A8" s="101"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="97"/>
-      <c r="B9" s="97"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="97"/>
-      <c r="B10" s="97"/>
+      <c r="A10" s="101"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="97"/>
-      <c r="B11" s="97"/>
+      <c r="A11" s="101"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="97"/>
-      <c r="B12" s="97"/>
+      <c r="A12" s="101"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
       <c r="E12" s="26"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="97"/>
-      <c r="B13" s="97"/>
+      <c r="A13" s="101"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="97"/>
-      <c r="B14" s="97"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="101"/>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
       <c r="E14" s="26"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="97"/>
-      <c r="B15" s="97"/>
+      <c r="A15" s="101"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="25"/>
       <c r="D15" s="26"/>
       <c r="E15" s="26"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="97"/>
-      <c r="B16" s="97"/>
+      <c r="A16" s="101"/>
+      <c r="B16" s="101"/>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="97"/>
-      <c r="B17" s="97"/>
+      <c r="A17" s="101"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="25"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="97"/>
-      <c r="B18" s="97"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="25"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="25"/>
       <c r="D19" s="26"/>
       <c r="E19" s="26"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="97"/>
-      <c r="B20" s="97"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="101"/>
       <c r="C20" s="25"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="97"/>
-      <c r="B21" s="97"/>
+      <c r="A21" s="101"/>
+      <c r="B21" s="101"/>
       <c r="C21" s="25"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="97"/>
-      <c r="B22" s="97"/>
+      <c r="A22" s="101"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="25"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="97"/>
-      <c r="B23" s="97"/>
+      <c r="A23" s="101"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="25"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="97"/>
-      <c r="B24" s="97"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="25"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="97"/>
-      <c r="B25" s="97"/>
+      <c r="A25" s="101"/>
+      <c r="B25" s="101"/>
       <c r="C25" s="25"/>
       <c r="D25" s="26"/>
       <c r="E25" s="26"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="97"/>
-      <c r="B26" s="97"/>
+      <c r="A26" s="101"/>
+      <c r="B26" s="101"/>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
       <c r="E26" s="26"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="97"/>
-      <c r="B27" s="97"/>
+      <c r="A27" s="101"/>
+      <c r="B27" s="101"/>
       <c r="C27" s="25"/>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="97"/>
-      <c r="B28" s="97"/>
+      <c r="A28" s="101"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="97"/>
-      <c r="B29" s="97"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="25"/>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="97"/>
-      <c r="B30" s="97"/>
+      <c r="A30" s="101"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="25"/>
       <c r="D30" s="26"/>
       <c r="E30" s="26"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
+      <c r="A31" s="101"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
       <c r="E31" s="26"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="97"/>
-      <c r="B32" s="97"/>
+      <c r="A32" s="101"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
+      <c r="A33" s="101"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="25"/>
       <c r="D33" s="26"/>
       <c r="E33" s="26"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="97"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="101"/>
+      <c r="B34" s="101"/>
       <c r="C34" s="25"/>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="97"/>
-      <c r="B35" s="97"/>
+      <c r="A35" s="101"/>
+      <c r="B35" s="101"/>
       <c r="C35" s="25"/>
       <c r="D35" s="26"/>
       <c r="E35" s="26"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="97"/>
-      <c r="B36" s="97"/>
+      <c r="A36" s="101"/>
+      <c r="B36" s="101"/>
       <c r="C36" s="25"/>
       <c r="D36" s="26"/>
       <c r="E36" s="26"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="97"/>
-      <c r="B37" s="97"/>
+      <c r="A37" s="101"/>
+      <c r="B37" s="101"/>
       <c r="C37" s="25"/>
       <c r="D37" s="26"/>
       <c r="E37" s="26"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="97"/>
-      <c r="B38" s="97"/>
+      <c r="A38" s="101"/>
+      <c r="B38" s="101"/>
       <c r="C38" s="25"/>
       <c r="D38" s="26"/>
       <c r="E38" s="26"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="97"/>
-      <c r="B39" s="97"/>
+      <c r="A39" s="101"/>
+      <c r="B39" s="101"/>
       <c r="C39" s="25"/>
       <c r="D39" s="26"/>
       <c r="E39" s="26"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="97"/>
-      <c r="B40" s="97"/>
+      <c r="A40" s="101"/>
+      <c r="B40" s="101"/>
       <c r="C40" s="25"/>
       <c r="D40" s="26"/>
       <c r="E40" s="26"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="97"/>
-      <c r="B41" s="97"/>
+      <c r="A41" s="101"/>
+      <c r="B41" s="101"/>
       <c r="C41" s="25"/>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="97"/>
-      <c r="B42" s="97"/>
+      <c r="A42" s="101"/>
+      <c r="B42" s="101"/>
       <c r="C42" s="25"/>
       <c r="D42" s="26"/>
       <c r="E42" s="26"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
+      <c r="A43" s="101"/>
+      <c r="B43" s="101"/>
       <c r="C43" s="25"/>
       <c r="D43" s="26"/>
       <c r="E43" s="26"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="97"/>
-      <c r="B44" s="97"/>
+      <c r="A44" s="101"/>
+      <c r="B44" s="101"/>
       <c r="C44" s="25"/>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
+      <c r="A45" s="101"/>
+      <c r="B45" s="101"/>
       <c r="C45" s="25"/>
       <c r="D45" s="26"/>
       <c r="E45" s="26"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="97"/>
-      <c r="B46" s="97"/>
+      <c r="A46" s="101"/>
+      <c r="B46" s="101"/>
       <c r="C46" s="25"/>
       <c r="D46" s="26"/>
       <c r="E46" s="26"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="97"/>
-      <c r="B47" s="97"/>
+      <c r="A47" s="101"/>
+      <c r="B47" s="101"/>
       <c r="C47" s="25"/>
       <c r="D47" s="26"/>
       <c r="E47" s="26"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="97"/>
-      <c r="B48" s="97"/>
+      <c r="A48" s="101"/>
+      <c r="B48" s="101"/>
       <c r="C48" s="25"/>
       <c r="D48" s="26"/>
       <c r="E48" s="26"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="97"/>
-      <c r="B49" s="97"/>
+      <c r="A49" s="101"/>
+      <c r="B49" s="101"/>
       <c r="C49" s="25"/>
       <c r="D49" s="26"/>
       <c r="E49" s="26"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="97"/>
-      <c r="B50" s="97"/>
+      <c r="A50" s="101"/>
+      <c r="B50" s="101"/>
       <c r="C50" s="25"/>
       <c r="D50" s="26"/>
       <c r="E50" s="26"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="97"/>
-      <c r="B51" s="97"/>
+      <c r="A51" s="101"/>
+      <c r="B51" s="101"/>
       <c r="C51" s="25"/>
       <c r="D51" s="26"/>
       <c r="E51" s="26"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="97"/>
-      <c r="B52" s="97"/>
+      <c r="A52" s="101"/>
+      <c r="B52" s="101"/>
       <c r="C52" s="25"/>
       <c r="D52" s="26"/>
       <c r="E52" s="26"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="97"/>
-      <c r="B53" s="97"/>
+      <c r="A53" s="101"/>
+      <c r="B53" s="101"/>
       <c r="C53" s="25"/>
       <c r="D53" s="26"/>
       <c r="E53" s="26"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="97"/>
-      <c r="B54" s="97"/>
+      <c r="A54" s="101"/>
+      <c r="B54" s="101"/>
       <c r="C54" s="25"/>
       <c r="D54" s="26"/>
       <c r="E54" s="26"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="97"/>
-      <c r="B55" s="97"/>
+      <c r="A55" s="101"/>
+      <c r="B55" s="101"/>
       <c r="C55" s="25"/>
       <c r="D55" s="26"/>
       <c r="E55" s="26"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="97"/>
-      <c r="B56" s="97"/>
+      <c r="A56" s="101"/>
+      <c r="B56" s="101"/>
       <c r="C56" s="25"/>
       <c r="D56" s="26"/>
       <c r="E56" s="26"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="97"/>
-      <c r="B57" s="97"/>
+      <c r="A57" s="101"/>
+      <c r="B57" s="101"/>
       <c r="C57" s="25"/>
       <c r="D57" s="26"/>
       <c r="E57" s="26"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="97"/>
-      <c r="B58" s="97"/>
+      <c r="A58" s="101"/>
+      <c r="B58" s="101"/>
       <c r="C58" s="25"/>
       <c r="D58" s="26"/>
       <c r="E58" s="26"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="97"/>
-      <c r="B59" s="97"/>
+      <c r="A59" s="101"/>
+      <c r="B59" s="101"/>
       <c r="C59" s="25"/>
       <c r="D59" s="26"/>
       <c r="E59" s="26"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="97"/>
-      <c r="B60" s="97"/>
+      <c r="A60" s="101"/>
+      <c r="B60" s="101"/>
       <c r="C60" s="25"/>
       <c r="D60" s="26"/>
       <c r="E60" s="26"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="97"/>
-      <c r="B61" s="97"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="101"/>
       <c r="C61" s="25"/>
       <c r="D61" s="26"/>
       <c r="E61" s="26"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="97"/>
-      <c r="B62" s="97"/>
+      <c r="A62" s="101"/>
+      <c r="B62" s="101"/>
       <c r="C62" s="25"/>
       <c r="D62" s="26"/>
       <c r="E62" s="26"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="97"/>
-      <c r="B63" s="97"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="101"/>
       <c r="C63" s="25"/>
       <c r="D63" s="26"/>
       <c r="E63" s="26"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="97"/>
-      <c r="B64" s="97"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="101"/>
       <c r="C64" s="25"/>
       <c r="D64" s="26"/>
       <c r="E64" s="26"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="97"/>
-      <c r="B65" s="97"/>
+      <c r="A65" s="101"/>
+      <c r="B65" s="101"/>
       <c r="C65" s="25"/>
       <c r="D65" s="26"/>
       <c r="E65" s="26"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="97"/>
-      <c r="B66" s="97"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="101"/>
       <c r="C66" s="25"/>
       <c r="D66" s="26"/>
       <c r="E66" s="26"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="97"/>
-      <c r="B67" s="97"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="101"/>
       <c r="C67" s="25"/>
       <c r="D67" s="26"/>
       <c r="E67" s="26"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="97"/>
-      <c r="B68" s="97"/>
+      <c r="A68" s="101"/>
+      <c r="B68" s="101"/>
       <c r="C68" s="25"/>
       <c r="D68" s="26"/>
       <c r="E68" s="26"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="97"/>
-      <c r="B69" s="97"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="101"/>
       <c r="C69" s="25"/>
       <c r="D69" s="26"/>
       <c r="E69" s="26"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="97"/>
-      <c r="B70" s="97"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="101"/>
       <c r="C70" s="25"/>
       <c r="D70" s="26"/>
       <c r="E70" s="26"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="97"/>
-      <c r="B71" s="97"/>
+      <c r="A71" s="101"/>
+      <c r="B71" s="101"/>
       <c r="C71" s="25"/>
       <c r="D71" s="26"/>
       <c r="E71" s="26"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="97"/>
-      <c r="B72" s="97"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="101"/>
       <c r="C72" s="25"/>
       <c r="D72" s="26"/>
       <c r="E72" s="26"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="97"/>
-      <c r="B73" s="97"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="101"/>
       <c r="C73" s="25"/>
       <c r="D73" s="26"/>
       <c r="E73" s="26"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="97"/>
-      <c r="B74" s="97"/>
+      <c r="A74" s="101"/>
+      <c r="B74" s="101"/>
       <c r="C74" s="25"/>
       <c r="D74" s="26"/>
       <c r="E74" s="26"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="97"/>
-      <c r="B75" s="97"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="101"/>
       <c r="C75" s="25"/>
       <c r="D75" s="26"/>
       <c r="E75" s="26"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="97"/>
-      <c r="B76" s="97"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="101"/>
       <c r="C76" s="25"/>
       <c r="D76" s="26"/>
       <c r="E76" s="26"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="97"/>
-      <c r="B77" s="97"/>
+      <c r="A77" s="101"/>
+      <c r="B77" s="101"/>
       <c r="C77" s="25"/>
       <c r="D77" s="26"/>
       <c r="E77" s="26"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="97"/>
-      <c r="B78" s="97"/>
+      <c r="A78" s="101"/>
+      <c r="B78" s="101"/>
       <c r="C78" s="25"/>
       <c r="D78" s="26"/>
       <c r="E78" s="26"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="97"/>
-      <c r="B79" s="97"/>
+      <c r="A79" s="101"/>
+      <c r="B79" s="101"/>
       <c r="C79" s="25"/>
       <c r="D79" s="26"/>
       <c r="E79" s="26"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="97"/>
-      <c r="B80" s="97"/>
+      <c r="A80" s="101"/>
+      <c r="B80" s="101"/>
       <c r="C80" s="25"/>
       <c r="D80" s="26"/>
       <c r="E80" s="26"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="97"/>
-      <c r="B81" s="97"/>
+      <c r="A81" s="101"/>
+      <c r="B81" s="101"/>
       <c r="C81" s="25"/>
       <c r="D81" s="26"/>
       <c r="E81" s="26"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="97"/>
-      <c r="B82" s="97"/>
+      <c r="A82" s="101"/>
+      <c r="B82" s="101"/>
       <c r="C82" s="25"/>
       <c r="D82" s="26"/>
       <c r="E82" s="26"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="97"/>
-      <c r="B83" s="97"/>
+      <c r="A83" s="101"/>
+      <c r="B83" s="101"/>
       <c r="C83" s="25"/>
       <c r="D83" s="26"/>
       <c r="E83" s="26"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="97"/>
-      <c r="B84" s="97"/>
+      <c r="A84" s="101"/>
+      <c r="B84" s="101"/>
       <c r="C84" s="25"/>
       <c r="D84" s="26"/>
       <c r="E84" s="26"/>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="98"/>
-      <c r="B85" s="98"/>
+      <c r="A85" s="102"/>
+      <c r="B85" s="102"/>
       <c r="C85" s="25"/>
       <c r="D85" s="26"/>
       <c r="E85" s="26"/>
@@ -7544,10 +7588,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="99">
+      <c r="A2" s="103">
         <v>2</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="103" t="s">
         <v>82</v>
       </c>
       <c r="C2" s="34"/>
@@ -7555,582 +7599,582 @@
       <c r="E2" s="35"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="104"/>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
       <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="100"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="104"/>
+      <c r="B4" s="104"/>
       <c r="C4" s="36"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="100"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="104"/>
+      <c r="B5" s="104"/>
       <c r="C5" s="36"/>
       <c r="D5" s="37"/>
       <c r="E5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
-      <c r="B6" s="100"/>
+      <c r="A6" s="104"/>
+      <c r="B6" s="104"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="100"/>
+      <c r="A7" s="104"/>
+      <c r="B7" s="104"/>
       <c r="C7" s="36"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="104"/>
       <c r="C8" s="36"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="100"/>
+      <c r="A9" s="104"/>
+      <c r="B9" s="104"/>
       <c r="C9" s="36"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="100"/>
-      <c r="B11" s="100"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="104"/>
       <c r="C11" s="36"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="100"/>
-      <c r="B12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="104"/>
       <c r="C12" s="36"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="100"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="104"/>
       <c r="C13" s="36"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="100"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="104"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="100"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="104"/>
       <c r="C15" s="36"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="100"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="104"/>
       <c r="C16" s="36"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="100"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="104"/>
+      <c r="B17" s="104"/>
       <c r="C17" s="36"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="100"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="104"/>
       <c r="C18" s="36"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="100"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="36"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="100"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="104"/>
       <c r="C20" s="36"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="100"/>
-      <c r="B21" s="100"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="104"/>
       <c r="C21" s="36"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="100"/>
-      <c r="B22" s="100"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="36"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="100"/>
-      <c r="B23" s="100"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="104"/>
       <c r="C23" s="36"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="100"/>
-      <c r="B24" s="100"/>
+      <c r="A24" s="104"/>
+      <c r="B24" s="104"/>
       <c r="C24" s="36"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="100"/>
-      <c r="B25" s="100"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="104"/>
       <c r="C25" s="36"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="100"/>
-      <c r="B26" s="100"/>
+      <c r="A26" s="104"/>
+      <c r="B26" s="104"/>
       <c r="C26" s="36"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
-      <c r="B27" s="100"/>
+      <c r="A27" s="104"/>
+      <c r="B27" s="104"/>
       <c r="C27" s="36"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="100"/>
-      <c r="B28" s="100"/>
+      <c r="A28" s="104"/>
+      <c r="B28" s="104"/>
       <c r="C28" s="36"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="100"/>
-      <c r="B29" s="100"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="104"/>
       <c r="C29" s="36"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="100"/>
-      <c r="B30" s="100"/>
+      <c r="A30" s="104"/>
+      <c r="B30" s="104"/>
       <c r="C30" s="36"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="100"/>
-      <c r="B31" s="100"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="104"/>
       <c r="C31" s="36"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="100"/>
-      <c r="B32" s="100"/>
+      <c r="A32" s="104"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="36"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="100"/>
-      <c r="B33" s="100"/>
+      <c r="A33" s="104"/>
+      <c r="B33" s="104"/>
       <c r="C33" s="36"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="100"/>
-      <c r="B34" s="100"/>
+      <c r="A34" s="104"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="36"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
-      <c r="B35" s="100"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="104"/>
       <c r="C35" s="36"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="100"/>
-      <c r="B36" s="100"/>
+      <c r="A36" s="104"/>
+      <c r="B36" s="104"/>
       <c r="C36" s="36"/>
       <c r="D36" s="37"/>
       <c r="E36" s="37"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="100"/>
-      <c r="B37" s="100"/>
+      <c r="A37" s="104"/>
+      <c r="B37" s="104"/>
       <c r="C37" s="36"/>
       <c r="D37" s="37"/>
       <c r="E37" s="37"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="100"/>
-      <c r="B38" s="100"/>
+      <c r="A38" s="104"/>
+      <c r="B38" s="104"/>
       <c r="C38" s="36"/>
       <c r="D38" s="37"/>
       <c r="E38" s="37"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
+      <c r="A39" s="104"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="36"/>
       <c r="D39" s="37"/>
       <c r="E39" s="37"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
+      <c r="A40" s="104"/>
+      <c r="B40" s="104"/>
       <c r="C40" s="36"/>
       <c r="D40" s="37"/>
       <c r="E40" s="37"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="100"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="104"/>
       <c r="C41" s="36"/>
       <c r="D41" s="37"/>
       <c r="E41" s="37"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="100"/>
-      <c r="B42" s="100"/>
+      <c r="A42" s="104"/>
+      <c r="B42" s="104"/>
       <c r="C42" s="36"/>
       <c r="D42" s="37"/>
       <c r="E42" s="37"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
-      <c r="B43" s="100"/>
+      <c r="A43" s="104"/>
+      <c r="B43" s="104"/>
       <c r="C43" s="36"/>
       <c r="D43" s="37"/>
       <c r="E43" s="37"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
-      <c r="B44" s="100"/>
+      <c r="A44" s="104"/>
+      <c r="B44" s="104"/>
       <c r="C44" s="36"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="100"/>
-      <c r="B45" s="100"/>
+      <c r="A45" s="104"/>
+      <c r="B45" s="104"/>
       <c r="C45" s="36"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="100"/>
-      <c r="B46" s="100"/>
+      <c r="A46" s="104"/>
+      <c r="B46" s="104"/>
       <c r="C46" s="36"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="100"/>
-      <c r="B47" s="100"/>
+      <c r="A47" s="104"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="36"/>
       <c r="D47" s="37"/>
       <c r="E47" s="37"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="100"/>
-      <c r="B48" s="100"/>
+      <c r="A48" s="104"/>
+      <c r="B48" s="104"/>
       <c r="C48" s="36"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="100"/>
-      <c r="B49" s="100"/>
+      <c r="A49" s="104"/>
+      <c r="B49" s="104"/>
       <c r="C49" s="36"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="100"/>
-      <c r="B50" s="100"/>
+      <c r="A50" s="104"/>
+      <c r="B50" s="104"/>
       <c r="C50" s="36"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
-      <c r="B51" s="100"/>
+      <c r="A51" s="104"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="36"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
-      <c r="B52" s="100"/>
+      <c r="A52" s="104"/>
+      <c r="B52" s="104"/>
       <c r="C52" s="36"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="100"/>
-      <c r="B53" s="100"/>
+      <c r="A53" s="104"/>
+      <c r="B53" s="104"/>
       <c r="C53" s="36"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="100"/>
-      <c r="B54" s="100"/>
+      <c r="A54" s="104"/>
+      <c r="B54" s="104"/>
       <c r="C54" s="36"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="100"/>
-      <c r="B55" s="100"/>
+      <c r="A55" s="104"/>
+      <c r="B55" s="104"/>
       <c r="C55" s="36"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="100"/>
-      <c r="B56" s="100"/>
+      <c r="A56" s="104"/>
+      <c r="B56" s="104"/>
       <c r="C56" s="36"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="100"/>
-      <c r="B57" s="100"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
       <c r="C57" s="36"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="100"/>
-      <c r="B58" s="100"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
       <c r="C58" s="36"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="100"/>
-      <c r="B59" s="100"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
       <c r="C59" s="36"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="100"/>
-      <c r="B60" s="100"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
       <c r="C60" s="36"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="100"/>
-      <c r="B61" s="100"/>
+      <c r="A61" s="104"/>
+      <c r="B61" s="104"/>
       <c r="C61" s="36"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="100"/>
-      <c r="B62" s="100"/>
+      <c r="A62" s="104"/>
+      <c r="B62" s="104"/>
       <c r="C62" s="36"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="100"/>
-      <c r="B63" s="100"/>
+      <c r="A63" s="104"/>
+      <c r="B63" s="104"/>
       <c r="C63" s="36"/>
       <c r="D63" s="37"/>
       <c r="E63" s="37"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="100"/>
-      <c r="B64" s="100"/>
+      <c r="A64" s="104"/>
+      <c r="B64" s="104"/>
       <c r="C64" s="36"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="100"/>
-      <c r="B65" s="100"/>
+      <c r="A65" s="104"/>
+      <c r="B65" s="104"/>
       <c r="C65" s="36"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="100"/>
-      <c r="B66" s="100"/>
+      <c r="A66" s="104"/>
+      <c r="B66" s="104"/>
       <c r="C66" s="36"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="100"/>
-      <c r="B67" s="100"/>
+      <c r="A67" s="104"/>
+      <c r="B67" s="104"/>
       <c r="C67" s="36"/>
       <c r="D67" s="37"/>
       <c r="E67" s="37"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="100"/>
-      <c r="B68" s="100"/>
+      <c r="A68" s="104"/>
+      <c r="B68" s="104"/>
       <c r="C68" s="36"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="100"/>
-      <c r="B69" s="100"/>
+      <c r="A69" s="104"/>
+      <c r="B69" s="104"/>
       <c r="C69" s="36"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="100"/>
-      <c r="B70" s="100"/>
+      <c r="A70" s="104"/>
+      <c r="B70" s="104"/>
       <c r="C70" s="36"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="100"/>
-      <c r="B71" s="100"/>
+      <c r="A71" s="104"/>
+      <c r="B71" s="104"/>
       <c r="C71" s="36"/>
       <c r="D71" s="37"/>
       <c r="E71" s="37"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="100"/>
-      <c r="B72" s="100"/>
+      <c r="A72" s="104"/>
+      <c r="B72" s="104"/>
       <c r="C72" s="36"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="100"/>
-      <c r="B73" s="100"/>
+      <c r="A73" s="104"/>
+      <c r="B73" s="104"/>
       <c r="C73" s="36"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="100"/>
-      <c r="B74" s="100"/>
+      <c r="A74" s="104"/>
+      <c r="B74" s="104"/>
       <c r="C74" s="36"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="100"/>
-      <c r="B75" s="100"/>
+      <c r="A75" s="104"/>
+      <c r="B75" s="104"/>
       <c r="C75" s="36"/>
       <c r="D75" s="37"/>
       <c r="E75" s="37"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="100"/>
-      <c r="B76" s="100"/>
+      <c r="A76" s="104"/>
+      <c r="B76" s="104"/>
       <c r="C76" s="36"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="100"/>
-      <c r="B77" s="100"/>
+      <c r="A77" s="104"/>
+      <c r="B77" s="104"/>
       <c r="C77" s="36"/>
       <c r="D77" s="37"/>
       <c r="E77" s="37"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="100"/>
-      <c r="B78" s="100"/>
+      <c r="A78" s="104"/>
+      <c r="B78" s="104"/>
       <c r="C78" s="36"/>
       <c r="D78" s="37"/>
       <c r="E78" s="37"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="100"/>
-      <c r="B79" s="100"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="104"/>
       <c r="C79" s="36"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="100"/>
-      <c r="B80" s="100"/>
+      <c r="A80" s="104"/>
+      <c r="B80" s="104"/>
       <c r="C80" s="36"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="100"/>
-      <c r="B81" s="100"/>
+      <c r="A81" s="104"/>
+      <c r="B81" s="104"/>
       <c r="C81" s="36"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="100"/>
-      <c r="B82" s="100"/>
+      <c r="A82" s="104"/>
+      <c r="B82" s="104"/>
       <c r="C82" s="36"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="100"/>
-      <c r="B83" s="100"/>
+      <c r="A83" s="104"/>
+      <c r="B83" s="104"/>
       <c r="C83" s="36"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="100"/>
-      <c r="B84" s="100"/>
+      <c r="A84" s="104"/>
+      <c r="B84" s="104"/>
       <c r="C84" s="36"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37"/>
     </row>
     <row r="85" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="101"/>
-      <c r="B85" s="101"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="105"/>
       <c r="C85" s="36"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Mods de Juegos\starbound-mod-wnamok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE92C7BB-E9A0-460D-B80E-2489BA44FAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5094D-1032-48A9-8072-F182D41530EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="419">
   <si>
     <t>Tier</t>
   </si>
@@ -1236,6 +1236,57 @@
   </si>
   <si>
     <t>rock12 (x50)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokforma</t>
+  </si>
+  <si>
+    <t>sustanciaforma (x4)</t>
+  </si>
+  <si>
+    <t>sustanciainteligencia (x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokinteligencia</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokenergia</t>
+  </si>
+  <si>
+    <t>sustanciaenergia (x4)</t>
+  </si>
+  <si>
+    <t>sustanciaexistencia (x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokexistencia</t>
+  </si>
+  <si>
+    <t>sustanciatiempo(x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namoktiempo</t>
+  </si>
+  <si>
+    <t>sustanciaespacio (x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokespacio</t>
+  </si>
+  <si>
+    <t>sustanciapoder (x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokpoder</t>
+  </si>
+  <si>
+    <t>sustanciafuncion (x4)</t>
+  </si>
+  <si>
+    <t>celdadeplatino (x4), namokfuncion</t>
   </si>
 </sst>
 </file>
@@ -2012,13 +2063,46 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2043,39 +2127,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2429,10 +2480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F199"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F174" sqref="F174"/>
+    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G80" sqref="G80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,23 +2499,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="65" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="77"/>
+      <c r="E1" s="66"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
       <c r="D2" s="58" t="s">
         <v>331</v>
       </c>
@@ -2473,13 +2524,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="73">
+      <c r="A3" s="62">
         <v>1</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="76" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2491,9 +2542,9 @@
       <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="66"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="3" t="s">
         <v>121</v>
       </c>
@@ -2503,16 +2554,16 @@
       <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="67"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="78"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="68" t="s">
+      <c r="A6" s="63"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="79" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2524,9 +2575,9 @@
       <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2536,9 +2587,9 @@
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2548,9 +2599,9 @@
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="68"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2560,9 +2611,9 @@
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
@@ -2572,9 +2623,9 @@
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2584,9 +2635,9 @@
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="74"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="69" t="s">
+      <c r="A12" s="63"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="80" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2598,9 +2649,9 @@
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="74"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="70"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
@@ -2610,9 +2661,9 @@
       <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="70"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
@@ -2622,9 +2673,9 @@
       <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="74"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="70"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
@@ -2634,9 +2685,9 @@
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="70"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
@@ -2646,9 +2697,9 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="70"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
@@ -2658,9 +2709,9 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="70"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="15" t="s">
         <v>114</v>
       </c>
@@ -2670,9 +2721,9 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="70"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
@@ -2682,9 +2733,9 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="74"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="70"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="15" t="s">
         <v>4</v>
       </c>
@@ -2694,9 +2745,9 @@
       <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="74"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="70"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
@@ -2706,9 +2757,9 @@
       <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="74"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="70"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="81"/>
       <c r="D22" s="15" t="s">
         <v>17</v>
       </c>
@@ -2718,9 +2769,9 @@
       <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="74"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="70"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
@@ -2730,9 +2781,9 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="70"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
@@ -2742,9 +2793,9 @@
       <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="74"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="70"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="16" t="s">
         <v>278</v>
       </c>
@@ -2754,9 +2805,9 @@
       <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="71"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="82"/>
       <c r="D26" s="16" t="s">
         <v>288</v>
       </c>
@@ -2766,9 +2817,9 @@
       <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="74"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="71"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="17" t="s">
         <v>63</v>
       </c>
@@ -2778,9 +2829,9 @@
       <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="72"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="17" t="s">
         <v>101</v>
       </c>
@@ -2790,9 +2841,9 @@
       <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="74"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="68" t="s">
+      <c r="A29" s="63"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="79" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2804,9 +2855,9 @@
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="74"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="68"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="79"/>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2816,9 +2867,9 @@
       <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="74"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="68"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="79"/>
       <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
@@ -2828,9 +2879,9 @@
       <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="68"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="79"/>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2840,9 +2891,9 @@
       <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="68"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="79"/>
       <c r="D33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2852,9 +2903,9 @@
       <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="74"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="68"/>
+      <c r="A34" s="63"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="79"/>
       <c r="D34" s="3" t="s">
         <v>53</v>
       </c>
@@ -2864,9 +2915,9 @@
       <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="74"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="68"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="79"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
@@ -2876,9 +2927,9 @@
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="74"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="68"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="79"/>
       <c r="D36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2888,9 +2939,9 @@
       <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="74"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="68"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="79"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
@@ -2900,9 +2951,9 @@
       <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="74"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="68"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2912,9 +2963,9 @@
       <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="68"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -2924,9 +2975,9 @@
       <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="68"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
@@ -2936,9 +2987,9 @@
       <c r="F40" s="54"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="74"/>
-      <c r="B41" s="74"/>
-      <c r="C41" s="68"/>
+      <c r="A41" s="63"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="3" t="s">
         <v>309</v>
       </c>
@@ -2948,9 +2999,9 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="74"/>
-      <c r="B42" s="74"/>
-      <c r="C42" s="68"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="79"/>
       <c r="D42" s="3" t="s">
         <v>311</v>
       </c>
@@ -2960,9 +3011,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="74"/>
-      <c r="B43" s="74"/>
-      <c r="C43" s="68"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="79"/>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
@@ -2972,9 +3023,9 @@
       <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="74"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="68"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
@@ -2984,9 +3035,9 @@
       <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="74"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="68"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="3" t="s">
         <v>28</v>
       </c>
@@ -2996,9 +3047,9 @@
       <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="74"/>
-      <c r="B46" s="74"/>
-      <c r="C46" s="68"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="3" t="s">
         <v>32</v>
       </c>
@@ -3008,9 +3059,9 @@
       <c r="F46" s="54"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="74"/>
-      <c r="B47" s="74"/>
-      <c r="C47" s="68"/>
+      <c r="A47" s="63"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="3" t="s">
         <v>325</v>
       </c>
@@ -3020,9 +3071,9 @@
       <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="74"/>
-      <c r="B48" s="74"/>
-      <c r="C48" s="68"/>
+      <c r="A48" s="63"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="3" t="s">
         <v>326</v>
       </c>
@@ -3032,9 +3083,9 @@
       <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="74"/>
-      <c r="B49" s="74"/>
-      <c r="C49" s="68"/>
+      <c r="A49" s="63"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="79"/>
       <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
@@ -3044,9 +3095,9 @@
       <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="74"/>
-      <c r="B50" s="74"/>
-      <c r="C50" s="68"/>
+      <c r="A50" s="63"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="79"/>
       <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
@@ -3056,9 +3107,9 @@
       <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="74"/>
-      <c r="B51" s="74"/>
-      <c r="C51" s="68"/>
+      <c r="A51" s="63"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="3" t="s">
         <v>34</v>
       </c>
@@ -3068,9 +3119,9 @@
       <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="74"/>
-      <c r="B52" s="74"/>
-      <c r="C52" s="68"/>
+      <c r="A52" s="63"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="3" t="s">
         <v>35</v>
       </c>
@@ -3080,9 +3131,9 @@
       <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="74"/>
-      <c r="B53" s="74"/>
-      <c r="C53" s="68"/>
+      <c r="A53" s="63"/>
+      <c r="B53" s="63"/>
+      <c r="C53" s="79"/>
       <c r="D53" s="10" t="s">
         <v>342</v>
       </c>
@@ -3092,9 +3143,9 @@
       <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="74"/>
-      <c r="B54" s="74"/>
-      <c r="C54" s="68"/>
+      <c r="A54" s="63"/>
+      <c r="B54" s="63"/>
+      <c r="C54" s="79"/>
       <c r="D54" s="10" t="s">
         <v>315</v>
       </c>
@@ -3104,9 +3155,9 @@
       <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="74"/>
-      <c r="B55" s="74"/>
-      <c r="C55" s="68"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="10" t="s">
         <v>329</v>
       </c>
@@ -3116,9 +3167,9 @@
       <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="74"/>
-      <c r="B56" s="74"/>
-      <c r="C56" s="68"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="10" t="s">
         <v>38</v>
       </c>
@@ -3128,9 +3179,9 @@
       <c r="F56" s="54"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="74"/>
-      <c r="B57" s="74"/>
-      <c r="C57" s="68"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="10" t="s">
         <v>39</v>
       </c>
@@ -3140,9 +3191,9 @@
       <c r="F57" s="54"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="74"/>
-      <c r="B58" s="74"/>
-      <c r="C58" s="68"/>
+      <c r="A58" s="63"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="10" t="s">
         <v>40</v>
       </c>
@@ -3152,9 +3203,9 @@
       <c r="F58" s="54"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="74"/>
-      <c r="B59" s="74"/>
-      <c r="C59" s="68"/>
+      <c r="A59" s="63"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="10" t="s">
         <v>41</v>
       </c>
@@ -3164,9 +3215,9 @@
       <c r="F59" s="54"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="74"/>
-      <c r="B60" s="74"/>
-      <c r="C60" s="68"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
@@ -3176,9 +3227,9 @@
       <c r="F60" s="54"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="74"/>
-      <c r="B61" s="74"/>
-      <c r="C61" s="68"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="10" t="s">
         <v>43</v>
       </c>
@@ -3188,9 +3239,9 @@
       <c r="F61" s="54"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="74"/>
-      <c r="B62" s="74"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="63"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="10" t="s">
         <v>44</v>
       </c>
@@ -3200,9 +3251,9 @@
       <c r="F62" s="54"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="74"/>
-      <c r="B63" s="74"/>
-      <c r="C63" s="68"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="10" t="s">
         <v>62</v>
       </c>
@@ -3212,9 +3263,9 @@
       <c r="F63" s="54"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="74"/>
-      <c r="B64" s="74"/>
-      <c r="C64" s="68"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
+      <c r="C64" s="79"/>
       <c r="D64" s="10" t="s">
         <v>45</v>
       </c>
@@ -3224,9 +3275,9 @@
       <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="74"/>
-      <c r="B65" s="74"/>
-      <c r="C65" s="68"/>
+      <c r="A65" s="63"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="79"/>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
@@ -3236,9 +3287,9 @@
       <c r="F65" s="54"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="74"/>
-      <c r="B66" s="74"/>
-      <c r="C66" s="68"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
+      <c r="C66" s="79"/>
       <c r="D66" s="10" t="s">
         <v>47</v>
       </c>
@@ -3248,9 +3299,9 @@
       <c r="F66" s="54"/>
     </row>
     <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="74"/>
-      <c r="B67" s="74"/>
-      <c r="C67" s="68"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="10" t="s">
         <v>48</v>
       </c>
@@ -3260,9 +3311,9 @@
       <c r="F67" s="54"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="74"/>
-      <c r="B68" s="74"/>
-      <c r="C68" s="68"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="10" t="s">
         <v>49</v>
       </c>
@@ -3272,9 +3323,9 @@
       <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="74"/>
-      <c r="B69" s="74"/>
-      <c r="C69" s="68"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="63"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="10" t="s">
         <v>50</v>
       </c>
@@ -3284,9 +3335,9 @@
       <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="68"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="10" t="s">
         <v>337</v>
       </c>
@@ -3296,9 +3347,9 @@
       <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="74"/>
-      <c r="B71" s="74"/>
-      <c r="C71" s="68"/>
+      <c r="A71" s="63"/>
+      <c r="B71" s="63"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="10" t="s">
         <v>83</v>
       </c>
@@ -3307,1356 +3358,1464 @@
       </c>
       <c r="F71" s="54"/>
     </row>
-    <row r="72" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="74"/>
-      <c r="B72" s="74"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="11"/>
-    </row>
-    <row r="73" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="74"/>
-      <c r="B73" s="74"/>
-      <c r="C73" s="80" t="s">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="63"/>
+      <c r="B72" s="63"/>
+      <c r="C72" s="79"/>
+      <c r="D72" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F72" s="54"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="63"/>
+      <c r="B73" s="63"/>
+      <c r="C73" s="79"/>
+      <c r="D73" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F73" s="54"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
+      <c r="C74" s="79"/>
+      <c r="D74" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F74" s="54"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="63"/>
+      <c r="B75" s="63"/>
+      <c r="C75" s="79"/>
+      <c r="D75" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="F75" s="54"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
+      <c r="C76" s="79"/>
+      <c r="D76" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F76" s="54"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="63"/>
+      <c r="B77" s="63"/>
+      <c r="C77" s="79"/>
+      <c r="D77" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F77" s="54"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="79"/>
+      <c r="D78" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F78" s="54"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="63"/>
+      <c r="B79" s="63"/>
+      <c r="C79" s="79"/>
+      <c r="D79" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="F79" s="54"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="63"/>
+      <c r="B80" s="63"/>
+      <c r="C80" s="79"/>
+      <c r="D80" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F80" s="54"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="63"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="79"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="63"/>
+      <c r="B82" s="63"/>
+      <c r="C82" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D82" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E82" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="54"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="74"/>
-      <c r="B74" s="74"/>
-      <c r="C74" s="81"/>
-      <c r="D74" s="4" t="s">
+      <c r="F82" s="54"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="63"/>
+      <c r="B83" s="63"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E74" s="13" t="s">
+      <c r="E83" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="54"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="74"/>
-      <c r="B75" s="74"/>
-      <c r="C75" s="81"/>
-      <c r="D75" s="3" t="s">
+      <c r="F83" s="54"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="63"/>
+      <c r="B84" s="63"/>
+      <c r="C84" s="72"/>
+      <c r="D84" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="E84" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F75" s="54"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="74"/>
-      <c r="B76" s="74"/>
-      <c r="C76" s="81"/>
-      <c r="D76" s="3" t="s">
+      <c r="F84" s="54"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="63"/>
+      <c r="B85" s="63"/>
+      <c r="C85" s="72"/>
+      <c r="D85" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="E85" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="54"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="74"/>
-      <c r="B77" s="74"/>
-      <c r="C77" s="81"/>
-      <c r="D77" s="3" t="s">
+      <c r="F85" s="54"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="63"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="72"/>
+      <c r="D86" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="E86" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F77" s="54"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="74"/>
-      <c r="B78" s="74"/>
-      <c r="C78" s="81"/>
-      <c r="D78" s="3" t="s">
+      <c r="F86" s="54"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="63"/>
+      <c r="B87" s="63"/>
+      <c r="C87" s="72"/>
+      <c r="D87" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E87" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F78" s="54"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="74"/>
-      <c r="B79" s="74"/>
-      <c r="C79" s="81"/>
-      <c r="D79" s="3" t="s">
+      <c r="F87" s="54"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="63"/>
+      <c r="B88" s="63"/>
+      <c r="C88" s="72"/>
+      <c r="D88" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E88" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="54"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="74"/>
-      <c r="B80" s="74"/>
-      <c r="C80" s="81"/>
-      <c r="D80" s="3" t="s">
+      <c r="F88" s="54"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="63"/>
+      <c r="B89" s="63"/>
+      <c r="C89" s="72"/>
+      <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="E89" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="54"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="74"/>
-      <c r="B81" s="74"/>
-      <c r="C81" s="81"/>
-      <c r="D81" s="3" t="s">
+      <c r="F89" s="54"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="63"/>
+      <c r="B90" s="63"/>
+      <c r="C90" s="72"/>
+      <c r="D90" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="E90" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F81" s="54"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="74"/>
-      <c r="B82" s="74"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="3" t="s">
+      <c r="F90" s="54"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="63"/>
+      <c r="B91" s="63"/>
+      <c r="C91" s="72"/>
+      <c r="D91" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="E91" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="F82" s="54"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="74"/>
-      <c r="B83" s="74"/>
-      <c r="C83" s="81"/>
-      <c r="D83" s="3" t="s">
+      <c r="F91" s="54"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="63"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="72"/>
+      <c r="D92" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E83" s="9" t="s">
+      <c r="E92" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="F83" s="54"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="74"/>
-      <c r="B84" s="74"/>
-      <c r="C84" s="81"/>
-      <c r="D84" s="3" t="s">
+      <c r="F92" s="54"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="63"/>
+      <c r="B93" s="63"/>
+      <c r="C93" s="72"/>
+      <c r="D93" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="E93" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="F84" s="54"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="74"/>
-      <c r="B85" s="74"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="3" t="s">
+      <c r="F93" s="54"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="63"/>
+      <c r="B94" s="63"/>
+      <c r="C94" s="72"/>
+      <c r="D94" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="E94" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F85" s="54"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="74"/>
-      <c r="B86" s="74"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="3" t="s">
+      <c r="F94" s="54"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="63"/>
+      <c r="B95" s="63"/>
+      <c r="C95" s="72"/>
+      <c r="D95" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="E95" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="F86" s="54"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="74"/>
-      <c r="B87" s="74"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="3" t="s">
+      <c r="F95" s="54"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="63"/>
+      <c r="B96" s="63"/>
+      <c r="C96" s="72"/>
+      <c r="D96" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E87" s="9" t="s">
+      <c r="E96" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F87" s="54"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="74"/>
-      <c r="B88" s="74"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="3" t="s">
+      <c r="F96" s="54"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="63"/>
+      <c r="B97" s="63"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="E88" s="9" t="s">
+      <c r="E97" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="F88" s="54"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="74"/>
-      <c r="B89" s="74"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="3" t="s">
+      <c r="F97" s="54"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="63"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="72"/>
+      <c r="D98" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E89" s="9" t="s">
+      <c r="E98" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="F89" s="54"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="74"/>
-      <c r="B90" s="74"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="62" t="s">
+      <c r="F98" s="54"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="63"/>
+      <c r="B99" s="63"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="E90" s="9" t="s">
+      <c r="E99" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="F90" s="54"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="74"/>
-      <c r="B91" s="74"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="9" t="s">
+      <c r="F99" s="54"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="63"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F91" s="54"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="74"/>
-      <c r="B92" s="74"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="9" t="s">
+      <c r="F100" s="54"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="63"/>
+      <c r="B101" s="63"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F92" s="54"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="74"/>
-      <c r="B93" s="74"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="83" t="s">
+      <c r="F101" s="54"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="63"/>
+      <c r="B102" s="63"/>
+      <c r="C102" s="72"/>
+      <c r="D102" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="E93" s="11" t="s">
+      <c r="E102" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="F93" s="54"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="74"/>
-      <c r="B94" s="74"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="11" t="s">
+      <c r="F102" s="54"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="63"/>
+      <c r="B103" s="63"/>
+      <c r="C103" s="72"/>
+      <c r="D103" s="75"/>
+      <c r="E103" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F94" s="54"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="74"/>
-      <c r="B95" s="74"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="11" t="s">
+      <c r="F103" s="54"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="63"/>
+      <c r="B104" s="63"/>
+      <c r="C104" s="72"/>
+      <c r="D104" s="75"/>
+      <c r="E104" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="F95" s="54"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="74"/>
-      <c r="B96" s="74"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="11" t="s">
+      <c r="F104" s="54"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="63"/>
+      <c r="B105" s="63"/>
+      <c r="C105" s="72"/>
+      <c r="D105" s="75"/>
+      <c r="E105" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="F96" s="54"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="74"/>
-      <c r="B97" s="74"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="11" t="s">
+      <c r="F105" s="54"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="63"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="72"/>
+      <c r="D106" s="75"/>
+      <c r="E106" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F97" s="54"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="74"/>
-      <c r="B98" s="74"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="11" t="s">
+      <c r="F106" s="54"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="63"/>
+      <c r="B107" s="63"/>
+      <c r="C107" s="72"/>
+      <c r="D107" s="75"/>
+      <c r="E107" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F98" s="54"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="74"/>
-      <c r="B99" s="74"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="83"/>
-      <c r="E99" s="11" t="s">
+      <c r="F107" s="54"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="63"/>
+      <c r="B108" s="63"/>
+      <c r="C108" s="72"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="F99" s="54"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="74"/>
-      <c r="B100" s="74"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="11" t="s">
+      <c r="F108" s="54"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="63"/>
+      <c r="B109" s="63"/>
+      <c r="C109" s="72"/>
+      <c r="D109" s="75"/>
+      <c r="E109" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="F100" s="54"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="74"/>
-      <c r="B101" s="74"/>
-      <c r="C101" s="81"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="11" t="s">
+      <c r="F109" s="54"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="63"/>
+      <c r="B110" s="63"/>
+      <c r="C110" s="72"/>
+      <c r="D110" s="75"/>
+      <c r="E110" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F101" s="54"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="74"/>
-      <c r="B102" s="74"/>
-      <c r="C102" s="81"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="11" t="s">
+      <c r="F110" s="54"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="63"/>
+      <c r="B111" s="63"/>
+      <c r="C111" s="72"/>
+      <c r="D111" s="75"/>
+      <c r="E111" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="F102" s="54"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="74"/>
-      <c r="B103" s="74"/>
-      <c r="C103" s="81"/>
-      <c r="D103" s="83"/>
-      <c r="E103" s="11" t="s">
+      <c r="F111" s="54"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="63"/>
+      <c r="B112" s="63"/>
+      <c r="C112" s="72"/>
+      <c r="D112" s="75"/>
+      <c r="E112" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F103" s="54"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="74"/>
-      <c r="B104" s="74"/>
-      <c r="C104" s="81"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="11" t="s">
+      <c r="F112" s="54"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="63"/>
+      <c r="B113" s="63"/>
+      <c r="C113" s="72"/>
+      <c r="D113" s="75"/>
+      <c r="E113" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F104" s="54"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="74"/>
-      <c r="B105" s="74"/>
-      <c r="C105" s="81"/>
-      <c r="D105" s="62" t="s">
+      <c r="F113" s="54"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="63"/>
+      <c r="B114" s="63"/>
+      <c r="C114" s="72"/>
+      <c r="D114" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="E105" s="11" t="s">
+      <c r="E114" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="F105" s="54"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="74"/>
-      <c r="B106" s="74"/>
-      <c r="C106" s="81"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="11" t="s">
+      <c r="F114" s="54"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="63"/>
+      <c r="B115" s="63"/>
+      <c r="C115" s="72"/>
+      <c r="D115" s="74"/>
+      <c r="E115" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="F106" s="54"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="74"/>
-      <c r="B107" s="74"/>
-      <c r="C107" s="81"/>
-      <c r="D107" s="63"/>
-      <c r="E107" s="11" t="s">
+      <c r="F115" s="54"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="63"/>
+      <c r="B116" s="63"/>
+      <c r="C116" s="72"/>
+      <c r="D116" s="74"/>
+      <c r="E116" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="F107" s="54"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="74"/>
-      <c r="B108" s="74"/>
-      <c r="C108" s="81"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="11" t="s">
+      <c r="F116" s="54"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="63"/>
+      <c r="B117" s="63"/>
+      <c r="C117" s="72"/>
+      <c r="D117" s="74"/>
+      <c r="E117" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="F108" s="54"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="74"/>
-      <c r="B109" s="74"/>
-      <c r="C109" s="81"/>
-      <c r="D109" s="64"/>
-      <c r="E109" s="11" t="s">
+      <c r="F117" s="54"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="63"/>
+      <c r="B118" s="63"/>
+      <c r="C118" s="72"/>
+      <c r="D118" s="70"/>
+      <c r="E118" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="F109" s="54"/>
-    </row>
-    <row r="110" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A110" s="74"/>
-      <c r="B110" s="74"/>
-      <c r="C110" s="81"/>
-      <c r="D110" s="10" t="s">
+      <c r="F118" s="54"/>
+    </row>
+    <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A119" s="63"/>
+      <c r="B119" s="63"/>
+      <c r="C119" s="72"/>
+      <c r="D119" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E119" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F110" s="54"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="74"/>
-      <c r="B111" s="74"/>
-      <c r="C111" s="81"/>
-      <c r="D111" s="10" t="s">
+      <c r="F119" s="54"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="63"/>
+      <c r="B120" s="63"/>
+      <c r="C120" s="72"/>
+      <c r="D120" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="E111" s="11" t="s">
+      <c r="E120" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="F111" s="54"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="74"/>
-      <c r="B112" s="74"/>
-      <c r="C112" s="81"/>
-      <c r="D112" s="10" t="s">
+      <c r="F120" s="54"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="63"/>
+      <c r="B121" s="63"/>
+      <c r="C121" s="72"/>
+      <c r="D121" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E112" s="11" t="s">
+      <c r="E121" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F112" s="54"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="74"/>
-      <c r="B113" s="74"/>
-      <c r="C113" s="81"/>
-      <c r="D113" s="62" t="s">
+      <c r="F121" s="54"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="63"/>
+      <c r="B122" s="63"/>
+      <c r="C122" s="72"/>
+      <c r="D122" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="E113" s="11" t="s">
+      <c r="E122" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F113" s="54"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="74"/>
-      <c r="B114" s="74"/>
-      <c r="C114" s="81"/>
-      <c r="D114" s="64"/>
-      <c r="E114" s="11" t="s">
+      <c r="F122" s="54"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="63"/>
+      <c r="B123" s="63"/>
+      <c r="C123" s="72"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="F114" s="54"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="74"/>
-      <c r="B115" s="74"/>
-      <c r="C115" s="81"/>
-      <c r="D115" s="10" t="s">
+      <c r="F123" s="54"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="63"/>
+      <c r="B124" s="63"/>
+      <c r="C124" s="72"/>
+      <c r="D124" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E115" s="11" t="s">
+      <c r="E124" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="F115" s="54"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="74"/>
-      <c r="B116" s="74"/>
-      <c r="C116" s="81"/>
-      <c r="D116" s="10" t="s">
+      <c r="F124" s="54"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="63"/>
+      <c r="B125" s="63"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="E116" s="11" t="s">
+      <c r="E125" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="F116" s="54"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="74"/>
-      <c r="B117" s="74"/>
-      <c r="C117" s="81"/>
-      <c r="D117" s="10" t="s">
+      <c r="F125" s="54"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="63"/>
+      <c r="B126" s="63"/>
+      <c r="C126" s="72"/>
+      <c r="D126" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="E117" s="11" t="s">
+      <c r="E126" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="F117" s="54"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="74"/>
-      <c r="B118" s="74"/>
-      <c r="C118" s="81"/>
-      <c r="D118" s="10" t="s">
+      <c r="F126" s="54"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="63"/>
+      <c r="B127" s="63"/>
+      <c r="C127" s="72"/>
+      <c r="D127" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="E118" s="11" t="s">
+      <c r="E127" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="F118" s="54"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="74"/>
-      <c r="B119" s="74"/>
-      <c r="C119" s="81"/>
-      <c r="D119" s="10" t="s">
+      <c r="F127" s="54"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="63"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="72"/>
+      <c r="D128" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="E119" s="11" t="s">
+      <c r="E128" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="F119" s="54"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="74"/>
-      <c r="B120" s="74"/>
-      <c r="C120" s="81"/>
-      <c r="D120" s="10" t="s">
+      <c r="F128" s="54"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="63"/>
+      <c r="B129" s="63"/>
+      <c r="C129" s="72"/>
+      <c r="D129" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E120" s="11" t="s">
+      <c r="E129" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="F120" s="54"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="74"/>
-      <c r="B121" s="74"/>
-      <c r="C121" s="81"/>
-      <c r="D121" s="10" t="s">
+      <c r="F129" s="54"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="63"/>
+      <c r="B130" s="63"/>
+      <c r="C130" s="72"/>
+      <c r="D130" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E121" s="11" t="s">
+      <c r="E130" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="F121" s="54"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="74"/>
-      <c r="B122" s="74"/>
-      <c r="C122" s="81"/>
-      <c r="D122" s="10" t="s">
+      <c r="F130" s="54"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="63"/>
+      <c r="B131" s="63"/>
+      <c r="C131" s="72"/>
+      <c r="D131" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="E122" s="11" t="s">
+      <c r="E131" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="F122" s="54"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="74"/>
-      <c r="B123" s="74"/>
-      <c r="C123" s="81"/>
-      <c r="D123" s="10" t="s">
+      <c r="F131" s="54"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="63"/>
+      <c r="B132" s="63"/>
+      <c r="C132" s="72"/>
+      <c r="D132" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="E123" s="11" t="s">
+      <c r="E132" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="F123" s="54"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="74"/>
-      <c r="B124" s="74"/>
-      <c r="C124" s="81"/>
-      <c r="D124" s="62" t="s">
+      <c r="F132" s="54"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="63"/>
+      <c r="B133" s="63"/>
+      <c r="C133" s="72"/>
+      <c r="D133" s="69" t="s">
         <v>199</v>
       </c>
-      <c r="E124" s="11" t="s">
+      <c r="E133" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="F124" s="54"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="74"/>
-      <c r="B125" s="74"/>
-      <c r="C125" s="81"/>
-      <c r="D125" s="64"/>
-      <c r="E125" s="11" t="s">
+      <c r="F133" s="54"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="63"/>
+      <c r="B134" s="63"/>
+      <c r="C134" s="72"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="F125" s="54"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="74"/>
-      <c r="B126" s="74"/>
-      <c r="C126" s="81"/>
-      <c r="D126" s="10" t="s">
+      <c r="F134" s="54"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="63"/>
+      <c r="B135" s="63"/>
+      <c r="C135" s="72"/>
+      <c r="D135" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="E126" s="11" t="s">
+      <c r="E135" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="F126" s="54"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="74"/>
-      <c r="B127" s="74"/>
-      <c r="C127" s="81"/>
-      <c r="D127" s="10" t="s">
+      <c r="F135" s="54"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="63"/>
+      <c r="B136" s="63"/>
+      <c r="C136" s="72"/>
+      <c r="D136" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="E127" s="11" t="s">
+      <c r="E136" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="F127" s="54"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="74"/>
-      <c r="B128" s="74"/>
-      <c r="C128" s="81"/>
-      <c r="D128" s="10" t="s">
+      <c r="F136" s="54"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="63"/>
+      <c r="B137" s="63"/>
+      <c r="C137" s="72"/>
+      <c r="D137" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="E128" s="11" t="s">
+      <c r="E137" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="F128" s="54"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="74"/>
-      <c r="B129" s="74"/>
-      <c r="C129" s="81"/>
-      <c r="D129" s="10" t="s">
+      <c r="F137" s="54"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="63"/>
+      <c r="B138" s="63"/>
+      <c r="C138" s="72"/>
+      <c r="D138" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="E129" s="11" t="s">
+      <c r="E138" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="F129" s="54"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="74"/>
-      <c r="B130" s="74"/>
-      <c r="C130" s="81"/>
-      <c r="D130" s="62" t="s">
+      <c r="F138" s="54"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="63"/>
+      <c r="B139" s="63"/>
+      <c r="C139" s="72"/>
+      <c r="D139" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E130" s="11" t="s">
+      <c r="E139" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F130" s="54"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="74"/>
-      <c r="B131" s="74"/>
-      <c r="C131" s="81"/>
-      <c r="D131" s="63"/>
-      <c r="E131" s="11" t="s">
+      <c r="F139" s="54"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="63"/>
+      <c r="B140" s="63"/>
+      <c r="C140" s="72"/>
+      <c r="D140" s="74"/>
+      <c r="E140" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="F131" s="54"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="74"/>
-      <c r="B132" s="74"/>
-      <c r="C132" s="81"/>
-      <c r="D132" s="63"/>
-      <c r="E132" s="11" t="s">
+      <c r="F140" s="54"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="63"/>
+      <c r="B141" s="63"/>
+      <c r="C141" s="72"/>
+      <c r="D141" s="74"/>
+      <c r="E141" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="F132" s="54"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="74"/>
-      <c r="B133" s="74"/>
-      <c r="C133" s="81"/>
-      <c r="D133" s="63"/>
-      <c r="E133" s="11" t="s">
+      <c r="F141" s="54"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="63"/>
+      <c r="B142" s="63"/>
+      <c r="C142" s="72"/>
+      <c r="D142" s="74"/>
+      <c r="E142" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F133" s="54"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="74"/>
-      <c r="B134" s="74"/>
-      <c r="C134" s="81"/>
-      <c r="D134" s="63"/>
-      <c r="E134" s="11" t="s">
+      <c r="F142" s="54"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="63"/>
+      <c r="B143" s="63"/>
+      <c r="C143" s="72"/>
+      <c r="D143" s="74"/>
+      <c r="E143" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F134" s="54"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="74"/>
-      <c r="B135" s="74"/>
-      <c r="C135" s="81"/>
-      <c r="D135" s="63"/>
-      <c r="E135" s="11" t="s">
+      <c r="F143" s="54"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="63"/>
+      <c r="B144" s="63"/>
+      <c r="C144" s="72"/>
+      <c r="D144" s="74"/>
+      <c r="E144" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="F135" s="54"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="74"/>
-      <c r="B136" s="74"/>
-      <c r="C136" s="81"/>
-      <c r="D136" s="63"/>
-      <c r="E136" s="11" t="s">
+      <c r="F144" s="54"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="63"/>
+      <c r="B145" s="63"/>
+      <c r="C145" s="72"/>
+      <c r="D145" s="74"/>
+      <c r="E145" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F136" s="54"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="74"/>
-      <c r="B137" s="74"/>
-      <c r="C137" s="81"/>
-      <c r="D137" s="63"/>
-      <c r="E137" s="11" t="s">
+      <c r="F145" s="54"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="63"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="72"/>
+      <c r="D146" s="74"/>
+      <c r="E146" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="F137" s="54"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="74"/>
-      <c r="B138" s="74"/>
-      <c r="C138" s="81"/>
-      <c r="D138" s="63"/>
-      <c r="E138" s="11" t="s">
+      <c r="F146" s="54"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="63"/>
+      <c r="B147" s="63"/>
+      <c r="C147" s="72"/>
+      <c r="D147" s="74"/>
+      <c r="E147" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F138" s="54"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="74"/>
-      <c r="B139" s="74"/>
-      <c r="C139" s="81"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="11" t="s">
+      <c r="F147" s="54"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="63"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="72"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="F139" s="54"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="74"/>
-      <c r="B140" s="74"/>
-      <c r="C140" s="81"/>
-      <c r="D140" s="62" t="s">
+      <c r="F148" s="54"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="63"/>
+      <c r="B149" s="63"/>
+      <c r="C149" s="72"/>
+      <c r="D149" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="E140" s="11" t="s">
+      <c r="E149" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="F140" s="54"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="74"/>
-      <c r="B141" s="74"/>
-      <c r="C141" s="81"/>
-      <c r="D141" s="63"/>
-      <c r="E141" s="11" t="s">
+      <c r="F149" s="54"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="63"/>
+      <c r="B150" s="63"/>
+      <c r="C150" s="72"/>
+      <c r="D150" s="74"/>
+      <c r="E150" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="F141" s="54"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="74"/>
-      <c r="B142" s="74"/>
-      <c r="C142" s="81"/>
-      <c r="D142" s="63"/>
-      <c r="E142" s="11" t="s">
+      <c r="F150" s="54"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="63"/>
+      <c r="B151" s="63"/>
+      <c r="C151" s="72"/>
+      <c r="D151" s="74"/>
+      <c r="E151" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="F142" s="54"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="74"/>
-      <c r="B143" s="74"/>
-      <c r="C143" s="81"/>
-      <c r="D143" s="63"/>
-      <c r="E143" s="11" t="s">
+      <c r="F151" s="54"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="63"/>
+      <c r="B152" s="63"/>
+      <c r="C152" s="72"/>
+      <c r="D152" s="74"/>
+      <c r="E152" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="F143" s="54"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="74"/>
-      <c r="B144" s="74"/>
-      <c r="C144" s="81"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="11" t="s">
+      <c r="F152" s="54"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="63"/>
+      <c r="B153" s="63"/>
+      <c r="C153" s="72"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F144" s="54"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="74"/>
-      <c r="B145" s="74"/>
-      <c r="C145" s="81"/>
-      <c r="D145" s="10" t="s">
+      <c r="F153" s="54"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="63"/>
+      <c r="B154" s="63"/>
+      <c r="C154" s="72"/>
+      <c r="D154" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="E145" s="11" t="s">
+      <c r="E154" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="F145" s="54"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="74"/>
-      <c r="B146" s="74"/>
-      <c r="C146" s="81"/>
-      <c r="D146" s="10" t="s">
+      <c r="F154" s="54"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="63"/>
+      <c r="B155" s="63"/>
+      <c r="C155" s="72"/>
+      <c r="D155" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="E146" s="11" t="s">
+      <c r="E155" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="F146" s="54"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="74"/>
-      <c r="B147" s="74"/>
-      <c r="C147" s="81"/>
-      <c r="D147" s="10" t="s">
+      <c r="F155" s="54"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="63"/>
+      <c r="B156" s="63"/>
+      <c r="C156" s="72"/>
+      <c r="D156" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E147" s="11" t="s">
+      <c r="E156" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="F147" s="54"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="74"/>
-      <c r="B148" s="74"/>
-      <c r="C148" s="81"/>
-      <c r="D148" s="10" t="s">
+      <c r="F156" s="54"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="63"/>
+      <c r="B157" s="63"/>
+      <c r="C157" s="72"/>
+      <c r="D157" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E148" s="11" t="s">
+      <c r="E157" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="F148" s="54"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="74"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="81"/>
-      <c r="D149" s="10" t="s">
+      <c r="F157" s="54"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="63"/>
+      <c r="B158" s="63"/>
+      <c r="C158" s="72"/>
+      <c r="D158" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="E149" s="11" t="s">
+      <c r="E158" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="F149" s="54"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="74"/>
-      <c r="B150" s="74"/>
-      <c r="C150" s="81"/>
-      <c r="D150" s="10" t="s">
+      <c r="F158" s="54"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="63"/>
+      <c r="B159" s="63"/>
+      <c r="C159" s="72"/>
+      <c r="D159" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="E150" s="11" t="s">
+      <c r="E159" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="F150" s="54"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="74"/>
-      <c r="B151" s="74"/>
-      <c r="C151" s="81"/>
-      <c r="D151" s="10" t="s">
+      <c r="F159" s="54"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="63"/>
+      <c r="B160" s="63"/>
+      <c r="C160" s="72"/>
+      <c r="D160" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="E151" s="11" t="s">
+      <c r="E160" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="F151" s="54"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="74"/>
-      <c r="B152" s="74"/>
-      <c r="C152" s="81"/>
-      <c r="D152" s="10" t="s">
+      <c r="F160" s="54"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="63"/>
+      <c r="B161" s="63"/>
+      <c r="C161" s="72"/>
+      <c r="D161" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="E152" s="11" t="s">
+      <c r="E161" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="F152" s="54"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="74"/>
-      <c r="B153" s="74"/>
-      <c r="C153" s="81"/>
-      <c r="D153" s="62" t="s">
+      <c r="F161" s="54"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="63"/>
+      <c r="B162" s="63"/>
+      <c r="C162" s="72"/>
+      <c r="D162" s="69" t="s">
         <v>238</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E162" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="F153" s="54"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="74"/>
-      <c r="B154" s="74"/>
-      <c r="C154" s="81"/>
-      <c r="D154" s="63"/>
-      <c r="E154" s="11" t="s">
+      <c r="F162" s="54"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="63"/>
+      <c r="B163" s="63"/>
+      <c r="C163" s="72"/>
+      <c r="D163" s="74"/>
+      <c r="E163" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="F154" s="54"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="74"/>
-      <c r="B155" s="74"/>
-      <c r="C155" s="81"/>
-      <c r="D155" s="63"/>
-      <c r="E155" s="11" t="s">
+      <c r="F163" s="54"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="63"/>
+      <c r="B164" s="63"/>
+      <c r="C164" s="72"/>
+      <c r="D164" s="74"/>
+      <c r="E164" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F155" s="54"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="74"/>
-      <c r="B156" s="74"/>
-      <c r="C156" s="81"/>
-      <c r="D156" s="64"/>
-      <c r="E156" s="11" t="s">
+      <c r="F164" s="54"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="63"/>
+      <c r="B165" s="63"/>
+      <c r="C165" s="72"/>
+      <c r="D165" s="70"/>
+      <c r="E165" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F156" s="54"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="74"/>
-      <c r="B157" s="74"/>
-      <c r="C157" s="81"/>
-      <c r="D157" s="10" t="s">
+      <c r="F165" s="54"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="63"/>
+      <c r="B166" s="63"/>
+      <c r="C166" s="72"/>
+      <c r="D166" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="E157" s="11" t="s">
+      <c r="E166" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F157" s="54"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="74"/>
-      <c r="B158" s="74"/>
-      <c r="C158" s="81"/>
-      <c r="D158" s="62" t="s">
+      <c r="F166" s="54"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="63"/>
+      <c r="B167" s="63"/>
+      <c r="C167" s="72"/>
+      <c r="D167" s="69" t="s">
         <v>252</v>
       </c>
-      <c r="E158" s="11" t="s">
+      <c r="E167" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="F158" s="54"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="74"/>
-      <c r="B159" s="74"/>
-      <c r="C159" s="81"/>
-      <c r="D159" s="63"/>
-      <c r="E159" s="11" t="s">
+      <c r="F167" s="54"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="63"/>
+      <c r="B168" s="63"/>
+      <c r="C168" s="72"/>
+      <c r="D168" s="74"/>
+      <c r="E168" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="F159" s="54"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="74"/>
-      <c r="B160" s="74"/>
-      <c r="C160" s="81"/>
-      <c r="D160" s="63"/>
-      <c r="E160" s="11" t="s">
+      <c r="F168" s="54"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="63"/>
+      <c r="B169" s="63"/>
+      <c r="C169" s="72"/>
+      <c r="D169" s="74"/>
+      <c r="E169" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="F160" s="54"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="74"/>
-      <c r="B161" s="74"/>
-      <c r="C161" s="81"/>
-      <c r="D161" s="63"/>
-      <c r="E161" s="11" t="s">
+      <c r="F169" s="54"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="63"/>
+      <c r="B170" s="63"/>
+      <c r="C170" s="72"/>
+      <c r="D170" s="74"/>
+      <c r="E170" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="F161" s="54"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="74"/>
-      <c r="B162" s="74"/>
-      <c r="C162" s="81"/>
-      <c r="D162" s="64"/>
-      <c r="E162" s="11" t="s">
+      <c r="F170" s="54"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="63"/>
+      <c r="B171" s="63"/>
+      <c r="C171" s="72"/>
+      <c r="D171" s="70"/>
+      <c r="E171" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="F162" s="54"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="74"/>
-      <c r="B163" s="74"/>
-      <c r="C163" s="81"/>
-      <c r="D163" s="10" t="s">
+      <c r="F171" s="54"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="63"/>
+      <c r="B172" s="63"/>
+      <c r="C172" s="72"/>
+      <c r="D172" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E163" s="11" t="s">
+      <c r="E172" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="F163" s="54"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="74"/>
-      <c r="B164" s="74"/>
-      <c r="C164" s="81"/>
-      <c r="D164" s="62" t="s">
+      <c r="F172" s="54"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="63"/>
+      <c r="B173" s="63"/>
+      <c r="C173" s="72"/>
+      <c r="D173" s="69" t="s">
         <v>261</v>
       </c>
-      <c r="E164" s="11" t="s">
+      <c r="E173" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="F164" s="54"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="74"/>
-      <c r="B165" s="74"/>
-      <c r="C165" s="81"/>
-      <c r="D165" s="64"/>
-      <c r="E165" s="11" t="s">
+      <c r="F173" s="54"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="63"/>
+      <c r="B174" s="63"/>
+      <c r="C174" s="72"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="F165" s="54"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="74"/>
-      <c r="B166" s="74"/>
-      <c r="C166" s="81"/>
-      <c r="D166" s="3" t="s">
+      <c r="F174" s="54"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="63"/>
+      <c r="B175" s="63"/>
+      <c r="C175" s="72"/>
+      <c r="D175" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="E166" s="11" t="s">
+      <c r="E175" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="F166" s="54"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="74"/>
-      <c r="B167" s="74"/>
-      <c r="C167" s="81"/>
-      <c r="D167" s="3" t="s">
+      <c r="F175" s="54"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="63"/>
+      <c r="B176" s="63"/>
+      <c r="C176" s="72"/>
+      <c r="D176" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="E167" s="11" t="s">
+      <c r="E176" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="F167" s="54"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="74"/>
-      <c r="B168" s="74"/>
-      <c r="C168" s="81"/>
-      <c r="D168" s="3" t="s">
+      <c r="F176" s="54"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="63"/>
+      <c r="B177" s="63"/>
+      <c r="C177" s="72"/>
+      <c r="D177" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="E168" s="11" t="s">
+      <c r="E177" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="F168" s="54"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="74"/>
-      <c r="B169" s="74"/>
-      <c r="C169" s="81"/>
-      <c r="D169" s="3" t="s">
+      <c r="F177" s="54"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="63"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="72"/>
+      <c r="D178" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="E169" s="11" t="s">
+      <c r="E178" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="F169" s="54"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="74"/>
-      <c r="B170" s="74"/>
-      <c r="C170" s="81"/>
-      <c r="D170" s="3" t="s">
+      <c r="F178" s="54"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="63"/>
+      <c r="B179" s="63"/>
+      <c r="C179" s="72"/>
+      <c r="D179" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="E170" s="11" t="s">
+      <c r="E179" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="F170" s="54"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="74"/>
-      <c r="B171" s="74"/>
-      <c r="C171" s="81"/>
-      <c r="D171" s="3" t="s">
+      <c r="F179" s="54"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="63"/>
+      <c r="B180" s="63"/>
+      <c r="C180" s="72"/>
+      <c r="D180" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E171" s="11" t="s">
+      <c r="E180" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="F171" s="54"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="74"/>
-      <c r="B172" s="74"/>
-      <c r="C172" s="81"/>
-      <c r="D172" s="3" t="s">
+      <c r="F180" s="54"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="63"/>
+      <c r="B181" s="63"/>
+      <c r="C181" s="72"/>
+      <c r="D181" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="E172" s="11" t="s">
+      <c r="E181" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="F172" s="54"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="74"/>
-      <c r="B173" s="74"/>
-      <c r="C173" s="81"/>
-      <c r="D173" s="3" t="s">
+      <c r="F181" s="54"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="63"/>
+      <c r="B182" s="63"/>
+      <c r="C182" s="72"/>
+      <c r="D182" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E182" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="F173" s="54"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="74"/>
-      <c r="B174" s="74"/>
-      <c r="C174" s="81"/>
-      <c r="D174" s="3" t="s">
+      <c r="F182" s="54"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="63"/>
+      <c r="B183" s="63"/>
+      <c r="C183" s="72"/>
+      <c r="D183" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="E174" s="11" t="s">
+      <c r="E183" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="F174" s="54"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="74"/>
-      <c r="B175" s="74"/>
-      <c r="C175" s="81"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="11"/>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="74"/>
-      <c r="B176" s="74"/>
-      <c r="C176" s="81"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="11"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A177" s="74"/>
-      <c r="B177" s="74"/>
-      <c r="C177" s="81"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="11"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A178" s="74"/>
-      <c r="B178" s="74"/>
-      <c r="C178" s="81"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="11"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A179" s="74"/>
-      <c r="B179" s="74"/>
-      <c r="C179" s="81"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="11"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A180" s="74"/>
-      <c r="B180" s="74"/>
-      <c r="C180" s="81"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="11"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A181" s="74"/>
-      <c r="B181" s="74"/>
-      <c r="C181" s="81"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="11"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A182" s="74"/>
-      <c r="B182" s="74"/>
-      <c r="C182" s="81"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="11"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A183" s="74"/>
-      <c r="B183" s="74"/>
-      <c r="C183" s="81"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="11"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A184" s="74"/>
-      <c r="B184" s="74"/>
-      <c r="C184" s="81"/>
+      <c r="F183" s="54"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="63"/>
+      <c r="B184" s="63"/>
+      <c r="C184" s="72"/>
       <c r="D184" s="3"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A185" s="74"/>
-      <c r="B185" s="74"/>
-      <c r="C185" s="81"/>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="63"/>
+      <c r="B185" s="63"/>
+      <c r="C185" s="72"/>
       <c r="D185" s="3"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A186" s="74"/>
-      <c r="B186" s="74"/>
-      <c r="C186" s="81"/>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="63"/>
+      <c r="B186" s="63"/>
+      <c r="C186" s="72"/>
       <c r="D186" s="3"/>
       <c r="E186" s="11"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A187" s="74"/>
-      <c r="B187" s="74"/>
-      <c r="C187" s="81"/>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="63"/>
+      <c r="B187" s="63"/>
+      <c r="C187" s="72"/>
       <c r="D187" s="3"/>
       <c r="E187" s="11"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="74"/>
-      <c r="B188" s="74"/>
-      <c r="C188" s="81"/>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="63"/>
+      <c r="B188" s="63"/>
+      <c r="C188" s="72"/>
       <c r="D188" s="3"/>
       <c r="E188" s="11"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A189" s="74"/>
-      <c r="B189" s="74"/>
-      <c r="C189" s="81"/>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="63"/>
+      <c r="B189" s="63"/>
+      <c r="C189" s="72"/>
       <c r="D189" s="3"/>
       <c r="E189" s="11"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="74"/>
-      <c r="B190" s="74"/>
-      <c r="C190" s="81"/>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="63"/>
+      <c r="B190" s="63"/>
+      <c r="C190" s="72"/>
       <c r="D190" s="3"/>
       <c r="E190" s="11"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A191" s="74"/>
-      <c r="B191" s="74"/>
-      <c r="C191" s="81"/>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="63"/>
+      <c r="B191" s="63"/>
+      <c r="C191" s="72"/>
       <c r="D191" s="3"/>
       <c r="E191" s="11"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A192" s="74"/>
-      <c r="B192" s="74"/>
-      <c r="C192" s="81"/>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="63"/>
+      <c r="B192" s="63"/>
+      <c r="C192" s="72"/>
       <c r="D192" s="3"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="74"/>
-      <c r="B193" s="74"/>
-      <c r="C193" s="81"/>
+      <c r="A193" s="63"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="72"/>
       <c r="D193" s="3"/>
       <c r="E193" s="11"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="74"/>
-      <c r="B194" s="74"/>
-      <c r="C194" s="81"/>
+      <c r="A194" s="63"/>
+      <c r="B194" s="63"/>
+      <c r="C194" s="72"/>
       <c r="D194" s="3"/>
       <c r="E194" s="11"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="74"/>
-      <c r="B195" s="74"/>
-      <c r="C195" s="81"/>
+      <c r="A195" s="63"/>
+      <c r="B195" s="63"/>
+      <c r="C195" s="72"/>
       <c r="D195" s="3"/>
       <c r="E195" s="11"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="74"/>
-      <c r="B196" s="74"/>
-      <c r="C196" s="81"/>
+      <c r="A196" s="63"/>
+      <c r="B196" s="63"/>
+      <c r="C196" s="72"/>
       <c r="D196" s="3"/>
       <c r="E196" s="11"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="74"/>
-      <c r="B197" s="74"/>
-      <c r="C197" s="81"/>
+      <c r="A197" s="63"/>
+      <c r="B197" s="63"/>
+      <c r="C197" s="72"/>
       <c r="D197" s="3"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="74"/>
-      <c r="B198" s="74"/>
-      <c r="C198" s="81"/>
+      <c r="A198" s="63"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="72"/>
       <c r="D198" s="3"/>
       <c r="E198" s="11"/>
     </row>
-    <row r="199" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A199" s="75"/>
-      <c r="B199" s="75"/>
-      <c r="C199" s="82"/>
-      <c r="D199" s="53"/>
-      <c r="E199" s="8"/>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="63"/>
+      <c r="B199" s="63"/>
+      <c r="C199" s="72"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="11"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="63"/>
+      <c r="B200" s="63"/>
+      <c r="C200" s="72"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="11"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="63"/>
+      <c r="B201" s="63"/>
+      <c r="C201" s="72"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="11"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="63"/>
+      <c r="B202" s="63"/>
+      <c r="C202" s="72"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="11"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="63"/>
+      <c r="B203" s="63"/>
+      <c r="C203" s="72"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="11"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="63"/>
+      <c r="B204" s="63"/>
+      <c r="C204" s="72"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="11"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="63"/>
+      <c r="B205" s="63"/>
+      <c r="C205" s="72"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="11"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="63"/>
+      <c r="B206" s="63"/>
+      <c r="C206" s="72"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="11"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="63"/>
+      <c r="B207" s="63"/>
+      <c r="C207" s="72"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="11"/>
+    </row>
+    <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="64"/>
+      <c r="B208" s="64"/>
+      <c r="C208" s="73"/>
+      <c r="D208" s="53"/>
+      <c r="E208" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A3:A199"/>
-    <mergeCell ref="B3:B199"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C11"/>
+    <mergeCell ref="C12:C28"/>
+    <mergeCell ref="C29:C81"/>
+    <mergeCell ref="A3:A208"/>
+    <mergeCell ref="B3:B208"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="C73:C199"/>
-    <mergeCell ref="D130:D139"/>
-    <mergeCell ref="D140:D144"/>
-    <mergeCell ref="D153:D156"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="D93:D104"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D90:D92"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C11"/>
-    <mergeCell ref="C12:C28"/>
-    <mergeCell ref="C29:C72"/>
+    <mergeCell ref="D133:D134"/>
+    <mergeCell ref="C82:C208"/>
+    <mergeCell ref="D139:D148"/>
+    <mergeCell ref="D149:D153"/>
+    <mergeCell ref="D162:D165"/>
+    <mergeCell ref="D167:D171"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D102:D113"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D122:D123"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Mods de Juegos\starbound-mod-wnamok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D5094D-1032-48A9-8072-F182D41530EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{779DADEA-62D0-4A06-A412-034DB6D57806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tier 1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Tier 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="421">
   <si>
     <t>Tier</t>
   </si>
@@ -1287,6 +1288,12 @@
   </si>
   <si>
     <t>celdadeplatino (x4), namokfuncion</t>
+  </si>
+  <si>
+    <t>bandejadecultivo</t>
+  </si>
+  <si>
+    <t>oktolojim, tungstenbar (x5), dirtmaterial (x32), wire (x4)</t>
   </si>
 </sst>
 </file>
@@ -2063,6 +2070,63 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2070,63 +2134,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2482,8 +2489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2499,23 +2506,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="62" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="66"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
       <c r="D2" s="58" t="s">
         <v>331</v>
       </c>
@@ -2524,13 +2531,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="62">
+      <c r="A3" s="81">
         <v>1</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="73" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2542,9 +2549,9 @@
       <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="77"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="3" t="s">
         <v>121</v>
       </c>
@@ -2554,16 +2561,16 @@
       <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="78"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="63"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="79" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="76" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2575,9 +2582,9 @@
       <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="63"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="79"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2587,9 +2594,9 @@
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="63"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="79"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2599,9 +2606,9 @@
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="79"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2611,9 +2618,9 @@
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="79"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
@@ -2623,9 +2630,9 @@
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="79"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2635,9 +2642,9 @@
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="80" t="s">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="77" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2649,9 +2656,9 @@
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="81"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="78"/>
       <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
@@ -2661,9 +2668,9 @@
       <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="81"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="78"/>
       <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
@@ -2673,9 +2680,9 @@
       <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="81"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="82"/>
+      <c r="C15" s="78"/>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
@@ -2685,9 +2692,9 @@
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="82"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
@@ -2697,9 +2704,9 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="81"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
@@ -2709,9 +2716,9 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="81"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="82"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="15" t="s">
         <v>114</v>
       </c>
@@ -2721,9 +2728,9 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="81"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
@@ -2733,9 +2740,9 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="81"/>
+      <c r="A20" s="82"/>
+      <c r="B20" s="82"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="15" t="s">
         <v>4</v>
       </c>
@@ -2745,9 +2752,9 @@
       <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="81"/>
+      <c r="A21" s="82"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
@@ -2757,9 +2764,9 @@
       <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="81"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="15" t="s">
         <v>17</v>
       </c>
@@ -2769,9 +2776,9 @@
       <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="81"/>
+      <c r="A23" s="82"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
@@ -2781,9 +2788,9 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="81"/>
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
@@ -2793,9 +2800,9 @@
       <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="81"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="16" t="s">
         <v>278</v>
       </c>
@@ -2805,9 +2812,9 @@
       <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="82"/>
+      <c r="A26" s="82"/>
+      <c r="B26" s="82"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="16" t="s">
         <v>288</v>
       </c>
@@ -2817,9 +2824,9 @@
       <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="82"/>
+      <c r="A27" s="82"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="79"/>
       <c r="D27" s="17" t="s">
         <v>63</v>
       </c>
@@ -2829,9 +2836,9 @@
       <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="83"/>
+      <c r="A28" s="82"/>
+      <c r="B28" s="82"/>
+      <c r="C28" s="80"/>
       <c r="D28" s="17" t="s">
         <v>101</v>
       </c>
@@ -2841,9 +2848,9 @@
       <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="63"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="79" t="s">
+      <c r="A29" s="82"/>
+      <c r="B29" s="82"/>
+      <c r="C29" s="76" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2855,9 +2862,9 @@
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="79"/>
+      <c r="A30" s="82"/>
+      <c r="B30" s="82"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2867,9 +2874,9 @@
       <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="79"/>
+      <c r="A31" s="82"/>
+      <c r="B31" s="82"/>
+      <c r="C31" s="76"/>
       <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
@@ -2879,9 +2886,9 @@
       <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="79"/>
+      <c r="A32" s="82"/>
+      <c r="B32" s="82"/>
+      <c r="C32" s="76"/>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2891,9 +2898,9 @@
       <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="63"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="79"/>
+      <c r="A33" s="82"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="76"/>
       <c r="D33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2903,9 +2910,9 @@
       <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="63"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="79"/>
+      <c r="A34" s="82"/>
+      <c r="B34" s="82"/>
+      <c r="C34" s="76"/>
       <c r="D34" s="3" t="s">
         <v>53</v>
       </c>
@@ -2915,9 +2922,9 @@
       <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="63"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="79"/>
+      <c r="A35" s="82"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="76"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
@@ -2927,9 +2934,9 @@
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="63"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="79"/>
+      <c r="A36" s="82"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="76"/>
       <c r="D36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2939,9 +2946,9 @@
       <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="63"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="79"/>
+      <c r="A37" s="82"/>
+      <c r="B37" s="82"/>
+      <c r="C37" s="76"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
@@ -2951,9 +2958,9 @@
       <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="63"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="79"/>
+      <c r="A38" s="82"/>
+      <c r="B38" s="82"/>
+      <c r="C38" s="76"/>
       <c r="D38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2963,9 +2970,9 @@
       <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="79"/>
+      <c r="A39" s="82"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="76"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -2975,9 +2982,9 @@
       <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="63"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="79"/>
+      <c r="A40" s="82"/>
+      <c r="B40" s="82"/>
+      <c r="C40" s="76"/>
       <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
@@ -2987,9 +2994,9 @@
       <c r="F40" s="54"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="79"/>
+      <c r="A41" s="82"/>
+      <c r="B41" s="82"/>
+      <c r="C41" s="76"/>
       <c r="D41" s="3" t="s">
         <v>309</v>
       </c>
@@ -2999,9 +3006,9 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="79"/>
+      <c r="A42" s="82"/>
+      <c r="B42" s="82"/>
+      <c r="C42" s="76"/>
       <c r="D42" s="3" t="s">
         <v>311</v>
       </c>
@@ -3011,9 +3018,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="63"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="79"/>
+      <c r="A43" s="82"/>
+      <c r="B43" s="82"/>
+      <c r="C43" s="76"/>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
@@ -3023,9 +3030,9 @@
       <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="63"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="79"/>
+      <c r="A44" s="82"/>
+      <c r="B44" s="82"/>
+      <c r="C44" s="76"/>
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
@@ -3035,9 +3042,9 @@
       <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="63"/>
-      <c r="B45" s="63"/>
-      <c r="C45" s="79"/>
+      <c r="A45" s="82"/>
+      <c r="B45" s="82"/>
+      <c r="C45" s="76"/>
       <c r="D45" s="3" t="s">
         <v>28</v>
       </c>
@@ -3047,9 +3054,9 @@
       <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="63"/>
-      <c r="B46" s="63"/>
-      <c r="C46" s="79"/>
+      <c r="A46" s="82"/>
+      <c r="B46" s="82"/>
+      <c r="C46" s="76"/>
       <c r="D46" s="3" t="s">
         <v>32</v>
       </c>
@@ -3059,9 +3066,9 @@
       <c r="F46" s="54"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="63"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="79"/>
+      <c r="A47" s="82"/>
+      <c r="B47" s="82"/>
+      <c r="C47" s="76"/>
       <c r="D47" s="3" t="s">
         <v>325</v>
       </c>
@@ -3071,9 +3078,9 @@
       <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="63"/>
-      <c r="B48" s="63"/>
-      <c r="C48" s="79"/>
+      <c r="A48" s="82"/>
+      <c r="B48" s="82"/>
+      <c r="C48" s="76"/>
       <c r="D48" s="3" t="s">
         <v>326</v>
       </c>
@@ -3083,9 +3090,9 @@
       <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="63"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="79"/>
+      <c r="A49" s="82"/>
+      <c r="B49" s="82"/>
+      <c r="C49" s="76"/>
       <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
@@ -3095,9 +3102,9 @@
       <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="63"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="79"/>
+      <c r="A50" s="82"/>
+      <c r="B50" s="82"/>
+      <c r="C50" s="76"/>
       <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
@@ -3107,9 +3114,9 @@
       <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="63"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="79"/>
+      <c r="A51" s="82"/>
+      <c r="B51" s="82"/>
+      <c r="C51" s="76"/>
       <c r="D51" s="3" t="s">
         <v>34</v>
       </c>
@@ -3119,9 +3126,9 @@
       <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="63"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="79"/>
+      <c r="A52" s="82"/>
+      <c r="B52" s="82"/>
+      <c r="C52" s="76"/>
       <c r="D52" s="3" t="s">
         <v>35</v>
       </c>
@@ -3131,9 +3138,9 @@
       <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="63"/>
-      <c r="B53" s="63"/>
-      <c r="C53" s="79"/>
+      <c r="A53" s="82"/>
+      <c r="B53" s="82"/>
+      <c r="C53" s="76"/>
       <c r="D53" s="10" t="s">
         <v>342</v>
       </c>
@@ -3143,9 +3150,9 @@
       <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="63"/>
-      <c r="B54" s="63"/>
-      <c r="C54" s="79"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="82"/>
+      <c r="C54" s="76"/>
       <c r="D54" s="10" t="s">
         <v>315</v>
       </c>
@@ -3155,9 +3162,9 @@
       <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="63"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="79"/>
+      <c r="A55" s="82"/>
+      <c r="B55" s="82"/>
+      <c r="C55" s="76"/>
       <c r="D55" s="10" t="s">
         <v>329</v>
       </c>
@@ -3167,9 +3174,9 @@
       <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="79"/>
+      <c r="A56" s="82"/>
+      <c r="B56" s="82"/>
+      <c r="C56" s="76"/>
       <c r="D56" s="10" t="s">
         <v>38</v>
       </c>
@@ -3179,9 +3186,9 @@
       <c r="F56" s="54"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="63"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="79"/>
+      <c r="A57" s="82"/>
+      <c r="B57" s="82"/>
+      <c r="C57" s="76"/>
       <c r="D57" s="10" t="s">
         <v>39</v>
       </c>
@@ -3191,9 +3198,9 @@
       <c r="F57" s="54"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="63"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="79"/>
+      <c r="A58" s="82"/>
+      <c r="B58" s="82"/>
+      <c r="C58" s="76"/>
       <c r="D58" s="10" t="s">
         <v>40</v>
       </c>
@@ -3203,9 +3210,9 @@
       <c r="F58" s="54"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="63"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="79"/>
+      <c r="A59" s="82"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="76"/>
       <c r="D59" s="10" t="s">
         <v>41</v>
       </c>
@@ -3215,9 +3222,9 @@
       <c r="F59" s="54"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="63"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="79"/>
+      <c r="A60" s="82"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="76"/>
       <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
@@ -3227,9 +3234,9 @@
       <c r="F60" s="54"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="63"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="79"/>
+      <c r="A61" s="82"/>
+      <c r="B61" s="82"/>
+      <c r="C61" s="76"/>
       <c r="D61" s="10" t="s">
         <v>43</v>
       </c>
@@ -3239,9 +3246,9 @@
       <c r="F61" s="54"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="63"/>
-      <c r="B62" s="63"/>
-      <c r="C62" s="79"/>
+      <c r="A62" s="82"/>
+      <c r="B62" s="82"/>
+      <c r="C62" s="76"/>
       <c r="D62" s="10" t="s">
         <v>44</v>
       </c>
@@ -3251,9 +3258,9 @@
       <c r="F62" s="54"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="63"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="79"/>
+      <c r="A63" s="82"/>
+      <c r="B63" s="82"/>
+      <c r="C63" s="76"/>
       <c r="D63" s="10" t="s">
         <v>62</v>
       </c>
@@ -3263,9 +3270,9 @@
       <c r="F63" s="54"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="63"/>
-      <c r="B64" s="63"/>
-      <c r="C64" s="79"/>
+      <c r="A64" s="82"/>
+      <c r="B64" s="82"/>
+      <c r="C64" s="76"/>
       <c r="D64" s="10" t="s">
         <v>45</v>
       </c>
@@ -3275,9 +3282,9 @@
       <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="63"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="79"/>
+      <c r="A65" s="82"/>
+      <c r="B65" s="82"/>
+      <c r="C65" s="76"/>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
@@ -3287,9 +3294,9 @@
       <c r="F65" s="54"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="63"/>
-      <c r="B66" s="63"/>
-      <c r="C66" s="79"/>
+      <c r="A66" s="82"/>
+      <c r="B66" s="82"/>
+      <c r="C66" s="76"/>
       <c r="D66" s="10" t="s">
         <v>47</v>
       </c>
@@ -3299,9 +3306,9 @@
       <c r="F66" s="54"/>
     </row>
     <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="63"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="79"/>
+      <c r="A67" s="82"/>
+      <c r="B67" s="82"/>
+      <c r="C67" s="76"/>
       <c r="D67" s="10" t="s">
         <v>48</v>
       </c>
@@ -3311,9 +3318,9 @@
       <c r="F67" s="54"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="63"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="79"/>
+      <c r="A68" s="82"/>
+      <c r="B68" s="82"/>
+      <c r="C68" s="76"/>
       <c r="D68" s="10" t="s">
         <v>49</v>
       </c>
@@ -3323,9 +3330,9 @@
       <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="63"/>
-      <c r="B69" s="63"/>
-      <c r="C69" s="79"/>
+      <c r="A69" s="82"/>
+      <c r="B69" s="82"/>
+      <c r="C69" s="76"/>
       <c r="D69" s="10" t="s">
         <v>50</v>
       </c>
@@ -3335,9 +3342,9 @@
       <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="63"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="79"/>
+      <c r="A70" s="82"/>
+      <c r="B70" s="82"/>
+      <c r="C70" s="76"/>
       <c r="D70" s="10" t="s">
         <v>337</v>
       </c>
@@ -3347,9 +3354,9 @@
       <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="63"/>
-      <c r="B71" s="63"/>
-      <c r="C71" s="79"/>
+      <c r="A71" s="82"/>
+      <c r="B71" s="82"/>
+      <c r="C71" s="76"/>
       <c r="D71" s="10" t="s">
         <v>83</v>
       </c>
@@ -3359,9 +3366,9 @@
       <c r="F71" s="54"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="63"/>
-      <c r="B72" s="63"/>
-      <c r="C72" s="79"/>
+      <c r="A72" s="82"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="76"/>
       <c r="D72" s="10" t="s">
         <v>402</v>
       </c>
@@ -3371,9 +3378,9 @@
       <c r="F72" s="54"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="63"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="79"/>
+      <c r="A73" s="82"/>
+      <c r="B73" s="82"/>
+      <c r="C73" s="76"/>
       <c r="D73" s="10" t="s">
         <v>404</v>
       </c>
@@ -3383,9 +3390,9 @@
       <c r="F73" s="54"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="63"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="79"/>
+      <c r="A74" s="82"/>
+      <c r="B74" s="82"/>
+      <c r="C74" s="76"/>
       <c r="D74" s="10" t="s">
         <v>405</v>
       </c>
@@ -3395,9 +3402,9 @@
       <c r="F74" s="54"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="63"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="79"/>
+      <c r="A75" s="82"/>
+      <c r="B75" s="82"/>
+      <c r="C75" s="76"/>
       <c r="D75" s="10" t="s">
         <v>408</v>
       </c>
@@ -3407,9 +3414,9 @@
       <c r="F75" s="54"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="63"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="79"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="82"/>
+      <c r="C76" s="76"/>
       <c r="D76" s="10" t="s">
         <v>409</v>
       </c>
@@ -3419,9 +3426,9 @@
       <c r="F76" s="54"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="63"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="79"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="82"/>
+      <c r="C77" s="76"/>
       <c r="D77" s="10" t="s">
         <v>411</v>
       </c>
@@ -3431,9 +3438,9 @@
       <c r="F77" s="54"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="63"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="79"/>
+      <c r="A78" s="82"/>
+      <c r="B78" s="82"/>
+      <c r="C78" s="76"/>
       <c r="D78" s="10" t="s">
         <v>413</v>
       </c>
@@ -3443,9 +3450,9 @@
       <c r="F78" s="54"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="63"/>
-      <c r="B79" s="63"/>
-      <c r="C79" s="79"/>
+      <c r="A79" s="82"/>
+      <c r="B79" s="82"/>
+      <c r="C79" s="76"/>
       <c r="D79" s="10" t="s">
         <v>415</v>
       </c>
@@ -3455,9 +3462,9 @@
       <c r="F79" s="54"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="63"/>
-      <c r="B80" s="63"/>
-      <c r="C80" s="79"/>
+      <c r="A80" s="82"/>
+      <c r="B80" s="82"/>
+      <c r="C80" s="76"/>
       <c r="D80" s="10" t="s">
         <v>417</v>
       </c>
@@ -3467,16 +3474,16 @@
       <c r="F80" s="54"/>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="63"/>
-      <c r="B81" s="63"/>
-      <c r="C81" s="79"/>
+      <c r="A81" s="82"/>
+      <c r="B81" s="82"/>
+      <c r="C81" s="76"/>
       <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="63"/>
-      <c r="B82" s="63"/>
-      <c r="C82" s="71" t="s">
+      <c r="A82" s="82"/>
+      <c r="B82" s="82"/>
+      <c r="C82" s="68" t="s">
         <v>64</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -3488,9 +3495,9 @@
       <c r="F82" s="54"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="63"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="72"/>
+      <c r="A83" s="82"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="69"/>
       <c r="D83" s="4" t="s">
         <v>66</v>
       </c>
@@ -3500,9 +3507,9 @@
       <c r="F83" s="54"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="63"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="72"/>
+      <c r="A84" s="82"/>
+      <c r="B84" s="82"/>
+      <c r="C84" s="69"/>
       <c r="D84" s="3" t="s">
         <v>69</v>
       </c>
@@ -3512,9 +3519,9 @@
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="63"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="72"/>
+      <c r="A85" s="82"/>
+      <c r="B85" s="82"/>
+      <c r="C85" s="69"/>
       <c r="D85" s="3" t="s">
         <v>70</v>
       </c>
@@ -3524,9 +3531,9 @@
       <c r="F85" s="54"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="63"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="72"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="82"/>
+      <c r="C86" s="69"/>
       <c r="D86" s="3" t="s">
         <v>71</v>
       </c>
@@ -3536,9 +3543,9 @@
       <c r="F86" s="54"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="63"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="72"/>
+      <c r="A87" s="82"/>
+      <c r="B87" s="82"/>
+      <c r="C87" s="69"/>
       <c r="D87" s="3" t="s">
         <v>72</v>
       </c>
@@ -3548,9 +3555,9 @@
       <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="63"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="72"/>
+      <c r="A88" s="82"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="69"/>
       <c r="D88" s="3" t="s">
         <v>79</v>
       </c>
@@ -3560,9 +3567,9 @@
       <c r="F88" s="54"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="63"/>
-      <c r="B89" s="63"/>
-      <c r="C89" s="72"/>
+      <c r="A89" s="82"/>
+      <c r="B89" s="82"/>
+      <c r="C89" s="69"/>
       <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
@@ -3572,9 +3579,9 @@
       <c r="F89" s="54"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="63"/>
-      <c r="B90" s="63"/>
-      <c r="C90" s="72"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="82"/>
+      <c r="C90" s="69"/>
       <c r="D90" s="3" t="s">
         <v>209</v>
       </c>
@@ -3584,9 +3591,9 @@
       <c r="F90" s="54"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="63"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="72"/>
+      <c r="A91" s="82"/>
+      <c r="B91" s="82"/>
+      <c r="C91" s="69"/>
       <c r="D91" s="3" t="s">
         <v>73</v>
       </c>
@@ -3596,9 +3603,9 @@
       <c r="F91" s="54"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="63"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="72"/>
+      <c r="A92" s="82"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="69"/>
       <c r="D92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3608,9 +3615,9 @@
       <c r="F92" s="54"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="63"/>
-      <c r="B93" s="63"/>
-      <c r="C93" s="72"/>
+      <c r="A93" s="82"/>
+      <c r="B93" s="82"/>
+      <c r="C93" s="69"/>
       <c r="D93" s="3" t="s">
         <v>74</v>
       </c>
@@ -3620,9 +3627,9 @@
       <c r="F93" s="54"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="63"/>
-      <c r="B94" s="63"/>
-      <c r="C94" s="72"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="69"/>
       <c r="D94" s="3" t="s">
         <v>75</v>
       </c>
@@ -3632,9 +3639,9 @@
       <c r="F94" s="54"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="63"/>
-      <c r="B95" s="63"/>
-      <c r="C95" s="72"/>
+      <c r="A95" s="82"/>
+      <c r="B95" s="82"/>
+      <c r="C95" s="69"/>
       <c r="D95" s="3" t="s">
         <v>201</v>
       </c>
@@ -3644,9 +3651,9 @@
       <c r="F95" s="54"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="63"/>
-      <c r="B96" s="63"/>
-      <c r="C96" s="72"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="69"/>
       <c r="D96" s="3" t="s">
         <v>76</v>
       </c>
@@ -3656,9 +3663,9 @@
       <c r="F96" s="54"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="63"/>
-      <c r="B97" s="63"/>
-      <c r="C97" s="72"/>
+      <c r="A97" s="82"/>
+      <c r="B97" s="82"/>
+      <c r="C97" s="69"/>
       <c r="D97" s="3" t="s">
         <v>168</v>
       </c>
@@ -3668,9 +3675,9 @@
       <c r="F97" s="54"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="63"/>
-      <c r="B98" s="63"/>
-      <c r="C98" s="72"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="82"/>
+      <c r="C98" s="69"/>
       <c r="D98" s="3" t="s">
         <v>171</v>
       </c>
@@ -3680,10 +3687,10 @@
       <c r="F98" s="54"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="63"/>
-      <c r="B99" s="63"/>
-      <c r="C99" s="72"/>
-      <c r="D99" s="69" t="s">
+      <c r="A99" s="82"/>
+      <c r="B99" s="82"/>
+      <c r="C99" s="69"/>
+      <c r="D99" s="66" t="s">
         <v>81</v>
       </c>
       <c r="E99" s="9" t="s">
@@ -3692,30 +3699,30 @@
       <c r="F99" s="54"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="63"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="72"/>
-      <c r="D100" s="74"/>
+      <c r="A100" s="82"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="71"/>
       <c r="E100" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F100" s="54"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="63"/>
-      <c r="B101" s="63"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="70"/>
+      <c r="A101" s="82"/>
+      <c r="B101" s="82"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="67"/>
       <c r="E101" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F101" s="54"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="63"/>
-      <c r="B102" s="63"/>
-      <c r="C102" s="72"/>
-      <c r="D102" s="75" t="s">
+      <c r="A102" s="82"/>
+      <c r="B102" s="82"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="72" t="s">
         <v>149</v>
       </c>
       <c r="E102" s="11" t="s">
@@ -3724,120 +3731,120 @@
       <c r="F102" s="54"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="63"/>
-      <c r="B103" s="63"/>
-      <c r="C103" s="72"/>
-      <c r="D103" s="75"/>
+      <c r="A103" s="82"/>
+      <c r="B103" s="82"/>
+      <c r="C103" s="69"/>
+      <c r="D103" s="72"/>
       <c r="E103" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F103" s="54"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="63"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="72"/>
-      <c r="D104" s="75"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="69"/>
+      <c r="D104" s="72"/>
       <c r="E104" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F104" s="54"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="63"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="72"/>
-      <c r="D105" s="75"/>
+      <c r="A105" s="82"/>
+      <c r="B105" s="82"/>
+      <c r="C105" s="69"/>
+      <c r="D105" s="72"/>
       <c r="E105" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F105" s="54"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="63"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="72"/>
-      <c r="D106" s="75"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="82"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="72"/>
       <c r="E106" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F106" s="54"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="63"/>
-      <c r="B107" s="63"/>
-      <c r="C107" s="72"/>
-      <c r="D107" s="75"/>
+      <c r="A107" s="82"/>
+      <c r="B107" s="82"/>
+      <c r="C107" s="69"/>
+      <c r="D107" s="72"/>
       <c r="E107" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F107" s="54"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="63"/>
-      <c r="B108" s="63"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="75"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="69"/>
+      <c r="D108" s="72"/>
       <c r="E108" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F108" s="54"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="63"/>
-      <c r="B109" s="63"/>
-      <c r="C109" s="72"/>
-      <c r="D109" s="75"/>
+      <c r="A109" s="82"/>
+      <c r="B109" s="82"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="72"/>
       <c r="E109" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F109" s="54"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="63"/>
-      <c r="B110" s="63"/>
-      <c r="C110" s="72"/>
-      <c r="D110" s="75"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="82"/>
+      <c r="C110" s="69"/>
+      <c r="D110" s="72"/>
       <c r="E110" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="63"/>
-      <c r="B111" s="63"/>
-      <c r="C111" s="72"/>
-      <c r="D111" s="75"/>
+      <c r="A111" s="82"/>
+      <c r="B111" s="82"/>
+      <c r="C111" s="69"/>
+      <c r="D111" s="72"/>
       <c r="E111" s="11" t="s">
         <v>231</v>
       </c>
       <c r="F111" s="54"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="63"/>
-      <c r="B112" s="63"/>
-      <c r="C112" s="72"/>
-      <c r="D112" s="75"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="69"/>
+      <c r="D112" s="72"/>
       <c r="E112" s="11" t="s">
         <v>372</v>
       </c>
       <c r="F112" s="54"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="63"/>
-      <c r="B113" s="63"/>
-      <c r="C113" s="72"/>
-      <c r="D113" s="75"/>
+      <c r="A113" s="82"/>
+      <c r="B113" s="82"/>
+      <c r="C113" s="69"/>
+      <c r="D113" s="72"/>
       <c r="E113" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F113" s="54"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="63"/>
-      <c r="B114" s="63"/>
-      <c r="C114" s="72"/>
-      <c r="D114" s="69" t="s">
+      <c r="A114" s="82"/>
+      <c r="B114" s="82"/>
+      <c r="C114" s="69"/>
+      <c r="D114" s="66" t="s">
         <v>69</v>
       </c>
       <c r="E114" s="11" t="s">
@@ -3846,49 +3853,49 @@
       <c r="F114" s="54"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="63"/>
-      <c r="B115" s="63"/>
-      <c r="C115" s="72"/>
-      <c r="D115" s="74"/>
+      <c r="A115" s="82"/>
+      <c r="B115" s="82"/>
+      <c r="C115" s="69"/>
+      <c r="D115" s="71"/>
       <c r="E115" s="11" t="s">
         <v>161</v>
       </c>
       <c r="F115" s="54"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="63"/>
-      <c r="B116" s="63"/>
-      <c r="C116" s="72"/>
-      <c r="D116" s="74"/>
+      <c r="A116" s="82"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="71"/>
       <c r="E116" s="11" t="s">
         <v>162</v>
       </c>
       <c r="F116" s="54"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="63"/>
-      <c r="B117" s="63"/>
-      <c r="C117" s="72"/>
-      <c r="D117" s="74"/>
+      <c r="A117" s="82"/>
+      <c r="B117" s="82"/>
+      <c r="C117" s="69"/>
+      <c r="D117" s="71"/>
       <c r="E117" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F117" s="54"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="63"/>
-      <c r="B118" s="63"/>
-      <c r="C118" s="72"/>
-      <c r="D118" s="70"/>
+      <c r="A118" s="82"/>
+      <c r="B118" s="82"/>
+      <c r="C118" s="69"/>
+      <c r="D118" s="67"/>
       <c r="E118" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F118" s="54"/>
     </row>
     <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="63"/>
-      <c r="B119" s="63"/>
-      <c r="C119" s="72"/>
+      <c r="A119" s="82"/>
+      <c r="B119" s="82"/>
+      <c r="C119" s="69"/>
       <c r="D119" s="10" t="s">
         <v>166</v>
       </c>
@@ -3898,9 +3905,9 @@
       <c r="F119" s="54"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="63"/>
-      <c r="B120" s="63"/>
-      <c r="C120" s="72"/>
+      <c r="A120" s="82"/>
+      <c r="B120" s="82"/>
+      <c r="C120" s="69"/>
       <c r="D120" s="10" t="s">
         <v>175</v>
       </c>
@@ -3910,9 +3917,9 @@
       <c r="F120" s="54"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="63"/>
-      <c r="B121" s="63"/>
-      <c r="C121" s="72"/>
+      <c r="A121" s="82"/>
+      <c r="B121" s="82"/>
+      <c r="C121" s="69"/>
       <c r="D121" s="10" t="s">
         <v>177</v>
       </c>
@@ -3922,10 +3929,10 @@
       <c r="F121" s="54"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="63"/>
-      <c r="B122" s="63"/>
-      <c r="C122" s="72"/>
-      <c r="D122" s="69" t="s">
+      <c r="A122" s="82"/>
+      <c r="B122" s="82"/>
+      <c r="C122" s="69"/>
+      <c r="D122" s="66" t="s">
         <v>178</v>
       </c>
       <c r="E122" s="11" t="s">
@@ -3934,19 +3941,19 @@
       <c r="F122" s="54"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="63"/>
-      <c r="B123" s="63"/>
-      <c r="C123" s="72"/>
-      <c r="D123" s="70"/>
+      <c r="A123" s="82"/>
+      <c r="B123" s="82"/>
+      <c r="C123" s="69"/>
+      <c r="D123" s="67"/>
       <c r="E123" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F123" s="54"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="63"/>
-      <c r="B124" s="63"/>
-      <c r="C124" s="72"/>
+      <c r="A124" s="82"/>
+      <c r="B124" s="82"/>
+      <c r="C124" s="69"/>
       <c r="D124" s="10" t="s">
         <v>181</v>
       </c>
@@ -3956,9 +3963,9 @@
       <c r="F124" s="54"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="63"/>
-      <c r="B125" s="63"/>
-      <c r="C125" s="72"/>
+      <c r="A125" s="82"/>
+      <c r="B125" s="82"/>
+      <c r="C125" s="69"/>
       <c r="D125" s="10" t="s">
         <v>184</v>
       </c>
@@ -3968,9 +3975,9 @@
       <c r="F125" s="54"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="63"/>
-      <c r="B126" s="63"/>
-      <c r="C126" s="72"/>
+      <c r="A126" s="82"/>
+      <c r="B126" s="82"/>
+      <c r="C126" s="69"/>
       <c r="D126" s="10" t="s">
         <v>186</v>
       </c>
@@ -3980,9 +3987,9 @@
       <c r="F126" s="54"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="63"/>
-      <c r="B127" s="63"/>
-      <c r="C127" s="72"/>
+      <c r="A127" s="82"/>
+      <c r="B127" s="82"/>
+      <c r="C127" s="69"/>
       <c r="D127" s="10" t="s">
         <v>188</v>
       </c>
@@ -3992,9 +3999,9 @@
       <c r="F127" s="54"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="63"/>
-      <c r="B128" s="63"/>
-      <c r="C128" s="72"/>
+      <c r="A128" s="82"/>
+      <c r="B128" s="82"/>
+      <c r="C128" s="69"/>
       <c r="D128" s="10" t="s">
         <v>190</v>
       </c>
@@ -4004,9 +4011,9 @@
       <c r="F128" s="54"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="63"/>
-      <c r="B129" s="63"/>
-      <c r="C129" s="72"/>
+      <c r="A129" s="82"/>
+      <c r="B129" s="82"/>
+      <c r="C129" s="69"/>
       <c r="D129" s="10" t="s">
         <v>212</v>
       </c>
@@ -4016,9 +4023,9 @@
       <c r="F129" s="54"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="63"/>
-      <c r="B130" s="63"/>
-      <c r="C130" s="72"/>
+      <c r="A130" s="82"/>
+      <c r="B130" s="82"/>
+      <c r="C130" s="69"/>
       <c r="D130" s="10" t="s">
         <v>192</v>
       </c>
@@ -4028,9 +4035,9 @@
       <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="63"/>
-      <c r="B131" s="63"/>
-      <c r="C131" s="72"/>
+      <c r="A131" s="82"/>
+      <c r="B131" s="82"/>
+      <c r="C131" s="69"/>
       <c r="D131" s="10" t="s">
         <v>194</v>
       </c>
@@ -4040,9 +4047,9 @@
       <c r="F131" s="54"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="63"/>
-      <c r="B132" s="63"/>
-      <c r="C132" s="72"/>
+      <c r="A132" s="82"/>
+      <c r="B132" s="82"/>
+      <c r="C132" s="69"/>
       <c r="D132" s="10" t="s">
         <v>196</v>
       </c>
@@ -4052,10 +4059,10 @@
       <c r="F132" s="54"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="63"/>
-      <c r="B133" s="63"/>
-      <c r="C133" s="72"/>
-      <c r="D133" s="69" t="s">
+      <c r="A133" s="82"/>
+      <c r="B133" s="82"/>
+      <c r="C133" s="69"/>
+      <c r="D133" s="66" t="s">
         <v>199</v>
       </c>
       <c r="E133" s="11" t="s">
@@ -4064,19 +4071,19 @@
       <c r="F133" s="54"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="63"/>
-      <c r="B134" s="63"/>
-      <c r="C134" s="72"/>
-      <c r="D134" s="70"/>
+      <c r="A134" s="82"/>
+      <c r="B134" s="82"/>
+      <c r="C134" s="69"/>
+      <c r="D134" s="67"/>
       <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
       <c r="F134" s="54"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="63"/>
-      <c r="B135" s="63"/>
-      <c r="C135" s="72"/>
+      <c r="A135" s="82"/>
+      <c r="B135" s="82"/>
+      <c r="C135" s="69"/>
       <c r="D135" s="10" t="s">
         <v>204</v>
       </c>
@@ -4086,9 +4093,9 @@
       <c r="F135" s="54"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="63"/>
-      <c r="B136" s="63"/>
-      <c r="C136" s="72"/>
+      <c r="A136" s="82"/>
+      <c r="B136" s="82"/>
+      <c r="C136" s="69"/>
       <c r="D136" s="10" t="s">
         <v>207</v>
       </c>
@@ -4098,9 +4105,9 @@
       <c r="F136" s="54"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="63"/>
-      <c r="B137" s="63"/>
-      <c r="C137" s="72"/>
+      <c r="A137" s="82"/>
+      <c r="B137" s="82"/>
+      <c r="C137" s="69"/>
       <c r="D137" s="10" t="s">
         <v>213</v>
       </c>
@@ -4110,9 +4117,9 @@
       <c r="F137" s="54"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="63"/>
-      <c r="B138" s="63"/>
-      <c r="C138" s="72"/>
+      <c r="A138" s="82"/>
+      <c r="B138" s="82"/>
+      <c r="C138" s="69"/>
       <c r="D138" s="10" t="s">
         <v>216</v>
       </c>
@@ -4122,10 +4129,10 @@
       <c r="F138" s="54"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="63"/>
-      <c r="B139" s="63"/>
-      <c r="C139" s="72"/>
-      <c r="D139" s="69" t="s">
+      <c r="A139" s="82"/>
+      <c r="B139" s="82"/>
+      <c r="C139" s="69"/>
+      <c r="D139" s="66" t="s">
         <v>70</v>
       </c>
       <c r="E139" s="11" t="s">
@@ -4134,100 +4141,100 @@
       <c r="F139" s="54"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="63"/>
-      <c r="B140" s="63"/>
-      <c r="C140" s="72"/>
-      <c r="D140" s="74"/>
+      <c r="A140" s="82"/>
+      <c r="B140" s="82"/>
+      <c r="C140" s="69"/>
+      <c r="D140" s="71"/>
       <c r="E140" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F140" s="54"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="63"/>
-      <c r="B141" s="63"/>
-      <c r="C141" s="72"/>
-      <c r="D141" s="74"/>
+      <c r="A141" s="82"/>
+      <c r="B141" s="82"/>
+      <c r="C141" s="69"/>
+      <c r="D141" s="71"/>
       <c r="E141" s="11" t="s">
         <v>223</v>
       </c>
       <c r="F141" s="54"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="63"/>
-      <c r="B142" s="63"/>
-      <c r="C142" s="72"/>
-      <c r="D142" s="74"/>
+      <c r="A142" s="82"/>
+      <c r="B142" s="82"/>
+      <c r="C142" s="69"/>
+      <c r="D142" s="71"/>
       <c r="E142" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F142" s="54"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="63"/>
-      <c r="B143" s="63"/>
-      <c r="C143" s="72"/>
-      <c r="D143" s="74"/>
+      <c r="A143" s="82"/>
+      <c r="B143" s="82"/>
+      <c r="C143" s="69"/>
+      <c r="D143" s="71"/>
       <c r="E143" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F143" s="54"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="63"/>
-      <c r="B144" s="63"/>
-      <c r="C144" s="72"/>
-      <c r="D144" s="74"/>
+      <c r="A144" s="82"/>
+      <c r="B144" s="82"/>
+      <c r="C144" s="69"/>
+      <c r="D144" s="71"/>
       <c r="E144" s="11" t="s">
         <v>225</v>
       </c>
       <c r="F144" s="54"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="63"/>
-      <c r="B145" s="63"/>
-      <c r="C145" s="72"/>
-      <c r="D145" s="74"/>
+      <c r="A145" s="82"/>
+      <c r="B145" s="82"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="71"/>
       <c r="E145" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F145" s="54"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="63"/>
-      <c r="B146" s="63"/>
-      <c r="C146" s="72"/>
-      <c r="D146" s="74"/>
+      <c r="A146" s="82"/>
+      <c r="B146" s="82"/>
+      <c r="C146" s="69"/>
+      <c r="D146" s="71"/>
       <c r="E146" s="11" t="s">
         <v>228</v>
       </c>
       <c r="F146" s="54"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="63"/>
-      <c r="B147" s="63"/>
-      <c r="C147" s="72"/>
-      <c r="D147" s="74"/>
+      <c r="A147" s="82"/>
+      <c r="B147" s="82"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="71"/>
       <c r="E147" s="11" t="s">
         <v>251</v>
       </c>
       <c r="F147" s="54"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="63"/>
-      <c r="B148" s="63"/>
-      <c r="C148" s="72"/>
-      <c r="D148" s="70"/>
+      <c r="A148" s="82"/>
+      <c r="B148" s="82"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="67"/>
       <c r="E148" s="11" t="s">
         <v>217</v>
       </c>
       <c r="F148" s="54"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="63"/>
-      <c r="B149" s="63"/>
-      <c r="C149" s="72"/>
-      <c r="D149" s="69" t="s">
+      <c r="A149" s="82"/>
+      <c r="B149" s="82"/>
+      <c r="C149" s="69"/>
+      <c r="D149" s="66" t="s">
         <v>218</v>
       </c>
       <c r="E149" s="11" t="s">
@@ -4236,49 +4243,49 @@
       <c r="F149" s="54"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="63"/>
-      <c r="B150" s="63"/>
-      <c r="C150" s="72"/>
-      <c r="D150" s="74"/>
+      <c r="A150" s="82"/>
+      <c r="B150" s="82"/>
+      <c r="C150" s="69"/>
+      <c r="D150" s="71"/>
       <c r="E150" s="11" t="s">
         <v>220</v>
       </c>
       <c r="F150" s="54"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="63"/>
-      <c r="B151" s="63"/>
-      <c r="C151" s="72"/>
-      <c r="D151" s="74"/>
+      <c r="A151" s="82"/>
+      <c r="B151" s="82"/>
+      <c r="C151" s="69"/>
+      <c r="D151" s="71"/>
       <c r="E151" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F151" s="54"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="63"/>
-      <c r="B152" s="63"/>
-      <c r="C152" s="72"/>
-      <c r="D152" s="74"/>
+      <c r="A152" s="82"/>
+      <c r="B152" s="82"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="71"/>
       <c r="E152" s="11" t="s">
         <v>226</v>
       </c>
       <c r="F152" s="54"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="63"/>
-      <c r="B153" s="63"/>
-      <c r="C153" s="72"/>
-      <c r="D153" s="70"/>
+      <c r="A153" s="82"/>
+      <c r="B153" s="82"/>
+      <c r="C153" s="69"/>
+      <c r="D153" s="67"/>
       <c r="E153" s="11" t="s">
         <v>227</v>
       </c>
       <c r="F153" s="54"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="63"/>
-      <c r="B154" s="63"/>
-      <c r="C154" s="72"/>
+      <c r="A154" s="82"/>
+      <c r="B154" s="82"/>
+      <c r="C154" s="69"/>
       <c r="D154" s="10" t="s">
         <v>230</v>
       </c>
@@ -4288,9 +4295,9 @@
       <c r="F154" s="54"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="63"/>
-      <c r="B155" s="63"/>
-      <c r="C155" s="72"/>
+      <c r="A155" s="82"/>
+      <c r="B155" s="82"/>
+      <c r="C155" s="69"/>
       <c r="D155" s="10" t="s">
         <v>233</v>
       </c>
@@ -4300,9 +4307,9 @@
       <c r="F155" s="54"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="63"/>
-      <c r="B156" s="63"/>
-      <c r="C156" s="72"/>
+      <c r="A156" s="82"/>
+      <c r="B156" s="82"/>
+      <c r="C156" s="69"/>
       <c r="D156" s="10" t="s">
         <v>235</v>
       </c>
@@ -4312,9 +4319,9 @@
       <c r="F156" s="54"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="63"/>
-      <c r="B157" s="63"/>
-      <c r="C157" s="72"/>
+      <c r="A157" s="82"/>
+      <c r="B157" s="82"/>
+      <c r="C157" s="69"/>
       <c r="D157" s="10" t="s">
         <v>68</v>
       </c>
@@ -4324,9 +4331,9 @@
       <c r="F157" s="54"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="63"/>
-      <c r="B158" s="63"/>
-      <c r="C158" s="72"/>
+      <c r="A158" s="82"/>
+      <c r="B158" s="82"/>
+      <c r="C158" s="69"/>
       <c r="D158" s="10" t="s">
         <v>246</v>
       </c>
@@ -4336,9 +4343,9 @@
       <c r="F158" s="54"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="63"/>
-      <c r="B159" s="63"/>
-      <c r="C159" s="72"/>
+      <c r="A159" s="82"/>
+      <c r="B159" s="82"/>
+      <c r="C159" s="69"/>
       <c r="D159" s="10" t="s">
         <v>67</v>
       </c>
@@ -4348,9 +4355,9 @@
       <c r="F159" s="54"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="63"/>
-      <c r="B160" s="63"/>
-      <c r="C160" s="72"/>
+      <c r="A160" s="82"/>
+      <c r="B160" s="82"/>
+      <c r="C160" s="69"/>
       <c r="D160" s="10" t="s">
         <v>240</v>
       </c>
@@ -4360,9 +4367,9 @@
       <c r="F160" s="54"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="63"/>
-      <c r="B161" s="63"/>
-      <c r="C161" s="72"/>
+      <c r="A161" s="82"/>
+      <c r="B161" s="82"/>
+      <c r="C161" s="69"/>
       <c r="D161" s="10" t="s">
         <v>242</v>
       </c>
@@ -4372,10 +4379,10 @@
       <c r="F161" s="54"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="63"/>
-      <c r="B162" s="63"/>
-      <c r="C162" s="72"/>
-      <c r="D162" s="69" t="s">
+      <c r="A162" s="82"/>
+      <c r="B162" s="82"/>
+      <c r="C162" s="69"/>
+      <c r="D162" s="66" t="s">
         <v>238</v>
       </c>
       <c r="E162" s="11" t="s">
@@ -4384,39 +4391,39 @@
       <c r="F162" s="54"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="63"/>
-      <c r="B163" s="63"/>
-      <c r="C163" s="72"/>
-      <c r="D163" s="74"/>
+      <c r="A163" s="82"/>
+      <c r="B163" s="82"/>
+      <c r="C163" s="69"/>
+      <c r="D163" s="71"/>
       <c r="E163" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F163" s="54"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="63"/>
-      <c r="B164" s="63"/>
-      <c r="C164" s="72"/>
-      <c r="D164" s="74"/>
+      <c r="A164" s="82"/>
+      <c r="B164" s="82"/>
+      <c r="C164" s="69"/>
+      <c r="D164" s="71"/>
       <c r="E164" s="11" t="s">
         <v>245</v>
       </c>
       <c r="F164" s="54"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="63"/>
-      <c r="B165" s="63"/>
-      <c r="C165" s="72"/>
-      <c r="D165" s="70"/>
+      <c r="A165" s="82"/>
+      <c r="B165" s="82"/>
+      <c r="C165" s="69"/>
+      <c r="D165" s="67"/>
       <c r="E165" s="11" t="s">
         <v>237</v>
       </c>
       <c r="F165" s="54"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="63"/>
-      <c r="B166" s="63"/>
-      <c r="C166" s="72"/>
+      <c r="A166" s="82"/>
+      <c r="B166" s="82"/>
+      <c r="C166" s="69"/>
       <c r="D166" s="10" t="s">
         <v>250</v>
       </c>
@@ -4426,10 +4433,10 @@
       <c r="F166" s="54"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="63"/>
-      <c r="B167" s="63"/>
-      <c r="C167" s="72"/>
-      <c r="D167" s="69" t="s">
+      <c r="A167" s="82"/>
+      <c r="B167" s="82"/>
+      <c r="C167" s="69"/>
+      <c r="D167" s="66" t="s">
         <v>252</v>
       </c>
       <c r="E167" s="11" t="s">
@@ -4438,49 +4445,49 @@
       <c r="F167" s="54"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="63"/>
-      <c r="B168" s="63"/>
-      <c r="C168" s="72"/>
-      <c r="D168" s="74"/>
+      <c r="A168" s="82"/>
+      <c r="B168" s="82"/>
+      <c r="C168" s="69"/>
+      <c r="D168" s="71"/>
       <c r="E168" s="11" t="s">
         <v>254</v>
       </c>
       <c r="F168" s="54"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="63"/>
-      <c r="B169" s="63"/>
-      <c r="C169" s="72"/>
-      <c r="D169" s="74"/>
+      <c r="A169" s="82"/>
+      <c r="B169" s="82"/>
+      <c r="C169" s="69"/>
+      <c r="D169" s="71"/>
       <c r="E169" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F169" s="54"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="63"/>
-      <c r="B170" s="63"/>
-      <c r="C170" s="72"/>
-      <c r="D170" s="74"/>
+      <c r="A170" s="82"/>
+      <c r="B170" s="82"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="71"/>
       <c r="E170" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F170" s="54"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="63"/>
-      <c r="B171" s="63"/>
-      <c r="C171" s="72"/>
-      <c r="D171" s="70"/>
+      <c r="A171" s="82"/>
+      <c r="B171" s="82"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="67"/>
       <c r="E171" s="11" t="s">
         <v>257</v>
       </c>
       <c r="F171" s="54"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="63"/>
-      <c r="B172" s="63"/>
-      <c r="C172" s="72"/>
+      <c r="A172" s="82"/>
+      <c r="B172" s="82"/>
+      <c r="C172" s="69"/>
       <c r="D172" s="10" t="s">
         <v>259</v>
       </c>
@@ -4490,10 +4497,10 @@
       <c r="F172" s="54"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="63"/>
-      <c r="B173" s="63"/>
-      <c r="C173" s="72"/>
-      <c r="D173" s="69" t="s">
+      <c r="A173" s="82"/>
+      <c r="B173" s="82"/>
+      <c r="C173" s="69"/>
+      <c r="D173" s="66" t="s">
         <v>261</v>
       </c>
       <c r="E173" s="11" t="s">
@@ -4502,19 +4509,19 @@
       <c r="F173" s="54"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="63"/>
-      <c r="B174" s="63"/>
-      <c r="C174" s="72"/>
-      <c r="D174" s="70"/>
+      <c r="A174" s="82"/>
+      <c r="B174" s="82"/>
+      <c r="C174" s="69"/>
+      <c r="D174" s="67"/>
       <c r="E174" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F174" s="54"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="63"/>
-      <c r="B175" s="63"/>
-      <c r="C175" s="72"/>
+      <c r="A175" s="82"/>
+      <c r="B175" s="82"/>
+      <c r="C175" s="69"/>
       <c r="D175" s="3" t="s">
         <v>263</v>
       </c>
@@ -4524,9 +4531,9 @@
       <c r="F175" s="54"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="63"/>
-      <c r="B176" s="63"/>
-      <c r="C176" s="72"/>
+      <c r="A176" s="82"/>
+      <c r="B176" s="82"/>
+      <c r="C176" s="69"/>
       <c r="D176" s="3" t="s">
         <v>264</v>
       </c>
@@ -4536,9 +4543,9 @@
       <c r="F176" s="54"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="63"/>
-      <c r="B177" s="63"/>
-      <c r="C177" s="72"/>
+      <c r="A177" s="82"/>
+      <c r="B177" s="82"/>
+      <c r="C177" s="69"/>
       <c r="D177" s="3" t="s">
         <v>265</v>
       </c>
@@ -4548,9 +4555,9 @@
       <c r="F177" s="54"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="63"/>
-      <c r="B178" s="63"/>
-      <c r="C178" s="72"/>
+      <c r="A178" s="82"/>
+      <c r="B178" s="82"/>
+      <c r="C178" s="69"/>
       <c r="D178" s="3" t="s">
         <v>269</v>
       </c>
@@ -4560,9 +4567,9 @@
       <c r="F178" s="54"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="63"/>
-      <c r="B179" s="63"/>
-      <c r="C179" s="72"/>
+      <c r="A179" s="82"/>
+      <c r="B179" s="82"/>
+      <c r="C179" s="69"/>
       <c r="D179" s="3" t="s">
         <v>272</v>
       </c>
@@ -4572,9 +4579,9 @@
       <c r="F179" s="54"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="63"/>
-      <c r="B180" s="63"/>
-      <c r="C180" s="72"/>
+      <c r="A180" s="82"/>
+      <c r="B180" s="82"/>
+      <c r="C180" s="69"/>
       <c r="D180" s="3" t="s">
         <v>394</v>
       </c>
@@ -4584,9 +4591,9 @@
       <c r="F180" s="54"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="63"/>
-      <c r="B181" s="63"/>
-      <c r="C181" s="72"/>
+      <c r="A181" s="82"/>
+      <c r="B181" s="82"/>
+      <c r="C181" s="69"/>
       <c r="D181" s="3" t="s">
         <v>396</v>
       </c>
@@ -4596,9 +4603,9 @@
       <c r="F181" s="54"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="63"/>
-      <c r="B182" s="63"/>
-      <c r="C182" s="72"/>
+      <c r="A182" s="82"/>
+      <c r="B182" s="82"/>
+      <c r="C182" s="69"/>
       <c r="D182" s="3" t="s">
         <v>398</v>
       </c>
@@ -4608,9 +4615,9 @@
       <c r="F182" s="54"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="63"/>
-      <c r="B183" s="63"/>
-      <c r="C183" s="72"/>
+      <c r="A183" s="82"/>
+      <c r="B183" s="82"/>
+      <c r="C183" s="69"/>
       <c r="D183" s="3" t="s">
         <v>400</v>
       </c>
@@ -4620,184 +4627,182 @@
       <c r="F183" s="54"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="63"/>
-      <c r="B184" s="63"/>
-      <c r="C184" s="72"/>
+      <c r="A184" s="82"/>
+      <c r="B184" s="82"/>
+      <c r="C184" s="69"/>
       <c r="D184" s="3"/>
       <c r="E184" s="11"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="63"/>
-      <c r="B185" s="63"/>
-      <c r="C185" s="72"/>
+      <c r="A185" s="82"/>
+      <c r="B185" s="82"/>
+      <c r="C185" s="69"/>
       <c r="D185" s="3"/>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="63"/>
-      <c r="B186" s="63"/>
-      <c r="C186" s="72"/>
+      <c r="A186" s="82"/>
+      <c r="B186" s="82"/>
+      <c r="C186" s="69"/>
       <c r="D186" s="3"/>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="63"/>
-      <c r="B187" s="63"/>
-      <c r="C187" s="72"/>
+      <c r="A187" s="82"/>
+      <c r="B187" s="82"/>
+      <c r="C187" s="69"/>
       <c r="D187" s="3"/>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="63"/>
-      <c r="B188" s="63"/>
-      <c r="C188" s="72"/>
+      <c r="A188" s="82"/>
+      <c r="B188" s="82"/>
+      <c r="C188" s="69"/>
       <c r="D188" s="3"/>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="63"/>
-      <c r="B189" s="63"/>
-      <c r="C189" s="72"/>
+      <c r="A189" s="82"/>
+      <c r="B189" s="82"/>
+      <c r="C189" s="69"/>
       <c r="D189" s="3"/>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="63"/>
-      <c r="B190" s="63"/>
-      <c r="C190" s="72"/>
+      <c r="A190" s="82"/>
+      <c r="B190" s="82"/>
+      <c r="C190" s="69"/>
       <c r="D190" s="3"/>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="63"/>
-      <c r="B191" s="63"/>
-      <c r="C191" s="72"/>
+      <c r="A191" s="82"/>
+      <c r="B191" s="82"/>
+      <c r="C191" s="69"/>
       <c r="D191" s="3"/>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="63"/>
-      <c r="B192" s="63"/>
-      <c r="C192" s="72"/>
+      <c r="A192" s="82"/>
+      <c r="B192" s="82"/>
+      <c r="C192" s="69"/>
       <c r="D192" s="3"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="63"/>
-      <c r="B193" s="63"/>
-      <c r="C193" s="72"/>
+      <c r="A193" s="82"/>
+      <c r="B193" s="82"/>
+      <c r="C193" s="69"/>
       <c r="D193" s="3"/>
       <c r="E193" s="11"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="63"/>
-      <c r="B194" s="63"/>
-      <c r="C194" s="72"/>
+      <c r="A194" s="82"/>
+      <c r="B194" s="82"/>
+      <c r="C194" s="69"/>
       <c r="D194" s="3"/>
       <c r="E194" s="11"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="63"/>
-      <c r="B195" s="63"/>
-      <c r="C195" s="72"/>
+      <c r="A195" s="82"/>
+      <c r="B195" s="82"/>
+      <c r="C195" s="69"/>
       <c r="D195" s="3"/>
       <c r="E195" s="11"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="63"/>
-      <c r="B196" s="63"/>
-      <c r="C196" s="72"/>
+      <c r="A196" s="82"/>
+      <c r="B196" s="82"/>
+      <c r="C196" s="69"/>
       <c r="D196" s="3"/>
       <c r="E196" s="11"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="63"/>
-      <c r="B197" s="63"/>
-      <c r="C197" s="72"/>
+      <c r="A197" s="82"/>
+      <c r="B197" s="82"/>
+      <c r="C197" s="69"/>
       <c r="D197" s="3"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="63"/>
-      <c r="B198" s="63"/>
-      <c r="C198" s="72"/>
+      <c r="A198" s="82"/>
+      <c r="B198" s="82"/>
+      <c r="C198" s="69"/>
       <c r="D198" s="3"/>
       <c r="E198" s="11"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="63"/>
-      <c r="B199" s="63"/>
-      <c r="C199" s="72"/>
+      <c r="A199" s="82"/>
+      <c r="B199" s="82"/>
+      <c r="C199" s="69"/>
       <c r="D199" s="3"/>
       <c r="E199" s="11"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="63"/>
-      <c r="B200" s="63"/>
-      <c r="C200" s="72"/>
+      <c r="A200" s="82"/>
+      <c r="B200" s="82"/>
+      <c r="C200" s="69"/>
       <c r="D200" s="3"/>
       <c r="E200" s="11"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="63"/>
-      <c r="B201" s="63"/>
-      <c r="C201" s="72"/>
+      <c r="A201" s="82"/>
+      <c r="B201" s="82"/>
+      <c r="C201" s="69"/>
       <c r="D201" s="3"/>
       <c r="E201" s="11"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="63"/>
-      <c r="B202" s="63"/>
-      <c r="C202" s="72"/>
+      <c r="A202" s="82"/>
+      <c r="B202" s="82"/>
+      <c r="C202" s="69"/>
       <c r="D202" s="3"/>
       <c r="E202" s="11"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="63"/>
-      <c r="B203" s="63"/>
-      <c r="C203" s="72"/>
+      <c r="A203" s="82"/>
+      <c r="B203" s="82"/>
+      <c r="C203" s="69"/>
       <c r="D203" s="3"/>
       <c r="E203" s="11"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="63"/>
-      <c r="B204" s="63"/>
-      <c r="C204" s="72"/>
+      <c r="A204" s="82"/>
+      <c r="B204" s="82"/>
+      <c r="C204" s="69"/>
       <c r="D204" s="3"/>
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="63"/>
-      <c r="B205" s="63"/>
-      <c r="C205" s="72"/>
+      <c r="A205" s="82"/>
+      <c r="B205" s="82"/>
+      <c r="C205" s="69"/>
       <c r="D205" s="3"/>
       <c r="E205" s="11"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="63"/>
-      <c r="B206" s="63"/>
-      <c r="C206" s="72"/>
+      <c r="A206" s="82"/>
+      <c r="B206" s="82"/>
+      <c r="C206" s="69"/>
       <c r="D206" s="3"/>
       <c r="E206" s="11"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="63"/>
-      <c r="B207" s="63"/>
-      <c r="C207" s="72"/>
+      <c r="A207" s="82"/>
+      <c r="B207" s="82"/>
+      <c r="C207" s="69"/>
       <c r="D207" s="3"/>
       <c r="E207" s="11"/>
     </row>
     <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="64"/>
-      <c r="B208" s="64"/>
-      <c r="C208" s="73"/>
+      <c r="A208" s="83"/>
+      <c r="B208" s="83"/>
+      <c r="C208" s="70"/>
       <c r="D208" s="53"/>
       <c r="E208" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C11"/>
     <mergeCell ref="C12:C28"/>
     <mergeCell ref="C29:C81"/>
     <mergeCell ref="A3:A208"/>
@@ -4816,6 +4821,8 @@
     <mergeCell ref="D114:D118"/>
     <mergeCell ref="D99:D101"/>
     <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4825,10 +4832,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596F201-0AA7-4C08-8FDD-0B7FA43A81F9}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5366,55 +5373,56 @@
       <c r="F41" s="56"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="42" spans="1:8" ht="70.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="85"/>
       <c r="B42" s="85"/>
       <c r="C42" s="88"/>
       <c r="D42" s="43" t="s">
-        <v>351</v>
+        <v>419</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>390</v>
+        <v>420</v>
       </c>
       <c r="F42" s="56"/>
       <c r="H42" s="2"/>
     </row>
-    <row r="43" spans="1:8" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="85"/>
       <c r="B43" s="85"/>
-      <c r="C43" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E43" s="39" t="s">
-        <v>140</v>
+      <c r="C43" s="88"/>
+      <c r="D43" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="E43" s="44" t="s">
+        <v>390</v>
       </c>
       <c r="F43" s="56"/>
       <c r="H43" s="2"/>
     </row>
-    <row r="44" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="85"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="18" t="s">
-        <v>113</v>
+      <c r="C44" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="38" t="s">
+        <v>112</v>
       </c>
       <c r="E44" s="39" t="s">
         <v>140</v>
       </c>
       <c r="F44" s="56"/>
+      <c r="H44" s="2"/>
     </row>
     <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="85"/>
       <c r="B45" s="85"/>
       <c r="C45" s="88"/>
       <c r="D45" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E45" s="40" t="s">
-        <v>138</v>
+        <v>113</v>
+      </c>
+      <c r="E45" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="F45" s="56"/>
     </row>
@@ -5423,42 +5431,42 @@
       <c r="B46" s="85"/>
       <c r="C46" s="88"/>
       <c r="D46" s="18" t="s">
-        <v>322</v>
+        <v>137</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>138</v>
+      </c>
+      <c r="F46" s="56"/>
+    </row>
+    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="85"/>
       <c r="B47" s="85"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="42"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="88"/>
+      <c r="D47" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E47" s="40" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="85"/>
       <c r="B48" s="85"/>
-      <c r="C48" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="56"/>
+      <c r="C48" s="89"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="42"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="85"/>
       <c r="B49" s="85"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E49" s="40" t="s">
-        <v>144</v>
+      <c r="C49" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="F49" s="56"/>
     </row>
@@ -5467,10 +5475,10 @@
       <c r="B50" s="85"/>
       <c r="C50" s="88"/>
       <c r="D50" s="18" t="s">
-        <v>289</v>
+        <v>103</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>291</v>
+        <v>144</v>
       </c>
       <c r="F50" s="56"/>
     </row>
@@ -5479,10 +5487,10 @@
       <c r="B51" s="85"/>
       <c r="C51" s="88"/>
       <c r="D51" s="18" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F51" s="56"/>
     </row>
@@ -5491,10 +5499,10 @@
       <c r="B52" s="85"/>
       <c r="C52" s="88"/>
       <c r="D52" s="18" t="s">
-        <v>147</v>
+        <v>290</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>7</v>
+        <v>292</v>
       </c>
       <c r="F52" s="56"/>
     </row>
@@ -5503,70 +5511,70 @@
       <c r="B53" s="85"/>
       <c r="C53" s="88"/>
       <c r="D53" s="18" t="s">
-        <v>206</v>
+        <v>147</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>145</v>
+        <v>7</v>
       </c>
       <c r="F53" s="56"/>
     </row>
-    <row r="54" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="85"/>
       <c r="B54" s="85"/>
       <c r="C54" s="88"/>
       <c r="D54" s="18" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="56"/>
     </row>
-    <row r="55" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="85"/>
       <c r="B55" s="85"/>
       <c r="C55" s="88"/>
-      <c r="D55" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="E55" s="44" t="s">
-        <v>385</v>
+      <c r="D55" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" s="40" t="s">
+        <v>146</v>
       </c>
       <c r="F55" s="56"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="85"/>
       <c r="B56" s="85"/>
       <c r="C56" s="88"/>
-      <c r="D56" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>284</v>
+      <c r="D56" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>385</v>
       </c>
       <c r="F56" s="56"/>
     </row>
-    <row r="57" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="85"/>
       <c r="B57" s="85"/>
       <c r="C57" s="88"/>
-      <c r="D57" s="43" t="s">
-        <v>377</v>
-      </c>
-      <c r="E57" s="44" t="s">
-        <v>378</v>
+      <c r="D57" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E57" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="F57" s="56"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="85"/>
       <c r="B58" s="85"/>
       <c r="C58" s="88"/>
       <c r="D58" s="43" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F58" s="56"/>
     </row>
@@ -5575,53 +5583,53 @@
       <c r="B59" s="85"/>
       <c r="C59" s="88"/>
       <c r="D59" s="43" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E59" s="44" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F59" s="56"/>
     </row>
-    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="85"/>
       <c r="B60" s="85"/>
       <c r="C60" s="88"/>
       <c r="D60" s="43" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F60" s="56"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A61" s="85"/>
       <c r="B61" s="85"/>
       <c r="C61" s="88"/>
-      <c r="D61" s="43"/>
-      <c r="E61" s="44"/>
+      <c r="D61" s="43" t="s">
+        <v>379</v>
+      </c>
+      <c r="E61" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="F61" s="56"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="85"/>
       <c r="B62" s="85"/>
       <c r="C62" s="88"/>
-      <c r="D62" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="F62" s="56"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="44"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="85"/>
       <c r="B63" s="85"/>
       <c r="C63" s="88"/>
       <c r="D63" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F63" s="56"/>
     </row>
@@ -5630,10 +5638,10 @@
       <c r="B64" s="85"/>
       <c r="C64" s="88"/>
       <c r="D64" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E64" s="44" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F64" s="56"/>
     </row>
@@ -5642,10 +5650,10 @@
       <c r="B65" s="85"/>
       <c r="C65" s="88"/>
       <c r="D65" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F65" s="56"/>
     </row>
@@ -5654,10 +5662,10 @@
       <c r="B66" s="85"/>
       <c r="C66" s="88"/>
       <c r="D66" s="43" t="s">
-        <v>68</v>
+        <v>296</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F66" s="56"/>
     </row>
@@ -5666,10 +5674,10 @@
       <c r="B67" s="85"/>
       <c r="C67" s="88"/>
       <c r="D67" s="43" t="s">
-        <v>297</v>
+        <v>68</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F67" s="56"/>
     </row>
@@ -5678,10 +5686,10 @@
       <c r="B68" s="85"/>
       <c r="C68" s="88"/>
       <c r="D68" s="43" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F68" s="56"/>
     </row>
@@ -5690,10 +5698,10 @@
       <c r="B69" s="85"/>
       <c r="C69" s="88"/>
       <c r="D69" s="43" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F69" s="56"/>
     </row>
@@ -5702,10 +5710,10 @@
       <c r="B70" s="85"/>
       <c r="C70" s="88"/>
       <c r="D70" s="43" t="s">
-        <v>387</v>
+        <v>299</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="F70" s="56"/>
     </row>
@@ -5713,42 +5721,54 @@
       <c r="A71" s="85"/>
       <c r="B71" s="85"/>
       <c r="C71" s="88"/>
-      <c r="D71" s="43"/>
-      <c r="E71" s="44"/>
-    </row>
-    <row r="72" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D71" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E71" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="F71" s="56"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="85"/>
       <c r="B72" s="85"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E72" s="40" t="s">
-        <v>308</v>
-      </c>
-      <c r="F72" s="56"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C72" s="88"/>
+      <c r="D72" s="43"/>
+      <c r="E72" s="44"/>
+    </row>
+    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="85"/>
       <c r="B73" s="85"/>
-      <c r="C73" s="88"/>
-      <c r="D73" s="60"/>
-      <c r="E73" s="61"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="86"/>
-      <c r="B74" s="86"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="42"/>
+      <c r="C73" s="90"/>
+      <c r="D73" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E73" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F73" s="56"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="85"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="88"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="61"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="86"/>
+      <c r="B75" s="86"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A74"/>
-    <mergeCell ref="B2:B74"/>
-    <mergeCell ref="C2:C42"/>
-    <mergeCell ref="C43:C47"/>
-    <mergeCell ref="C48:C74"/>
+    <mergeCell ref="A2:A75"/>
+    <mergeCell ref="B2:B75"/>
+    <mergeCell ref="C2:C43"/>
+    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="C49:C75"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\Mods de Juegos\starbound-mod-wnamok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{779DADEA-62D0-4A06-A412-034DB6D57806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01DB15FF-8934-4E79-BA2D-C4B2F185818F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,6 @@
     <sheet name="Tier 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="505">
   <si>
     <t>Tier</t>
   </si>
@@ -1293,7 +1292,259 @@
     <t>bandejadecultivo</t>
   </si>
   <si>
-    <t>oktolojim, tungstenbar (x5), dirtmaterial (x32), wire (x4)</t>
+    <t>compostera</t>
+  </si>
+  <si>
+    <t>procesadorderesiduos</t>
+  </si>
+  <si>
+    <t>titaniumbar (x10), chipnamok, sustanciatiempo (x2), sustanciaforma(x2), greendye, compostera</t>
+  </si>
+  <si>
+    <t>oktolojim, tungstenbar (x5), greendye, dirtmaterial (16), sustanciaforma</t>
+  </si>
+  <si>
+    <t>compost</t>
+  </si>
+  <si>
+    <t>rottenfood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	alienmeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	cookedalienmeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	cookedribmeat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	rawribmeat</t>
+  </si>
+  <si>
+    <t>rawbacon</t>
+  </si>
+  <si>
+    <t>cookedbacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	rawfish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	rawham</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	rawpoultry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	rawtentacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	cookedham</t>
+  </si>
+  <si>
+    <t>cookedpoultry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	cookedtentacle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	cannedfood</t>
+  </si>
+  <si>
+    <t>automato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	avesmingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	banana</t>
+  </si>
+  <si>
+    <t>beakseed</t>
+  </si>
+  <si>
+    <t>boltbulb</t>
+  </si>
+  <si>
+    <t>boneboo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	carrot</t>
+  </si>
+  <si>
+    <t>chili</t>
+  </si>
+  <si>
+    <t>cocoa</t>
+  </si>
+  <si>
+    <t>coffeebeans</t>
+  </si>
+  <si>
+    <t>coralcreep</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>cotton</t>
+  </si>
+  <si>
+    <t>crystalplant</t>
+  </si>
+  <si>
+    <t>currentcorn</t>
+  </si>
+  <si>
+    <t>diodia</t>
+  </si>
+  <si>
+    <t>dirturchin</t>
+  </si>
+  <si>
+    <t>eggshoot</t>
+  </si>
+  <si>
+    <t>feathercrown</t>
+  </si>
+  <si>
+    <t>grapes</t>
+  </si>
+  <si>
+    <t>kiwi</t>
+  </si>
+  <si>
+    <t>shroom</t>
+  </si>
+  <si>
+    <t>neonmelon</t>
+  </si>
+  <si>
+    <t>oculemon</t>
+  </si>
+  <si>
+    <t>pearlpea</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+  </si>
+  <si>
+    <t>potato</t>
+  </si>
+  <si>
+    <t>pussplum</t>
+  </si>
+  <si>
+    <t>reefpod</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>sugar</t>
+  </si>
+  <si>
+    <t>tomato</t>
+  </si>
+  <si>
+    <t>toxictop</t>
+  </si>
+  <si>
+    <t>wartweed</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>egg</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	coconut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	kelp</t>
+  </si>
+  <si>
+    <t>rottenfood (x3)</t>
+  </si>
+  <si>
+    <t>compost (x2)</t>
+  </si>
+  <si>
+    <t>poop</t>
+  </si>
+  <si>
+    <t>livingroot</t>
+  </si>
+  <si>
+    <t>criaderodelarvas</t>
+  </si>
+  <si>
+    <t>oktolojim, tungstenbar (x10), dirtmaterial (x32), wire (x4)</t>
+  </si>
+  <si>
+    <t>tungstenbar (x2), glass (x16), dirtmaterial (x16), liquidwater (x2)</t>
+  </si>
+  <si>
+    <t>biocápsula</t>
+  </si>
+  <si>
+    <t>titaniumbar (x8), glass (x80), chipnamok, wire (x16), sustanciatiempo (x4), sustanciaespacio (x2), sustanciaforma (x2), siliconboard (x4)</t>
+  </si>
+  <si>
+    <t>criaderodebichos</t>
+  </si>
+  <si>
+    <t>criaderodepolillas</t>
+  </si>
+  <si>
+    <t>titaniumbar (x2), glass (x16), dirtmaterial (x16), liquidwater (x2)</t>
+  </si>
+  <si>
+    <t>titaniumbar (x2), glass (x16), dirtmaterial (x16), liquidwater (x2), cuadrodeluz</t>
+  </si>
+  <si>
+    <t>criaderodelarvas2</t>
+  </si>
+  <si>
+    <t>criaderodelarvas, titaniumbar (x2), glass (x16), dirtmaterial (x16), liquidwater (x2)</t>
+  </si>
+  <si>
+    <t>plantfibre (x16)</t>
+  </si>
+  <si>
+    <t>larva (x16)</t>
+  </si>
+  <si>
+    <t>bugshell (x16)</t>
+  </si>
+  <si>
+    <t>petalblue (x8)</t>
+  </si>
+  <si>
+    <t>petalred (x8)</t>
+  </si>
+  <si>
+    <t>petalyellow (x8)</t>
+  </si>
+  <si>
+    <t>giantflowerpetal (x8)</t>
+  </si>
+  <si>
+    <t>logblock (x8)</t>
+  </si>
+  <si>
+    <t>alienstripedwood (x8)</t>
+  </si>
+  <si>
+    <t>alienweirdwood (x8)</t>
+  </si>
+  <si>
+    <t>rainbowwood (x8)</t>
   </si>
 </sst>
 </file>
@@ -1430,7 +1681,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -1883,11 +2134,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2070,6 +2369,30 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2112,30 +2435,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2201,6 +2500,43 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2489,7 +2825,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView topLeftCell="B64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -2506,23 +2842,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="70" t="s">
         <v>333</v>
       </c>
-      <c r="E1" s="63"/>
+      <c r="E1" s="71"/>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="26.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
       <c r="D2" s="58" t="s">
         <v>331</v>
       </c>
@@ -2531,13 +2867,13 @@
       </c>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="81">
+      <c r="A3" s="67">
         <v>1</v>
       </c>
-      <c r="B3" s="81" t="s">
+      <c r="B3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="81" t="s">
         <v>36</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -2549,9 +2885,9 @@
       <c r="F3" s="55"/>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="82"/>
-      <c r="B4" s="82"/>
-      <c r="C4" s="74"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="3" t="s">
         <v>121</v>
       </c>
@@ -2561,16 +2897,16 @@
       <c r="F4" s="55"/>
     </row>
     <row r="5" spans="1:6" s="1" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="75"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="7"/>
       <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:6" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="76" t="s">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="66" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -2582,9 +2918,9 @@
       <c r="F6" s="54"/>
     </row>
     <row r="7" spans="1:6" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="82"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="76"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="66"/>
       <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
@@ -2594,9 +2930,9 @@
       <c r="F7" s="54"/>
     </row>
     <row r="8" spans="1:6" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="76"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="66"/>
       <c r="D8" s="3" t="s">
         <v>26</v>
       </c>
@@ -2606,9 +2942,9 @@
       <c r="F8" s="54"/>
     </row>
     <row r="9" spans="1:6" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="76"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="66"/>
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
@@ -2618,9 +2954,9 @@
       <c r="F9" s="54"/>
     </row>
     <row r="10" spans="1:6" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="76"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="66"/>
       <c r="D10" s="10" t="s">
         <v>64</v>
       </c>
@@ -2630,9 +2966,9 @@
       <c r="F10" s="54"/>
     </row>
     <row r="11" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="82"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="76"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="66"/>
       <c r="D11" s="10" t="s">
         <v>6</v>
       </c>
@@ -2642,9 +2978,9 @@
       <c r="F11" s="54"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="77" t="s">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="14" t="s">
@@ -2656,9 +2992,9 @@
       <c r="F12" s="54"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="78"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="63"/>
       <c r="D13" s="15" t="s">
         <v>8</v>
       </c>
@@ -2668,9 +3004,9 @@
       <c r="F13" s="54"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="78"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="63"/>
       <c r="D14" s="15" t="s">
         <v>9</v>
       </c>
@@ -2680,9 +3016,9 @@
       <c r="F14" s="54"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
-      <c r="C15" s="78"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="63"/>
       <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
@@ -2692,9 +3028,9 @@
       <c r="F15" s="54"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="78"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="63"/>
       <c r="D16" s="15" t="s">
         <v>13</v>
       </c>
@@ -2704,9 +3040,9 @@
       <c r="F16" s="54"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="82"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="78"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="63"/>
       <c r="D17" s="15" t="s">
         <v>12</v>
       </c>
@@ -2716,9 +3052,9 @@
       <c r="F17" s="54"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="78"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="15" t="s">
         <v>114</v>
       </c>
@@ -2728,9 +3064,9 @@
       <c r="F18" s="54"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="78"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="63"/>
       <c r="D19" s="15" t="s">
         <v>11</v>
       </c>
@@ -2740,9 +3076,9 @@
       <c r="F19" s="54"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="78"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="63"/>
       <c r="D20" s="15" t="s">
         <v>4</v>
       </c>
@@ -2752,9 +3088,9 @@
       <c r="F20" s="54"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="68"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="15" t="s">
         <v>16</v>
       </c>
@@ -2764,9 +3100,9 @@
       <c r="F21" s="54"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="82"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="78"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="63"/>
       <c r="D22" s="15" t="s">
         <v>17</v>
       </c>
@@ -2776,9 +3112,9 @@
       <c r="F22" s="54"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="82"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="78"/>
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="63"/>
       <c r="D23" s="15" t="s">
         <v>18</v>
       </c>
@@ -2788,9 +3124,9 @@
       <c r="F23" s="54"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="78"/>
+      <c r="A24" s="68"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="15" t="s">
         <v>68</v>
       </c>
@@ -2800,9 +3136,9 @@
       <c r="F24" s="54"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="78"/>
+      <c r="A25" s="68"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="63"/>
       <c r="D25" s="16" t="s">
         <v>278</v>
       </c>
@@ -2812,9 +3148,9 @@
       <c r="F25" s="54"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="82"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="79"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="64"/>
       <c r="D26" s="16" t="s">
         <v>288</v>
       </c>
@@ -2824,9 +3160,9 @@
       <c r="F26" s="54"/>
     </row>
     <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="82"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="79"/>
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="64"/>
       <c r="D27" s="17" t="s">
         <v>63</v>
       </c>
@@ -2836,9 +3172,9 @@
       <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="82"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="80"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="65"/>
       <c r="D28" s="17" t="s">
         <v>101</v>
       </c>
@@ -2848,9 +3184,9 @@
       <c r="F28" s="54"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="76" t="s">
+      <c r="A29" s="68"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
@@ -2862,9 +3198,9 @@
       <c r="F29" s="54"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="76"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="66"/>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2874,9 +3210,9 @@
       <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="82"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="76"/>
+      <c r="A31" s="68"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="66"/>
       <c r="D31" s="3" t="s">
         <v>22</v>
       </c>
@@ -2886,9 +3222,9 @@
       <c r="F31" s="54"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="76"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2898,9 +3234,9 @@
       <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="76"/>
+      <c r="A33" s="68"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2910,9 +3246,9 @@
       <c r="F33" s="54"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="82"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="76"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="66"/>
       <c r="D34" s="3" t="s">
         <v>53</v>
       </c>
@@ -2922,9 +3258,9 @@
       <c r="F34" s="54"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="82"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="76"/>
+      <c r="A35" s="68"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="3" t="s">
         <v>54</v>
       </c>
@@ -2934,9 +3270,9 @@
       <c r="F35" s="54"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="82"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="76"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="3" t="s">
         <v>55</v>
       </c>
@@ -2946,9 +3282,9 @@
       <c r="F36" s="54"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" s="82"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="76"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="3" t="s">
         <v>56</v>
       </c>
@@ -2958,9 +3294,9 @@
       <c r="F37" s="54"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="76"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="68"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="3" t="s">
         <v>60</v>
       </c>
@@ -2970,9 +3306,9 @@
       <c r="F38" s="54"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" s="82"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="76"/>
+      <c r="A39" s="68"/>
+      <c r="B39" s="68"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -2982,9 +3318,9 @@
       <c r="F39" s="54"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="82"/>
-      <c r="B40" s="82"/>
-      <c r="C40" s="76"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="3" t="s">
         <v>58</v>
       </c>
@@ -2994,9 +3330,9 @@
       <c r="F40" s="54"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" s="82"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="76"/>
+      <c r="A41" s="68"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="66"/>
       <c r="D41" s="3" t="s">
         <v>309</v>
       </c>
@@ -3006,9 +3342,9 @@
       <c r="F41" s="54"/>
     </row>
     <row r="42" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="82"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="76"/>
+      <c r="A42" s="68"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="3" t="s">
         <v>311</v>
       </c>
@@ -3018,9 +3354,9 @@
       <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="82"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="76"/>
+      <c r="A43" s="68"/>
+      <c r="B43" s="68"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="3" t="s">
         <v>57</v>
       </c>
@@ -3030,9 +3366,9 @@
       <c r="F43" s="54"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="82"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="76"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="3" t="s">
         <v>51</v>
       </c>
@@ -3042,9 +3378,9 @@
       <c r="F44" s="54"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="82"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="76"/>
+      <c r="A45" s="68"/>
+      <c r="B45" s="68"/>
+      <c r="C45" s="66"/>
       <c r="D45" s="3" t="s">
         <v>28</v>
       </c>
@@ -3054,9 +3390,9 @@
       <c r="F45" s="54"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="82"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="76"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="68"/>
+      <c r="C46" s="66"/>
       <c r="D46" s="3" t="s">
         <v>32</v>
       </c>
@@ -3066,9 +3402,9 @@
       <c r="F46" s="54"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="82"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="76"/>
+      <c r="A47" s="68"/>
+      <c r="B47" s="68"/>
+      <c r="C47" s="66"/>
       <c r="D47" s="3" t="s">
         <v>325</v>
       </c>
@@ -3078,9 +3414,9 @@
       <c r="F47" s="54"/>
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="76"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="68"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="3" t="s">
         <v>326</v>
       </c>
@@ -3090,9 +3426,9 @@
       <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="82"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="76"/>
+      <c r="A49" s="68"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="66"/>
       <c r="D49" s="3" t="s">
         <v>52</v>
       </c>
@@ -3102,9 +3438,9 @@
       <c r="F49" s="54"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="82"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="76"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="3" t="s">
         <v>61</v>
       </c>
@@ -3114,9 +3450,9 @@
       <c r="F50" s="54"/>
     </row>
     <row r="51" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="82"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="76"/>
+      <c r="A51" s="68"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="66"/>
       <c r="D51" s="3" t="s">
         <v>34</v>
       </c>
@@ -3126,9 +3462,9 @@
       <c r="F51" s="54"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="82"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="76"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="66"/>
       <c r="D52" s="3" t="s">
         <v>35</v>
       </c>
@@ -3138,9 +3474,9 @@
       <c r="F52" s="54"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="82"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="76"/>
+      <c r="A53" s="68"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="66"/>
       <c r="D53" s="10" t="s">
         <v>342</v>
       </c>
@@ -3150,9 +3486,9 @@
       <c r="F53" s="54"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="82"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="76"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="66"/>
       <c r="D54" s="10" t="s">
         <v>315</v>
       </c>
@@ -3162,9 +3498,9 @@
       <c r="F54" s="54"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="82"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="76"/>
+      <c r="A55" s="68"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="10" t="s">
         <v>329</v>
       </c>
@@ -3174,9 +3510,9 @@
       <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="82"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="76"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="10" t="s">
         <v>38</v>
       </c>
@@ -3186,9 +3522,9 @@
       <c r="F56" s="54"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="82"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="76"/>
+      <c r="A57" s="68"/>
+      <c r="B57" s="68"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="10" t="s">
         <v>39</v>
       </c>
@@ -3198,9 +3534,9 @@
       <c r="F57" s="54"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="82"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="76"/>
+      <c r="A58" s="68"/>
+      <c r="B58" s="68"/>
+      <c r="C58" s="66"/>
       <c r="D58" s="10" t="s">
         <v>40</v>
       </c>
@@ -3210,9 +3546,9 @@
       <c r="F58" s="54"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="82"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="76"/>
+      <c r="A59" s="68"/>
+      <c r="B59" s="68"/>
+      <c r="C59" s="66"/>
       <c r="D59" s="10" t="s">
         <v>41</v>
       </c>
@@ -3222,9 +3558,9 @@
       <c r="F59" s="54"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="82"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="76"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="68"/>
+      <c r="C60" s="66"/>
       <c r="D60" s="10" t="s">
         <v>42</v>
       </c>
@@ -3234,9 +3570,9 @@
       <c r="F60" s="54"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="82"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="76"/>
+      <c r="A61" s="68"/>
+      <c r="B61" s="68"/>
+      <c r="C61" s="66"/>
       <c r="D61" s="10" t="s">
         <v>43</v>
       </c>
@@ -3246,9 +3582,9 @@
       <c r="F61" s="54"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="82"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="76"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="66"/>
       <c r="D62" s="10" t="s">
         <v>44</v>
       </c>
@@ -3258,9 +3594,9 @@
       <c r="F62" s="54"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="82"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="76"/>
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="66"/>
       <c r="D63" s="10" t="s">
         <v>62</v>
       </c>
@@ -3270,9 +3606,9 @@
       <c r="F63" s="54"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="82"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="76"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="66"/>
       <c r="D64" s="10" t="s">
         <v>45</v>
       </c>
@@ -3282,9 +3618,9 @@
       <c r="F64" s="54"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="82"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="76"/>
+      <c r="A65" s="68"/>
+      <c r="B65" s="68"/>
+      <c r="C65" s="66"/>
       <c r="D65" s="10" t="s">
         <v>46</v>
       </c>
@@ -3294,9 +3630,9 @@
       <c r="F65" s="54"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="82"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="76"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="68"/>
+      <c r="C66" s="66"/>
       <c r="D66" s="10" t="s">
         <v>47</v>
       </c>
@@ -3306,9 +3642,9 @@
       <c r="F66" s="54"/>
     </row>
     <row r="67" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A67" s="82"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="76"/>
+      <c r="A67" s="68"/>
+      <c r="B67" s="68"/>
+      <c r="C67" s="66"/>
       <c r="D67" s="10" t="s">
         <v>48</v>
       </c>
@@ -3318,9 +3654,9 @@
       <c r="F67" s="54"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="82"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="76"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="68"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="10" t="s">
         <v>49</v>
       </c>
@@ -3330,9 +3666,9 @@
       <c r="F68" s="54"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="82"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="76"/>
+      <c r="A69" s="68"/>
+      <c r="B69" s="68"/>
+      <c r="C69" s="66"/>
       <c r="D69" s="10" t="s">
         <v>50</v>
       </c>
@@ -3342,9 +3678,9 @@
       <c r="F69" s="54"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="82"/>
-      <c r="B70" s="82"/>
-      <c r="C70" s="76"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="68"/>
+      <c r="C70" s="66"/>
       <c r="D70" s="10" t="s">
         <v>337</v>
       </c>
@@ -3354,9 +3690,9 @@
       <c r="F70" s="54"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="82"/>
-      <c r="B71" s="82"/>
-      <c r="C71" s="76"/>
+      <c r="A71" s="68"/>
+      <c r="B71" s="68"/>
+      <c r="C71" s="66"/>
       <c r="D71" s="10" t="s">
         <v>83</v>
       </c>
@@ -3366,9 +3702,9 @@
       <c r="F71" s="54"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="82"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="76"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="68"/>
+      <c r="C72" s="66"/>
       <c r="D72" s="10" t="s">
         <v>402</v>
       </c>
@@ -3378,9 +3714,9 @@
       <c r="F72" s="54"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="82"/>
-      <c r="B73" s="82"/>
-      <c r="C73" s="76"/>
+      <c r="A73" s="68"/>
+      <c r="B73" s="68"/>
+      <c r="C73" s="66"/>
       <c r="D73" s="10" t="s">
         <v>404</v>
       </c>
@@ -3390,9 +3726,9 @@
       <c r="F73" s="54"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="82"/>
-      <c r="B74" s="82"/>
-      <c r="C74" s="76"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="68"/>
+      <c r="C74" s="66"/>
       <c r="D74" s="10" t="s">
         <v>405</v>
       </c>
@@ -3402,9 +3738,9 @@
       <c r="F74" s="54"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="82"/>
-      <c r="B75" s="82"/>
-      <c r="C75" s="76"/>
+      <c r="A75" s="68"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="66"/>
       <c r="D75" s="10" t="s">
         <v>408</v>
       </c>
@@ -3414,9 +3750,9 @@
       <c r="F75" s="54"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="82"/>
-      <c r="B76" s="82"/>
-      <c r="C76" s="76"/>
+      <c r="A76" s="68"/>
+      <c r="B76" s="68"/>
+      <c r="C76" s="66"/>
       <c r="D76" s="10" t="s">
         <v>409</v>
       </c>
@@ -3426,9 +3762,9 @@
       <c r="F76" s="54"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="82"/>
-      <c r="B77" s="82"/>
-      <c r="C77" s="76"/>
+      <c r="A77" s="68"/>
+      <c r="B77" s="68"/>
+      <c r="C77" s="66"/>
       <c r="D77" s="10" t="s">
         <v>411</v>
       </c>
@@ -3438,9 +3774,9 @@
       <c r="F77" s="54"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="82"/>
-      <c r="B78" s="82"/>
-      <c r="C78" s="76"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="68"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="10" t="s">
         <v>413</v>
       </c>
@@ -3450,9 +3786,9 @@
       <c r="F78" s="54"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="82"/>
-      <c r="B79" s="82"/>
-      <c r="C79" s="76"/>
+      <c r="A79" s="68"/>
+      <c r="B79" s="68"/>
+      <c r="C79" s="66"/>
       <c r="D79" s="10" t="s">
         <v>415</v>
       </c>
@@ -3462,9 +3798,9 @@
       <c r="F79" s="54"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="82"/>
-      <c r="B80" s="82"/>
-      <c r="C80" s="76"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="66"/>
       <c r="D80" s="10" t="s">
         <v>417</v>
       </c>
@@ -3474,16 +3810,16 @@
       <c r="F80" s="54"/>
     </row>
     <row r="81" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="82"/>
-      <c r="B81" s="82"/>
-      <c r="C81" s="76"/>
+      <c r="A81" s="68"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="66"/>
       <c r="D81" s="10"/>
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:6" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="82"/>
-      <c r="B82" s="82"/>
-      <c r="C82" s="68" t="s">
+      <c r="A82" s="68"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="76" t="s">
         <v>64</v>
       </c>
       <c r="D82" s="5" t="s">
@@ -3495,9 +3831,9 @@
       <c r="F82" s="54"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="82"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="69"/>
+      <c r="A83" s="68"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="77"/>
       <c r="D83" s="4" t="s">
         <v>66</v>
       </c>
@@ -3507,9 +3843,9 @@
       <c r="F83" s="54"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="82"/>
-      <c r="B84" s="82"/>
-      <c r="C84" s="69"/>
+      <c r="A84" s="68"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="77"/>
       <c r="D84" s="3" t="s">
         <v>69</v>
       </c>
@@ -3519,9 +3855,9 @@
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="82"/>
-      <c r="B85" s="82"/>
-      <c r="C85" s="69"/>
+      <c r="A85" s="68"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="77"/>
       <c r="D85" s="3" t="s">
         <v>70</v>
       </c>
@@ -3531,9 +3867,9 @@
       <c r="F85" s="54"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="82"/>
-      <c r="B86" s="82"/>
-      <c r="C86" s="69"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="77"/>
       <c r="D86" s="3" t="s">
         <v>71</v>
       </c>
@@ -3543,9 +3879,9 @@
       <c r="F86" s="54"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="82"/>
-      <c r="B87" s="82"/>
-      <c r="C87" s="69"/>
+      <c r="A87" s="68"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="77"/>
       <c r="D87" s="3" t="s">
         <v>72</v>
       </c>
@@ -3555,9 +3891,9 @@
       <c r="F87" s="54"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="82"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="69"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="68"/>
+      <c r="C88" s="77"/>
       <c r="D88" s="3" t="s">
         <v>79</v>
       </c>
@@ -3567,9 +3903,9 @@
       <c r="F88" s="54"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="82"/>
-      <c r="B89" s="82"/>
-      <c r="C89" s="69"/>
+      <c r="A89" s="68"/>
+      <c r="B89" s="68"/>
+      <c r="C89" s="77"/>
       <c r="D89" s="3" t="s">
         <v>68</v>
       </c>
@@ -3579,9 +3915,9 @@
       <c r="F89" s="54"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="82"/>
-      <c r="B90" s="82"/>
-      <c r="C90" s="69"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="68"/>
+      <c r="C90" s="77"/>
       <c r="D90" s="3" t="s">
         <v>209</v>
       </c>
@@ -3591,9 +3927,9 @@
       <c r="F90" s="54"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="82"/>
-      <c r="B91" s="82"/>
-      <c r="C91" s="69"/>
+      <c r="A91" s="68"/>
+      <c r="B91" s="68"/>
+      <c r="C91" s="77"/>
       <c r="D91" s="3" t="s">
         <v>73</v>
       </c>
@@ -3603,9 +3939,9 @@
       <c r="F91" s="54"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="82"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="69"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="68"/>
+      <c r="C92" s="77"/>
       <c r="D92" s="3" t="s">
         <v>197</v>
       </c>
@@ -3615,9 +3951,9 @@
       <c r="F92" s="54"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="82"/>
-      <c r="B93" s="82"/>
-      <c r="C93" s="69"/>
+      <c r="A93" s="68"/>
+      <c r="B93" s="68"/>
+      <c r="C93" s="77"/>
       <c r="D93" s="3" t="s">
         <v>74</v>
       </c>
@@ -3627,9 +3963,9 @@
       <c r="F93" s="54"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="82"/>
-      <c r="B94" s="82"/>
-      <c r="C94" s="69"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="68"/>
+      <c r="C94" s="77"/>
       <c r="D94" s="3" t="s">
         <v>75</v>
       </c>
@@ -3639,9 +3975,9 @@
       <c r="F94" s="54"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="82"/>
-      <c r="B95" s="82"/>
-      <c r="C95" s="69"/>
+      <c r="A95" s="68"/>
+      <c r="B95" s="68"/>
+      <c r="C95" s="77"/>
       <c r="D95" s="3" t="s">
         <v>201</v>
       </c>
@@ -3651,9 +3987,9 @@
       <c r="F95" s="54"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="82"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="69"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="68"/>
+      <c r="C96" s="77"/>
       <c r="D96" s="3" t="s">
         <v>76</v>
       </c>
@@ -3663,9 +3999,9 @@
       <c r="F96" s="54"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="82"/>
-      <c r="B97" s="82"/>
-      <c r="C97" s="69"/>
+      <c r="A97" s="68"/>
+      <c r="B97" s="68"/>
+      <c r="C97" s="77"/>
       <c r="D97" s="3" t="s">
         <v>168</v>
       </c>
@@ -3675,9 +4011,9 @@
       <c r="F97" s="54"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="82"/>
-      <c r="B98" s="82"/>
-      <c r="C98" s="69"/>
+      <c r="A98" s="68"/>
+      <c r="B98" s="68"/>
+      <c r="C98" s="77"/>
       <c r="D98" s="3" t="s">
         <v>171</v>
       </c>
@@ -3687,10 +4023,10 @@
       <c r="F98" s="54"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="82"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="69"/>
-      <c r="D99" s="66" t="s">
+      <c r="A99" s="68"/>
+      <c r="B99" s="68"/>
+      <c r="C99" s="77"/>
+      <c r="D99" s="74" t="s">
         <v>81</v>
       </c>
       <c r="E99" s="9" t="s">
@@ -3699,30 +4035,30 @@
       <c r="F99" s="54"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="82"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="71"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="79"/>
       <c r="E100" s="9" t="s">
         <v>172</v>
       </c>
       <c r="F100" s="54"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="82"/>
-      <c r="B101" s="82"/>
-      <c r="C101" s="69"/>
-      <c r="D101" s="67"/>
+      <c r="A101" s="68"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="75"/>
       <c r="E101" s="9" t="s">
         <v>167</v>
       </c>
       <c r="F101" s="54"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="82"/>
-      <c r="B102" s="82"/>
-      <c r="C102" s="69"/>
-      <c r="D102" s="72" t="s">
+      <c r="A102" s="68"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="77"/>
+      <c r="D102" s="80" t="s">
         <v>149</v>
       </c>
       <c r="E102" s="11" t="s">
@@ -3731,120 +4067,120 @@
       <c r="F102" s="54"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="82"/>
-      <c r="B103" s="82"/>
-      <c r="C103" s="69"/>
-      <c r="D103" s="72"/>
+      <c r="A103" s="68"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="80"/>
       <c r="E103" s="11" t="s">
         <v>93</v>
       </c>
       <c r="F103" s="54"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="82"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="69"/>
-      <c r="D104" s="72"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="77"/>
+      <c r="D104" s="80"/>
       <c r="E104" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F104" s="54"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="82"/>
-      <c r="B105" s="82"/>
-      <c r="C105" s="69"/>
-      <c r="D105" s="72"/>
+      <c r="A105" s="68"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="80"/>
       <c r="E105" s="11" t="s">
         <v>152</v>
       </c>
       <c r="F105" s="54"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="82"/>
-      <c r="B106" s="82"/>
-      <c r="C106" s="69"/>
-      <c r="D106" s="72"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="77"/>
+      <c r="D106" s="80"/>
       <c r="E106" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F106" s="54"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="82"/>
-      <c r="B107" s="82"/>
-      <c r="C107" s="69"/>
-      <c r="D107" s="72"/>
+      <c r="A107" s="68"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="80"/>
       <c r="E107" s="11" t="s">
         <v>91</v>
       </c>
       <c r="F107" s="54"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="82"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="69"/>
-      <c r="D108" s="72"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="68"/>
+      <c r="C108" s="77"/>
+      <c r="D108" s="80"/>
       <c r="E108" s="11" t="s">
         <v>154</v>
       </c>
       <c r="F108" s="54"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="82"/>
-      <c r="B109" s="82"/>
-      <c r="C109" s="69"/>
-      <c r="D109" s="72"/>
+      <c r="A109" s="68"/>
+      <c r="B109" s="68"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="80"/>
       <c r="E109" s="11" t="s">
         <v>155</v>
       </c>
       <c r="F109" s="54"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="82"/>
-      <c r="B110" s="82"/>
-      <c r="C110" s="69"/>
-      <c r="D110" s="72"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="77"/>
+      <c r="D110" s="80"/>
       <c r="E110" s="11" t="s">
         <v>156</v>
       </c>
       <c r="F110" s="54"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="82"/>
-      <c r="B111" s="82"/>
-      <c r="C111" s="69"/>
-      <c r="D111" s="72"/>
+      <c r="A111" s="68"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="80"/>
       <c r="E111" s="11" t="s">
         <v>231</v>
       </c>
       <c r="F111" s="54"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="82"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="69"/>
-      <c r="D112" s="72"/>
+      <c r="A112" s="68"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="77"/>
+      <c r="D112" s="80"/>
       <c r="E112" s="11" t="s">
         <v>372</v>
       </c>
       <c r="F112" s="54"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="82"/>
-      <c r="B113" s="82"/>
-      <c r="C113" s="69"/>
-      <c r="D113" s="72"/>
+      <c r="A113" s="68"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="77"/>
+      <c r="D113" s="80"/>
       <c r="E113" s="11" t="s">
         <v>92</v>
       </c>
       <c r="F113" s="54"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="82"/>
-      <c r="B114" s="82"/>
-      <c r="C114" s="69"/>
-      <c r="D114" s="66" t="s">
+      <c r="A114" s="68"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="74" t="s">
         <v>69</v>
       </c>
       <c r="E114" s="11" t="s">
@@ -3853,49 +4189,49 @@
       <c r="F114" s="54"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="82"/>
-      <c r="B115" s="82"/>
-      <c r="C115" s="69"/>
-      <c r="D115" s="71"/>
+      <c r="A115" s="68"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="79"/>
       <c r="E115" s="11" t="s">
         <v>161</v>
       </c>
       <c r="F115" s="54"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="82"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="69"/>
-      <c r="D116" s="71"/>
+      <c r="A116" s="68"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="77"/>
+      <c r="D116" s="79"/>
       <c r="E116" s="11" t="s">
         <v>162</v>
       </c>
       <c r="F116" s="54"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="82"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="69"/>
-      <c r="D117" s="71"/>
+      <c r="A117" s="68"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="77"/>
+      <c r="D117" s="79"/>
       <c r="E117" s="11" t="s">
         <v>163</v>
       </c>
       <c r="F117" s="54"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="82"/>
-      <c r="B118" s="82"/>
-      <c r="C118" s="69"/>
-      <c r="D118" s="67"/>
+      <c r="A118" s="68"/>
+      <c r="B118" s="68"/>
+      <c r="C118" s="77"/>
+      <c r="D118" s="75"/>
       <c r="E118" s="11" t="s">
         <v>164</v>
       </c>
       <c r="F118" s="54"/>
     </row>
     <row r="119" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A119" s="82"/>
-      <c r="B119" s="82"/>
-      <c r="C119" s="69"/>
+      <c r="A119" s="68"/>
+      <c r="B119" s="68"/>
+      <c r="C119" s="77"/>
       <c r="D119" s="10" t="s">
         <v>166</v>
       </c>
@@ -3905,9 +4241,9 @@
       <c r="F119" s="54"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="82"/>
-      <c r="B120" s="82"/>
-      <c r="C120" s="69"/>
+      <c r="A120" s="68"/>
+      <c r="B120" s="68"/>
+      <c r="C120" s="77"/>
       <c r="D120" s="10" t="s">
         <v>175</v>
       </c>
@@ -3917,9 +4253,9 @@
       <c r="F120" s="54"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="82"/>
-      <c r="B121" s="82"/>
-      <c r="C121" s="69"/>
+      <c r="A121" s="68"/>
+      <c r="B121" s="68"/>
+      <c r="C121" s="77"/>
       <c r="D121" s="10" t="s">
         <v>177</v>
       </c>
@@ -3929,10 +4265,10 @@
       <c r="F121" s="54"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="82"/>
-      <c r="B122" s="82"/>
-      <c r="C122" s="69"/>
-      <c r="D122" s="66" t="s">
+      <c r="A122" s="68"/>
+      <c r="B122" s="68"/>
+      <c r="C122" s="77"/>
+      <c r="D122" s="74" t="s">
         <v>178</v>
       </c>
       <c r="E122" s="11" t="s">
@@ -3941,19 +4277,19 @@
       <c r="F122" s="54"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="82"/>
-      <c r="B123" s="82"/>
-      <c r="C123" s="69"/>
-      <c r="D123" s="67"/>
+      <c r="A123" s="68"/>
+      <c r="B123" s="68"/>
+      <c r="C123" s="77"/>
+      <c r="D123" s="75"/>
       <c r="E123" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F123" s="54"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="82"/>
-      <c r="B124" s="82"/>
-      <c r="C124" s="69"/>
+      <c r="A124" s="68"/>
+      <c r="B124" s="68"/>
+      <c r="C124" s="77"/>
       <c r="D124" s="10" t="s">
         <v>181</v>
       </c>
@@ -3963,9 +4299,9 @@
       <c r="F124" s="54"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="82"/>
-      <c r="B125" s="82"/>
-      <c r="C125" s="69"/>
+      <c r="A125" s="68"/>
+      <c r="B125" s="68"/>
+      <c r="C125" s="77"/>
       <c r="D125" s="10" t="s">
         <v>184</v>
       </c>
@@ -3975,9 +4311,9 @@
       <c r="F125" s="54"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="82"/>
-      <c r="B126" s="82"/>
-      <c r="C126" s="69"/>
+      <c r="A126" s="68"/>
+      <c r="B126" s="68"/>
+      <c r="C126" s="77"/>
       <c r="D126" s="10" t="s">
         <v>186</v>
       </c>
@@ -3987,9 +4323,9 @@
       <c r="F126" s="54"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="82"/>
-      <c r="B127" s="82"/>
-      <c r="C127" s="69"/>
+      <c r="A127" s="68"/>
+      <c r="B127" s="68"/>
+      <c r="C127" s="77"/>
       <c r="D127" s="10" t="s">
         <v>188</v>
       </c>
@@ -3999,9 +4335,9 @@
       <c r="F127" s="54"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="82"/>
-      <c r="B128" s="82"/>
-      <c r="C128" s="69"/>
+      <c r="A128" s="68"/>
+      <c r="B128" s="68"/>
+      <c r="C128" s="77"/>
       <c r="D128" s="10" t="s">
         <v>190</v>
       </c>
@@ -4011,9 +4347,9 @@
       <c r="F128" s="54"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="82"/>
-      <c r="B129" s="82"/>
-      <c r="C129" s="69"/>
+      <c r="A129" s="68"/>
+      <c r="B129" s="68"/>
+      <c r="C129" s="77"/>
       <c r="D129" s="10" t="s">
         <v>212</v>
       </c>
@@ -4023,9 +4359,9 @@
       <c r="F129" s="54"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="82"/>
-      <c r="B130" s="82"/>
-      <c r="C130" s="69"/>
+      <c r="A130" s="68"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="77"/>
       <c r="D130" s="10" t="s">
         <v>192</v>
       </c>
@@ -4035,9 +4371,9 @@
       <c r="F130" s="54"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="82"/>
-      <c r="B131" s="82"/>
-      <c r="C131" s="69"/>
+      <c r="A131" s="68"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="77"/>
       <c r="D131" s="10" t="s">
         <v>194</v>
       </c>
@@ -4047,9 +4383,9 @@
       <c r="F131" s="54"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="82"/>
-      <c r="B132" s="82"/>
-      <c r="C132" s="69"/>
+      <c r="A132" s="68"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="77"/>
       <c r="D132" s="10" t="s">
         <v>196</v>
       </c>
@@ -4059,10 +4395,10 @@
       <c r="F132" s="54"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="82"/>
-      <c r="B133" s="82"/>
-      <c r="C133" s="69"/>
-      <c r="D133" s="66" t="s">
+      <c r="A133" s="68"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="77"/>
+      <c r="D133" s="74" t="s">
         <v>199</v>
       </c>
       <c r="E133" s="11" t="s">
@@ -4071,19 +4407,19 @@
       <c r="F133" s="54"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="82"/>
-      <c r="B134" s="82"/>
-      <c r="C134" s="69"/>
-      <c r="D134" s="67"/>
+      <c r="A134" s="68"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="77"/>
+      <c r="D134" s="75"/>
       <c r="E134" s="11" t="s">
         <v>200</v>
       </c>
       <c r="F134" s="54"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="82"/>
-      <c r="B135" s="82"/>
-      <c r="C135" s="69"/>
+      <c r="A135" s="68"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="77"/>
       <c r="D135" s="10" t="s">
         <v>204</v>
       </c>
@@ -4093,9 +4429,9 @@
       <c r="F135" s="54"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="82"/>
-      <c r="B136" s="82"/>
-      <c r="C136" s="69"/>
+      <c r="A136" s="68"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="77"/>
       <c r="D136" s="10" t="s">
         <v>207</v>
       </c>
@@ -4105,9 +4441,9 @@
       <c r="F136" s="54"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="82"/>
-      <c r="B137" s="82"/>
-      <c r="C137" s="69"/>
+      <c r="A137" s="68"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="77"/>
       <c r="D137" s="10" t="s">
         <v>213</v>
       </c>
@@ -4117,9 +4453,9 @@
       <c r="F137" s="54"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="82"/>
-      <c r="B138" s="82"/>
-      <c r="C138" s="69"/>
+      <c r="A138" s="68"/>
+      <c r="B138" s="68"/>
+      <c r="C138" s="77"/>
       <c r="D138" s="10" t="s">
         <v>216</v>
       </c>
@@ -4129,10 +4465,10 @@
       <c r="F138" s="54"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="82"/>
-      <c r="B139" s="82"/>
-      <c r="C139" s="69"/>
-      <c r="D139" s="66" t="s">
+      <c r="A139" s="68"/>
+      <c r="B139" s="68"/>
+      <c r="C139" s="77"/>
+      <c r="D139" s="74" t="s">
         <v>70</v>
       </c>
       <c r="E139" s="11" t="s">
@@ -4141,100 +4477,100 @@
       <c r="F139" s="54"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="82"/>
-      <c r="B140" s="82"/>
-      <c r="C140" s="69"/>
-      <c r="D140" s="71"/>
+      <c r="A140" s="68"/>
+      <c r="B140" s="68"/>
+      <c r="C140" s="77"/>
+      <c r="D140" s="79"/>
       <c r="E140" s="11" t="s">
         <v>221</v>
       </c>
       <c r="F140" s="54"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="82"/>
-      <c r="B141" s="82"/>
-      <c r="C141" s="69"/>
-      <c r="D141" s="71"/>
+      <c r="A141" s="68"/>
+      <c r="B141" s="68"/>
+      <c r="C141" s="77"/>
+      <c r="D141" s="79"/>
       <c r="E141" s="11" t="s">
         <v>223</v>
       </c>
       <c r="F141" s="54"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="82"/>
-      <c r="B142" s="82"/>
-      <c r="C142" s="69"/>
-      <c r="D142" s="71"/>
+      <c r="A142" s="68"/>
+      <c r="B142" s="68"/>
+      <c r="C142" s="77"/>
+      <c r="D142" s="79"/>
       <c r="E142" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F142" s="54"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="82"/>
-      <c r="B143" s="82"/>
-      <c r="C143" s="69"/>
-      <c r="D143" s="71"/>
+      <c r="A143" s="68"/>
+      <c r="B143" s="68"/>
+      <c r="C143" s="77"/>
+      <c r="D143" s="79"/>
       <c r="E143" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F143" s="54"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="82"/>
-      <c r="B144" s="82"/>
-      <c r="C144" s="69"/>
-      <c r="D144" s="71"/>
+      <c r="A144" s="68"/>
+      <c r="B144" s="68"/>
+      <c r="C144" s="77"/>
+      <c r="D144" s="79"/>
       <c r="E144" s="11" t="s">
         <v>225</v>
       </c>
       <c r="F144" s="54"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="82"/>
-      <c r="B145" s="82"/>
-      <c r="C145" s="69"/>
-      <c r="D145" s="71"/>
+      <c r="A145" s="68"/>
+      <c r="B145" s="68"/>
+      <c r="C145" s="77"/>
+      <c r="D145" s="79"/>
       <c r="E145" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F145" s="54"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="82"/>
-      <c r="B146" s="82"/>
-      <c r="C146" s="69"/>
-      <c r="D146" s="71"/>
+      <c r="A146" s="68"/>
+      <c r="B146" s="68"/>
+      <c r="C146" s="77"/>
+      <c r="D146" s="79"/>
       <c r="E146" s="11" t="s">
         <v>228</v>
       </c>
       <c r="F146" s="54"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="82"/>
-      <c r="B147" s="82"/>
-      <c r="C147" s="69"/>
-      <c r="D147" s="71"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="68"/>
+      <c r="C147" s="77"/>
+      <c r="D147" s="79"/>
       <c r="E147" s="11" t="s">
         <v>251</v>
       </c>
       <c r="F147" s="54"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="82"/>
-      <c r="B148" s="82"/>
-      <c r="C148" s="69"/>
-      <c r="D148" s="67"/>
+      <c r="A148" s="68"/>
+      <c r="B148" s="68"/>
+      <c r="C148" s="77"/>
+      <c r="D148" s="75"/>
       <c r="E148" s="11" t="s">
         <v>217</v>
       </c>
       <c r="F148" s="54"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="82"/>
-      <c r="B149" s="82"/>
-      <c r="C149" s="69"/>
-      <c r="D149" s="66" t="s">
+      <c r="A149" s="68"/>
+      <c r="B149" s="68"/>
+      <c r="C149" s="77"/>
+      <c r="D149" s="74" t="s">
         <v>218</v>
       </c>
       <c r="E149" s="11" t="s">
@@ -4243,49 +4579,49 @@
       <c r="F149" s="54"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="82"/>
-      <c r="B150" s="82"/>
-      <c r="C150" s="69"/>
-      <c r="D150" s="71"/>
+      <c r="A150" s="68"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="77"/>
+      <c r="D150" s="79"/>
       <c r="E150" s="11" t="s">
         <v>220</v>
       </c>
       <c r="F150" s="54"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="82"/>
-      <c r="B151" s="82"/>
-      <c r="C151" s="69"/>
-      <c r="D151" s="71"/>
+      <c r="A151" s="68"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="77"/>
+      <c r="D151" s="79"/>
       <c r="E151" s="11" t="s">
         <v>222</v>
       </c>
       <c r="F151" s="54"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="82"/>
-      <c r="B152" s="82"/>
-      <c r="C152" s="69"/>
-      <c r="D152" s="71"/>
+      <c r="A152" s="68"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="77"/>
+      <c r="D152" s="79"/>
       <c r="E152" s="11" t="s">
         <v>226</v>
       </c>
       <c r="F152" s="54"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="82"/>
-      <c r="B153" s="82"/>
-      <c r="C153" s="69"/>
-      <c r="D153" s="67"/>
+      <c r="A153" s="68"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="77"/>
+      <c r="D153" s="75"/>
       <c r="E153" s="11" t="s">
         <v>227</v>
       </c>
       <c r="F153" s="54"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="82"/>
-      <c r="B154" s="82"/>
-      <c r="C154" s="69"/>
+      <c r="A154" s="68"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="77"/>
       <c r="D154" s="10" t="s">
         <v>230</v>
       </c>
@@ -4295,9 +4631,9 @@
       <c r="F154" s="54"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="82"/>
-      <c r="B155" s="82"/>
-      <c r="C155" s="69"/>
+      <c r="A155" s="68"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="77"/>
       <c r="D155" s="10" t="s">
         <v>233</v>
       </c>
@@ -4307,9 +4643,9 @@
       <c r="F155" s="54"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="82"/>
-      <c r="B156" s="82"/>
-      <c r="C156" s="69"/>
+      <c r="A156" s="68"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="77"/>
       <c r="D156" s="10" t="s">
         <v>235</v>
       </c>
@@ -4319,9 +4655,9 @@
       <c r="F156" s="54"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="82"/>
-      <c r="B157" s="82"/>
-      <c r="C157" s="69"/>
+      <c r="A157" s="68"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="77"/>
       <c r="D157" s="10" t="s">
         <v>68</v>
       </c>
@@ -4331,9 +4667,9 @@
       <c r="F157" s="54"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="82"/>
-      <c r="B158" s="82"/>
-      <c r="C158" s="69"/>
+      <c r="A158" s="68"/>
+      <c r="B158" s="68"/>
+      <c r="C158" s="77"/>
       <c r="D158" s="10" t="s">
         <v>246</v>
       </c>
@@ -4343,9 +4679,9 @@
       <c r="F158" s="54"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="82"/>
-      <c r="B159" s="82"/>
-      <c r="C159" s="69"/>
+      <c r="A159" s="68"/>
+      <c r="B159" s="68"/>
+      <c r="C159" s="77"/>
       <c r="D159" s="10" t="s">
         <v>67</v>
       </c>
@@ -4355,9 +4691,9 @@
       <c r="F159" s="54"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="82"/>
-      <c r="B160" s="82"/>
-      <c r="C160" s="69"/>
+      <c r="A160" s="68"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="77"/>
       <c r="D160" s="10" t="s">
         <v>240</v>
       </c>
@@ -4367,9 +4703,9 @@
       <c r="F160" s="54"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="82"/>
-      <c r="B161" s="82"/>
-      <c r="C161" s="69"/>
+      <c r="A161" s="68"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="77"/>
       <c r="D161" s="10" t="s">
         <v>242</v>
       </c>
@@ -4379,10 +4715,10 @@
       <c r="F161" s="54"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="82"/>
-      <c r="B162" s="82"/>
-      <c r="C162" s="69"/>
-      <c r="D162" s="66" t="s">
+      <c r="A162" s="68"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="77"/>
+      <c r="D162" s="74" t="s">
         <v>238</v>
       </c>
       <c r="E162" s="11" t="s">
@@ -4391,39 +4727,39 @@
       <c r="F162" s="54"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="82"/>
-      <c r="B163" s="82"/>
-      <c r="C163" s="69"/>
-      <c r="D163" s="71"/>
+      <c r="A163" s="68"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="77"/>
+      <c r="D163" s="79"/>
       <c r="E163" s="11" t="s">
         <v>244</v>
       </c>
       <c r="F163" s="54"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="82"/>
-      <c r="B164" s="82"/>
-      <c r="C164" s="69"/>
-      <c r="D164" s="71"/>
+      <c r="A164" s="68"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="77"/>
+      <c r="D164" s="79"/>
       <c r="E164" s="11" t="s">
         <v>245</v>
       </c>
       <c r="F164" s="54"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="82"/>
-      <c r="B165" s="82"/>
-      <c r="C165" s="69"/>
-      <c r="D165" s="67"/>
+      <c r="A165" s="68"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="77"/>
+      <c r="D165" s="75"/>
       <c r="E165" s="11" t="s">
         <v>237</v>
       </c>
       <c r="F165" s="54"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="82"/>
-      <c r="B166" s="82"/>
-      <c r="C166" s="69"/>
+      <c r="A166" s="68"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="77"/>
       <c r="D166" s="10" t="s">
         <v>250</v>
       </c>
@@ -4433,10 +4769,10 @@
       <c r="F166" s="54"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="82"/>
-      <c r="B167" s="82"/>
-      <c r="C167" s="69"/>
-      <c r="D167" s="66" t="s">
+      <c r="A167" s="68"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="77"/>
+      <c r="D167" s="74" t="s">
         <v>252</v>
       </c>
       <c r="E167" s="11" t="s">
@@ -4445,49 +4781,49 @@
       <c r="F167" s="54"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="82"/>
-      <c r="B168" s="82"/>
-      <c r="C168" s="69"/>
-      <c r="D168" s="71"/>
+      <c r="A168" s="68"/>
+      <c r="B168" s="68"/>
+      <c r="C168" s="77"/>
+      <c r="D168" s="79"/>
       <c r="E168" s="11" t="s">
         <v>254</v>
       </c>
       <c r="F168" s="54"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="82"/>
-      <c r="B169" s="82"/>
-      <c r="C169" s="69"/>
-      <c r="D169" s="71"/>
+      <c r="A169" s="68"/>
+      <c r="B169" s="68"/>
+      <c r="C169" s="77"/>
+      <c r="D169" s="79"/>
       <c r="E169" s="11" t="s">
         <v>255</v>
       </c>
       <c r="F169" s="54"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="82"/>
-      <c r="B170" s="82"/>
-      <c r="C170" s="69"/>
-      <c r="D170" s="71"/>
+      <c r="A170" s="68"/>
+      <c r="B170" s="68"/>
+      <c r="C170" s="77"/>
+      <c r="D170" s="79"/>
       <c r="E170" s="11" t="s">
         <v>256</v>
       </c>
       <c r="F170" s="54"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="82"/>
-      <c r="B171" s="82"/>
-      <c r="C171" s="69"/>
-      <c r="D171" s="67"/>
+      <c r="A171" s="68"/>
+      <c r="B171" s="68"/>
+      <c r="C171" s="77"/>
+      <c r="D171" s="75"/>
       <c r="E171" s="11" t="s">
         <v>257</v>
       </c>
       <c r="F171" s="54"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="82"/>
-      <c r="B172" s="82"/>
-      <c r="C172" s="69"/>
+      <c r="A172" s="68"/>
+      <c r="B172" s="68"/>
+      <c r="C172" s="77"/>
       <c r="D172" s="10" t="s">
         <v>259</v>
       </c>
@@ -4497,10 +4833,10 @@
       <c r="F172" s="54"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="82"/>
-      <c r="B173" s="82"/>
-      <c r="C173" s="69"/>
-      <c r="D173" s="66" t="s">
+      <c r="A173" s="68"/>
+      <c r="B173" s="68"/>
+      <c r="C173" s="77"/>
+      <c r="D173" s="74" t="s">
         <v>261</v>
       </c>
       <c r="E173" s="11" t="s">
@@ -4509,19 +4845,19 @@
       <c r="F173" s="54"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="82"/>
-      <c r="B174" s="82"/>
-      <c r="C174" s="69"/>
-      <c r="D174" s="67"/>
+      <c r="A174" s="68"/>
+      <c r="B174" s="68"/>
+      <c r="C174" s="77"/>
+      <c r="D174" s="75"/>
       <c r="E174" s="11" t="s">
         <v>262</v>
       </c>
       <c r="F174" s="54"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="82"/>
-      <c r="B175" s="82"/>
-      <c r="C175" s="69"/>
+      <c r="A175" s="68"/>
+      <c r="B175" s="68"/>
+      <c r="C175" s="77"/>
       <c r="D175" s="3" t="s">
         <v>263</v>
       </c>
@@ -4531,9 +4867,9 @@
       <c r="F175" s="54"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="82"/>
-      <c r="B176" s="82"/>
-      <c r="C176" s="69"/>
+      <c r="A176" s="68"/>
+      <c r="B176" s="68"/>
+      <c r="C176" s="77"/>
       <c r="D176" s="3" t="s">
         <v>264</v>
       </c>
@@ -4543,9 +4879,9 @@
       <c r="F176" s="54"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="82"/>
-      <c r="B177" s="82"/>
-      <c r="C177" s="69"/>
+      <c r="A177" s="68"/>
+      <c r="B177" s="68"/>
+      <c r="C177" s="77"/>
       <c r="D177" s="3" t="s">
         <v>265</v>
       </c>
@@ -4555,9 +4891,9 @@
       <c r="F177" s="54"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="82"/>
-      <c r="B178" s="82"/>
-      <c r="C178" s="69"/>
+      <c r="A178" s="68"/>
+      <c r="B178" s="68"/>
+      <c r="C178" s="77"/>
       <c r="D178" s="3" t="s">
         <v>269</v>
       </c>
@@ -4567,9 +4903,9 @@
       <c r="F178" s="54"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="82"/>
-      <c r="B179" s="82"/>
-      <c r="C179" s="69"/>
+      <c r="A179" s="68"/>
+      <c r="B179" s="68"/>
+      <c r="C179" s="77"/>
       <c r="D179" s="3" t="s">
         <v>272</v>
       </c>
@@ -4579,9 +4915,9 @@
       <c r="F179" s="54"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="82"/>
-      <c r="B180" s="82"/>
-      <c r="C180" s="69"/>
+      <c r="A180" s="68"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="77"/>
       <c r="D180" s="3" t="s">
         <v>394</v>
       </c>
@@ -4591,9 +4927,9 @@
       <c r="F180" s="54"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="82"/>
-      <c r="B181" s="82"/>
-      <c r="C181" s="69"/>
+      <c r="A181" s="68"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="77"/>
       <c r="D181" s="3" t="s">
         <v>396</v>
       </c>
@@ -4603,9 +4939,9 @@
       <c r="F181" s="54"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="82"/>
-      <c r="B182" s="82"/>
-      <c r="C182" s="69"/>
+      <c r="A182" s="68"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="77"/>
       <c r="D182" s="3" t="s">
         <v>398</v>
       </c>
@@ -4615,9 +4951,9 @@
       <c r="F182" s="54"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="82"/>
-      <c r="B183" s="82"/>
-      <c r="C183" s="69"/>
+      <c r="A183" s="68"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="77"/>
       <c r="D183" s="3" t="s">
         <v>400</v>
       </c>
@@ -4627,182 +4963,186 @@
       <c r="F183" s="54"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="82"/>
-      <c r="B184" s="82"/>
-      <c r="C184" s="69"/>
+      <c r="A184" s="68"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="77"/>
       <c r="D184" s="3"/>
       <c r="E184" s="11"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="82"/>
-      <c r="B185" s="82"/>
-      <c r="C185" s="69"/>
+      <c r="A185" s="68"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="77"/>
       <c r="D185" s="3"/>
       <c r="E185" s="11"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="82"/>
-      <c r="B186" s="82"/>
-      <c r="C186" s="69"/>
+      <c r="A186" s="68"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="77"/>
       <c r="D186" s="3"/>
       <c r="E186" s="11"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="82"/>
-      <c r="B187" s="82"/>
-      <c r="C187" s="69"/>
+      <c r="A187" s="68"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="77"/>
       <c r="D187" s="3"/>
       <c r="E187" s="11"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="82"/>
-      <c r="B188" s="82"/>
-      <c r="C188" s="69"/>
+      <c r="A188" s="68"/>
+      <c r="B188" s="68"/>
+      <c r="C188" s="77"/>
       <c r="D188" s="3"/>
       <c r="E188" s="11"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="82"/>
-      <c r="B189" s="82"/>
-      <c r="C189" s="69"/>
+      <c r="A189" s="68"/>
+      <c r="B189" s="68"/>
+      <c r="C189" s="77"/>
       <c r="D189" s="3"/>
       <c r="E189" s="11"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="82"/>
-      <c r="B190" s="82"/>
-      <c r="C190" s="69"/>
+      <c r="A190" s="68"/>
+      <c r="B190" s="68"/>
+      <c r="C190" s="77"/>
       <c r="D190" s="3"/>
       <c r="E190" s="11"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="82"/>
-      <c r="B191" s="82"/>
-      <c r="C191" s="69"/>
+      <c r="A191" s="68"/>
+      <c r="B191" s="68"/>
+      <c r="C191" s="77"/>
       <c r="D191" s="3"/>
       <c r="E191" s="11"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="82"/>
-      <c r="B192" s="82"/>
-      <c r="C192" s="69"/>
+      <c r="A192" s="68"/>
+      <c r="B192" s="68"/>
+      <c r="C192" s="77"/>
       <c r="D192" s="3"/>
       <c r="E192" s="11"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="82"/>
-      <c r="B193" s="82"/>
-      <c r="C193" s="69"/>
+      <c r="A193" s="68"/>
+      <c r="B193" s="68"/>
+      <c r="C193" s="77"/>
       <c r="D193" s="3"/>
       <c r="E193" s="11"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="82"/>
-      <c r="B194" s="82"/>
-      <c r="C194" s="69"/>
+      <c r="A194" s="68"/>
+      <c r="B194" s="68"/>
+      <c r="C194" s="77"/>
       <c r="D194" s="3"/>
       <c r="E194" s="11"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="82"/>
-      <c r="B195" s="82"/>
-      <c r="C195" s="69"/>
+      <c r="A195" s="68"/>
+      <c r="B195" s="68"/>
+      <c r="C195" s="77"/>
       <c r="D195" s="3"/>
       <c r="E195" s="11"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A196" s="82"/>
-      <c r="B196" s="82"/>
-      <c r="C196" s="69"/>
+      <c r="A196" s="68"/>
+      <c r="B196" s="68"/>
+      <c r="C196" s="77"/>
       <c r="D196" s="3"/>
       <c r="E196" s="11"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A197" s="82"/>
-      <c r="B197" s="82"/>
-      <c r="C197" s="69"/>
+      <c r="A197" s="68"/>
+      <c r="B197" s="68"/>
+      <c r="C197" s="77"/>
       <c r="D197" s="3"/>
       <c r="E197" s="11"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A198" s="82"/>
-      <c r="B198" s="82"/>
-      <c r="C198" s="69"/>
+      <c r="A198" s="68"/>
+      <c r="B198" s="68"/>
+      <c r="C198" s="77"/>
       <c r="D198" s="3"/>
       <c r="E198" s="11"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A199" s="82"/>
-      <c r="B199" s="82"/>
-      <c r="C199" s="69"/>
+      <c r="A199" s="68"/>
+      <c r="B199" s="68"/>
+      <c r="C199" s="77"/>
       <c r="D199" s="3"/>
       <c r="E199" s="11"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A200" s="82"/>
-      <c r="B200" s="82"/>
-      <c r="C200" s="69"/>
+      <c r="A200" s="68"/>
+      <c r="B200" s="68"/>
+      <c r="C200" s="77"/>
       <c r="D200" s="3"/>
       <c r="E200" s="11"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A201" s="82"/>
-      <c r="B201" s="82"/>
-      <c r="C201" s="69"/>
+      <c r="A201" s="68"/>
+      <c r="B201" s="68"/>
+      <c r="C201" s="77"/>
       <c r="D201" s="3"/>
       <c r="E201" s="11"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A202" s="82"/>
-      <c r="B202" s="82"/>
-      <c r="C202" s="69"/>
+      <c r="A202" s="68"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="77"/>
       <c r="D202" s="3"/>
       <c r="E202" s="11"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A203" s="82"/>
-      <c r="B203" s="82"/>
-      <c r="C203" s="69"/>
+      <c r="A203" s="68"/>
+      <c r="B203" s="68"/>
+      <c r="C203" s="77"/>
       <c r="D203" s="3"/>
       <c r="E203" s="11"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A204" s="82"/>
-      <c r="B204" s="82"/>
-      <c r="C204" s="69"/>
+      <c r="A204" s="68"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="77"/>
       <c r="D204" s="3"/>
       <c r="E204" s="11"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A205" s="82"/>
-      <c r="B205" s="82"/>
-      <c r="C205" s="69"/>
+      <c r="A205" s="68"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="77"/>
       <c r="D205" s="3"/>
       <c r="E205" s="11"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A206" s="82"/>
-      <c r="B206" s="82"/>
-      <c r="C206" s="69"/>
+      <c r="A206" s="68"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="77"/>
       <c r="D206" s="3"/>
       <c r="E206" s="11"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A207" s="82"/>
-      <c r="B207" s="82"/>
-      <c r="C207" s="69"/>
+      <c r="A207" s="68"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="77"/>
       <c r="D207" s="3"/>
       <c r="E207" s="11"/>
     </row>
     <row r="208" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A208" s="83"/>
-      <c r="B208" s="83"/>
-      <c r="C208" s="70"/>
+      <c r="A208" s="69"/>
+      <c r="B208" s="69"/>
+      <c r="C208" s="78"/>
       <c r="D208" s="53"/>
       <c r="E208" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D99:D101"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C6:C11"/>
     <mergeCell ref="C12:C28"/>
     <mergeCell ref="C29:C81"/>
     <mergeCell ref="A3:A208"/>
@@ -4819,10 +5159,6 @@
     <mergeCell ref="D173:D174"/>
     <mergeCell ref="D102:D113"/>
     <mergeCell ref="D114:D118"/>
-    <mergeCell ref="D99:D101"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="C6:C11"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4832,10 +5168,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1596F201-0AA7-4C08-8FDD-0B7FA43A81F9}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4844,8 +5180,8 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="40.33203125" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="41.6640625" customWidth="1"/>
+    <col min="7" max="7" width="28.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5051,7 +5387,7 @@
       </c>
       <c r="F16" s="56"/>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="85"/>
       <c r="B17" s="85"/>
       <c r="C17" s="88"/>
@@ -5063,7 +5399,7 @@
       </c>
       <c r="F17" s="56"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
       <c r="B18" s="85"/>
       <c r="C18" s="88"/>
@@ -5075,7 +5411,7 @@
       </c>
       <c r="F18" s="56"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="85"/>
       <c r="B19" s="85"/>
       <c r="C19" s="88"/>
@@ -5087,7 +5423,7 @@
       </c>
       <c r="F19" s="56"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="85"/>
       <c r="B20" s="85"/>
       <c r="C20" s="88"/>
@@ -5099,7 +5435,7 @@
       </c>
       <c r="F20" s="56"/>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="85"/>
       <c r="B21" s="85"/>
       <c r="C21" s="88"/>
@@ -5111,7 +5447,7 @@
       </c>
       <c r="F21" s="56"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="85"/>
       <c r="B22" s="85"/>
       <c r="C22" s="88"/>
@@ -5122,9 +5458,9 @@
         <v>7</v>
       </c>
       <c r="F22" s="56"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="85"/>
       <c r="B23" s="85"/>
       <c r="C23" s="88"/>
@@ -5135,9 +5471,9 @@
         <v>284</v>
       </c>
       <c r="F23" s="56"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="85"/>
       <c r="B24" s="85"/>
       <c r="C24" s="88"/>
@@ -5148,9 +5484,9 @@
         <v>354</v>
       </c>
       <c r="F24" s="56"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A25" s="85"/>
       <c r="B25" s="85"/>
       <c r="C25" s="88"/>
@@ -5161,9 +5497,9 @@
         <v>355</v>
       </c>
       <c r="F25" s="56"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A26" s="85"/>
       <c r="B26" s="85"/>
       <c r="C26" s="88"/>
@@ -5174,9 +5510,9 @@
         <v>360</v>
       </c>
       <c r="F26" s="56"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A27" s="85"/>
       <c r="B27" s="85"/>
       <c r="C27" s="88"/>
@@ -5187,9 +5523,9 @@
         <v>362</v>
       </c>
       <c r="F27" s="56"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="85"/>
       <c r="B28" s="85"/>
       <c r="C28" s="88"/>
@@ -5200,9 +5536,9 @@
         <v>363</v>
       </c>
       <c r="F28" s="56"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="85"/>
       <c r="B29" s="85"/>
       <c r="C29" s="88"/>
@@ -5213,9 +5549,9 @@
         <v>374</v>
       </c>
       <c r="F29" s="56"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A30" s="85"/>
       <c r="B30" s="85"/>
       <c r="C30" s="88"/>
@@ -5226,9 +5562,9 @@
         <v>375</v>
       </c>
       <c r="F30" s="56"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="85"/>
       <c r="B31" s="85"/>
       <c r="C31" s="88"/>
@@ -5239,9 +5575,9 @@
         <v>376</v>
       </c>
       <c r="F31" s="56"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="85"/>
       <c r="B32" s="85"/>
       <c r="C32" s="88"/>
@@ -5254,9 +5590,9 @@
       <c r="F32" s="56" t="s">
         <v>317</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
       <c r="B33" s="85"/>
       <c r="C33" s="88"/>
@@ -5267,9 +5603,9 @@
         <v>356</v>
       </c>
       <c r="F33" s="56"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="85"/>
       <c r="B34" s="85"/>
       <c r="C34" s="88"/>
@@ -5280,9 +5616,9 @@
         <v>358</v>
       </c>
       <c r="F34" s="56"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="85"/>
       <c r="B35" s="85"/>
       <c r="C35" s="88"/>
@@ -5293,9 +5629,9 @@
         <v>157</v>
       </c>
       <c r="F35" s="56"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="85"/>
       <c r="B36" s="85"/>
       <c r="C36" s="88"/>
@@ -5306,9 +5642,9 @@
         <v>142</v>
       </c>
       <c r="F36" s="56"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="85"/>
       <c r="B37" s="85"/>
       <c r="C37" s="88"/>
@@ -5319,9 +5655,9 @@
         <v>281</v>
       </c>
       <c r="F37" s="56"/>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="85"/>
       <c r="B38" s="85"/>
       <c r="C38" s="88"/>
@@ -5332,9 +5668,9 @@
         <v>339</v>
       </c>
       <c r="F38" s="56"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="85"/>
       <c r="B39" s="85"/>
       <c r="C39" s="88"/>
@@ -5345,9 +5681,9 @@
         <v>117</v>
       </c>
       <c r="F39" s="56"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="85"/>
       <c r="B40" s="85"/>
       <c r="C40" s="88"/>
@@ -5358,9 +5694,9 @@
         <v>118</v>
       </c>
       <c r="F40" s="56"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="85"/>
       <c r="B41" s="85"/>
       <c r="C41" s="88"/>
@@ -5371,9 +5707,9 @@
         <v>139</v>
       </c>
       <c r="F41" s="56"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="85"/>
       <c r="B42" s="85"/>
       <c r="C42" s="88"/>
@@ -5381,116 +5717,119 @@
         <v>419</v>
       </c>
       <c r="E42" s="44" t="s">
-        <v>420</v>
+        <v>484</v>
       </c>
       <c r="F42" s="56"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="85"/>
       <c r="B43" s="85"/>
       <c r="C43" s="88"/>
       <c r="D43" s="43" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
       <c r="E43" s="44" t="s">
-        <v>390</v>
-      </c>
-      <c r="F43" s="56"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>485</v>
+      </c>
+      <c r="F43" s="106"/>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="85"/>
       <c r="B44" s="85"/>
-      <c r="C44" s="87" t="s">
-        <v>5</v>
-      </c>
-      <c r="D44" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="E44" s="39" t="s">
-        <v>140</v>
+      <c r="C44" s="88"/>
+      <c r="D44" s="43" t="s">
+        <v>420</v>
+      </c>
+      <c r="E44" s="44" t="s">
+        <v>423</v>
       </c>
       <c r="F44" s="56"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" ht="49.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="85"/>
       <c r="B45" s="85"/>
       <c r="C45" s="88"/>
-      <c r="D45" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="E45" s="39" t="s">
-        <v>140</v>
+      <c r="D45" s="43" t="s">
+        <v>351</v>
+      </c>
+      <c r="E45" s="44" t="s">
+        <v>390</v>
       </c>
       <c r="F45" s="56"/>
-    </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="41.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="85"/>
       <c r="B46" s="85"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E46" s="40" t="s">
-        <v>138</v>
+      <c r="C46" s="87" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E46" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="F46" s="56"/>
-    </row>
-    <row r="47" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="85"/>
       <c r="B47" s="85"/>
       <c r="C47" s="88"/>
       <c r="D47" s="18" t="s">
-        <v>322</v>
-      </c>
-      <c r="E47" s="40" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>113</v>
+      </c>
+      <c r="E47" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="56"/>
+    </row>
+    <row r="48" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="85"/>
       <c r="B48" s="85"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="42"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" s="88"/>
+      <c r="D48" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E48" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="56"/>
+    </row>
+    <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="85"/>
       <c r="B49" s="85"/>
-      <c r="C49" s="87" t="s">
-        <v>101</v>
-      </c>
-      <c r="D49" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="39" t="s">
-        <v>143</v>
+      <c r="C49" s="88"/>
+      <c r="D49" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="E49" s="40" t="s">
+        <v>323</v>
       </c>
       <c r="F49" s="56"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="85"/>
       <c r="B50" s="85"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E50" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="56"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="42"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="85"/>
       <c r="B51" s="85"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E51" s="40" t="s">
-        <v>291</v>
+      <c r="C51" s="87" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="39" t="s">
+        <v>143</v>
       </c>
       <c r="F51" s="56"/>
     </row>
@@ -5499,10 +5838,10 @@
       <c r="B52" s="85"/>
       <c r="C52" s="88"/>
       <c r="D52" s="18" t="s">
-        <v>290</v>
+        <v>103</v>
       </c>
       <c r="E52" s="40" t="s">
-        <v>292</v>
+        <v>144</v>
       </c>
       <c r="F52" s="56"/>
     </row>
@@ -5511,10 +5850,10 @@
       <c r="B53" s="85"/>
       <c r="C53" s="88"/>
       <c r="D53" s="18" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="F53" s="56"/>
     </row>
@@ -5523,46 +5862,46 @@
       <c r="B54" s="85"/>
       <c r="C54" s="88"/>
       <c r="D54" s="18" t="s">
-        <v>206</v>
+        <v>290</v>
       </c>
       <c r="E54" s="40" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="F54" s="56"/>
     </row>
-    <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="85"/>
       <c r="B55" s="85"/>
       <c r="C55" s="88"/>
       <c r="D55" s="18" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="F55" s="56"/>
     </row>
-    <row r="56" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="85"/>
       <c r="B56" s="85"/>
       <c r="C56" s="88"/>
-      <c r="D56" s="43" t="s">
-        <v>386</v>
-      </c>
-      <c r="E56" s="44" t="s">
-        <v>385</v>
+      <c r="D56" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="E56" s="40" t="s">
+        <v>145</v>
       </c>
       <c r="F56" s="56"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A57" s="85"/>
       <c r="B57" s="85"/>
       <c r="C57" s="88"/>
       <c r="D57" s="18" t="s">
-        <v>283</v>
+        <v>111</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>284</v>
+        <v>146</v>
       </c>
       <c r="F57" s="56"/>
     </row>
@@ -5571,10 +5910,10 @@
       <c r="B58" s="85"/>
       <c r="C58" s="88"/>
       <c r="D58" s="43" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E58" s="44" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="F58" s="56"/>
     </row>
@@ -5582,35 +5921,35 @@
       <c r="A59" s="85"/>
       <c r="B59" s="85"/>
       <c r="C59" s="88"/>
-      <c r="D59" s="43" t="s">
-        <v>384</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>383</v>
+      <c r="D59" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="E59" s="40" t="s">
+        <v>284</v>
       </c>
       <c r="F59" s="56"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="85"/>
       <c r="B60" s="85"/>
       <c r="C60" s="88"/>
       <c r="D60" s="43" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E60" s="44" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F60" s="56"/>
     </row>
-    <row r="61" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="85"/>
       <c r="B61" s="85"/>
       <c r="C61" s="88"/>
       <c r="D61" s="43" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="E61" s="44" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F61" s="56"/>
     </row>
@@ -5618,18 +5957,23 @@
       <c r="A62" s="85"/>
       <c r="B62" s="85"/>
       <c r="C62" s="88"/>
-      <c r="D62" s="43"/>
-      <c r="E62" s="44"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>382</v>
+      </c>
+      <c r="F62" s="56"/>
+    </row>
+    <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="85"/>
       <c r="B63" s="85"/>
       <c r="C63" s="88"/>
       <c r="D63" s="43" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="E63" s="44" t="s">
-        <v>300</v>
+        <v>380</v>
       </c>
       <c r="F63" s="56"/>
     </row>
@@ -5637,23 +5981,18 @@
       <c r="A64" s="85"/>
       <c r="B64" s="85"/>
       <c r="C64" s="88"/>
-      <c r="D64" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="E64" s="44" t="s">
-        <v>301</v>
-      </c>
-      <c r="F64" s="56"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="44"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="85"/>
       <c r="B65" s="85"/>
       <c r="C65" s="88"/>
       <c r="D65" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="E65" s="44" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F65" s="56"/>
     </row>
@@ -5662,10 +6001,10 @@
       <c r="B66" s="85"/>
       <c r="C66" s="88"/>
       <c r="D66" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E66" s="44" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F66" s="56"/>
     </row>
@@ -5674,10 +6013,10 @@
       <c r="B67" s="85"/>
       <c r="C67" s="88"/>
       <c r="D67" s="43" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="E67" s="44" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F67" s="56"/>
     </row>
@@ -5686,10 +6025,10 @@
       <c r="B68" s="85"/>
       <c r="C68" s="88"/>
       <c r="D68" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E68" s="44" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F68" s="56"/>
     </row>
@@ -5698,10 +6037,10 @@
       <c r="B69" s="85"/>
       <c r="C69" s="88"/>
       <c r="D69" s="43" t="s">
-        <v>298</v>
+        <v>68</v>
       </c>
       <c r="E69" s="44" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F69" s="56"/>
     </row>
@@ -5710,10 +6049,10 @@
       <c r="B70" s="85"/>
       <c r="C70" s="88"/>
       <c r="D70" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E70" s="44" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F70" s="56"/>
     </row>
@@ -5722,10 +6061,10 @@
       <c r="B71" s="85"/>
       <c r="C71" s="88"/>
       <c r="D71" s="43" t="s">
-        <v>387</v>
+        <v>298</v>
       </c>
       <c r="E71" s="44" t="s">
-        <v>388</v>
+        <v>306</v>
       </c>
       <c r="F71" s="56"/>
     </row>
@@ -5733,18 +6072,23 @@
       <c r="A72" s="85"/>
       <c r="B72" s="85"/>
       <c r="C72" s="88"/>
-      <c r="D72" s="43"/>
-      <c r="E72" s="44"/>
-    </row>
-    <row r="73" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D72" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="F72" s="56"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="85"/>
       <c r="B73" s="85"/>
-      <c r="C73" s="90"/>
-      <c r="D73" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="40" t="s">
-        <v>308</v>
+      <c r="C73" s="88"/>
+      <c r="D73" s="43" t="s">
+        <v>387</v>
+      </c>
+      <c r="E73" s="44" t="s">
+        <v>388</v>
       </c>
       <c r="F73" s="56"/>
     </row>
@@ -5752,26 +6096,745 @@
       <c r="A74" s="85"/>
       <c r="B74" s="85"/>
       <c r="C74" s="88"/>
-      <c r="D74" s="60"/>
-      <c r="E74" s="61"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="86"/>
-      <c r="B75" s="86"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="41"/>
-      <c r="E75" s="42"/>
+      <c r="D74" s="43"/>
+      <c r="E74" s="44"/>
+    </row>
+    <row r="75" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A75" s="85"/>
+      <c r="B75" s="85"/>
+      <c r="C75" s="88"/>
+      <c r="D75" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E75" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" s="56"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="85"/>
+      <c r="B76" s="85"/>
+      <c r="C76" s="88"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="85"/>
+      <c r="B77" s="85"/>
+      <c r="C77" s="88"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="61"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="85"/>
+      <c r="B78" s="90"/>
+      <c r="C78" s="87" t="s">
+        <v>420</v>
+      </c>
+      <c r="D78" s="115" t="s">
+        <v>425</v>
+      </c>
+      <c r="E78" s="112" t="s">
+        <v>426</v>
+      </c>
+      <c r="F78" s="56"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="85"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="88"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="113" t="s">
+        <v>427</v>
+      </c>
+      <c r="F79" s="56"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="85"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="88"/>
+      <c r="D80" s="111"/>
+      <c r="E80" s="113" t="s">
+        <v>428</v>
+      </c>
+      <c r="F80" s="56"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="85"/>
+      <c r="B81" s="90"/>
+      <c r="C81" s="88"/>
+      <c r="D81" s="111"/>
+      <c r="E81" s="114" t="s">
+        <v>429</v>
+      </c>
+      <c r="F81" s="56"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="85"/>
+      <c r="B82" s="90"/>
+      <c r="C82" s="88"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="F82" s="56"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="85"/>
+      <c r="B83" s="90"/>
+      <c r="C83" s="88"/>
+      <c r="D83" s="111"/>
+      <c r="E83" s="114" t="s">
+        <v>431</v>
+      </c>
+      <c r="F83" s="56"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="85"/>
+      <c r="B84" s="90"/>
+      <c r="C84" s="88"/>
+      <c r="D84" s="111"/>
+      <c r="E84" s="114" t="s">
+        <v>432</v>
+      </c>
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="85"/>
+      <c r="B85" s="90"/>
+      <c r="C85" s="88"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="114" t="s">
+        <v>433</v>
+      </c>
+      <c r="F85" s="56"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="85"/>
+      <c r="B86" s="90"/>
+      <c r="C86" s="88"/>
+      <c r="D86" s="111"/>
+      <c r="E86" s="113" t="s">
+        <v>434</v>
+      </c>
+      <c r="F86" s="56"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="85"/>
+      <c r="B87" s="90"/>
+      <c r="C87" s="88"/>
+      <c r="D87" s="111"/>
+      <c r="E87" s="113" t="s">
+        <v>435</v>
+      </c>
+      <c r="F87" s="56"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="85"/>
+      <c r="B88" s="90"/>
+      <c r="C88" s="88"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="113" t="s">
+        <v>436</v>
+      </c>
+      <c r="F88" s="56"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="85"/>
+      <c r="B89" s="90"/>
+      <c r="C89" s="88"/>
+      <c r="D89" s="111"/>
+      <c r="E89" s="113" t="s">
+        <v>437</v>
+      </c>
+      <c r="F89" s="56"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="85"/>
+      <c r="B90" s="90"/>
+      <c r="C90" s="88"/>
+      <c r="D90" s="111"/>
+      <c r="E90" s="113" t="s">
+        <v>438</v>
+      </c>
+      <c r="F90" s="56"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="85"/>
+      <c r="B91" s="90"/>
+      <c r="C91" s="88"/>
+      <c r="D91" s="111"/>
+      <c r="E91" s="113" t="s">
+        <v>440</v>
+      </c>
+      <c r="F91" s="56"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="85"/>
+      <c r="B92" s="90"/>
+      <c r="C92" s="88"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="F92" s="56"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="85"/>
+      <c r="B93" s="90"/>
+      <c r="C93" s="88"/>
+      <c r="D93" s="111"/>
+      <c r="E93" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="F93" s="56"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="85"/>
+      <c r="B94" s="90"/>
+      <c r="C94" s="88"/>
+      <c r="D94" s="111"/>
+      <c r="E94" s="113" t="s">
+        <v>443</v>
+      </c>
+      <c r="F94" s="56"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="85"/>
+      <c r="B95" s="90"/>
+      <c r="C95" s="88"/>
+      <c r="D95" s="111"/>
+      <c r="E95" s="113" t="s">
+        <v>444</v>
+      </c>
+      <c r="F95" s="56"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="85"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="88"/>
+      <c r="D96" s="111"/>
+      <c r="E96" s="113" t="s">
+        <v>445</v>
+      </c>
+      <c r="F96" s="56"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="85"/>
+      <c r="B97" s="90"/>
+      <c r="C97" s="88"/>
+      <c r="D97" s="111"/>
+      <c r="E97" s="113" t="s">
+        <v>446</v>
+      </c>
+      <c r="F97" s="56"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="85"/>
+      <c r="B98" s="90"/>
+      <c r="C98" s="88"/>
+      <c r="D98" s="111"/>
+      <c r="E98" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="F98" s="56"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="85"/>
+      <c r="B99" s="90"/>
+      <c r="C99" s="88"/>
+      <c r="D99" s="111"/>
+      <c r="E99" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="F99" s="56"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="85"/>
+      <c r="B100" s="90"/>
+      <c r="C100" s="88"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="113" t="s">
+        <v>449</v>
+      </c>
+      <c r="F100" s="56"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="85"/>
+      <c r="B101" s="90"/>
+      <c r="C101" s="88"/>
+      <c r="D101" s="111"/>
+      <c r="E101" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="F101" s="56"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="85"/>
+      <c r="B102" s="90"/>
+      <c r="C102" s="88"/>
+      <c r="D102" s="111"/>
+      <c r="E102" s="113" t="s">
+        <v>451</v>
+      </c>
+      <c r="F102" s="56"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="85"/>
+      <c r="B103" s="90"/>
+      <c r="C103" s="88"/>
+      <c r="D103" s="111"/>
+      <c r="E103" s="113" t="s">
+        <v>452</v>
+      </c>
+      <c r="F103" s="56"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="85"/>
+      <c r="B104" s="90"/>
+      <c r="C104" s="88"/>
+      <c r="D104" s="111"/>
+      <c r="E104" s="113" t="s">
+        <v>453</v>
+      </c>
+      <c r="F104" s="56"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="85"/>
+      <c r="B105" s="90"/>
+      <c r="C105" s="88"/>
+      <c r="D105" s="111"/>
+      <c r="E105" s="113" t="s">
+        <v>454</v>
+      </c>
+      <c r="F105" s="56"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="85"/>
+      <c r="B106" s="90"/>
+      <c r="C106" s="88"/>
+      <c r="D106" s="111"/>
+      <c r="E106" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="F106" s="56"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="85"/>
+      <c r="B107" s="90"/>
+      <c r="C107" s="88"/>
+      <c r="D107" s="111"/>
+      <c r="E107" s="113" t="s">
+        <v>456</v>
+      </c>
+      <c r="F107" s="56"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="85"/>
+      <c r="B108" s="90"/>
+      <c r="C108" s="88"/>
+      <c r="D108" s="111"/>
+      <c r="E108" s="113" t="s">
+        <v>457</v>
+      </c>
+      <c r="F108" s="56"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="85"/>
+      <c r="B109" s="90"/>
+      <c r="C109" s="88"/>
+      <c r="D109" s="111"/>
+      <c r="E109" s="113" t="s">
+        <v>458</v>
+      </c>
+      <c r="F109" s="56"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="85"/>
+      <c r="B110" s="90"/>
+      <c r="C110" s="88"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="113" t="s">
+        <v>459</v>
+      </c>
+      <c r="F110" s="56"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="85"/>
+      <c r="B111" s="90"/>
+      <c r="C111" s="88"/>
+      <c r="D111" s="111"/>
+      <c r="E111" s="113" t="s">
+        <v>460</v>
+      </c>
+      <c r="F111" s="56"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="85"/>
+      <c r="B112" s="90"/>
+      <c r="C112" s="88"/>
+      <c r="D112" s="111"/>
+      <c r="E112" s="113" t="s">
+        <v>461</v>
+      </c>
+      <c r="F112" s="56"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="85"/>
+      <c r="B113" s="90"/>
+      <c r="C113" s="88"/>
+      <c r="D113" s="111"/>
+      <c r="E113" s="113" t="s">
+        <v>462</v>
+      </c>
+      <c r="F113" s="56"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="85"/>
+      <c r="B114" s="90"/>
+      <c r="C114" s="88"/>
+      <c r="D114" s="111"/>
+      <c r="E114" s="113" t="s">
+        <v>463</v>
+      </c>
+      <c r="F114" s="56"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="85"/>
+      <c r="B115" s="90"/>
+      <c r="C115" s="88"/>
+      <c r="D115" s="111"/>
+      <c r="E115" s="113" t="s">
+        <v>464</v>
+      </c>
+      <c r="F115" s="56"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="85"/>
+      <c r="B116" s="90"/>
+      <c r="C116" s="88"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="113" t="s">
+        <v>465</v>
+      </c>
+      <c r="F116" s="56"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="85"/>
+      <c r="B117" s="90"/>
+      <c r="C117" s="88"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="113" t="s">
+        <v>466</v>
+      </c>
+      <c r="F117" s="56"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="85"/>
+      <c r="B118" s="90"/>
+      <c r="C118" s="88"/>
+      <c r="D118" s="111"/>
+      <c r="E118" s="113" t="s">
+        <v>467</v>
+      </c>
+      <c r="F118" s="56"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="85"/>
+      <c r="B119" s="90"/>
+      <c r="C119" s="88"/>
+      <c r="D119" s="111"/>
+      <c r="E119" s="113" t="s">
+        <v>468</v>
+      </c>
+      <c r="F119" s="56"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="85"/>
+      <c r="B120" s="90"/>
+      <c r="C120" s="88"/>
+      <c r="D120" s="111"/>
+      <c r="E120" s="113" t="s">
+        <v>469</v>
+      </c>
+      <c r="F120" s="56"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="85"/>
+      <c r="B121" s="90"/>
+      <c r="C121" s="88"/>
+      <c r="D121" s="111"/>
+      <c r="E121" s="113" t="s">
+        <v>470</v>
+      </c>
+      <c r="F121" s="56"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="85"/>
+      <c r="B122" s="90"/>
+      <c r="C122" s="88"/>
+      <c r="D122" s="111"/>
+      <c r="E122" s="113" t="s">
+        <v>471</v>
+      </c>
+      <c r="F122" s="56"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="85"/>
+      <c r="B123" s="90"/>
+      <c r="C123" s="88"/>
+      <c r="D123" s="111"/>
+      <c r="E123" s="113" t="s">
+        <v>472</v>
+      </c>
+      <c r="F123" s="56"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="85"/>
+      <c r="B124" s="90"/>
+      <c r="C124" s="88"/>
+      <c r="D124" s="111"/>
+      <c r="E124" s="113" t="s">
+        <v>473</v>
+      </c>
+      <c r="F124" s="56"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="85"/>
+      <c r="B125" s="90"/>
+      <c r="C125" s="88"/>
+      <c r="D125" s="111"/>
+      <c r="E125" s="113" t="s">
+        <v>474</v>
+      </c>
+      <c r="F125" s="56"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="85"/>
+      <c r="B126" s="90"/>
+      <c r="C126" s="88"/>
+      <c r="D126" s="111"/>
+      <c r="E126" s="113" t="s">
+        <v>475</v>
+      </c>
+      <c r="F126" s="56"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="85"/>
+      <c r="B127" s="90"/>
+      <c r="C127" s="88"/>
+      <c r="D127" s="111"/>
+      <c r="E127" s="113" t="s">
+        <v>476</v>
+      </c>
+      <c r="F127" s="56"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="85"/>
+      <c r="B128" s="90"/>
+      <c r="C128" s="88"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="113" t="s">
+        <v>477</v>
+      </c>
+      <c r="F128" s="56"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="85"/>
+      <c r="B129" s="90"/>
+      <c r="C129" s="88"/>
+      <c r="D129" s="111"/>
+      <c r="E129" s="113" t="s">
+        <v>478</v>
+      </c>
+      <c r="F129" s="56"/>
+    </row>
+    <row r="130" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="85"/>
+      <c r="B130" s="90"/>
+      <c r="C130" s="88"/>
+      <c r="D130" s="111"/>
+      <c r="E130" s="40" t="s">
+        <v>439</v>
+      </c>
+      <c r="F130" s="56"/>
+    </row>
+    <row r="131" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="85"/>
+      <c r="B131" s="90"/>
+      <c r="C131" s="88"/>
+      <c r="D131" s="108" t="s">
+        <v>480</v>
+      </c>
+      <c r="E131" s="118" t="s">
+        <v>259</v>
+      </c>
+      <c r="F131" s="56"/>
+    </row>
+    <row r="132" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="85"/>
+      <c r="B132" s="90"/>
+      <c r="C132" s="88"/>
+      <c r="D132" s="110"/>
+      <c r="E132" s="118" t="s">
+        <v>482</v>
+      </c>
+      <c r="F132" s="56"/>
+    </row>
+    <row r="133" spans="1:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="85"/>
+      <c r="B133" s="90"/>
+      <c r="C133" s="88"/>
+      <c r="D133" s="109"/>
+      <c r="E133" s="40" t="s">
+        <v>479</v>
+      </c>
+      <c r="F133" s="56"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="85"/>
+      <c r="B134" s="90"/>
+      <c r="C134" s="88"/>
+      <c r="D134" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="E134" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="F134" s="56"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="85"/>
+      <c r="B135" s="90"/>
+      <c r="C135" s="88"/>
+      <c r="D135" s="110"/>
+      <c r="E135" s="40" t="s">
+        <v>495</v>
+      </c>
+      <c r="F135" s="56"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="85"/>
+      <c r="B136" s="90"/>
+      <c r="C136" s="88"/>
+      <c r="D136" s="110"/>
+      <c r="E136" s="118" t="s">
+        <v>496</v>
+      </c>
+      <c r="F136" s="56"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="85"/>
+      <c r="B137" s="90"/>
+      <c r="C137" s="88"/>
+      <c r="D137" s="110"/>
+      <c r="E137" s="116" t="s">
+        <v>494</v>
+      </c>
+      <c r="F137" s="56"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="85"/>
+      <c r="B138" s="90"/>
+      <c r="C138" s="88"/>
+      <c r="D138" s="110"/>
+      <c r="E138" s="116" t="s">
+        <v>497</v>
+      </c>
+      <c r="F138" s="56"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="85"/>
+      <c r="B139" s="90"/>
+      <c r="C139" s="88"/>
+      <c r="D139" s="110"/>
+      <c r="E139" s="116" t="s">
+        <v>498</v>
+      </c>
+      <c r="F139" s="56"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="85"/>
+      <c r="B140" s="90"/>
+      <c r="C140" s="88"/>
+      <c r="D140" s="110"/>
+      <c r="E140" s="116" t="s">
+        <v>499</v>
+      </c>
+      <c r="F140" s="56"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="85"/>
+      <c r="B141" s="90"/>
+      <c r="C141" s="88"/>
+      <c r="D141" s="110"/>
+      <c r="E141" s="116" t="s">
+        <v>500</v>
+      </c>
+      <c r="F141" s="56"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="85"/>
+      <c r="B142" s="90"/>
+      <c r="C142" s="88"/>
+      <c r="D142" s="110"/>
+      <c r="E142" s="116" t="s">
+        <v>501</v>
+      </c>
+      <c r="F142" s="56"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="85"/>
+      <c r="B143" s="90"/>
+      <c r="C143" s="88"/>
+      <c r="D143" s="110"/>
+      <c r="E143" s="116" t="s">
+        <v>502</v>
+      </c>
+      <c r="F143" s="56"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="85"/>
+      <c r="B144" s="90"/>
+      <c r="C144" s="88"/>
+      <c r="D144" s="110"/>
+      <c r="E144" s="116" t="s">
+        <v>503</v>
+      </c>
+      <c r="F144" s="56"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="85"/>
+      <c r="B145" s="90"/>
+      <c r="C145" s="88"/>
+      <c r="D145" s="109"/>
+      <c r="E145" s="116" t="s">
+        <v>504</v>
+      </c>
+      <c r="F145" s="56"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="86"/>
+      <c r="B146" s="107"/>
+      <c r="C146" s="89"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="117"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A2:A75"/>
-    <mergeCell ref="B2:B75"/>
-    <mergeCell ref="C2:C43"/>
-    <mergeCell ref="C44:C48"/>
-    <mergeCell ref="C49:C75"/>
+  <mergeCells count="9">
+    <mergeCell ref="D78:D130"/>
+    <mergeCell ref="D131:D133"/>
+    <mergeCell ref="D134:D145"/>
+    <mergeCell ref="A2:A146"/>
+    <mergeCell ref="B2:B146"/>
+    <mergeCell ref="C2:C45"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C51:C77"/>
+    <mergeCell ref="C78:C146"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5779,8 +6842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A1ADC2-C8F5-4708-942A-7686AE3B4EDB}">
   <dimension ref="A1:F87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5789,7 +6852,7 @@
     <col min="2" max="2" width="18.109375" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="4" width="27.5546875" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5939,40 +7002,60 @@
         <v>353</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="92"/>
       <c r="B15" s="92"/>
       <c r="C15" s="95"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="47"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D15" s="22" t="s">
+        <v>421</v>
+      </c>
+      <c r="E15" s="47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="92"/>
       <c r="B16" s="92"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="47"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="22" t="s">
+        <v>486</v>
+      </c>
+      <c r="E16" s="47" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="92"/>
       <c r="B17" s="92"/>
       <c r="C17" s="95"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="47"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D17" s="22" t="s">
+        <v>488</v>
+      </c>
+      <c r="E17" s="47" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="92"/>
       <c r="B18" s="92"/>
       <c r="C18" s="95"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="47"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="E18" s="47" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="92"/>
       <c r="B19" s="92"/>
       <c r="C19" s="95"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="47"/>
+      <c r="D19" s="22" t="s">
+        <v>492</v>
+      </c>
+      <c r="E19" s="47" t="s">
+        <v>493</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="92"/>

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="507">
   <si>
     <t xml:space="preserve">Materiales Usados</t>
   </si>
@@ -1128,6 +1128,12 @@
   </si>
   <si>
     <t xml:space="preserve">oktolojim, tungstenbar (x5), greendye, dirtmaterial (16), sustanciaforma</t>
+  </si>
+  <si>
+    <t>chainsaw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tungstenbar (x8),triangliumwinpyramid (x4), liquidoil (x10), wire (x4)</t>
   </si>
   <si>
     <t>estacionnamok3</t>
@@ -2309,19 +2315,21 @@
     <xf fontId="0" fillId="7" borderId="11" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="7" borderId="10" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="7" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf fontId="0" fillId="7" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf fontId="0" fillId="7" borderId="17" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="0" fillId="7" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="7" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -5333,7 +5341,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="100" workbookViewId="0">
       <selection activeCell="F43" activeCellId="0" sqref="F43"/>
     </sheetView>
   </sheetViews>
@@ -5627,7 +5635,7 @@
       <c r="A23" s="49"/>
       <c r="B23" s="49"/>
       <c r="C23" s="50"/>
-      <c r="D23" s="51" t="s">
+      <c r="D23" s="53" t="s">
         <v>324</v>
       </c>
       <c r="E23" s="52" t="s">
@@ -5785,10 +5793,10 @@
       <c r="A35" s="49"/>
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
-      <c r="D35" s="53" t="s">
+      <c r="D35" s="54" t="s">
         <v>349</v>
       </c>
-      <c r="E35" s="54" t="s">
+      <c r="E35" s="55" t="s">
         <v>350</v>
       </c>
       <c r="F35" s="48"/>
@@ -5798,10 +5806,10 @@
       <c r="A36" s="49"/>
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="55" t="s">
         <v>352</v>
       </c>
       <c r="F36" s="48"/>
@@ -5811,10 +5819,10 @@
       <c r="A37" s="49"/>
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
-      <c r="D37" s="53" t="s">
+      <c r="D37" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="E37" s="54" t="s">
+      <c r="E37" s="56" t="s">
         <v>354</v>
       </c>
       <c r="F37" s="48"/>
@@ -5824,10 +5832,10 @@
       <c r="A38" s="49"/>
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="54" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="55" t="s">
         <v>356</v>
       </c>
       <c r="F38" s="48"/>
@@ -5837,10 +5845,10 @@
       <c r="A39" s="49"/>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
-      <c r="D39" s="53" t="s">
+      <c r="D39" s="54" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="54" t="s">
+      <c r="E39" s="56" t="s">
         <v>358</v>
       </c>
       <c r="F39" s="48"/>
@@ -5850,10 +5858,10 @@
       <c r="A40" s="49"/>
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="54" t="s">
         <v>359</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="55" t="s">
         <v>360</v>
       </c>
       <c r="F40" s="48"/>
@@ -5863,10 +5871,10 @@
       <c r="A41" s="49"/>
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
-      <c r="D41" s="53" t="s">
+      <c r="D41" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="55" t="s">
         <v>362</v>
       </c>
       <c r="F41" s="48"/>
@@ -5876,10 +5884,10 @@
       <c r="A42" s="49"/>
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
-      <c r="D42" s="53" t="s">
+      <c r="D42" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="55" t="s">
         <v>364</v>
       </c>
       <c r="F42" s="48"/>
@@ -5889,77 +5897,78 @@
       <c r="A43" s="49"/>
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
-      <c r="D43" s="55" t="s">
+      <c r="D43" s="54" t="s">
         <v>365</v>
       </c>
       <c r="E43" s="56" t="s">
         <v>366</v>
       </c>
-      <c r="F43" s="57"/>
+      <c r="F43" s="48"/>
       <c r="G43" s="1"/>
     </row>
     <row r="44" ht="34.799999999999997" customHeight="1">
       <c r="A44" s="49"/>
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
-      <c r="D44" s="53" t="s">
+      <c r="D44" s="54" t="s">
         <v>367</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="55" t="s">
         <v>368</v>
       </c>
       <c r="F44" s="48"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" ht="49.200000000000003" customHeight="1">
+    <row r="45" ht="34.799999999999997" customHeight="1">
       <c r="A45" s="49"/>
       <c r="B45" s="49"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="53" t="s">
+      <c r="D45" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="E45" s="54" t="s">
+      <c r="E45" s="56" t="s">
         <v>370</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" ht="41.399999999999999" customHeight="1">
+    <row r="46" ht="49.200000000000003" customHeight="1">
       <c r="A46" s="49"/>
       <c r="B46" s="49"/>
-      <c r="C46" s="45" t="s">
-        <v>359</v>
-      </c>
-      <c r="D46" s="46" t="s">
+      <c r="C46" s="50"/>
+      <c r="D46" s="54" t="s">
         <v>371</v>
       </c>
-      <c r="E46" s="47" t="s">
+      <c r="E46" s="55" t="s">
         <v>372</v>
       </c>
       <c r="F46" s="48"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" ht="28.5">
+    <row r="47" ht="41.399999999999999" customHeight="1">
       <c r="A47" s="49"/>
       <c r="B47" s="49"/>
-      <c r="C47" s="50"/>
-      <c r="D47" s="51" t="s">
+      <c r="C47" s="45" t="s">
+        <v>359</v>
+      </c>
+      <c r="D47" s="46" t="s">
         <v>373</v>
       </c>
       <c r="E47" s="47" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F47" s="48"/>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" ht="28.5">
       <c r="A48" s="49"/>
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
       <c r="D48" s="51" t="s">
+        <v>375</v>
+      </c>
+      <c r="E48" s="47" t="s">
         <v>374</v>
-      </c>
-      <c r="E48" s="52" t="s">
-        <v>375</v>
       </c>
       <c r="F48" s="48"/>
     </row>
@@ -5975,35 +5984,35 @@
       </c>
       <c r="F49" s="48"/>
     </row>
-    <row r="50" ht="15">
+    <row r="50" ht="28.5">
       <c r="A50" s="49"/>
       <c r="B50" s="49"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="59"/>
-      <c r="E50" s="60"/>
-    </row>
-    <row r="51">
+      <c r="C50" s="50"/>
+      <c r="D50" s="51" t="s">
+        <v>378</v>
+      </c>
+      <c r="E50" s="52" t="s">
+        <v>379</v>
+      </c>
+      <c r="F50" s="48"/>
+    </row>
+    <row r="51" ht="15">
       <c r="A51" s="49"/>
       <c r="B51" s="49"/>
-      <c r="C51" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" s="46" t="s">
-        <v>378</v>
-      </c>
-      <c r="E51" s="47" t="s">
-        <v>379</v>
-      </c>
-      <c r="F51" s="48"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
     </row>
     <row r="52">
       <c r="A52" s="49"/>
       <c r="B52" s="49"/>
-      <c r="C52" s="50"/>
-      <c r="D52" s="51" t="s">
+      <c r="C52" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="46" t="s">
         <v>380</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="47" t="s">
         <v>381</v>
       </c>
       <c r="F52" s="48"/>
@@ -6037,10 +6046,10 @@
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="51" t="s">
-        <v>297</v>
+        <v>386</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>24</v>
+        <v>387</v>
       </c>
       <c r="F55" s="48"/>
     </row>
@@ -6049,14 +6058,14 @@
       <c r="B56" s="49"/>
       <c r="C56" s="50"/>
       <c r="D56" s="51" t="s">
-        <v>386</v>
+        <v>297</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>387</v>
+        <v>24</v>
       </c>
       <c r="F56" s="48"/>
     </row>
-    <row r="57" ht="57">
+    <row r="57">
       <c r="A57" s="49"/>
       <c r="B57" s="49"/>
       <c r="C57" s="50"/>
@@ -6064,54 +6073,54 @@
         <v>388</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>147</v>
+        <v>389</v>
       </c>
       <c r="F57" s="48"/>
     </row>
-    <row r="58" ht="28.5">
+    <row r="58" ht="57">
       <c r="A58" s="49"/>
       <c r="B58" s="49"/>
       <c r="C58" s="50"/>
-      <c r="D58" s="53" t="s">
-        <v>389</v>
-      </c>
-      <c r="E58" s="54" t="s">
+      <c r="D58" s="51" t="s">
         <v>390</v>
       </c>
+      <c r="E58" s="52" t="s">
+        <v>147</v>
+      </c>
       <c r="F58" s="48"/>
     </row>
-    <row r="59">
+    <row r="59" ht="28.5">
       <c r="A59" s="49"/>
       <c r="B59" s="49"/>
       <c r="C59" s="50"/>
-      <c r="D59" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="E59" s="52" t="s">
-        <v>325</v>
+      <c r="D59" s="54" t="s">
+        <v>391</v>
+      </c>
+      <c r="E59" s="55" t="s">
+        <v>392</v>
       </c>
       <c r="F59" s="48"/>
     </row>
-    <row r="60" ht="28.5">
+    <row r="60">
       <c r="A60" s="49"/>
       <c r="B60" s="49"/>
       <c r="C60" s="50"/>
-      <c r="D60" s="53" t="s">
-        <v>391</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>392</v>
+      <c r="D60" s="51" t="s">
+        <v>324</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>325</v>
       </c>
       <c r="F60" s="48"/>
     </row>
-    <row r="61">
+    <row r="61" ht="28.5">
       <c r="A61" s="49"/>
       <c r="B61" s="49"/>
       <c r="C61" s="50"/>
-      <c r="D61" s="53" t="s">
+      <c r="D61" s="54" t="s">
         <v>393</v>
       </c>
-      <c r="E61" s="54" t="s">
+      <c r="E61" s="55" t="s">
         <v>394</v>
       </c>
       <c r="F61" s="48"/>
@@ -6120,53 +6129,53 @@
       <c r="A62" s="49"/>
       <c r="B62" s="49"/>
       <c r="C62" s="50"/>
-      <c r="D62" s="53" t="s">
+      <c r="D62" s="54" t="s">
         <v>395</v>
       </c>
-      <c r="E62" s="54" t="s">
+      <c r="E62" s="55" t="s">
         <v>396</v>
       </c>
       <c r="F62" s="48"/>
     </row>
-    <row r="63" ht="28.5">
+    <row r="63">
       <c r="A63" s="49"/>
       <c r="B63" s="49"/>
       <c r="C63" s="50"/>
-      <c r="D63" s="53" t="s">
+      <c r="D63" s="54" t="s">
         <v>397</v>
       </c>
-      <c r="E63" s="54" t="s">
+      <c r="E63" s="55" t="s">
         <v>398</v>
       </c>
       <c r="F63" s="48"/>
     </row>
-    <row r="64">
+    <row r="64" ht="28.5">
       <c r="A64" s="49"/>
       <c r="B64" s="49"/>
       <c r="C64" s="50"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="54"/>
+      <c r="D64" s="54" t="s">
+        <v>399</v>
+      </c>
+      <c r="E64" s="55" t="s">
+        <v>400</v>
+      </c>
+      <c r="F64" s="48"/>
     </row>
     <row r="65">
       <c r="A65" s="49"/>
       <c r="B65" s="49"/>
       <c r="C65" s="50"/>
-      <c r="D65" s="53" t="s">
-        <v>399</v>
-      </c>
-      <c r="E65" s="54" t="s">
-        <v>400</v>
-      </c>
-      <c r="F65" s="48"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="55"/>
     </row>
     <row r="66">
       <c r="A66" s="49"/>
       <c r="B66" s="49"/>
       <c r="C66" s="50"/>
-      <c r="D66" s="53" t="s">
+      <c r="D66" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="E66" s="54" t="s">
+      <c r="E66" s="55" t="s">
         <v>402</v>
       </c>
       <c r="F66" s="48"/>
@@ -6175,10 +6184,10 @@
       <c r="A67" s="49"/>
       <c r="B67" s="49"/>
       <c r="C67" s="50"/>
-      <c r="D67" s="53" t="s">
+      <c r="D67" s="54" t="s">
         <v>403</v>
       </c>
-      <c r="E67" s="54" t="s">
+      <c r="E67" s="55" t="s">
         <v>404</v>
       </c>
       <c r="F67" s="48"/>
@@ -6187,10 +6196,10 @@
       <c r="A68" s="49"/>
       <c r="B68" s="49"/>
       <c r="C68" s="50"/>
-      <c r="D68" s="53" t="s">
+      <c r="D68" s="54" t="s">
         <v>405</v>
       </c>
-      <c r="E68" s="54" t="s">
+      <c r="E68" s="55" t="s">
         <v>406</v>
       </c>
       <c r="F68" s="48"/>
@@ -6199,11 +6208,11 @@
       <c r="A69" s="49"/>
       <c r="B69" s="49"/>
       <c r="C69" s="50"/>
-      <c r="D69" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="E69" s="54" t="s">
+      <c r="D69" s="54" t="s">
         <v>407</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>408</v>
       </c>
       <c r="F69" s="48"/>
     </row>
@@ -6211,10 +6220,10 @@
       <c r="A70" s="49"/>
       <c r="B70" s="49"/>
       <c r="C70" s="50"/>
-      <c r="D70" s="53" t="s">
-        <v>408</v>
-      </c>
-      <c r="E70" s="54" t="s">
+      <c r="D70" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="55" t="s">
         <v>409</v>
       </c>
       <c r="F70" s="48"/>
@@ -6223,10 +6232,10 @@
       <c r="A71" s="49"/>
       <c r="B71" s="49"/>
       <c r="C71" s="50"/>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="54" t="s">
         <v>410</v>
       </c>
-      <c r="E71" s="54" t="s">
+      <c r="E71" s="55" t="s">
         <v>411</v>
       </c>
       <c r="F71" s="48"/>
@@ -6235,10 +6244,10 @@
       <c r="A72" s="49"/>
       <c r="B72" s="49"/>
       <c r="C72" s="50"/>
-      <c r="D72" s="53" t="s">
+      <c r="D72" s="54" t="s">
         <v>412</v>
       </c>
-      <c r="E72" s="54" t="s">
+      <c r="E72" s="55" t="s">
         <v>413</v>
       </c>
       <c r="F72" s="48"/>
@@ -6247,10 +6256,10 @@
       <c r="A73" s="49"/>
       <c r="B73" s="49"/>
       <c r="C73" s="50"/>
-      <c r="D73" s="53" t="s">
+      <c r="D73" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="E73" s="54" t="s">
+      <c r="E73" s="55" t="s">
         <v>415</v>
       </c>
       <c r="F73" s="48"/>
@@ -6259,56 +6268,58 @@
       <c r="A74" s="49"/>
       <c r="B74" s="49"/>
       <c r="C74" s="50"/>
-      <c r="D74" s="53"/>
-      <c r="E74" s="54"/>
-    </row>
-    <row r="75" ht="43.200000000000003">
+      <c r="D74" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="E74" s="55" t="s">
+        <v>417</v>
+      </c>
+      <c r="F74" s="48"/>
+    </row>
+    <row r="75">
       <c r="A75" s="49"/>
       <c r="B75" s="49"/>
       <c r="C75" s="50"/>
-      <c r="D75" s="51" t="s">
-        <v>416</v>
-      </c>
-      <c r="E75" s="52" t="s">
-        <v>417</v>
-      </c>
-      <c r="F75" s="48"/>
-    </row>
-    <row r="76">
+      <c r="D75" s="54"/>
+      <c r="E75" s="55"/>
+    </row>
+    <row r="76" ht="43.200000000000003">
       <c r="A76" s="49"/>
       <c r="B76" s="49"/>
       <c r="C76" s="50"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="62"/>
-    </row>
-    <row r="77" ht="15">
+      <c r="D76" s="51" t="s">
+        <v>418</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>419</v>
+      </c>
+      <c r="F76" s="48"/>
+    </row>
+    <row r="77">
       <c r="A77" s="49"/>
       <c r="B77" s="49"/>
       <c r="C77" s="50"/>
       <c r="D77" s="61"/>
       <c r="E77" s="62"/>
     </row>
-    <row r="78">
+    <row r="78" ht="15">
       <c r="A78" s="49"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="D78" s="46" t="s">
-        <v>418</v>
-      </c>
-      <c r="E78" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="F78" s="48"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="50"/>
+      <c r="D78" s="61"/>
+      <c r="E78" s="62"/>
     </row>
     <row r="79">
       <c r="A79" s="49"/>
       <c r="B79" s="63"/>
-      <c r="C79" s="50"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="65" t="s">
+      <c r="C79" s="45" t="s">
+        <v>367</v>
+      </c>
+      <c r="D79" s="46" t="s">
         <v>420</v>
+      </c>
+      <c r="E79" s="64" t="s">
+        <v>421</v>
       </c>
       <c r="F79" s="48"/>
     </row>
@@ -6318,7 +6329,7 @@
       <c r="C80" s="50"/>
       <c r="D80" s="51"/>
       <c r="E80" s="65" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F80" s="48"/>
     </row>
@@ -6327,8 +6338,8 @@
       <c r="B81" s="63"/>
       <c r="C81" s="50"/>
       <c r="D81" s="51"/>
-      <c r="E81" s="66" t="s">
-        <v>422</v>
+      <c r="E81" s="65" t="s">
+        <v>423</v>
       </c>
       <c r="F81" s="48"/>
     </row>
@@ -6338,7 +6349,7 @@
       <c r="C82" s="50"/>
       <c r="D82" s="51"/>
       <c r="E82" s="66" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F82" s="48"/>
     </row>
@@ -6348,7 +6359,7 @@
       <c r="C83" s="50"/>
       <c r="D83" s="51"/>
       <c r="E83" s="66" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F83" s="48"/>
     </row>
@@ -6358,7 +6369,7 @@
       <c r="C84" s="50"/>
       <c r="D84" s="51"/>
       <c r="E84" s="66" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F84" s="48"/>
     </row>
@@ -6368,7 +6379,7 @@
       <c r="C85" s="50"/>
       <c r="D85" s="51"/>
       <c r="E85" s="66" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F85" s="48"/>
     </row>
@@ -6377,8 +6388,8 @@
       <c r="B86" s="63"/>
       <c r="C86" s="50"/>
       <c r="D86" s="51"/>
-      <c r="E86" s="65" t="s">
-        <v>427</v>
+      <c r="E86" s="66" t="s">
+        <v>428</v>
       </c>
       <c r="F86" s="48"/>
     </row>
@@ -6388,7 +6399,7 @@
       <c r="C87" s="50"/>
       <c r="D87" s="51"/>
       <c r="E87" s="65" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F87" s="48"/>
     </row>
@@ -6398,7 +6409,7 @@
       <c r="C88" s="50"/>
       <c r="D88" s="51"/>
       <c r="E88" s="65" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F88" s="48"/>
     </row>
@@ -6408,7 +6419,7 @@
       <c r="C89" s="50"/>
       <c r="D89" s="51"/>
       <c r="E89" s="65" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F89" s="48"/>
     </row>
@@ -6418,7 +6429,7 @@
       <c r="C90" s="50"/>
       <c r="D90" s="51"/>
       <c r="E90" s="65" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F90" s="48"/>
     </row>
@@ -6428,7 +6439,7 @@
       <c r="C91" s="50"/>
       <c r="D91" s="51"/>
       <c r="E91" s="65" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F91" s="48"/>
     </row>
@@ -6438,7 +6449,7 @@
       <c r="C92" s="50"/>
       <c r="D92" s="51"/>
       <c r="E92" s="65" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F92" s="48"/>
     </row>
@@ -6448,7 +6459,7 @@
       <c r="C93" s="50"/>
       <c r="D93" s="51"/>
       <c r="E93" s="65" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F93" s="48"/>
     </row>
@@ -6458,7 +6469,7 @@
       <c r="C94" s="50"/>
       <c r="D94" s="51"/>
       <c r="E94" s="65" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F94" s="48"/>
     </row>
@@ -6468,7 +6479,7 @@
       <c r="C95" s="50"/>
       <c r="D95" s="51"/>
       <c r="E95" s="65" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F95" s="48"/>
     </row>
@@ -6478,7 +6489,7 @@
       <c r="C96" s="50"/>
       <c r="D96" s="51"/>
       <c r="E96" s="65" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F96" s="48"/>
     </row>
@@ -6488,7 +6499,7 @@
       <c r="C97" s="50"/>
       <c r="D97" s="51"/>
       <c r="E97" s="65" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F97" s="48"/>
     </row>
@@ -6498,7 +6509,7 @@
       <c r="C98" s="50"/>
       <c r="D98" s="51"/>
       <c r="E98" s="65" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F98" s="48"/>
     </row>
@@ -6508,7 +6519,7 @@
       <c r="C99" s="50"/>
       <c r="D99" s="51"/>
       <c r="E99" s="65" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F99" s="48"/>
     </row>
@@ -6518,7 +6529,7 @@
       <c r="C100" s="50"/>
       <c r="D100" s="51"/>
       <c r="E100" s="65" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F100" s="48"/>
     </row>
@@ -6528,7 +6539,7 @@
       <c r="C101" s="50"/>
       <c r="D101" s="51"/>
       <c r="E101" s="65" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F101" s="48"/>
     </row>
@@ -6538,7 +6549,7 @@
       <c r="C102" s="50"/>
       <c r="D102" s="51"/>
       <c r="E102" s="65" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F102" s="48"/>
     </row>
@@ -6548,7 +6559,7 @@
       <c r="C103" s="50"/>
       <c r="D103" s="51"/>
       <c r="E103" s="65" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F103" s="48"/>
     </row>
@@ -6558,7 +6569,7 @@
       <c r="C104" s="50"/>
       <c r="D104" s="51"/>
       <c r="E104" s="65" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F104" s="48"/>
     </row>
@@ -6568,7 +6579,7 @@
       <c r="C105" s="50"/>
       <c r="D105" s="51"/>
       <c r="E105" s="65" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F105" s="48"/>
     </row>
@@ -6578,7 +6589,7 @@
       <c r="C106" s="50"/>
       <c r="D106" s="51"/>
       <c r="E106" s="65" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F106" s="48"/>
     </row>
@@ -6588,7 +6599,7 @@
       <c r="C107" s="50"/>
       <c r="D107" s="51"/>
       <c r="E107" s="65" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F107" s="48"/>
     </row>
@@ -6598,7 +6609,7 @@
       <c r="C108" s="50"/>
       <c r="D108" s="51"/>
       <c r="E108" s="65" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F108" s="48"/>
     </row>
@@ -6608,7 +6619,7 @@
       <c r="C109" s="50"/>
       <c r="D109" s="51"/>
       <c r="E109" s="65" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F109" s="48"/>
     </row>
@@ -6618,7 +6629,7 @@
       <c r="C110" s="50"/>
       <c r="D110" s="51"/>
       <c r="E110" s="65" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F110" s="48"/>
     </row>
@@ -6628,7 +6639,7 @@
       <c r="C111" s="50"/>
       <c r="D111" s="51"/>
       <c r="E111" s="65" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F111" s="48"/>
     </row>
@@ -6638,7 +6649,7 @@
       <c r="C112" s="50"/>
       <c r="D112" s="51"/>
       <c r="E112" s="65" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F112" s="48"/>
     </row>
@@ -6648,7 +6659,7 @@
       <c r="C113" s="50"/>
       <c r="D113" s="51"/>
       <c r="E113" s="65" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F113" s="48"/>
     </row>
@@ -6658,7 +6669,7 @@
       <c r="C114" s="50"/>
       <c r="D114" s="51"/>
       <c r="E114" s="65" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F114" s="48"/>
     </row>
@@ -6668,7 +6679,7 @@
       <c r="C115" s="50"/>
       <c r="D115" s="51"/>
       <c r="E115" s="65" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F115" s="48"/>
     </row>
@@ -6678,7 +6689,7 @@
       <c r="C116" s="50"/>
       <c r="D116" s="51"/>
       <c r="E116" s="65" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F116" s="48"/>
     </row>
@@ -6688,7 +6699,7 @@
       <c r="C117" s="50"/>
       <c r="D117" s="51"/>
       <c r="E117" s="65" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F117" s="48"/>
     </row>
@@ -6698,7 +6709,7 @@
       <c r="C118" s="50"/>
       <c r="D118" s="51"/>
       <c r="E118" s="65" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F118" s="48"/>
     </row>
@@ -6708,7 +6719,7 @@
       <c r="C119" s="50"/>
       <c r="D119" s="51"/>
       <c r="E119" s="65" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F119" s="48"/>
     </row>
@@ -6718,7 +6729,7 @@
       <c r="C120" s="50"/>
       <c r="D120" s="51"/>
       <c r="E120" s="65" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F120" s="48"/>
     </row>
@@ -6728,7 +6739,7 @@
       <c r="C121" s="50"/>
       <c r="D121" s="51"/>
       <c r="E121" s="65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F121" s="48"/>
     </row>
@@ -6738,7 +6749,7 @@
       <c r="C122" s="50"/>
       <c r="D122" s="51"/>
       <c r="E122" s="65" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F122" s="48"/>
     </row>
@@ -6748,7 +6759,7 @@
       <c r="C123" s="50"/>
       <c r="D123" s="51"/>
       <c r="E123" s="65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F123" s="48"/>
     </row>
@@ -6758,7 +6769,7 @@
       <c r="C124" s="50"/>
       <c r="D124" s="51"/>
       <c r="E124" s="65" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F124" s="48"/>
     </row>
@@ -6768,7 +6779,7 @@
       <c r="C125" s="50"/>
       <c r="D125" s="51"/>
       <c r="E125" s="65" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F125" s="48"/>
     </row>
@@ -6778,7 +6789,7 @@
       <c r="C126" s="50"/>
       <c r="D126" s="51"/>
       <c r="E126" s="65" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F126" s="48"/>
     </row>
@@ -6788,7 +6799,7 @@
       <c r="C127" s="50"/>
       <c r="D127" s="51"/>
       <c r="E127" s="65" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F127" s="48"/>
     </row>
@@ -6798,7 +6809,7 @@
       <c r="C128" s="50"/>
       <c r="D128" s="51"/>
       <c r="E128" s="65" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F128" s="48"/>
     </row>
@@ -6808,29 +6819,27 @@
       <c r="C129" s="50"/>
       <c r="D129" s="51"/>
       <c r="E129" s="65" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F129" s="48"/>
     </row>
-    <row r="130" ht="16.199999999999999" customHeight="1">
+    <row r="130">
       <c r="A130" s="49"/>
       <c r="B130" s="63"/>
       <c r="C130" s="50"/>
       <c r="D130" s="51"/>
-      <c r="E130" s="52" t="s">
-        <v>471</v>
+      <c r="E130" s="65" t="s">
+        <v>472</v>
       </c>
       <c r="F130" s="48"/>
     </row>
-    <row r="131" ht="21" customHeight="1">
+    <row r="131" ht="16.199999999999999" customHeight="1">
       <c r="A131" s="49"/>
       <c r="B131" s="63"/>
       <c r="C131" s="50"/>
-      <c r="D131" s="53" t="s">
-        <v>472</v>
-      </c>
-      <c r="E131" s="67" t="s">
-        <v>265</v>
+      <c r="D131" s="51"/>
+      <c r="E131" s="52" t="s">
+        <v>473</v>
       </c>
       <c r="F131" s="48"/>
     </row>
@@ -6838,29 +6847,29 @@
       <c r="A132" s="49"/>
       <c r="B132" s="63"/>
       <c r="C132" s="50"/>
-      <c r="D132" s="61"/>
+      <c r="D132" s="54" t="s">
+        <v>474</v>
+      </c>
       <c r="E132" s="67" t="s">
-        <v>473</v>
+        <v>265</v>
       </c>
       <c r="F132" s="48"/>
     </row>
-    <row r="133" ht="19.199999999999999" customHeight="1">
+    <row r="133" ht="21" customHeight="1">
       <c r="A133" s="49"/>
       <c r="B133" s="63"/>
       <c r="C133" s="50"/>
-      <c r="D133" s="68"/>
-      <c r="E133" s="52" t="s">
-        <v>474</v>
+      <c r="D133" s="61"/>
+      <c r="E133" s="67" t="s">
+        <v>475</v>
       </c>
       <c r="F133" s="48"/>
     </row>
-    <row r="134">
+    <row r="134" ht="19.199999999999999" customHeight="1">
       <c r="A134" s="49"/>
       <c r="B134" s="63"/>
       <c r="C134" s="50"/>
-      <c r="D134" s="53" t="s">
-        <v>475</v>
-      </c>
+      <c r="D134" s="68"/>
       <c r="E134" s="52" t="s">
         <v>476</v>
       </c>
@@ -6870,9 +6879,11 @@
       <c r="A135" s="49"/>
       <c r="B135" s="63"/>
       <c r="C135" s="50"/>
-      <c r="D135" s="61"/>
+      <c r="D135" s="54" t="s">
+        <v>477</v>
+      </c>
       <c r="E135" s="52" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F135" s="48"/>
     </row>
@@ -6881,8 +6892,8 @@
       <c r="B136" s="63"/>
       <c r="C136" s="50"/>
       <c r="D136" s="61"/>
-      <c r="E136" s="67" t="s">
-        <v>478</v>
+      <c r="E136" s="52" t="s">
+        <v>479</v>
       </c>
       <c r="F136" s="48"/>
     </row>
@@ -6891,8 +6902,8 @@
       <c r="B137" s="63"/>
       <c r="C137" s="50"/>
       <c r="D137" s="61"/>
-      <c r="E137" s="69" t="s">
-        <v>479</v>
+      <c r="E137" s="67" t="s">
+        <v>480</v>
       </c>
       <c r="F137" s="48"/>
     </row>
@@ -6902,7 +6913,7 @@
       <c r="C138" s="50"/>
       <c r="D138" s="61"/>
       <c r="E138" s="69" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F138" s="48"/>
     </row>
@@ -6912,7 +6923,7 @@
       <c r="C139" s="50"/>
       <c r="D139" s="61"/>
       <c r="E139" s="69" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F139" s="48"/>
     </row>
@@ -6922,7 +6933,7 @@
       <c r="C140" s="50"/>
       <c r="D140" s="61"/>
       <c r="E140" s="69" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F140" s="48"/>
     </row>
@@ -6932,7 +6943,7 @@
       <c r="C141" s="50"/>
       <c r="D141" s="61"/>
       <c r="E141" s="69" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F141" s="48"/>
     </row>
@@ -6942,7 +6953,7 @@
       <c r="C142" s="50"/>
       <c r="D142" s="61"/>
       <c r="E142" s="69" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F142" s="48"/>
     </row>
@@ -6952,7 +6963,7 @@
       <c r="C143" s="50"/>
       <c r="D143" s="61"/>
       <c r="E143" s="69" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F143" s="48"/>
     </row>
@@ -6962,7 +6973,7 @@
       <c r="C144" s="50"/>
       <c r="D144" s="61"/>
       <c r="E144" s="69" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F144" s="48"/>
     </row>
@@ -6970,30 +6981,40 @@
       <c r="A145" s="49"/>
       <c r="B145" s="63"/>
       <c r="C145" s="50"/>
-      <c r="D145" s="68"/>
+      <c r="D145" s="61"/>
       <c r="E145" s="69" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F145" s="48"/>
     </row>
-    <row r="146" ht="15">
-      <c r="A146" s="70"/>
-      <c r="B146" s="71"/>
-      <c r="C146" s="58"/>
-      <c r="D146" s="59"/>
-      <c r="E146" s="72"/>
+    <row r="146">
+      <c r="A146" s="49"/>
+      <c r="B146" s="63"/>
+      <c r="C146" s="50"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="69" t="s">
+        <v>489</v>
+      </c>
+      <c r="F146" s="48"/>
+    </row>
+    <row r="147" ht="15">
+      <c r="A147" s="70"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="58"/>
+      <c r="D147" s="59"/>
+      <c r="E147" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="A2:A146"/>
-    <mergeCell ref="B2:B146"/>
-    <mergeCell ref="C2:C45"/>
-    <mergeCell ref="C46:C50"/>
-    <mergeCell ref="C51:C77"/>
-    <mergeCell ref="C78:C146"/>
-    <mergeCell ref="D78:D130"/>
-    <mergeCell ref="D131:D133"/>
-    <mergeCell ref="D134:D145"/>
+    <mergeCell ref="A2:A147"/>
+    <mergeCell ref="B2:B147"/>
+    <mergeCell ref="C2:C46"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="C52:C78"/>
+    <mergeCell ref="C79:C147"/>
+    <mergeCell ref="D79:D131"/>
+    <mergeCell ref="D132:D134"/>
+    <mergeCell ref="D135:D146"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
@@ -7046,7 +7067,7 @@
         <v>361</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E2" s="77"/>
     </row>
@@ -7055,7 +7076,7 @@
       <c r="B3" s="78"/>
       <c r="C3" s="79"/>
       <c r="D3" s="80" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E3" s="81"/>
     </row>
@@ -7064,7 +7085,7 @@
       <c r="B4" s="78"/>
       <c r="C4" s="79"/>
       <c r="D4" s="80" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E4" s="81"/>
     </row>
@@ -7073,7 +7094,7 @@
       <c r="B5" s="78"/>
       <c r="C5" s="79"/>
       <c r="D5" s="82" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E5" s="83"/>
     </row>
@@ -7082,7 +7103,7 @@
       <c r="B6" s="78"/>
       <c r="C6" s="79"/>
       <c r="D6" s="82" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E6" s="83"/>
     </row>
@@ -7091,10 +7112,10 @@
       <c r="B7" s="78"/>
       <c r="C7" s="84"/>
       <c r="D7" s="85" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E7" s="86" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F7" s="48"/>
     </row>
@@ -7102,10 +7123,10 @@
       <c r="A8" s="78"/>
       <c r="B8" s="78"/>
       <c r="C8" s="75" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D8" s="76" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E8" s="77"/>
     </row>
@@ -7123,7 +7144,7 @@
       <c r="B10" s="78"/>
       <c r="C10" s="79"/>
       <c r="D10" s="82" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E10" s="83"/>
     </row>
@@ -7132,7 +7153,7 @@
       <c r="B11" s="78"/>
       <c r="C11" s="79"/>
       <c r="D11" s="82" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E11" s="83"/>
     </row>
@@ -7141,7 +7162,7 @@
       <c r="B12" s="78"/>
       <c r="C12" s="79"/>
       <c r="D12" s="82" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E12" s="83"/>
     </row>
@@ -7156,13 +7177,13 @@
       <c r="A14" s="78"/>
       <c r="B14" s="78"/>
       <c r="C14" s="75" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D14" s="76" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" ht="57.600000000000001">
@@ -7170,10 +7191,10 @@
       <c r="B15" s="78"/>
       <c r="C15" s="79"/>
       <c r="D15" s="82" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E15" s="83" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" ht="74.400000000000006" customHeight="1">
@@ -7181,10 +7202,10 @@
       <c r="B16" s="78"/>
       <c r="C16" s="79"/>
       <c r="D16" s="82" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E16" s="83" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="17" ht="38.399999999999999" customHeight="1">
@@ -7192,10 +7213,10 @@
       <c r="B17" s="78"/>
       <c r="C17" s="79"/>
       <c r="D17" s="82" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E17" s="83" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" ht="43.200000000000003">
@@ -7203,10 +7224,10 @@
       <c r="B18" s="78"/>
       <c r="C18" s="79"/>
       <c r="D18" s="82" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E18" s="83" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="19" ht="34.799999999999997" customHeight="1">
@@ -7214,10 +7235,10 @@
       <c r="B19" s="78"/>
       <c r="C19" s="79"/>
       <c r="D19" s="82" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E19" s="83" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="20">

--- a/Tiers.xlsx
+++ b/Tiers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="8400" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tier 1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="532">
   <si>
     <t>Materiales Usados</t>
   </si>
@@ -1582,6 +1582,18 @@
     <t>money (x16), essence (x16), namokessence (x16), inferiorbrain (x4), cellmatter, techcard</t>
   </si>
   <si>
+    <t>granjamooshi</t>
+  </si>
+  <si>
+    <t>marmolwinbrick (x80), titaniumbar (x20), goldbar (x8), glass (x40), liquidwater (x16), dirtmaterial (x20)</t>
+  </si>
+  <si>
+    <t>granjaaves</t>
+  </si>
+  <si>
+    <t>marmolwinbrick (x40), titaniumbar (x10), goldbar (x4), glass (x20), liquidwater (x8), dirtmaterial (x10)</t>
+  </si>
+  <si>
     <t>blackglass</t>
   </si>
   <si>
@@ -1601,6 +1613,12 @@
   </si>
   <si>
     <t>titaniumbar (x8), glass (x80), chipnamok, wire (x16), sustanciatiempo (x4), sustanciaespacio (x2), sustanciaforma (x2), siliconboard (x4)</t>
+  </si>
+  <si>
+    <t>pistolagranja</t>
+  </si>
+  <si>
+    <t>titaniumbar (x10), glass (x16), laserdiode, chipnamok, sustanciaexistencia (x4)</t>
   </si>
   <si>
     <t>durasteel, trianglium, oro, material sintético, procesadorwin</t>
@@ -1798,7 +1816,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1951,12 +1969,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1970,12 +1982,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,12 +2029,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2071,12 +2071,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2281,19 +2275,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -2349,6 +2330,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -2765,55 +2759,67 @@
     <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2822,20 +2828,8 @@
     <xf numFmtId="0" fontId="21" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2943,9 +2937,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2961,9 +2952,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2982,46 +2970,46 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3057,7 +3045,7 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3090,7 +3078,7 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3114,12 +3102,12 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3132,55 +3120,55 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3444,2317 +3432,2317 @@
   <sheetPr/>
   <dimension ref="A1:F208"/>
   <sheetViews>
-    <sheetView topLeftCell="B11" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E80"/>
+    <sheetView topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.4444444444444" style="56" customWidth="1"/>
-    <col min="2" max="2" width="18.2222222222222" style="56" customWidth="1"/>
-    <col min="3" max="3" width="23.3333333333333" style="56" customWidth="1"/>
-    <col min="4" max="4" width="30.3333333333333" style="56" customWidth="1"/>
-    <col min="5" max="5" width="48.5555555555556" style="56" customWidth="1"/>
-    <col min="6" max="6" width="8.88888888888889" style="56"/>
-    <col min="7" max="7" width="31.5555555555556" style="56" customWidth="1"/>
-    <col min="8" max="16384" width="8.88888888888889" style="56"/>
+    <col min="1" max="1" width="11.4444444444444" style="54" customWidth="1"/>
+    <col min="2" max="2" width="18.2222222222222" style="54" customWidth="1"/>
+    <col min="3" max="3" width="23.3333333333333" style="54" customWidth="1"/>
+    <col min="4" max="4" width="30.3333333333333" style="54" customWidth="1"/>
+    <col min="5" max="5" width="48.5555555555556" style="54" customWidth="1"/>
+    <col min="6" max="6" width="8.88888888888889" style="54"/>
+    <col min="7" max="7" width="31.5555555555556" style="54" customWidth="1"/>
+    <col min="8" max="16384" width="8.88888888888889" style="54"/>
   </cols>
   <sheetData>
     <row r="1" ht="25.2" customHeight="1" spans="2:5">
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="77" t="s">
+      <c r="C1" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="79"/>
-    </row>
-    <row r="2" s="76" customFormat="1" ht="26.4" customHeight="1" spans="1:5">
-      <c r="A2" s="80" t="s">
+      <c r="E1" s="77"/>
+    </row>
+    <row r="2" s="74" customFormat="1" ht="26.4" customHeight="1" spans="1:5">
+      <c r="A2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="82" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="80" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="81" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" s="76" customFormat="1" ht="19.8" customHeight="1" spans="1:6">
-      <c r="A3" s="84">
+    <row r="3" s="74" customFormat="1" ht="19.8" customHeight="1" spans="1:6">
+      <c r="A3" s="82">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="88"/>
-    </row>
-    <row r="4" s="76" customFormat="1" ht="38.4" customHeight="1" spans="1:6">
-      <c r="A4" s="89"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="91" t="s">
+      <c r="F3" s="86"/>
+    </row>
+    <row r="4" s="74" customFormat="1" ht="38.4" customHeight="1" spans="1:6">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="88"/>
-    </row>
-    <row r="5" s="76" customFormat="1" ht="16.8" customHeight="1" spans="1:5">
-      <c r="A5" s="89"/>
-      <c r="B5" s="89"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="95"/>
+      <c r="F4" s="86"/>
+    </row>
+    <row r="5" s="74" customFormat="1" ht="16.8" customHeight="1" spans="1:5">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" ht="76.8" customHeight="1" spans="1:6">
-      <c r="A6" s="89"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="96" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="97" t="s">
+      <c r="D6" s="95" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="98"/>
+      <c r="F6" s="96"/>
     </row>
     <row r="7" ht="88.8" customHeight="1" spans="1:6">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="91" t="s">
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="98"/>
+      <c r="F7" s="96"/>
     </row>
     <row r="8" ht="89.4" customHeight="1" spans="1:6">
-      <c r="A8" s="89"/>
-      <c r="B8" s="89"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="91" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="98"/>
+      <c r="F8" s="96"/>
     </row>
     <row r="9" ht="50.4" customHeight="1" spans="1:6">
-      <c r="A9" s="89"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="91" t="s">
+      <c r="A9" s="87"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="98"/>
+      <c r="F9" s="96"/>
     </row>
     <row r="10" ht="40.8" customHeight="1" spans="1:6">
-      <c r="A10" s="89"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="96"/>
-      <c r="D10" s="99" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="98"/>
+      <c r="F10" s="96"/>
     </row>
     <row r="11" ht="37.8" customHeight="1" spans="1:6">
-      <c r="A11" s="89"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="99" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="100" t="s">
+      <c r="E11" s="98" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="98"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="89"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="101" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="102" t="s">
+      <c r="D12" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="98"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="89"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="105" t="s">
+      <c r="E13" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="98"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="89"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="105" t="s">
+      <c r="E14" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="98"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="89"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="105" t="s">
+      <c r="E15" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="98"/>
+      <c r="F15" s="96"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="89"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="105" t="s">
+      <c r="E16" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="98"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="105" t="s">
+      <c r="E17" s="103" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="98"/>
+      <c r="F17" s="96"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="103"/>
-      <c r="D18" s="104" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="105" t="s">
+      <c r="E18" s="103" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="98"/>
+      <c r="F18" s="96"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="103"/>
-      <c r="D19" s="104" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="98"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="104" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="92" t="s">
+      <c r="E20" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="F20" s="98"/>
+      <c r="F20" s="96"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="104" t="s">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="92" t="s">
+      <c r="E21" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="98"/>
+      <c r="F21" s="96"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="103"/>
-      <c r="D22" s="104" t="s">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="E22" s="92" t="s">
+      <c r="E22" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="F22" s="98"/>
+      <c r="F22" s="96"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="103"/>
-      <c r="D23" s="104" t="s">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="F23" s="98"/>
+      <c r="F23" s="96"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="103"/>
-      <c r="D24" s="104" t="s">
+      <c r="A24" s="87"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="98"/>
+      <c r="F24" s="96"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="106" t="s">
+      <c r="A25" s="87"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="100" t="s">
+      <c r="E25" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="F25" s="98"/>
+      <c r="F25" s="96"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="89"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="106" t="s">
+      <c r="A26" s="87"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="105"/>
+      <c r="D26" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="E26" s="100" t="s">
+      <c r="E26" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="98"/>
+      <c r="F26" s="96"/>
     </row>
     <row r="27" ht="15.15" spans="1:6">
-      <c r="A27" s="89"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="107"/>
-      <c r="D27" s="108" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="105"/>
+      <c r="D27" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="95" t="s">
+      <c r="E27" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="98"/>
+      <c r="F27" s="96"/>
     </row>
     <row r="28" ht="29.55" spans="1:6">
-      <c r="A28" s="89"/>
-      <c r="B28" s="89"/>
-      <c r="C28" s="109"/>
-      <c r="D28" s="108" t="s">
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="107"/>
+      <c r="D28" s="106" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="95" t="s">
+      <c r="E28" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="F28" s="98"/>
+      <c r="F28" s="96"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="89"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="96" t="s">
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="110" t="s">
+      <c r="E29" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="98"/>
+      <c r="F29" s="96"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="89"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="96"/>
-      <c r="D30" s="91" t="s">
+      <c r="A30" s="87"/>
+      <c r="B30" s="87"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="89" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="92" t="s">
+      <c r="E30" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="98"/>
+      <c r="F30" s="96"/>
     </row>
     <row r="31" ht="28.8" spans="1:6">
-      <c r="A31" s="89"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="91" t="s">
+      <c r="A31" s="87"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="92" t="s">
+      <c r="E31" s="90" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="98"/>
+      <c r="F31" s="96"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="89"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="96"/>
-      <c r="D32" s="91" t="s">
+      <c r="A32" s="87"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="92" t="s">
+      <c r="E32" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="98"/>
+      <c r="F32" s="96"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="89"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="91" t="s">
+      <c r="A33" s="87"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="92" t="s">
+      <c r="E33" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="F33" s="98"/>
+      <c r="F33" s="96"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="89"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="96"/>
-      <c r="D34" s="91" t="s">
+      <c r="A34" s="87"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="89" t="s">
         <v>66</v>
       </c>
-      <c r="E34" s="92" t="s">
+      <c r="E34" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F34" s="98"/>
+      <c r="F34" s="96"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="89"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="91" t="s">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="E35" s="92" t="s">
+      <c r="E35" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F35" s="98"/>
+      <c r="F35" s="96"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="89"/>
-      <c r="B36" s="89"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="91" t="s">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="89" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="92" t="s">
+      <c r="E36" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F36" s="98"/>
+      <c r="F36" s="96"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="89"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="91" t="s">
+      <c r="A37" s="87"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="98"/>
+      <c r="F37" s="96"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="89"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="91" t="s">
+      <c r="A38" s="87"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F38" s="98"/>
+      <c r="F38" s="96"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="89"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="96"/>
-      <c r="D39" s="91" t="s">
+      <c r="A39" s="87"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="92" t="s">
+      <c r="E39" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F39" s="98"/>
+      <c r="F39" s="96"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="89"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="96"/>
-      <c r="D40" s="91" t="s">
+      <c r="A40" s="87"/>
+      <c r="B40" s="87"/>
+      <c r="C40" s="94"/>
+      <c r="D40" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="92" t="s">
+      <c r="E40" s="90" t="s">
         <v>73</v>
       </c>
-      <c r="F40" s="98"/>
+      <c r="F40" s="96"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="89"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="96"/>
-      <c r="D41" s="91" t="s">
+      <c r="A41" s="87"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="92" t="s">
+      <c r="E41" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="98"/>
+      <c r="F41" s="96"/>
     </row>
     <row r="42" ht="18" customHeight="1" spans="1:6">
-      <c r="A42" s="89"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="96"/>
-      <c r="D42" s="91" t="s">
+      <c r="A42" s="87"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="92" t="s">
+      <c r="E42" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F42" s="98"/>
+      <c r="F42" s="96"/>
     </row>
     <row r="43" ht="15.6" customHeight="1" spans="1:6">
-      <c r="A43" s="89"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="91" t="s">
+      <c r="A43" s="87"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="92" t="s">
+      <c r="E43" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="F43" s="98"/>
+      <c r="F43" s="96"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="89"/>
-      <c r="B44" s="89"/>
-      <c r="C44" s="96"/>
-      <c r="D44" s="91" t="s">
+      <c r="A44" s="87"/>
+      <c r="B44" s="87"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="92" t="s">
+      <c r="E44" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F44" s="98"/>
+      <c r="F44" s="96"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="89"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="91" t="s">
+      <c r="A45" s="87"/>
+      <c r="B45" s="87"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="92" t="s">
+      <c r="E45" s="90" t="s">
         <v>81</v>
       </c>
-      <c r="F45" s="98"/>
+      <c r="F45" s="96"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="89"/>
-      <c r="B46" s="89"/>
-      <c r="C46" s="96"/>
-      <c r="D46" s="91" t="s">
+      <c r="A46" s="87"/>
+      <c r="B46" s="87"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="89" t="s">
         <v>82</v>
       </c>
-      <c r="E46" s="92" t="s">
+      <c r="E46" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="F46" s="98"/>
+      <c r="F46" s="96"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="89"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="91" t="s">
+      <c r="A47" s="87"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="89" t="s">
         <v>84</v>
       </c>
-      <c r="E47" s="92" t="s">
+      <c r="E47" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="F47" s="98"/>
+      <c r="F47" s="96"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="89"/>
-      <c r="B48" s="89"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="91" t="s">
+      <c r="A48" s="87"/>
+      <c r="B48" s="87"/>
+      <c r="C48" s="94"/>
+      <c r="D48" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="92" t="s">
+      <c r="E48" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="F48" s="98"/>
+      <c r="F48" s="96"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="89"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="96"/>
-      <c r="D49" s="91" t="s">
+      <c r="A49" s="87"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="92" t="s">
+      <c r="E49" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F49" s="98"/>
+      <c r="F49" s="96"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="89"/>
-      <c r="B50" s="89"/>
-      <c r="C50" s="96"/>
-      <c r="D50" s="91" t="s">
+      <c r="A50" s="87"/>
+      <c r="B50" s="87"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="89" t="s">
         <v>89</v>
       </c>
-      <c r="E50" s="92" t="s">
+      <c r="E50" s="90" t="s">
         <v>40</v>
       </c>
-      <c r="F50" s="98"/>
+      <c r="F50" s="96"/>
     </row>
     <row r="51" ht="20.4" customHeight="1" spans="1:6">
-      <c r="A51" s="89"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="96"/>
-      <c r="D51" s="91" t="s">
+      <c r="A51" s="87"/>
+      <c r="B51" s="87"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="E51" s="92" t="s">
+      <c r="E51" s="90" t="s">
         <v>91</v>
       </c>
-      <c r="F51" s="98"/>
+      <c r="F51" s="96"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="89"/>
-      <c r="B52" s="89"/>
-      <c r="C52" s="96"/>
-      <c r="D52" s="91" t="s">
+      <c r="A52" s="87"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="89" t="s">
         <v>92</v>
       </c>
-      <c r="E52" s="92" t="s">
+      <c r="E52" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="F52" s="98"/>
+      <c r="F52" s="96"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="89"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="96"/>
-      <c r="D53" s="99" t="s">
+      <c r="A53" s="87"/>
+      <c r="B53" s="87"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="E53" s="100" t="s">
+      <c r="E53" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="F53" s="98"/>
+      <c r="F53" s="96"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="96"/>
-      <c r="D54" s="99" t="s">
+      <c r="A54" s="87"/>
+      <c r="B54" s="87"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="E54" s="100" t="s">
+      <c r="E54" s="98" t="s">
         <v>97</v>
       </c>
-      <c r="F54" s="98"/>
+      <c r="F54" s="96"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="89"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="96"/>
-      <c r="D55" s="99" t="s">
+      <c r="A55" s="87"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="100" t="s">
+      <c r="E55" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="F55" s="98"/>
+      <c r="F55" s="96"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="89"/>
-      <c r="B56" s="89"/>
-      <c r="C56" s="96"/>
-      <c r="D56" s="99" t="s">
+      <c r="A56" s="87"/>
+      <c r="B56" s="87"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="100" t="s">
+      <c r="E56" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="98"/>
+      <c r="F56" s="96"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="89"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="96"/>
-      <c r="D57" s="99" t="s">
+      <c r="A57" s="87"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="E57" s="100" t="s">
+      <c r="E57" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="F57" s="98"/>
+      <c r="F57" s="96"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="89"/>
-      <c r="B58" s="89"/>
-      <c r="C58" s="96"/>
-      <c r="D58" s="99" t="s">
+      <c r="A58" s="87"/>
+      <c r="B58" s="87"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="E58" s="100" t="s">
+      <c r="E58" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="F58" s="98"/>
+      <c r="F58" s="96"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="89"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="96"/>
-      <c r="D59" s="99" t="s">
+      <c r="A59" s="87"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="94"/>
+      <c r="D59" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="E59" s="100" t="s">
+      <c r="E59" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="F59" s="98"/>
+      <c r="F59" s="96"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="89"/>
-      <c r="B60" s="89"/>
-      <c r="C60" s="96"/>
-      <c r="D60" s="99" t="s">
+      <c r="A60" s="87"/>
+      <c r="B60" s="87"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="E60" s="100" t="s">
+      <c r="E60" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="98"/>
+      <c r="F60" s="96"/>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="89"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="96"/>
-      <c r="D61" s="99" t="s">
+      <c r="A61" s="87"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="97" t="s">
         <v>108</v>
       </c>
-      <c r="E61" s="100" t="s">
+      <c r="E61" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="F61" s="98"/>
+      <c r="F61" s="96"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="89"/>
-      <c r="B62" s="89"/>
-      <c r="C62" s="96"/>
-      <c r="D62" s="99" t="s">
+      <c r="A62" s="87"/>
+      <c r="B62" s="87"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="E62" s="100" t="s">
+      <c r="E62" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="98"/>
+      <c r="F62" s="96"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="89"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="96"/>
-      <c r="D63" s="99" t="s">
+      <c r="A63" s="87"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="97" t="s">
         <v>112</v>
       </c>
-      <c r="E63" s="100" t="s">
+      <c r="E63" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="F63" s="98"/>
+      <c r="F63" s="96"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="89"/>
-      <c r="B64" s="89"/>
-      <c r="C64" s="96"/>
-      <c r="D64" s="99" t="s">
+      <c r="A64" s="87"/>
+      <c r="B64" s="87"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="97" t="s">
         <v>114</v>
       </c>
-      <c r="E64" s="100" t="s">
+      <c r="E64" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="F64" s="98"/>
+      <c r="F64" s="96"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="89"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="96"/>
-      <c r="D65" s="99" t="s">
+      <c r="A65" s="87"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="97" t="s">
         <v>116</v>
       </c>
-      <c r="E65" s="100" t="s">
+      <c r="E65" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="98"/>
+      <c r="F65" s="96"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="89"/>
-      <c r="B66" s="89"/>
-      <c r="C66" s="96"/>
-      <c r="D66" s="99" t="s">
+      <c r="A66" s="87"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="E66" s="100" t="s">
+      <c r="E66" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="F66" s="98"/>
+      <c r="F66" s="96"/>
     </row>
     <row r="67" ht="28.8" spans="1:6">
-      <c r="A67" s="89"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="96"/>
-      <c r="D67" s="99" t="s">
+      <c r="A67" s="87"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="E67" s="100" t="s">
+      <c r="E67" s="98" t="s">
         <v>121</v>
       </c>
-      <c r="F67" s="98"/>
+      <c r="F67" s="96"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="89"/>
-      <c r="B68" s="89"/>
-      <c r="C68" s="96"/>
-      <c r="D68" s="99" t="s">
+      <c r="A68" s="87"/>
+      <c r="B68" s="87"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="97" t="s">
         <v>122</v>
       </c>
-      <c r="E68" s="100" t="s">
+      <c r="E68" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F68" s="98"/>
+      <c r="F68" s="96"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="89"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="96"/>
-      <c r="D69" s="99" t="s">
+      <c r="A69" s="87"/>
+      <c r="B69" s="87"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="E69" s="100" t="s">
+      <c r="E69" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="F69" s="98"/>
+      <c r="F69" s="96"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="89"/>
-      <c r="B70" s="89"/>
-      <c r="C70" s="96"/>
-      <c r="D70" s="99" t="s">
+      <c r="A70" s="87"/>
+      <c r="B70" s="87"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="97" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="100" t="s">
+      <c r="E70" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="F70" s="98"/>
+      <c r="F70" s="96"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="89"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="96"/>
-      <c r="D71" s="99" t="s">
+      <c r="A71" s="87"/>
+      <c r="B71" s="87"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="100" t="s">
+      <c r="E71" s="98" t="s">
         <v>129</v>
       </c>
-      <c r="F71" s="98"/>
+      <c r="F71" s="96"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="89"/>
-      <c r="B72" s="89"/>
-      <c r="C72" s="96"/>
-      <c r="D72" s="99" t="s">
+      <c r="A72" s="87"/>
+      <c r="B72" s="87"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="97" t="s">
         <v>130</v>
       </c>
-      <c r="E72" s="100" t="s">
+      <c r="E72" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="F72" s="98"/>
+      <c r="F72" s="96"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="89"/>
-      <c r="B73" s="89"/>
-      <c r="C73" s="96"/>
-      <c r="D73" s="99" t="s">
+      <c r="A73" s="87"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="97" t="s">
         <v>131</v>
       </c>
-      <c r="E73" s="100" t="s">
+      <c r="E73" s="98" t="s">
         <v>132</v>
       </c>
-      <c r="F73" s="98"/>
+      <c r="F73" s="96"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="89"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="96"/>
-      <c r="D74" s="99" t="s">
+      <c r="A74" s="87"/>
+      <c r="B74" s="87"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="E74" s="100" t="s">
+      <c r="E74" s="98" t="s">
         <v>134</v>
       </c>
-      <c r="F74" s="98"/>
+      <c r="F74" s="96"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="89"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="96"/>
-      <c r="D75" s="99" t="s">
+      <c r="A75" s="87"/>
+      <c r="B75" s="87"/>
+      <c r="C75" s="94"/>
+      <c r="D75" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="E75" s="100" t="s">
+      <c r="E75" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="F75" s="98"/>
+      <c r="F75" s="96"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="89"/>
-      <c r="B76" s="89"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="99" t="s">
+      <c r="A76" s="87"/>
+      <c r="B76" s="87"/>
+      <c r="C76" s="94"/>
+      <c r="D76" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="E76" s="100" t="s">
+      <c r="E76" s="98" t="s">
         <v>138</v>
       </c>
-      <c r="F76" s="98"/>
+      <c r="F76" s="96"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="89"/>
-      <c r="B77" s="89"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="99" t="s">
+      <c r="A77" s="87"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="97" t="s">
         <v>139</v>
       </c>
-      <c r="E77" s="100" t="s">
+      <c r="E77" s="98" t="s">
         <v>140</v>
       </c>
-      <c r="F77" s="98"/>
+      <c r="F77" s="96"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="89"/>
-      <c r="B78" s="89"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="99" t="s">
+      <c r="A78" s="87"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="E78" s="100" t="s">
+      <c r="E78" s="98" t="s">
         <v>142</v>
       </c>
-      <c r="F78" s="98"/>
+      <c r="F78" s="96"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="89"/>
-      <c r="B79" s="89"/>
-      <c r="C79" s="96"/>
-      <c r="D79" s="99" t="s">
+      <c r="A79" s="87"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="E79" s="100" t="s">
+      <c r="E79" s="98" t="s">
         <v>144</v>
       </c>
-      <c r="F79" s="98"/>
+      <c r="F79" s="96"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="89"/>
-      <c r="B80" s="89"/>
-      <c r="C80" s="96"/>
-      <c r="D80" s="99" t="s">
+      <c r="A80" s="87"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="E80" s="100" t="s">
+      <c r="E80" s="98" t="s">
         <v>146</v>
       </c>
-      <c r="F80" s="98"/>
+      <c r="F80" s="96"/>
     </row>
     <row r="81" ht="15.15" spans="1:5">
-      <c r="A81" s="89"/>
-      <c r="B81" s="89"/>
-      <c r="C81" s="96"/>
-      <c r="D81" s="99"/>
-      <c r="E81" s="100"/>
+      <c r="A81" s="87"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="97"/>
+      <c r="E81" s="98"/>
     </row>
     <row r="82" ht="64.8" customHeight="1" spans="1:6">
-      <c r="A82" s="89"/>
-      <c r="B82" s="89"/>
-      <c r="C82" s="111" t="s">
+      <c r="A82" s="87"/>
+      <c r="B82" s="87"/>
+      <c r="C82" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="D82" s="86" t="s">
+      <c r="D82" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="E82" s="87" t="s">
+      <c r="E82" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F82" s="98"/>
+      <c r="F82" s="96"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="89"/>
-      <c r="B83" s="89"/>
-      <c r="C83" s="112"/>
-      <c r="D83" s="97" t="s">
+      <c r="A83" s="87"/>
+      <c r="B83" s="87"/>
+      <c r="C83" s="110"/>
+      <c r="D83" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="E83" s="110" t="s">
+      <c r="E83" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="F83" s="98"/>
+      <c r="F83" s="96"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="89"/>
-      <c r="B84" s="89"/>
-      <c r="C84" s="112"/>
-      <c r="D84" s="91" t="s">
+      <c r="A84" s="87"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="92" t="s">
+      <c r="E84" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F84" s="98"/>
+      <c r="F84" s="96"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="89"/>
-      <c r="B85" s="89"/>
-      <c r="C85" s="112"/>
-      <c r="D85" s="91" t="s">
+      <c r="A85" s="87"/>
+      <c r="B85" s="87"/>
+      <c r="C85" s="110"/>
+      <c r="D85" s="89" t="s">
         <v>31</v>
       </c>
-      <c r="E85" s="92" t="s">
+      <c r="E85" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="98"/>
+      <c r="F85" s="96"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="89"/>
-      <c r="B86" s="89"/>
-      <c r="C86" s="112"/>
-      <c r="D86" s="91" t="s">
+      <c r="A86" s="87"/>
+      <c r="B86" s="87"/>
+      <c r="C86" s="110"/>
+      <c r="D86" s="89" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="92" t="s">
+      <c r="E86" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="F86" s="98"/>
+      <c r="F86" s="96"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="89"/>
-      <c r="B87" s="89"/>
-      <c r="C87" s="112"/>
-      <c r="D87" s="91" t="s">
+      <c r="A87" s="87"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="110"/>
+      <c r="D87" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="E87" s="92" t="s">
+      <c r="E87" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="98"/>
+      <c r="F87" s="96"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="89"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="112"/>
-      <c r="D88" s="91" t="s">
+      <c r="A88" s="87"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="110"/>
+      <c r="D88" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="E88" s="92" t="s">
+      <c r="E88" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="98"/>
+      <c r="F88" s="96"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="89"/>
-      <c r="B89" s="89"/>
-      <c r="C89" s="112"/>
-      <c r="D89" s="91" t="s">
+      <c r="A89" s="87"/>
+      <c r="B89" s="87"/>
+      <c r="C89" s="110"/>
+      <c r="D89" s="89" t="s">
         <v>48</v>
       </c>
-      <c r="E89" s="92" t="s">
+      <c r="E89" s="90" t="s">
         <v>49</v>
       </c>
-      <c r="F89" s="98"/>
+      <c r="F89" s="96"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="89"/>
-      <c r="B90" s="89"/>
-      <c r="C90" s="112"/>
-      <c r="D90" s="91" t="s">
+      <c r="A90" s="87"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="110"/>
+      <c r="D90" s="89" t="s">
         <v>148</v>
       </c>
-      <c r="E90" s="92" t="s">
+      <c r="E90" s="90" t="s">
         <v>149</v>
       </c>
-      <c r="F90" s="98"/>
+      <c r="F90" s="96"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="89"/>
-      <c r="B91" s="89"/>
-      <c r="C91" s="112"/>
-      <c r="D91" s="91" t="s">
+      <c r="A91" s="87"/>
+      <c r="B91" s="87"/>
+      <c r="C91" s="110"/>
+      <c r="D91" s="89" t="s">
         <v>150</v>
       </c>
-      <c r="E91" s="92" t="s">
+      <c r="E91" s="90" t="s">
         <v>151</v>
       </c>
-      <c r="F91" s="98"/>
+      <c r="F91" s="96"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="89"/>
-      <c r="B92" s="89"/>
-      <c r="C92" s="112"/>
-      <c r="D92" s="91" t="s">
+      <c r="A92" s="87"/>
+      <c r="B92" s="87"/>
+      <c r="C92" s="110"/>
+      <c r="D92" s="89" t="s">
         <v>152</v>
       </c>
-      <c r="E92" s="92" t="s">
+      <c r="E92" s="90" t="s">
         <v>153</v>
       </c>
-      <c r="F92" s="98"/>
+      <c r="F92" s="96"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="89"/>
-      <c r="B93" s="89"/>
-      <c r="C93" s="112"/>
-      <c r="D93" s="91" t="s">
+      <c r="A93" s="87"/>
+      <c r="B93" s="87"/>
+      <c r="C93" s="110"/>
+      <c r="D93" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="E93" s="92" t="s">
+      <c r="E93" s="90" t="s">
         <v>155</v>
       </c>
-      <c r="F93" s="98"/>
+      <c r="F93" s="96"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="89"/>
-      <c r="B94" s="89"/>
-      <c r="C94" s="112"/>
-      <c r="D94" s="91" t="s">
+      <c r="A94" s="87"/>
+      <c r="B94" s="87"/>
+      <c r="C94" s="110"/>
+      <c r="D94" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="92" t="s">
+      <c r="E94" s="90" t="s">
         <v>156</v>
       </c>
-      <c r="F94" s="98"/>
+      <c r="F94" s="96"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="89"/>
-      <c r="B95" s="89"/>
-      <c r="C95" s="112"/>
-      <c r="D95" s="91" t="s">
+      <c r="A95" s="87"/>
+      <c r="B95" s="87"/>
+      <c r="C95" s="110"/>
+      <c r="D95" s="89" t="s">
         <v>157</v>
       </c>
-      <c r="E95" s="92" t="s">
+      <c r="E95" s="90" t="s">
         <v>158</v>
       </c>
-      <c r="F95" s="98"/>
+      <c r="F95" s="96"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="89"/>
-      <c r="B96" s="89"/>
-      <c r="C96" s="112"/>
-      <c r="D96" s="91" t="s">
+      <c r="A96" s="87"/>
+      <c r="B96" s="87"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="89" t="s">
         <v>159</v>
       </c>
-      <c r="E96" s="92" t="s">
+      <c r="E96" s="90" t="s">
         <v>160</v>
       </c>
-      <c r="F96" s="98"/>
+      <c r="F96" s="96"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="89"/>
-      <c r="B97" s="89"/>
-      <c r="C97" s="112"/>
-      <c r="D97" s="91" t="s">
+      <c r="A97" s="87"/>
+      <c r="B97" s="87"/>
+      <c r="C97" s="110"/>
+      <c r="D97" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="E97" s="92" t="s">
+      <c r="E97" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="F97" s="98"/>
+      <c r="F97" s="96"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="89"/>
-      <c r="B98" s="89"/>
-      <c r="C98" s="112"/>
-      <c r="D98" s="91" t="s">
+      <c r="A98" s="87"/>
+      <c r="B98" s="87"/>
+      <c r="C98" s="110"/>
+      <c r="D98" s="89" t="s">
         <v>163</v>
       </c>
-      <c r="E98" s="92" t="s">
+      <c r="E98" s="90" t="s">
         <v>164</v>
       </c>
-      <c r="F98" s="98"/>
+      <c r="F98" s="96"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="89"/>
-      <c r="B99" s="89"/>
-      <c r="C99" s="112"/>
-      <c r="D99" s="99" t="s">
+      <c r="A99" s="87"/>
+      <c r="B99" s="87"/>
+      <c r="C99" s="110"/>
+      <c r="D99" s="97" t="s">
         <v>165</v>
       </c>
-      <c r="E99" s="92" t="s">
+      <c r="E99" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="F99" s="98"/>
+      <c r="F99" s="96"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="89"/>
-      <c r="B100" s="89"/>
-      <c r="C100" s="112"/>
-      <c r="D100" s="113"/>
-      <c r="E100" s="92" t="s">
+      <c r="A100" s="87"/>
+      <c r="B100" s="87"/>
+      <c r="C100" s="110"/>
+      <c r="D100" s="111"/>
+      <c r="E100" s="90" t="s">
         <v>167</v>
       </c>
-      <c r="F100" s="98"/>
+      <c r="F100" s="96"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="89"/>
-      <c r="B101" s="89"/>
-      <c r="C101" s="112"/>
-      <c r="D101" s="97"/>
-      <c r="E101" s="92" t="s">
+      <c r="A101" s="87"/>
+      <c r="B101" s="87"/>
+      <c r="C101" s="110"/>
+      <c r="D101" s="95"/>
+      <c r="E101" s="90" t="s">
         <v>168</v>
       </c>
-      <c r="F101" s="98"/>
+      <c r="F101" s="96"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="89"/>
-      <c r="B102" s="89"/>
-      <c r="C102" s="112"/>
-      <c r="D102" s="91" t="s">
+      <c r="A102" s="87"/>
+      <c r="B102" s="87"/>
+      <c r="C102" s="110"/>
+      <c r="D102" s="89" t="s">
         <v>169</v>
       </c>
-      <c r="E102" s="100" t="s">
+      <c r="E102" s="98" t="s">
         <v>170</v>
       </c>
-      <c r="F102" s="98"/>
+      <c r="F102" s="96"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="89"/>
-      <c r="B103" s="89"/>
-      <c r="C103" s="112"/>
-      <c r="D103" s="91"/>
-      <c r="E103" s="100" t="s">
+      <c r="A103" s="87"/>
+      <c r="B103" s="87"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="89"/>
+      <c r="E103" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F103" s="98"/>
+      <c r="F103" s="96"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="89"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="112"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="100" t="s">
+      <c r="A104" s="87"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="110"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="98" t="s">
         <v>172</v>
       </c>
-      <c r="F104" s="98"/>
+      <c r="F104" s="96"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="89"/>
-      <c r="B105" s="89"/>
-      <c r="C105" s="112"/>
-      <c r="D105" s="91"/>
-      <c r="E105" s="100" t="s">
+      <c r="A105" s="87"/>
+      <c r="B105" s="87"/>
+      <c r="C105" s="110"/>
+      <c r="D105" s="89"/>
+      <c r="E105" s="98" t="s">
         <v>173</v>
       </c>
-      <c r="F105" s="98"/>
+      <c r="F105" s="96"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="89"/>
-      <c r="B106" s="89"/>
-      <c r="C106" s="112"/>
-      <c r="D106" s="91"/>
-      <c r="E106" s="100" t="s">
+      <c r="A106" s="87"/>
+      <c r="B106" s="87"/>
+      <c r="C106" s="110"/>
+      <c r="D106" s="89"/>
+      <c r="E106" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="F106" s="98"/>
+      <c r="F106" s="96"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="89"/>
-      <c r="B107" s="89"/>
-      <c r="C107" s="112"/>
-      <c r="D107" s="91"/>
-      <c r="E107" s="100" t="s">
+      <c r="A107" s="87"/>
+      <c r="B107" s="87"/>
+      <c r="C107" s="110"/>
+      <c r="D107" s="89"/>
+      <c r="E107" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="F107" s="98"/>
+      <c r="F107" s="96"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="89"/>
-      <c r="B108" s="89"/>
-      <c r="C108" s="112"/>
-      <c r="D108" s="91"/>
-      <c r="E108" s="100" t="s">
+      <c r="A108" s="87"/>
+      <c r="B108" s="87"/>
+      <c r="C108" s="110"/>
+      <c r="D108" s="89"/>
+      <c r="E108" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="F108" s="98"/>
+      <c r="F108" s="96"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="89"/>
-      <c r="B109" s="89"/>
-      <c r="C109" s="112"/>
-      <c r="D109" s="91"/>
-      <c r="E109" s="100" t="s">
+      <c r="A109" s="87"/>
+      <c r="B109" s="87"/>
+      <c r="C109" s="110"/>
+      <c r="D109" s="89"/>
+      <c r="E109" s="98" t="s">
         <v>177</v>
       </c>
-      <c r="F109" s="98"/>
+      <c r="F109" s="96"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="89"/>
-      <c r="B110" s="89"/>
-      <c r="C110" s="112"/>
-      <c r="D110" s="91"/>
-      <c r="E110" s="100" t="s">
+      <c r="A110" s="87"/>
+      <c r="B110" s="87"/>
+      <c r="C110" s="110"/>
+      <c r="D110" s="89"/>
+      <c r="E110" s="98" t="s">
         <v>178</v>
       </c>
-      <c r="F110" s="98"/>
+      <c r="F110" s="96"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="89"/>
-      <c r="B111" s="89"/>
-      <c r="C111" s="112"/>
-      <c r="D111" s="91"/>
-      <c r="E111" s="100" t="s">
+      <c r="A111" s="87"/>
+      <c r="B111" s="87"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="89"/>
+      <c r="E111" s="98" t="s">
         <v>179</v>
       </c>
-      <c r="F111" s="98"/>
+      <c r="F111" s="96"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="89"/>
-      <c r="B112" s="89"/>
-      <c r="C112" s="112"/>
-      <c r="D112" s="91"/>
-      <c r="E112" s="100" t="s">
+      <c r="A112" s="87"/>
+      <c r="B112" s="87"/>
+      <c r="C112" s="110"/>
+      <c r="D112" s="89"/>
+      <c r="E112" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="F112" s="98"/>
+      <c r="F112" s="96"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="89"/>
-      <c r="B113" s="89"/>
-      <c r="C113" s="112"/>
-      <c r="D113" s="91"/>
-      <c r="E113" s="100" t="s">
+      <c r="A113" s="87"/>
+      <c r="B113" s="87"/>
+      <c r="C113" s="110"/>
+      <c r="D113" s="89"/>
+      <c r="E113" s="98" t="s">
         <v>181</v>
       </c>
-      <c r="F113" s="98"/>
+      <c r="F113" s="96"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="89"/>
-      <c r="B114" s="89"/>
-      <c r="C114" s="112"/>
-      <c r="D114" s="99" t="s">
+      <c r="A114" s="87"/>
+      <c r="B114" s="87"/>
+      <c r="C114" s="110"/>
+      <c r="D114" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="100" t="s">
+      <c r="E114" s="98" t="s">
         <v>182</v>
       </c>
-      <c r="F114" s="98"/>
+      <c r="F114" s="96"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="89"/>
-      <c r="B115" s="89"/>
-      <c r="C115" s="112"/>
-      <c r="D115" s="113"/>
-      <c r="E115" s="100" t="s">
+      <c r="A115" s="87"/>
+      <c r="B115" s="87"/>
+      <c r="C115" s="110"/>
+      <c r="D115" s="111"/>
+      <c r="E115" s="98" t="s">
         <v>183</v>
       </c>
-      <c r="F115" s="98"/>
+      <c r="F115" s="96"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="89"/>
-      <c r="B116" s="89"/>
-      <c r="C116" s="112"/>
-      <c r="D116" s="113"/>
-      <c r="E116" s="100" t="s">
+      <c r="A116" s="87"/>
+      <c r="B116" s="87"/>
+      <c r="C116" s="110"/>
+      <c r="D116" s="111"/>
+      <c r="E116" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="F116" s="98"/>
+      <c r="F116" s="96"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="89"/>
-      <c r="B117" s="89"/>
-      <c r="C117" s="112"/>
-      <c r="D117" s="113"/>
-      <c r="E117" s="100" t="s">
+      <c r="A117" s="87"/>
+      <c r="B117" s="87"/>
+      <c r="C117" s="110"/>
+      <c r="D117" s="111"/>
+      <c r="E117" s="98" t="s">
         <v>185</v>
       </c>
-      <c r="F117" s="98"/>
+      <c r="F117" s="96"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="89"/>
-      <c r="B118" s="89"/>
-      <c r="C118" s="112"/>
-      <c r="D118" s="97"/>
-      <c r="E118" s="100" t="s">
+      <c r="A118" s="87"/>
+      <c r="B118" s="87"/>
+      <c r="C118" s="110"/>
+      <c r="D118" s="95"/>
+      <c r="E118" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="F118" s="98"/>
+      <c r="F118" s="96"/>
     </row>
     <row r="119" ht="28.8" spans="1:6">
-      <c r="A119" s="89"/>
-      <c r="B119" s="89"/>
-      <c r="C119" s="112"/>
-      <c r="D119" s="99" t="s">
+      <c r="A119" s="87"/>
+      <c r="B119" s="87"/>
+      <c r="C119" s="110"/>
+      <c r="D119" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="E119" s="100" t="s">
+      <c r="E119" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="F119" s="98"/>
+      <c r="F119" s="96"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="89"/>
-      <c r="B120" s="89"/>
-      <c r="C120" s="112"/>
-      <c r="D120" s="99" t="s">
+      <c r="A120" s="87"/>
+      <c r="B120" s="87"/>
+      <c r="C120" s="110"/>
+      <c r="D120" s="97" t="s">
         <v>189</v>
       </c>
-      <c r="E120" s="100" t="s">
+      <c r="E120" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="F120" s="98"/>
+      <c r="F120" s="96"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="89"/>
-      <c r="B121" s="89"/>
-      <c r="C121" s="112"/>
-      <c r="D121" s="99" t="s">
+      <c r="A121" s="87"/>
+      <c r="B121" s="87"/>
+      <c r="C121" s="110"/>
+      <c r="D121" s="97" t="s">
         <v>191</v>
       </c>
-      <c r="E121" s="100" t="s">
+      <c r="E121" s="98" t="s">
         <v>192</v>
       </c>
-      <c r="F121" s="98"/>
+      <c r="F121" s="96"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="89"/>
-      <c r="B122" s="89"/>
-      <c r="C122" s="112"/>
-      <c r="D122" s="99" t="s">
+      <c r="A122" s="87"/>
+      <c r="B122" s="87"/>
+      <c r="C122" s="110"/>
+      <c r="D122" s="97" t="s">
         <v>193</v>
       </c>
-      <c r="E122" s="100" t="s">
+      <c r="E122" s="98" t="s">
         <v>194</v>
       </c>
-      <c r="F122" s="98"/>
+      <c r="F122" s="96"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="89"/>
-      <c r="B123" s="89"/>
-      <c r="C123" s="112"/>
-      <c r="D123" s="97"/>
-      <c r="E123" s="100" t="s">
+      <c r="A123" s="87"/>
+      <c r="B123" s="87"/>
+      <c r="C123" s="110"/>
+      <c r="D123" s="95"/>
+      <c r="E123" s="98" t="s">
         <v>195</v>
       </c>
-      <c r="F123" s="98"/>
+      <c r="F123" s="96"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="89"/>
-      <c r="B124" s="89"/>
-      <c r="C124" s="112"/>
-      <c r="D124" s="99" t="s">
+      <c r="A124" s="87"/>
+      <c r="B124" s="87"/>
+      <c r="C124" s="110"/>
+      <c r="D124" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="E124" s="100" t="s">
+      <c r="E124" s="98" t="s">
         <v>197</v>
       </c>
-      <c r="F124" s="98"/>
+      <c r="F124" s="96"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="89"/>
-      <c r="B125" s="89"/>
-      <c r="C125" s="112"/>
-      <c r="D125" s="99" t="s">
+      <c r="A125" s="87"/>
+      <c r="B125" s="87"/>
+      <c r="C125" s="110"/>
+      <c r="D125" s="97" t="s">
         <v>198</v>
       </c>
-      <c r="E125" s="100" t="s">
+      <c r="E125" s="98" t="s">
         <v>199</v>
       </c>
-      <c r="F125" s="98"/>
+      <c r="F125" s="96"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="89"/>
-      <c r="B126" s="89"/>
-      <c r="C126" s="112"/>
-      <c r="D126" s="99" t="s">
+      <c r="A126" s="87"/>
+      <c r="B126" s="87"/>
+      <c r="C126" s="110"/>
+      <c r="D126" s="97" t="s">
         <v>200</v>
       </c>
-      <c r="E126" s="100" t="s">
+      <c r="E126" s="98" t="s">
         <v>201</v>
       </c>
-      <c r="F126" s="98"/>
+      <c r="F126" s="96"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="89"/>
-      <c r="B127" s="89"/>
-      <c r="C127" s="112"/>
-      <c r="D127" s="99" t="s">
+      <c r="A127" s="87"/>
+      <c r="B127" s="87"/>
+      <c r="C127" s="110"/>
+      <c r="D127" s="97" t="s">
         <v>202</v>
       </c>
-      <c r="E127" s="100" t="s">
+      <c r="E127" s="98" t="s">
         <v>203</v>
       </c>
-      <c r="F127" s="98"/>
+      <c r="F127" s="96"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="89"/>
-      <c r="B128" s="89"/>
-      <c r="C128" s="112"/>
-      <c r="D128" s="99" t="s">
+      <c r="A128" s="87"/>
+      <c r="B128" s="87"/>
+      <c r="C128" s="110"/>
+      <c r="D128" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="E128" s="100" t="s">
+      <c r="E128" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="F128" s="98"/>
+      <c r="F128" s="96"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="89"/>
-      <c r="B129" s="89"/>
-      <c r="C129" s="112"/>
-      <c r="D129" s="99" t="s">
+      <c r="A129" s="87"/>
+      <c r="B129" s="87"/>
+      <c r="C129" s="110"/>
+      <c r="D129" s="97" t="s">
         <v>206</v>
       </c>
-      <c r="E129" s="100" t="s">
+      <c r="E129" s="98" t="s">
         <v>207</v>
       </c>
-      <c r="F129" s="98"/>
+      <c r="F129" s="96"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="89"/>
-      <c r="B130" s="89"/>
-      <c r="C130" s="112"/>
-      <c r="D130" s="99" t="s">
+      <c r="A130" s="87"/>
+      <c r="B130" s="87"/>
+      <c r="C130" s="110"/>
+      <c r="D130" s="97" t="s">
         <v>208</v>
       </c>
-      <c r="E130" s="100" t="s">
+      <c r="E130" s="98" t="s">
         <v>209</v>
       </c>
-      <c r="F130" s="98"/>
+      <c r="F130" s="96"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="89"/>
-      <c r="B131" s="89"/>
-      <c r="C131" s="112"/>
-      <c r="D131" s="99" t="s">
+      <c r="A131" s="87"/>
+      <c r="B131" s="87"/>
+      <c r="C131" s="110"/>
+      <c r="D131" s="97" t="s">
         <v>210</v>
       </c>
-      <c r="E131" s="100" t="s">
+      <c r="E131" s="98" t="s">
         <v>211</v>
       </c>
-      <c r="F131" s="98"/>
+      <c r="F131" s="96"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="89"/>
-      <c r="B132" s="89"/>
-      <c r="C132" s="112"/>
-      <c r="D132" s="99" t="s">
+      <c r="A132" s="87"/>
+      <c r="B132" s="87"/>
+      <c r="C132" s="110"/>
+      <c r="D132" s="97" t="s">
         <v>212</v>
       </c>
-      <c r="E132" s="100" t="s">
+      <c r="E132" s="98" t="s">
         <v>213</v>
       </c>
-      <c r="F132" s="98"/>
+      <c r="F132" s="96"/>
     </row>
     <row r="133" spans="1:6">
-      <c r="A133" s="89"/>
-      <c r="B133" s="89"/>
-      <c r="C133" s="112"/>
-      <c r="D133" s="99" t="s">
+      <c r="A133" s="87"/>
+      <c r="B133" s="87"/>
+      <c r="C133" s="110"/>
+      <c r="D133" s="97" t="s">
         <v>214</v>
       </c>
-      <c r="E133" s="100" t="s">
+      <c r="E133" s="98" t="s">
         <v>215</v>
       </c>
-      <c r="F133" s="98"/>
+      <c r="F133" s="96"/>
     </row>
     <row r="134" spans="1:6">
-      <c r="A134" s="89"/>
-      <c r="B134" s="89"/>
-      <c r="C134" s="112"/>
-      <c r="D134" s="97"/>
-      <c r="E134" s="100" t="s">
+      <c r="A134" s="87"/>
+      <c r="B134" s="87"/>
+      <c r="C134" s="110"/>
+      <c r="D134" s="95"/>
+      <c r="E134" s="98" t="s">
         <v>216</v>
       </c>
-      <c r="F134" s="98"/>
+      <c r="F134" s="96"/>
     </row>
     <row r="135" spans="1:6">
-      <c r="A135" s="89"/>
-      <c r="B135" s="89"/>
-      <c r="C135" s="112"/>
-      <c r="D135" s="99" t="s">
+      <c r="A135" s="87"/>
+      <c r="B135" s="87"/>
+      <c r="C135" s="110"/>
+      <c r="D135" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="E135" s="100" t="s">
+      <c r="E135" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="F135" s="98"/>
+      <c r="F135" s="96"/>
     </row>
     <row r="136" spans="1:6">
-      <c r="A136" s="89"/>
-      <c r="B136" s="89"/>
-      <c r="C136" s="112"/>
-      <c r="D136" s="99" t="s">
+      <c r="A136" s="87"/>
+      <c r="B136" s="87"/>
+      <c r="C136" s="110"/>
+      <c r="D136" s="97" t="s">
         <v>219</v>
       </c>
-      <c r="E136" s="100" t="s">
+      <c r="E136" s="98" t="s">
         <v>220</v>
       </c>
-      <c r="F136" s="98"/>
+      <c r="F136" s="96"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="89"/>
-      <c r="B137" s="89"/>
-      <c r="C137" s="112"/>
-      <c r="D137" s="99" t="s">
+      <c r="A137" s="87"/>
+      <c r="B137" s="87"/>
+      <c r="C137" s="110"/>
+      <c r="D137" s="97" t="s">
         <v>221</v>
       </c>
-      <c r="E137" s="100" t="s">
+      <c r="E137" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="F137" s="98"/>
+      <c r="F137" s="96"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="89"/>
-      <c r="B138" s="89"/>
-      <c r="C138" s="112"/>
-      <c r="D138" s="99" t="s">
+      <c r="A138" s="87"/>
+      <c r="B138" s="87"/>
+      <c r="C138" s="110"/>
+      <c r="D138" s="97" t="s">
         <v>223</v>
       </c>
-      <c r="E138" s="100" t="s">
+      <c r="E138" s="98" t="s">
         <v>224</v>
       </c>
-      <c r="F138" s="98"/>
+      <c r="F138" s="96"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="89"/>
-      <c r="B139" s="89"/>
-      <c r="C139" s="112"/>
-      <c r="D139" s="99" t="s">
+      <c r="A139" s="87"/>
+      <c r="B139" s="87"/>
+      <c r="C139" s="110"/>
+      <c r="D139" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="E139" s="100" t="s">
+      <c r="E139" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="F139" s="98"/>
+      <c r="F139" s="96"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="89"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="112"/>
-      <c r="D140" s="113"/>
-      <c r="E140" s="100" t="s">
+      <c r="A140" s="87"/>
+      <c r="B140" s="87"/>
+      <c r="C140" s="110"/>
+      <c r="D140" s="111"/>
+      <c r="E140" s="98" t="s">
         <v>225</v>
       </c>
-      <c r="F140" s="98"/>
+      <c r="F140" s="96"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="89"/>
-      <c r="B141" s="89"/>
-      <c r="C141" s="112"/>
-      <c r="D141" s="113"/>
-      <c r="E141" s="100" t="s">
+      <c r="A141" s="87"/>
+      <c r="B141" s="87"/>
+      <c r="C141" s="110"/>
+      <c r="D141" s="111"/>
+      <c r="E141" s="98" t="s">
         <v>226</v>
       </c>
-      <c r="F141" s="98"/>
+      <c r="F141" s="96"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="89"/>
-      <c r="B142" s="89"/>
-      <c r="C142" s="112"/>
-      <c r="D142" s="113"/>
-      <c r="E142" s="100" t="s">
+      <c r="A142" s="87"/>
+      <c r="B142" s="87"/>
+      <c r="C142" s="110"/>
+      <c r="D142" s="111"/>
+      <c r="E142" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="F142" s="98"/>
+      <c r="F142" s="96"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="89"/>
-      <c r="B143" s="89"/>
-      <c r="C143" s="112"/>
-      <c r="D143" s="113"/>
-      <c r="E143" s="100" t="s">
+      <c r="A143" s="87"/>
+      <c r="B143" s="87"/>
+      <c r="C143" s="110"/>
+      <c r="D143" s="111"/>
+      <c r="E143" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="F143" s="98"/>
+      <c r="F143" s="96"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="89"/>
-      <c r="B144" s="89"/>
-      <c r="C144" s="112"/>
-      <c r="D144" s="113"/>
-      <c r="E144" s="100" t="s">
+      <c r="A144" s="87"/>
+      <c r="B144" s="87"/>
+      <c r="C144" s="110"/>
+      <c r="D144" s="111"/>
+      <c r="E144" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="F144" s="98"/>
+      <c r="F144" s="96"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="89"/>
-      <c r="B145" s="89"/>
-      <c r="C145" s="112"/>
-      <c r="D145" s="113"/>
-      <c r="E145" s="100" t="s">
+      <c r="A145" s="87"/>
+      <c r="B145" s="87"/>
+      <c r="C145" s="110"/>
+      <c r="D145" s="111"/>
+      <c r="E145" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="F145" s="98"/>
+      <c r="F145" s="96"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="89"/>
-      <c r="B146" s="89"/>
-      <c r="C146" s="112"/>
-      <c r="D146" s="113"/>
-      <c r="E146" s="100" t="s">
+      <c r="A146" s="87"/>
+      <c r="B146" s="87"/>
+      <c r="C146" s="110"/>
+      <c r="D146" s="111"/>
+      <c r="E146" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="F146" s="98"/>
+      <c r="F146" s="96"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="89"/>
-      <c r="B147" s="89"/>
-      <c r="C147" s="112"/>
-      <c r="D147" s="113"/>
-      <c r="E147" s="100" t="s">
+      <c r="A147" s="87"/>
+      <c r="B147" s="87"/>
+      <c r="C147" s="110"/>
+      <c r="D147" s="111"/>
+      <c r="E147" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="F147" s="98"/>
+      <c r="F147" s="96"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="89"/>
-      <c r="B148" s="89"/>
-      <c r="C148" s="112"/>
-      <c r="D148" s="97"/>
-      <c r="E148" s="100" t="s">
+      <c r="A148" s="87"/>
+      <c r="B148" s="87"/>
+      <c r="C148" s="110"/>
+      <c r="D148" s="95"/>
+      <c r="E148" s="98" t="s">
         <v>231</v>
       </c>
-      <c r="F148" s="98"/>
+      <c r="F148" s="96"/>
     </row>
     <row r="149" spans="1:6">
-      <c r="A149" s="89"/>
-      <c r="B149" s="89"/>
-      <c r="C149" s="112"/>
-      <c r="D149" s="99" t="s">
+      <c r="A149" s="87"/>
+      <c r="B149" s="87"/>
+      <c r="C149" s="110"/>
+      <c r="D149" s="97" t="s">
         <v>232</v>
       </c>
-      <c r="E149" s="100" t="s">
+      <c r="E149" s="98" t="s">
         <v>233</v>
       </c>
-      <c r="F149" s="98"/>
+      <c r="F149" s="96"/>
     </row>
     <row r="150" spans="1:6">
-      <c r="A150" s="89"/>
-      <c r="B150" s="89"/>
-      <c r="C150" s="112"/>
-      <c r="D150" s="113"/>
-      <c r="E150" s="100" t="s">
+      <c r="A150" s="87"/>
+      <c r="B150" s="87"/>
+      <c r="C150" s="110"/>
+      <c r="D150" s="111"/>
+      <c r="E150" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="F150" s="98"/>
+      <c r="F150" s="96"/>
     </row>
     <row r="151" spans="1:6">
-      <c r="A151" s="89"/>
-      <c r="B151" s="89"/>
-      <c r="C151" s="112"/>
-      <c r="D151" s="113"/>
-      <c r="E151" s="100" t="s">
+      <c r="A151" s="87"/>
+      <c r="B151" s="87"/>
+      <c r="C151" s="110"/>
+      <c r="D151" s="111"/>
+      <c r="E151" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="F151" s="98"/>
+      <c r="F151" s="96"/>
     </row>
     <row r="152" spans="1:6">
-      <c r="A152" s="89"/>
-      <c r="B152" s="89"/>
-      <c r="C152" s="112"/>
-      <c r="D152" s="113"/>
-      <c r="E152" s="100" t="s">
+      <c r="A152" s="87"/>
+      <c r="B152" s="87"/>
+      <c r="C152" s="110"/>
+      <c r="D152" s="111"/>
+      <c r="E152" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="F152" s="98"/>
+      <c r="F152" s="96"/>
     </row>
     <row r="153" spans="1:6">
-      <c r="A153" s="89"/>
-      <c r="B153" s="89"/>
-      <c r="C153" s="112"/>
-      <c r="D153" s="97"/>
-      <c r="E153" s="100" t="s">
+      <c r="A153" s="87"/>
+      <c r="B153" s="87"/>
+      <c r="C153" s="110"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="F153" s="98"/>
+      <c r="F153" s="96"/>
     </row>
     <row r="154" spans="1:6">
-      <c r="A154" s="89"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="112"/>
-      <c r="D154" s="99" t="s">
+      <c r="A154" s="87"/>
+      <c r="B154" s="87"/>
+      <c r="C154" s="110"/>
+      <c r="D154" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="E154" s="100" t="s">
+      <c r="E154" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="F154" s="98"/>
+      <c r="F154" s="96"/>
     </row>
     <row r="155" spans="1:6">
-      <c r="A155" s="89"/>
-      <c r="B155" s="89"/>
-      <c r="C155" s="112"/>
-      <c r="D155" s="99" t="s">
+      <c r="A155" s="87"/>
+      <c r="B155" s="87"/>
+      <c r="C155" s="110"/>
+      <c r="D155" s="97" t="s">
         <v>240</v>
       </c>
-      <c r="E155" s="100" t="s">
+      <c r="E155" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="F155" s="98"/>
+      <c r="F155" s="96"/>
     </row>
     <row r="156" spans="1:6">
-      <c r="A156" s="89"/>
-      <c r="B156" s="89"/>
-      <c r="C156" s="112"/>
-      <c r="D156" s="99" t="s">
+      <c r="A156" s="87"/>
+      <c r="B156" s="87"/>
+      <c r="C156" s="110"/>
+      <c r="D156" s="97" t="s">
         <v>242</v>
       </c>
-      <c r="E156" s="100" t="s">
+      <c r="E156" s="98" t="s">
         <v>243</v>
       </c>
-      <c r="F156" s="98"/>
+      <c r="F156" s="96"/>
     </row>
     <row r="157" spans="1:6">
-      <c r="A157" s="89"/>
-      <c r="B157" s="89"/>
-      <c r="C157" s="112"/>
-      <c r="D157" s="99" t="s">
+      <c r="A157" s="87"/>
+      <c r="B157" s="87"/>
+      <c r="C157" s="110"/>
+      <c r="D157" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="E157" s="100" t="s">
+      <c r="E157" s="98" t="s">
         <v>244</v>
       </c>
-      <c r="F157" s="98"/>
+      <c r="F157" s="96"/>
     </row>
     <row r="158" spans="1:6">
-      <c r="A158" s="89"/>
-      <c r="B158" s="89"/>
-      <c r="C158" s="112"/>
-      <c r="D158" s="99" t="s">
+      <c r="A158" s="87"/>
+      <c r="B158" s="87"/>
+      <c r="C158" s="110"/>
+      <c r="D158" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="E158" s="100" t="s">
+      <c r="E158" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="F158" s="98"/>
+      <c r="F158" s="96"/>
     </row>
     <row r="159" spans="1:6">
-      <c r="A159" s="89"/>
-      <c r="B159" s="89"/>
-      <c r="C159" s="112"/>
-      <c r="D159" s="99" t="s">
+      <c r="A159" s="87"/>
+      <c r="B159" s="87"/>
+      <c r="C159" s="110"/>
+      <c r="D159" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="E159" s="100" t="s">
+      <c r="E159" s="98" t="s">
         <v>247</v>
       </c>
-      <c r="F159" s="98"/>
+      <c r="F159" s="96"/>
     </row>
     <row r="160" spans="1:6">
-      <c r="A160" s="89"/>
-      <c r="B160" s="89"/>
-      <c r="C160" s="112"/>
-      <c r="D160" s="99" t="s">
+      <c r="A160" s="87"/>
+      <c r="B160" s="87"/>
+      <c r="C160" s="110"/>
+      <c r="D160" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="E160" s="100" t="s">
+      <c r="E160" s="98" t="s">
         <v>249</v>
       </c>
-      <c r="F160" s="98"/>
+      <c r="F160" s="96"/>
     </row>
     <row r="161" spans="1:6">
-      <c r="A161" s="89"/>
-      <c r="B161" s="89"/>
-      <c r="C161" s="112"/>
-      <c r="D161" s="99" t="s">
+      <c r="A161" s="87"/>
+      <c r="B161" s="87"/>
+      <c r="C161" s="110"/>
+      <c r="D161" s="97" t="s">
         <v>250</v>
       </c>
-      <c r="E161" s="100" t="s">
+      <c r="E161" s="98" t="s">
         <v>251</v>
       </c>
-      <c r="F161" s="98"/>
+      <c r="F161" s="96"/>
     </row>
     <row r="162" spans="1:6">
-      <c r="A162" s="89"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="112"/>
-      <c r="D162" s="99" t="s">
+      <c r="A162" s="87"/>
+      <c r="B162" s="87"/>
+      <c r="C162" s="110"/>
+      <c r="D162" s="97" t="s">
         <v>252</v>
       </c>
-      <c r="E162" s="100" t="s">
+      <c r="E162" s="98" t="s">
         <v>253</v>
       </c>
-      <c r="F162" s="98"/>
+      <c r="F162" s="96"/>
     </row>
     <row r="163" spans="1:6">
-      <c r="A163" s="89"/>
-      <c r="B163" s="89"/>
-      <c r="C163" s="112"/>
-      <c r="D163" s="113"/>
-      <c r="E163" s="100" t="s">
+      <c r="A163" s="87"/>
+      <c r="B163" s="87"/>
+      <c r="C163" s="110"/>
+      <c r="D163" s="111"/>
+      <c r="E163" s="98" t="s">
         <v>254</v>
       </c>
-      <c r="F163" s="98"/>
+      <c r="F163" s="96"/>
     </row>
     <row r="164" spans="1:6">
-      <c r="A164" s="89"/>
-      <c r="B164" s="89"/>
-      <c r="C164" s="112"/>
-      <c r="D164" s="113"/>
-      <c r="E164" s="100" t="s">
+      <c r="A164" s="87"/>
+      <c r="B164" s="87"/>
+      <c r="C164" s="110"/>
+      <c r="D164" s="111"/>
+      <c r="E164" s="98" t="s">
         <v>255</v>
       </c>
-      <c r="F164" s="98"/>
+      <c r="F164" s="96"/>
     </row>
     <row r="165" spans="1:6">
-      <c r="A165" s="89"/>
-      <c r="B165" s="89"/>
-      <c r="C165" s="112"/>
-      <c r="D165" s="97"/>
-      <c r="E165" s="100" t="s">
+      <c r="A165" s="87"/>
+      <c r="B165" s="87"/>
+      <c r="C165" s="110"/>
+      <c r="D165" s="95"/>
+      <c r="E165" s="98" t="s">
         <v>256</v>
       </c>
-      <c r="F165" s="98"/>
+      <c r="F165" s="96"/>
     </row>
     <row r="166" spans="1:6">
-      <c r="A166" s="89"/>
-      <c r="B166" s="89"/>
-      <c r="C166" s="112"/>
-      <c r="D166" s="99" t="s">
+      <c r="A166" s="87"/>
+      <c r="B166" s="87"/>
+      <c r="C166" s="110"/>
+      <c r="D166" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="E166" s="100" t="s">
+      <c r="E166" s="98" t="s">
         <v>258</v>
       </c>
-      <c r="F166" s="98"/>
+      <c r="F166" s="96"/>
     </row>
     <row r="167" spans="1:6">
-      <c r="A167" s="89"/>
-      <c r="B167" s="89"/>
-      <c r="C167" s="112"/>
-      <c r="D167" s="99" t="s">
+      <c r="A167" s="87"/>
+      <c r="B167" s="87"/>
+      <c r="C167" s="110"/>
+      <c r="D167" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="E167" s="100" t="s">
+      <c r="E167" s="98" t="s">
         <v>260</v>
       </c>
-      <c r="F167" s="98"/>
+      <c r="F167" s="96"/>
     </row>
     <row r="168" spans="1:6">
-      <c r="A168" s="89"/>
-      <c r="B168" s="89"/>
-      <c r="C168" s="112"/>
-      <c r="D168" s="113"/>
-      <c r="E168" s="100" t="s">
+      <c r="A168" s="87"/>
+      <c r="B168" s="87"/>
+      <c r="C168" s="110"/>
+      <c r="D168" s="111"/>
+      <c r="E168" s="98" t="s">
         <v>261</v>
       </c>
-      <c r="F168" s="98"/>
+      <c r="F168" s="96"/>
     </row>
     <row r="169" spans="1:6">
-      <c r="A169" s="89"/>
-      <c r="B169" s="89"/>
-      <c r="C169" s="112"/>
-      <c r="D169" s="113"/>
-      <c r="E169" s="100" t="s">
+      <c r="A169" s="87"/>
+      <c r="B169" s="87"/>
+      <c r="C169" s="110"/>
+      <c r="D169" s="111"/>
+      <c r="E169" s="98" t="s">
         <v>262</v>
       </c>
-      <c r="F169" s="98"/>
+      <c r="F169" s="96"/>
     </row>
     <row r="170" spans="1:6">
-      <c r="A170" s="89"/>
-      <c r="B170" s="89"/>
-      <c r="C170" s="112"/>
-      <c r="D170" s="113"/>
-      <c r="E170" s="100" t="s">
+      <c r="A170" s="87"/>
+      <c r="B170" s="87"/>
+      <c r="C170" s="110"/>
+      <c r="D170" s="111"/>
+      <c r="E170" s="98" t="s">
         <v>263</v>
       </c>
-      <c r="F170" s="98"/>
+      <c r="F170" s="96"/>
     </row>
     <row r="171" spans="1:6">
-      <c r="A171" s="89"/>
-      <c r="B171" s="89"/>
-      <c r="C171" s="112"/>
-      <c r="D171" s="97"/>
-      <c r="E171" s="100" t="s">
+      <c r="A171" s="87"/>
+      <c r="B171" s="87"/>
+      <c r="C171" s="110"/>
+      <c r="D171" s="95"/>
+      <c r="E171" s="98" t="s">
         <v>264</v>
       </c>
-      <c r="F171" s="98"/>
+      <c r="F171" s="96"/>
     </row>
     <row r="172" spans="1:6">
-      <c r="A172" s="89"/>
-      <c r="B172" s="89"/>
-      <c r="C172" s="112"/>
-      <c r="D172" s="99" t="s">
+      <c r="A172" s="87"/>
+      <c r="B172" s="87"/>
+      <c r="C172" s="110"/>
+      <c r="D172" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="E172" s="100" t="s">
+      <c r="E172" s="98" t="s">
         <v>266</v>
       </c>
-      <c r="F172" s="98"/>
+      <c r="F172" s="96"/>
     </row>
     <row r="173" spans="1:6">
-      <c r="A173" s="89"/>
-      <c r="B173" s="89"/>
-      <c r="C173" s="112"/>
-      <c r="D173" s="99" t="s">
+      <c r="A173" s="87"/>
+      <c r="B173" s="87"/>
+      <c r="C173" s="110"/>
+      <c r="D173" s="97" t="s">
         <v>267</v>
       </c>
-      <c r="E173" s="100" t="s">
+      <c r="E173" s="98" t="s">
         <v>268</v>
       </c>
-      <c r="F173" s="98"/>
+      <c r="F173" s="96"/>
     </row>
     <row r="174" spans="1:6">
-      <c r="A174" s="89"/>
-      <c r="B174" s="89"/>
-      <c r="C174" s="112"/>
-      <c r="D174" s="97"/>
-      <c r="E174" s="100" t="s">
+      <c r="A174" s="87"/>
+      <c r="B174" s="87"/>
+      <c r="C174" s="110"/>
+      <c r="D174" s="95"/>
+      <c r="E174" s="98" t="s">
         <v>269</v>
       </c>
-      <c r="F174" s="98"/>
+      <c r="F174" s="96"/>
     </row>
     <row r="175" spans="1:6">
-      <c r="A175" s="89"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="112"/>
-      <c r="D175" s="91" t="s">
+      <c r="A175" s="87"/>
+      <c r="B175" s="87"/>
+      <c r="C175" s="110"/>
+      <c r="D175" s="89" t="s">
         <v>270</v>
       </c>
-      <c r="E175" s="100" t="s">
+      <c r="E175" s="98" t="s">
         <v>271</v>
       </c>
-      <c r="F175" s="98"/>
+      <c r="F175" s="96"/>
     </row>
     <row r="176" spans="1:6">
-      <c r="A176" s="89"/>
-      <c r="B176" s="89"/>
-      <c r="C176" s="112"/>
-      <c r="D176" s="91" t="s">
+      <c r="A176" s="87"/>
+      <c r="B176" s="87"/>
+      <c r="C176" s="110"/>
+      <c r="D176" s="89" t="s">
         <v>272</v>
       </c>
-      <c r="E176" s="100" t="s">
+      <c r="E176" s="98" t="s">
         <v>273</v>
       </c>
-      <c r="F176" s="98"/>
+      <c r="F176" s="96"/>
     </row>
     <row r="177" spans="1:6">
-      <c r="A177" s="89"/>
-      <c r="B177" s="89"/>
-      <c r="C177" s="112"/>
-      <c r="D177" s="91" t="s">
+      <c r="A177" s="87"/>
+      <c r="B177" s="87"/>
+      <c r="C177" s="110"/>
+      <c r="D177" s="89" t="s">
         <v>274</v>
       </c>
-      <c r="E177" s="100" t="s">
+      <c r="E177" s="98" t="s">
         <v>275</v>
       </c>
-      <c r="F177" s="98"/>
+      <c r="F177" s="96"/>
     </row>
     <row r="178" spans="1:6">
-      <c r="A178" s="89"/>
-      <c r="B178" s="89"/>
-      <c r="C178" s="112"/>
-      <c r="D178" s="91" t="s">
+      <c r="A178" s="87"/>
+      <c r="B178" s="87"/>
+      <c r="C178" s="110"/>
+      <c r="D178" s="89" t="s">
         <v>276</v>
       </c>
-      <c r="E178" s="100" t="s">
+      <c r="E178" s="98" t="s">
         <v>277</v>
       </c>
-      <c r="F178" s="98"/>
+      <c r="F178" s="96"/>
     </row>
     <row r="179" spans="1:6">
-      <c r="A179" s="89"/>
-      <c r="B179" s="89"/>
-      <c r="C179" s="112"/>
-      <c r="D179" s="91" t="s">
+      <c r="A179" s="87"/>
+      <c r="B179" s="87"/>
+      <c r="C179" s="110"/>
+      <c r="D179" s="89" t="s">
         <v>278</v>
       </c>
-      <c r="E179" s="100" t="s">
+      <c r="E179" s="98" t="s">
         <v>279</v>
       </c>
-      <c r="F179" s="98"/>
+      <c r="F179" s="96"/>
     </row>
     <row r="180" spans="1:6">
-      <c r="A180" s="89"/>
-      <c r="B180" s="89"/>
-      <c r="C180" s="112"/>
-      <c r="D180" s="91" t="s">
+      <c r="A180" s="87"/>
+      <c r="B180" s="87"/>
+      <c r="C180" s="110"/>
+      <c r="D180" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="E180" s="100" t="s">
+      <c r="E180" s="98" t="s">
         <v>281</v>
       </c>
-      <c r="F180" s="98"/>
+      <c r="F180" s="96"/>
     </row>
     <row r="181" spans="1:6">
-      <c r="A181" s="89"/>
-      <c r="B181" s="89"/>
-      <c r="C181" s="112"/>
-      <c r="D181" s="91" t="s">
+      <c r="A181" s="87"/>
+      <c r="B181" s="87"/>
+      <c r="C181" s="110"/>
+      <c r="D181" s="89" t="s">
         <v>282</v>
       </c>
-      <c r="E181" s="100" t="s">
+      <c r="E181" s="98" t="s">
         <v>283</v>
       </c>
-      <c r="F181" s="98"/>
+      <c r="F181" s="96"/>
     </row>
     <row r="182" spans="1:6">
-      <c r="A182" s="89"/>
-      <c r="B182" s="89"/>
-      <c r="C182" s="112"/>
-      <c r="D182" s="91" t="s">
+      <c r="A182" s="87"/>
+      <c r="B182" s="87"/>
+      <c r="C182" s="110"/>
+      <c r="D182" s="89" t="s">
         <v>284</v>
       </c>
-      <c r="E182" s="100" t="s">
+      <c r="E182" s="98" t="s">
         <v>285</v>
       </c>
-      <c r="F182" s="98"/>
+      <c r="F182" s="96"/>
     </row>
     <row r="183" spans="1:6">
-      <c r="A183" s="89"/>
-      <c r="B183" s="89"/>
-      <c r="C183" s="112"/>
-      <c r="D183" s="91" t="s">
+      <c r="A183" s="87"/>
+      <c r="B183" s="87"/>
+      <c r="C183" s="110"/>
+      <c r="D183" s="89" t="s">
         <v>286</v>
       </c>
-      <c r="E183" s="100" t="s">
+      <c r="E183" s="98" t="s">
         <v>287</v>
       </c>
-      <c r="F183" s="98"/>
+      <c r="F183" s="96"/>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184" s="89"/>
-      <c r="B184" s="89"/>
-      <c r="C184" s="112"/>
-      <c r="D184" s="91"/>
-      <c r="E184" s="100"/>
+      <c r="A184" s="87"/>
+      <c r="B184" s="87"/>
+      <c r="C184" s="110"/>
+      <c r="D184" s="89"/>
+      <c r="E184" s="98"/>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185" s="89"/>
-      <c r="B185" s="89"/>
-      <c r="C185" s="112"/>
-      <c r="D185" s="91"/>
-      <c r="E185" s="100"/>
+      <c r="A185" s="87"/>
+      <c r="B185" s="87"/>
+      <c r="C185" s="110"/>
+      <c r="D185" s="89"/>
+      <c r="E185" s="98"/>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186" s="89"/>
-      <c r="B186" s="89"/>
-      <c r="C186" s="112"/>
-      <c r="D186" s="91"/>
-      <c r="E186" s="100"/>
+      <c r="A186" s="87"/>
+      <c r="B186" s="87"/>
+      <c r="C186" s="110"/>
+      <c r="D186" s="89"/>
+      <c r="E186" s="98"/>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187" s="89"/>
-      <c r="B187" s="89"/>
-      <c r="C187" s="112"/>
-      <c r="D187" s="91"/>
-      <c r="E187" s="100"/>
+      <c r="A187" s="87"/>
+      <c r="B187" s="87"/>
+      <c r="C187" s="110"/>
+      <c r="D187" s="89"/>
+      <c r="E187" s="98"/>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188" s="89"/>
-      <c r="B188" s="89"/>
-      <c r="C188" s="112"/>
-      <c r="D188" s="91"/>
-      <c r="E188" s="100"/>
+      <c r="A188" s="87"/>
+      <c r="B188" s="87"/>
+      <c r="C188" s="110"/>
+      <c r="D188" s="89"/>
+      <c r="E188" s="98"/>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="89"/>
-      <c r="B189" s="89"/>
-      <c r="C189" s="112"/>
-      <c r="D189" s="91"/>
-      <c r="E189" s="100"/>
+      <c r="A189" s="87"/>
+      <c r="B189" s="87"/>
+      <c r="C189" s="110"/>
+      <c r="D189" s="89"/>
+      <c r="E189" s="98"/>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190" s="89"/>
-      <c r="B190" s="89"/>
-      <c r="C190" s="112"/>
-      <c r="D190" s="91"/>
-      <c r="E190" s="100"/>
+      <c r="A190" s="87"/>
+      <c r="B190" s="87"/>
+      <c r="C190" s="110"/>
+      <c r="D190" s="89"/>
+      <c r="E190" s="98"/>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="89"/>
-      <c r="B191" s="89"/>
-      <c r="C191" s="112"/>
-      <c r="D191" s="91"/>
-      <c r="E191" s="100"/>
+      <c r="A191" s="87"/>
+      <c r="B191" s="87"/>
+      <c r="C191" s="110"/>
+      <c r="D191" s="89"/>
+      <c r="E191" s="98"/>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="89"/>
-      <c r="B192" s="89"/>
-      <c r="C192" s="112"/>
-      <c r="D192" s="91"/>
-      <c r="E192" s="100"/>
+      <c r="A192" s="87"/>
+      <c r="B192" s="87"/>
+      <c r="C192" s="110"/>
+      <c r="D192" s="89"/>
+      <c r="E192" s="98"/>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="89"/>
-      <c r="B193" s="89"/>
-      <c r="C193" s="112"/>
-      <c r="D193" s="91"/>
-      <c r="E193" s="100"/>
+      <c r="A193" s="87"/>
+      <c r="B193" s="87"/>
+      <c r="C193" s="110"/>
+      <c r="D193" s="89"/>
+      <c r="E193" s="98"/>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194" s="89"/>
-      <c r="B194" s="89"/>
-      <c r="C194" s="112"/>
-      <c r="D194" s="91"/>
-      <c r="E194" s="100"/>
+      <c r="A194" s="87"/>
+      <c r="B194" s="87"/>
+      <c r="C194" s="110"/>
+      <c r="D194" s="89"/>
+      <c r="E194" s="98"/>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195" s="89"/>
-      <c r="B195" s="89"/>
-      <c r="C195" s="112"/>
-      <c r="D195" s="91"/>
-      <c r="E195" s="100"/>
+      <c r="A195" s="87"/>
+      <c r="B195" s="87"/>
+      <c r="C195" s="110"/>
+      <c r="D195" s="89"/>
+      <c r="E195" s="98"/>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="89"/>
-      <c r="B196" s="89"/>
-      <c r="C196" s="112"/>
-      <c r="D196" s="91"/>
-      <c r="E196" s="100"/>
+      <c r="A196" s="87"/>
+      <c r="B196" s="87"/>
+      <c r="C196" s="110"/>
+      <c r="D196" s="89"/>
+      <c r="E196" s="98"/>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197" s="89"/>
-      <c r="B197" s="89"/>
-      <c r="C197" s="112"/>
-      <c r="D197" s="91"/>
-      <c r="E197" s="100"/>
+      <c r="A197" s="87"/>
+      <c r="B197" s="87"/>
+      <c r="C197" s="110"/>
+      <c r="D197" s="89"/>
+      <c r="E197" s="98"/>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="89"/>
-      <c r="B198" s="89"/>
-      <c r="C198" s="112"/>
-      <c r="D198" s="91"/>
-      <c r="E198" s="100"/>
+      <c r="A198" s="87"/>
+      <c r="B198" s="87"/>
+      <c r="C198" s="110"/>
+      <c r="D198" s="89"/>
+      <c r="E198" s="98"/>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199" s="89"/>
-      <c r="B199" s="89"/>
-      <c r="C199" s="112"/>
-      <c r="D199" s="91"/>
-      <c r="E199" s="100"/>
+      <c r="A199" s="87"/>
+      <c r="B199" s="87"/>
+      <c r="C199" s="110"/>
+      <c r="D199" s="89"/>
+      <c r="E199" s="98"/>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200" s="89"/>
-      <c r="B200" s="89"/>
-      <c r="C200" s="112"/>
-      <c r="D200" s="91"/>
-      <c r="E200" s="100"/>
+      <c r="A200" s="87"/>
+      <c r="B200" s="87"/>
+      <c r="C200" s="110"/>
+      <c r="D200" s="89"/>
+      <c r="E200" s="98"/>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201" s="89"/>
-      <c r="B201" s="89"/>
-      <c r="C201" s="112"/>
-      <c r="D201" s="91"/>
-      <c r="E201" s="100"/>
+      <c r="A201" s="87"/>
+      <c r="B201" s="87"/>
+      <c r="C201" s="110"/>
+      <c r="D201" s="89"/>
+      <c r="E201" s="98"/>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202" s="89"/>
-      <c r="B202" s="89"/>
-      <c r="C202" s="112"/>
-      <c r="D202" s="91"/>
-      <c r="E202" s="100"/>
+      <c r="A202" s="87"/>
+      <c r="B202" s="87"/>
+      <c r="C202" s="110"/>
+      <c r="D202" s="89"/>
+      <c r="E202" s="98"/>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203" s="89"/>
-      <c r="B203" s="89"/>
-      <c r="C203" s="112"/>
-      <c r="D203" s="91"/>
-      <c r="E203" s="100"/>
+      <c r="A203" s="87"/>
+      <c r="B203" s="87"/>
+      <c r="C203" s="110"/>
+      <c r="D203" s="89"/>
+      <c r="E203" s="98"/>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204" s="89"/>
-      <c r="B204" s="89"/>
-      <c r="C204" s="112"/>
-      <c r="D204" s="91"/>
-      <c r="E204" s="100"/>
+      <c r="A204" s="87"/>
+      <c r="B204" s="87"/>
+      <c r="C204" s="110"/>
+      <c r="D204" s="89"/>
+      <c r="E204" s="98"/>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205" s="89"/>
-      <c r="B205" s="89"/>
-      <c r="C205" s="112"/>
-      <c r="D205" s="91"/>
-      <c r="E205" s="100"/>
+      <c r="A205" s="87"/>
+      <c r="B205" s="87"/>
+      <c r="C205" s="110"/>
+      <c r="D205" s="89"/>
+      <c r="E205" s="98"/>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206" s="89"/>
-      <c r="B206" s="89"/>
-      <c r="C206" s="112"/>
-      <c r="D206" s="91"/>
-      <c r="E206" s="100"/>
+      <c r="A206" s="87"/>
+      <c r="B206" s="87"/>
+      <c r="C206" s="110"/>
+      <c r="D206" s="89"/>
+      <c r="E206" s="98"/>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="89"/>
-      <c r="B207" s="89"/>
-      <c r="C207" s="112"/>
-      <c r="D207" s="91"/>
-      <c r="E207" s="100"/>
+      <c r="A207" s="87"/>
+      <c r="B207" s="87"/>
+      <c r="C207" s="110"/>
+      <c r="D207" s="89"/>
+      <c r="E207" s="98"/>
     </row>
     <row r="208" ht="15.15" spans="1:5">
-      <c r="A208" s="114"/>
-      <c r="B208" s="114"/>
-      <c r="C208" s="115"/>
-      <c r="D208" s="116"/>
-      <c r="E208" s="95"/>
+      <c r="A208" s="112"/>
+      <c r="B208" s="112"/>
+      <c r="C208" s="113"/>
+      <c r="D208" s="114"/>
+      <c r="E208" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5790,8 +5778,8 @@
   <sheetPr/>
   <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -5805,1679 +5793,1679 @@
   </cols>
   <sheetData>
     <row r="1" ht="37.8" customHeight="1" spans="1:5">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="47" t="s">
+      <c r="D1" s="45" t="s">
         <v>288</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="45" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="48">
+      <c r="A2" s="46">
         <v>2</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="50" t="s">
+      <c r="D2" s="48" t="s">
         <v>291</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="49" t="s">
         <v>292</v>
       </c>
       <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="53" t="s">
         <v>294</v>
       </c>
       <c r="F3" s="30"/>
     </row>
     <row r="4" ht="28.8" spans="1:6">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="52" t="s">
         <v>295</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="53" t="s">
         <v>296</v>
       </c>
       <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="E5" s="55" t="s">
+      <c r="E5" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="52"/>
-      <c r="B6" s="52"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52" t="s">
         <v>298</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="53" t="s">
         <v>299</v>
       </c>
       <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="53" t="s">
         <v>299</v>
       </c>
       <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>301</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="53" t="s">
         <v>302</v>
       </c>
       <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="53" t="s">
         <v>304</v>
       </c>
       <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52" t="s">
         <v>305</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="53" t="s">
         <v>306</v>
       </c>
       <c r="F10" s="30"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52" t="s">
         <v>307</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="53" t="s">
         <v>308</v>
       </c>
       <c r="F11" s="30"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="53" t="s">
         <v>310</v>
       </c>
       <c r="F12" s="30"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52" t="s">
         <v>311</v>
       </c>
-      <c r="E13" s="55" t="s">
+      <c r="E13" s="53" t="s">
         <v>312</v>
       </c>
       <c r="F13" s="30"/>
     </row>
     <row r="14" ht="28.8" spans="1:6">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52" t="s">
         <v>313</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="53" t="s">
         <v>314</v>
       </c>
       <c r="F14" s="30"/>
     </row>
     <row r="15" ht="33.6" customHeight="1" spans="1:6">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E15" s="53" t="s">
         <v>315</v>
       </c>
       <c r="F15" s="30"/>
     </row>
     <row r="16" ht="28.8" spans="1:6">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="50"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="53" t="s">
         <v>316</v>
       </c>
       <c r="F16" s="30"/>
     </row>
     <row r="17" ht="28.8" spans="1:6">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E17" s="53" t="s">
         <v>317</v>
       </c>
       <c r="F17" s="30"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="52" t="s">
         <v>318</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="53" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="30"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="52" t="s">
         <v>319</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E19" s="53" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="52" t="s">
         <v>320</v>
       </c>
-      <c r="E20" s="55" t="s">
+      <c r="E20" s="53" t="s">
         <v>321</v>
       </c>
       <c r="F20" s="30"/>
     </row>
     <row r="21" ht="28.8" spans="1:6">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54" t="s">
+      <c r="A21" s="50"/>
+      <c r="B21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="E21" s="55" t="s">
+      <c r="E21" s="53" t="s">
         <v>323</v>
       </c>
       <c r="F21" s="30"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="55" t="s">
+      <c r="E22" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F22" s="30"/>
-      <c r="G22" s="56"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="54" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F23" s="30"/>
-      <c r="G23" s="56"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="54" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52" t="s">
         <v>326</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E24" s="53" t="s">
         <v>327</v>
       </c>
       <c r="F24" s="30"/>
-      <c r="G24" s="56"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" ht="28.8" spans="1:7">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="54" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="52" t="s">
         <v>328</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="53" t="s">
         <v>329</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="56"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" ht="28.8" spans="1:7">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="54" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="53" t="s">
         <v>331</v>
       </c>
       <c r="F26" s="30"/>
-      <c r="G26" s="56"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" ht="28.8" spans="1:7">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="54" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="50"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="E27" s="53" t="s">
         <v>333</v>
       </c>
       <c r="F27" s="30"/>
-      <c r="G27" s="56"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" ht="28.8" spans="1:7">
-      <c r="A28" s="52"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="52" t="s">
         <v>334</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="53" t="s">
         <v>335</v>
       </c>
       <c r="F28" s="30"/>
-      <c r="G28" s="56"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" ht="28.8" spans="1:7">
-      <c r="A29" s="52"/>
-      <c r="B29" s="52"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="54" t="s">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="53" t="s">
         <v>337</v>
       </c>
       <c r="F29" s="30"/>
-      <c r="G29" s="56"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" ht="28.8" spans="1:7">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="54" t="s">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="E30" s="55" t="s">
+      <c r="E30" s="53" t="s">
         <v>339</v>
       </c>
       <c r="F30" s="30"/>
-      <c r="G30" s="56"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" ht="28.8" spans="1:7">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="54" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="52" t="s">
         <v>340</v>
       </c>
-      <c r="E31" s="55" t="s">
+      <c r="E31" s="53" t="s">
         <v>341</v>
       </c>
       <c r="F31" s="30"/>
-      <c r="G31" s="56"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" ht="28.8" spans="1:7">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="54" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="E32" s="55" t="s">
+      <c r="E32" s="53" t="s">
         <v>343</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>344</v>
       </c>
-      <c r="G32" s="56"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="54" t="s">
+      <c r="A33" s="50"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52" t="s">
         <v>345</v>
       </c>
-      <c r="E33" s="55" t="s">
+      <c r="E33" s="53" t="s">
         <v>346</v>
       </c>
       <c r="F33" s="30"/>
-      <c r="G33" s="56"/>
+      <c r="G33" s="54"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="54" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52" t="s">
         <v>347</v>
       </c>
-      <c r="E34" s="55" t="s">
+      <c r="E34" s="53" t="s">
         <v>348</v>
       </c>
       <c r="F34" s="30"/>
-      <c r="G34" s="56"/>
+      <c r="G34" s="54"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="57" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="55" t="s">
         <v>349</v>
       </c>
-      <c r="E35" s="58" t="s">
+      <c r="E35" s="56" t="s">
         <v>350</v>
       </c>
       <c r="F35" s="30"/>
-      <c r="G35" s="56"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" ht="38.4" customHeight="1" spans="1:7">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="57" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="55" t="s">
         <v>351</v>
       </c>
-      <c r="E36" s="58" t="s">
+      <c r="E36" s="56" t="s">
         <v>352</v>
       </c>
       <c r="F36" s="30"/>
-      <c r="G36" s="56"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" ht="24.6" customHeight="1" spans="1:7">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="57" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="55" t="s">
         <v>353</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="56" t="s">
         <v>354</v>
       </c>
       <c r="F37" s="30"/>
-      <c r="G37" s="56"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" ht="28.8" spans="1:7">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="57" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="55" t="s">
         <v>355</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="56" t="s">
         <v>356</v>
       </c>
       <c r="F38" s="30"/>
-      <c r="G38" s="56"/>
+      <c r="G38" s="54"/>
     </row>
     <row r="39" ht="66.6" customHeight="1" spans="1:7">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="57" t="s">
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="55" t="s">
         <v>357</v>
       </c>
-      <c r="E39" s="58" t="s">
+      <c r="E39" s="56" t="s">
         <v>358</v>
       </c>
       <c r="F39" s="30"/>
-      <c r="G39" s="56"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" ht="66.6" customHeight="1" spans="1:7">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="57" t="s">
+      <c r="A40" s="50"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="55" t="s">
         <v>359</v>
       </c>
-      <c r="E40" s="58" t="s">
+      <c r="E40" s="56" t="s">
         <v>360</v>
       </c>
       <c r="F40" s="30"/>
-      <c r="G40" s="56"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" ht="66.6" customHeight="1" spans="1:7">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="57" t="s">
+      <c r="A41" s="50"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="55" t="s">
         <v>361</v>
       </c>
-      <c r="E41" s="58" t="s">
+      <c r="E41" s="56" t="s">
         <v>362</v>
       </c>
       <c r="F41" s="30"/>
-      <c r="G41" s="56"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" ht="34.8" customHeight="1" spans="1:7">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="57" t="s">
+      <c r="A42" s="50"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="55" t="s">
         <v>363</v>
       </c>
-      <c r="E42" s="58" t="s">
+      <c r="E42" s="56" t="s">
         <v>364</v>
       </c>
       <c r="F42" s="30"/>
-      <c r="G42" s="56"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" ht="34.8" customHeight="1" spans="1:7">
-      <c r="A43" s="52"/>
-      <c r="B43" s="52"/>
-      <c r="C43" s="53"/>
-      <c r="D43" s="57" t="s">
+      <c r="A43" s="50"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="55" t="s">
         <v>365</v>
       </c>
-      <c r="E43" s="58" t="s">
+      <c r="E43" s="56" t="s">
         <v>366</v>
       </c>
       <c r="F43" s="30"/>
-      <c r="G43" s="56"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" ht="34.8" customHeight="1" spans="1:7">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="59" t="s">
+      <c r="A44" s="50"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="57" t="s">
         <v>367</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="58" t="s">
         <v>368</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
     </row>
     <row r="45" ht="34.8" customHeight="1" spans="1:7">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="53"/>
-      <c r="D45" s="59" t="s">
+      <c r="A45" s="50"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="E45" s="60" t="s">
+      <c r="E45" s="58" t="s">
         <v>370</v>
       </c>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
     </row>
     <row r="46" ht="34.8" customHeight="1" spans="1:7">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="53"/>
-      <c r="D46" s="57" t="s">
+      <c r="A46" s="50"/>
+      <c r="B46" s="50"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="55" t="s">
         <v>371</v>
       </c>
-      <c r="E46" s="58" t="s">
+      <c r="E46" s="56" t="s">
         <v>372</v>
       </c>
       <c r="F46" s="30"/>
-      <c r="G46" s="56"/>
+      <c r="G46" s="54"/>
     </row>
     <row r="47" ht="34.8" customHeight="1" spans="1:7">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="53"/>
-      <c r="D47" s="57" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="50"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="55" t="s">
         <v>373</v>
       </c>
-      <c r="E47" s="58" t="s">
+      <c r="E47" s="56" t="s">
         <v>374</v>
       </c>
       <c r="F47" s="30"/>
-      <c r="G47" s="56"/>
+      <c r="G47" s="54"/>
     </row>
     <row r="48" ht="49.2" customHeight="1" spans="1:7">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="53"/>
-      <c r="D48" s="57" t="s">
+      <c r="A48" s="50"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="55" t="s">
         <v>375</v>
       </c>
-      <c r="E48" s="58" t="s">
+      <c r="E48" s="56" t="s">
         <v>376</v>
       </c>
       <c r="F48" s="30"/>
-      <c r="G48" s="56"/>
+      <c r="G48" s="54"/>
     </row>
     <row r="49" ht="41.4" customHeight="1" spans="1:7">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="49" t="s">
+      <c r="A49" s="50"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="47" t="s">
         <v>359</v>
       </c>
-      <c r="D49" s="50" t="s">
+      <c r="D49" s="48" t="s">
         <v>377</v>
       </c>
-      <c r="E49" s="51" t="s">
+      <c r="E49" s="49" t="s">
         <v>378</v>
       </c>
       <c r="F49" s="30"/>
-      <c r="G49" s="56"/>
+      <c r="G49" s="54"/>
     </row>
     <row r="50" ht="28.8" spans="1:6">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="53"/>
-      <c r="D50" s="54" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52" t="s">
         <v>379</v>
       </c>
-      <c r="E50" s="51" t="s">
+      <c r="E50" s="49" t="s">
         <v>378</v>
       </c>
       <c r="F50" s="30"/>
     </row>
     <row r="51" ht="28.8" spans="1:6">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="54" t="s">
+      <c r="A51" s="50"/>
+      <c r="B51" s="50"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52" t="s">
         <v>380</v>
       </c>
-      <c r="E51" s="55" t="s">
+      <c r="E51" s="53" t="s">
         <v>381</v>
       </c>
       <c r="F51" s="30"/>
     </row>
     <row r="52" ht="28.8" spans="1:6">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="54" t="s">
+      <c r="A52" s="50"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52" t="s">
         <v>382</v>
       </c>
-      <c r="E52" s="55" t="s">
+      <c r="E52" s="53" t="s">
         <v>383</v>
       </c>
       <c r="F52" s="30"/>
     </row>
     <row r="53" ht="15.15" spans="1:5">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="62"/>
-      <c r="E53" s="63"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="50"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="61"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="49" t="s">
+      <c r="A54" s="50"/>
+      <c r="B54" s="50"/>
+      <c r="C54" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="D54" s="50" t="s">
+      <c r="D54" s="48" t="s">
         <v>384</v>
       </c>
-      <c r="E54" s="51" t="s">
+      <c r="E54" s="49" t="s">
         <v>385</v>
       </c>
       <c r="F54" s="30"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="54" t="s">
+      <c r="A55" s="50"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52" t="s">
         <v>386</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="53" t="s">
         <v>387</v>
       </c>
       <c r="F55" s="30"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="54" t="s">
+      <c r="A56" s="50"/>
+      <c r="B56" s="50"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="52" t="s">
         <v>388</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="53" t="s">
         <v>389</v>
       </c>
       <c r="F56" s="30"/>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="52"/>
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="54" t="s">
+      <c r="A57" s="50"/>
+      <c r="B57" s="50"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="52" t="s">
         <v>390</v>
       </c>
-      <c r="E57" s="55" t="s">
+      <c r="E57" s="53" t="s">
         <v>391</v>
       </c>
       <c r="F57" s="30"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="52"/>
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="54" t="s">
+      <c r="A58" s="50"/>
+      <c r="B58" s="50"/>
+      <c r="C58" s="51"/>
+      <c r="D58" s="52" t="s">
         <v>297</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="53" t="s">
         <v>24</v>
       </c>
       <c r="F58" s="30"/>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="52"/>
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="54" t="s">
+      <c r="A59" s="50"/>
+      <c r="B59" s="50"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="52" t="s">
         <v>392</v>
       </c>
-      <c r="E59" s="55" t="s">
+      <c r="E59" s="53" t="s">
         <v>393</v>
       </c>
       <c r="F59" s="30"/>
     </row>
     <row r="60" ht="43.2" spans="1:6">
-      <c r="A60" s="52"/>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="54" t="s">
+      <c r="A60" s="50"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="51"/>
+      <c r="D60" s="52" t="s">
         <v>394</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="53" t="s">
         <v>147</v>
       </c>
       <c r="F60" s="30"/>
     </row>
     <row r="61" ht="28.8" spans="1:6">
-      <c r="A61" s="52"/>
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="57" t="s">
+      <c r="A61" s="50"/>
+      <c r="B61" s="50"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="55" t="s">
         <v>395</v>
       </c>
-      <c r="E61" s="58" t="s">
+      <c r="E61" s="56" t="s">
         <v>396</v>
       </c>
       <c r="F61" s="30"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="52"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="54" t="s">
+      <c r="A62" s="50"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="52" t="s">
         <v>324</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="53" t="s">
         <v>325</v>
       </c>
       <c r="F62" s="30"/>
     </row>
     <row r="63" ht="28.8" spans="1:6">
-      <c r="A63" s="52"/>
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="57" t="s">
+      <c r="A63" s="50"/>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="55" t="s">
         <v>397</v>
       </c>
-      <c r="E63" s="58" t="s">
+      <c r="E63" s="56" t="s">
         <v>398</v>
       </c>
       <c r="F63" s="30"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="52"/>
-      <c r="B64" s="52"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="57" t="s">
+      <c r="A64" s="50"/>
+      <c r="B64" s="50"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="55" t="s">
         <v>399</v>
       </c>
-      <c r="E64" s="58" t="s">
+      <c r="E64" s="56" t="s">
         <v>400</v>
       </c>
       <c r="F64" s="30"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="52"/>
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="57" t="s">
+      <c r="A65" s="50"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="55" t="s">
         <v>401</v>
       </c>
-      <c r="E65" s="58" t="s">
+      <c r="E65" s="56" t="s">
         <v>402</v>
       </c>
       <c r="F65" s="30"/>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="52"/>
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="57" t="s">
+      <c r="A66" s="50"/>
+      <c r="B66" s="50"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="55" t="s">
         <v>403</v>
       </c>
-      <c r="E66" s="58" t="s">
+      <c r="E66" s="56" t="s">
         <v>404</v>
       </c>
       <c r="F66" s="30"/>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="52"/>
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="58"/>
+      <c r="A67" s="50"/>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="56"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="52"/>
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="57" t="s">
+      <c r="A68" s="50"/>
+      <c r="B68" s="50"/>
+      <c r="C68" s="51"/>
+      <c r="D68" s="55" t="s">
         <v>405</v>
       </c>
-      <c r="E68" s="58" t="s">
+      <c r="E68" s="56" t="s">
         <v>406</v>
       </c>
       <c r="F68" s="30"/>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="52"/>
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="57" t="s">
+      <c r="A69" s="50"/>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="55" t="s">
         <v>407</v>
       </c>
-      <c r="E69" s="58" t="s">
+      <c r="E69" s="56" t="s">
         <v>408</v>
       </c>
       <c r="F69" s="30"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="52"/>
-      <c r="B70" s="52"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="57" t="s">
+      <c r="A70" s="50"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="51"/>
+      <c r="D70" s="55" t="s">
         <v>409</v>
       </c>
-      <c r="E70" s="58" t="s">
+      <c r="E70" s="56" t="s">
         <v>410</v>
       </c>
       <c r="F70" s="30"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="52"/>
-      <c r="B71" s="52"/>
-      <c r="C71" s="53"/>
-      <c r="D71" s="57" t="s">
+      <c r="A71" s="50"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="55" t="s">
         <v>411</v>
       </c>
-      <c r="E71" s="58" t="s">
+      <c r="E71" s="56" t="s">
         <v>412</v>
       </c>
       <c r="F71" s="30"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="52"/>
-      <c r="B72" s="52"/>
-      <c r="C72" s="53"/>
-      <c r="D72" s="57" t="s">
+      <c r="A72" s="50"/>
+      <c r="B72" s="50"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="E72" s="58" t="s">
+      <c r="E72" s="56" t="s">
         <v>413</v>
       </c>
       <c r="F72" s="30"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="52"/>
-      <c r="B73" s="52"/>
-      <c r="C73" s="53"/>
-      <c r="D73" s="57" t="s">
+      <c r="A73" s="50"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="55" t="s">
         <v>414</v>
       </c>
-      <c r="E73" s="58" t="s">
+      <c r="E73" s="56" t="s">
         <v>415</v>
       </c>
       <c r="F73" s="30"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="52"/>
-      <c r="B74" s="52"/>
-      <c r="C74" s="53"/>
-      <c r="D74" s="57" t="s">
+      <c r="A74" s="50"/>
+      <c r="B74" s="50"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="E74" s="58" t="s">
+      <c r="E74" s="56" t="s">
         <v>417</v>
       </c>
       <c r="F74" s="30"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="52"/>
-      <c r="B75" s="52"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="57" t="s">
+      <c r="A75" s="50"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="55" t="s">
         <v>418</v>
       </c>
-      <c r="E75" s="58" t="s">
+      <c r="E75" s="56" t="s">
         <v>419</v>
       </c>
       <c r="F75" s="30"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="52"/>
-      <c r="B76" s="52"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="57" t="s">
+      <c r="A76" s="50"/>
+      <c r="B76" s="50"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="55" t="s">
         <v>420</v>
       </c>
-      <c r="E76" s="58" t="s">
+      <c r="E76" s="56" t="s">
         <v>421</v>
       </c>
       <c r="F76" s="30"/>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="52"/>
-      <c r="B77" s="52"/>
-      <c r="C77" s="53"/>
-      <c r="D77" s="57"/>
-      <c r="E77" s="58"/>
+      <c r="A77" s="50"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="56"/>
     </row>
     <row r="78" ht="43.2" spans="1:6">
-      <c r="A78" s="52"/>
-      <c r="B78" s="52"/>
-      <c r="C78" s="53"/>
-      <c r="D78" s="54" t="s">
+      <c r="A78" s="50"/>
+      <c r="B78" s="50"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="E78" s="55" t="s">
+      <c r="E78" s="53" t="s">
         <v>422</v>
       </c>
       <c r="F78" s="30"/>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="52"/>
-      <c r="B79" s="52"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="65"/>
+      <c r="A79" s="50"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="63"/>
     </row>
     <row r="80" ht="15.15" spans="1:5">
-      <c r="A80" s="52"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="53"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="65"/>
+      <c r="A80" s="50"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="62"/>
+      <c r="E80" s="63"/>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="52"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="49" t="s">
+      <c r="A81" s="50"/>
+      <c r="B81" s="64"/>
+      <c r="C81" s="47" t="s">
         <v>371</v>
       </c>
-      <c r="D81" s="50" t="s">
+      <c r="D81" s="48" t="s">
         <v>423</v>
       </c>
-      <c r="E81" s="67" t="s">
+      <c r="E81" s="65" t="s">
         <v>424</v>
       </c>
       <c r="F81" s="30"/>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="52"/>
-      <c r="B82" s="66"/>
-      <c r="C82" s="53"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="68" t="s">
+      <c r="A82" s="50"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="51"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="66" t="s">
         <v>425</v>
       </c>
       <c r="F82" s="30"/>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="52"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="53"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="68" t="s">
+      <c r="A83" s="50"/>
+      <c r="B83" s="64"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="66" t="s">
         <v>426</v>
       </c>
       <c r="F83" s="30"/>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="52"/>
-      <c r="B84" s="66"/>
-      <c r="C84" s="53"/>
-      <c r="D84" s="54"/>
-      <c r="E84" s="69" t="s">
+      <c r="A84" s="50"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="51"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="67" t="s">
         <v>427</v>
       </c>
       <c r="F84" s="30"/>
     </row>
     <row r="85" spans="1:6">
-      <c r="A85" s="52"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="53"/>
-      <c r="D85" s="54"/>
-      <c r="E85" s="69" t="s">
+      <c r="A85" s="50"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="67" t="s">
         <v>428</v>
       </c>
       <c r="F85" s="30"/>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="52"/>
-      <c r="B86" s="66"/>
-      <c r="C86" s="53"/>
-      <c r="D86" s="54"/>
-      <c r="E86" s="69" t="s">
+      <c r="A86" s="50"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="51"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="67" t="s">
         <v>429</v>
       </c>
       <c r="F86" s="30"/>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="52"/>
-      <c r="B87" s="66"/>
-      <c r="C87" s="53"/>
-      <c r="D87" s="54"/>
-      <c r="E87" s="69" t="s">
+      <c r="A87" s="50"/>
+      <c r="B87" s="64"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="67" t="s">
         <v>430</v>
       </c>
       <c r="F87" s="30"/>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="52"/>
-      <c r="B88" s="66"/>
-      <c r="C88" s="53"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="69" t="s">
+      <c r="A88" s="50"/>
+      <c r="B88" s="64"/>
+      <c r="C88" s="51"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="67" t="s">
         <v>431</v>
       </c>
       <c r="F88" s="30"/>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="52"/>
-      <c r="B89" s="66"/>
-      <c r="C89" s="53"/>
-      <c r="D89" s="54"/>
-      <c r="E89" s="68" t="s">
+      <c r="A89" s="50"/>
+      <c r="B89" s="64"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="66" t="s">
         <v>432</v>
       </c>
       <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="52"/>
-      <c r="B90" s="66"/>
-      <c r="C90" s="53"/>
-      <c r="D90" s="54"/>
-      <c r="E90" s="68" t="s">
+      <c r="A90" s="50"/>
+      <c r="B90" s="64"/>
+      <c r="C90" s="51"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="66" t="s">
         <v>433</v>
       </c>
       <c r="F90" s="30"/>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="52"/>
-      <c r="B91" s="66"/>
-      <c r="C91" s="53"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="68" t="s">
+      <c r="A91" s="50"/>
+      <c r="B91" s="64"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="66" t="s">
         <v>434</v>
       </c>
       <c r="F91" s="30"/>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="52"/>
-      <c r="B92" s="66"/>
-      <c r="C92" s="53"/>
-      <c r="D92" s="54"/>
-      <c r="E92" s="68" t="s">
+      <c r="A92" s="50"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="51"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="66" t="s">
         <v>435</v>
       </c>
       <c r="F92" s="30"/>
     </row>
     <row r="93" spans="1:6">
-      <c r="A93" s="52"/>
-      <c r="B93" s="66"/>
-      <c r="C93" s="53"/>
-      <c r="D93" s="54"/>
-      <c r="E93" s="68" t="s">
+      <c r="A93" s="50"/>
+      <c r="B93" s="64"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="66" t="s">
         <v>436</v>
       </c>
       <c r="F93" s="30"/>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="52"/>
-      <c r="B94" s="66"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="54"/>
-      <c r="E94" s="68" t="s">
+      <c r="A94" s="50"/>
+      <c r="B94" s="64"/>
+      <c r="C94" s="51"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="66" t="s">
         <v>437</v>
       </c>
       <c r="F94" s="30"/>
     </row>
     <row r="95" spans="1:6">
-      <c r="A95" s="52"/>
-      <c r="B95" s="66"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="54"/>
-      <c r="E95" s="68" t="s">
+      <c r="A95" s="50"/>
+      <c r="B95" s="64"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="66" t="s">
         <v>438</v>
       </c>
       <c r="F95" s="30"/>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="52"/>
-      <c r="B96" s="66"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="54"/>
-      <c r="E96" s="68" t="s">
+      <c r="A96" s="50"/>
+      <c r="B96" s="64"/>
+      <c r="C96" s="51"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="66" t="s">
         <v>439</v>
       </c>
       <c r="F96" s="30"/>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="52"/>
-      <c r="B97" s="66"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="54"/>
-      <c r="E97" s="68" t="s">
+      <c r="A97" s="50"/>
+      <c r="B97" s="64"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="66" t="s">
         <v>440</v>
       </c>
       <c r="F97" s="30"/>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="52"/>
-      <c r="B98" s="66"/>
-      <c r="C98" s="53"/>
-      <c r="D98" s="54"/>
-      <c r="E98" s="68" t="s">
+      <c r="A98" s="50"/>
+      <c r="B98" s="64"/>
+      <c r="C98" s="51"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="66" t="s">
         <v>441</v>
       </c>
       <c r="F98" s="30"/>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="52"/>
-      <c r="B99" s="66"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="54"/>
-      <c r="E99" s="68" t="s">
+      <c r="A99" s="50"/>
+      <c r="B99" s="64"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="66" t="s">
         <v>442</v>
       </c>
       <c r="F99" s="30"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="52"/>
-      <c r="B100" s="66"/>
-      <c r="C100" s="53"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="68" t="s">
+      <c r="A100" s="50"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="51"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="66" t="s">
         <v>443</v>
       </c>
       <c r="F100" s="30"/>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="52"/>
-      <c r="B101" s="66"/>
-      <c r="C101" s="53"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="68" t="s">
+      <c r="A101" s="50"/>
+      <c r="B101" s="64"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="66" t="s">
         <v>444</v>
       </c>
       <c r="F101" s="30"/>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="52"/>
-      <c r="B102" s="66"/>
-      <c r="C102" s="53"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="68" t="s">
+      <c r="A102" s="50"/>
+      <c r="B102" s="64"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="66" t="s">
         <v>445</v>
       </c>
       <c r="F102" s="30"/>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="52"/>
-      <c r="B103" s="66"/>
-      <c r="C103" s="53"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="68" t="s">
+      <c r="A103" s="50"/>
+      <c r="B103" s="64"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="66" t="s">
         <v>446</v>
       </c>
       <c r="F103" s="30"/>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="52"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="53"/>
-      <c r="D104" s="54"/>
-      <c r="E104" s="68" t="s">
+      <c r="A104" s="50"/>
+      <c r="B104" s="64"/>
+      <c r="C104" s="51"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="66" t="s">
         <v>447</v>
       </c>
       <c r="F104" s="30"/>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="52"/>
-      <c r="B105" s="66"/>
-      <c r="C105" s="53"/>
-      <c r="D105" s="54"/>
-      <c r="E105" s="68" t="s">
+      <c r="A105" s="50"/>
+      <c r="B105" s="64"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="66" t="s">
         <v>448</v>
       </c>
       <c r="F105" s="30"/>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="52"/>
-      <c r="B106" s="66"/>
-      <c r="C106" s="53"/>
-      <c r="D106" s="54"/>
-      <c r="E106" s="68" t="s">
+      <c r="A106" s="50"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="51"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="66" t="s">
         <v>449</v>
       </c>
       <c r="F106" s="30"/>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="52"/>
-      <c r="B107" s="66"/>
-      <c r="C107" s="53"/>
-      <c r="D107" s="54"/>
-      <c r="E107" s="68" t="s">
+      <c r="A107" s="50"/>
+      <c r="B107" s="64"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="66" t="s">
         <v>450</v>
       </c>
       <c r="F107" s="30"/>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="52"/>
-      <c r="B108" s="66"/>
-      <c r="C108" s="53"/>
-      <c r="D108" s="54"/>
-      <c r="E108" s="68" t="s">
+      <c r="A108" s="50"/>
+      <c r="B108" s="64"/>
+      <c r="C108" s="51"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="66" t="s">
         <v>451</v>
       </c>
       <c r="F108" s="30"/>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="52"/>
-      <c r="B109" s="66"/>
-      <c r="C109" s="53"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="68" t="s">
+      <c r="A109" s="50"/>
+      <c r="B109" s="64"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="66" t="s">
         <v>452</v>
       </c>
       <c r="F109" s="30"/>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="52"/>
-      <c r="B110" s="66"/>
-      <c r="C110" s="53"/>
-      <c r="D110" s="54"/>
-      <c r="E110" s="68" t="s">
+      <c r="A110" s="50"/>
+      <c r="B110" s="64"/>
+      <c r="C110" s="51"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="66" t="s">
         <v>453</v>
       </c>
       <c r="F110" s="30"/>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="52"/>
-      <c r="B111" s="66"/>
-      <c r="C111" s="53"/>
-      <c r="D111" s="54"/>
-      <c r="E111" s="68" t="s">
+      <c r="A111" s="50"/>
+      <c r="B111" s="64"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="66" t="s">
         <v>454</v>
       </c>
       <c r="F111" s="30"/>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="52"/>
-      <c r="B112" s="66"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="54"/>
-      <c r="E112" s="68" t="s">
+      <c r="A112" s="50"/>
+      <c r="B112" s="64"/>
+      <c r="C112" s="51"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="66" t="s">
         <v>455</v>
       </c>
       <c r="F112" s="30"/>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="52"/>
-      <c r="B113" s="66"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="54"/>
-      <c r="E113" s="68" t="s">
+      <c r="A113" s="50"/>
+      <c r="B113" s="64"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="66" t="s">
         <v>456</v>
       </c>
       <c r="F113" s="30"/>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="52"/>
-      <c r="B114" s="66"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="54"/>
-      <c r="E114" s="68" t="s">
+      <c r="A114" s="50"/>
+      <c r="B114" s="64"/>
+      <c r="C114" s="51"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="66" t="s">
         <v>457</v>
       </c>
       <c r="F114" s="30"/>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="52"/>
-      <c r="B115" s="66"/>
-      <c r="C115" s="53"/>
-      <c r="D115" s="54"/>
-      <c r="E115" s="68" t="s">
+      <c r="A115" s="50"/>
+      <c r="B115" s="64"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="66" t="s">
         <v>458</v>
       </c>
       <c r="F115" s="30"/>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="52"/>
-      <c r="B116" s="66"/>
-      <c r="C116" s="53"/>
-      <c r="D116" s="54"/>
-      <c r="E116" s="68" t="s">
+      <c r="A116" s="50"/>
+      <c r="B116" s="64"/>
+      <c r="C116" s="51"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="66" t="s">
         <v>459</v>
       </c>
       <c r="F116" s="30"/>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="52"/>
-      <c r="B117" s="66"/>
-      <c r="C117" s="53"/>
-      <c r="D117" s="54"/>
-      <c r="E117" s="68" t="s">
+      <c r="A117" s="50"/>
+      <c r="B117" s="64"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="66" t="s">
         <v>460</v>
       </c>
       <c r="F117" s="30"/>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="52"/>
-      <c r="B118" s="66"/>
-      <c r="C118" s="53"/>
-      <c r="D118" s="54"/>
-      <c r="E118" s="68" t="s">
+      <c r="A118" s="50"/>
+      <c r="B118" s="64"/>
+      <c r="C118" s="51"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="66" t="s">
         <v>461</v>
       </c>
       <c r="F118" s="30"/>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="52"/>
-      <c r="B119" s="66"/>
-      <c r="C119" s="53"/>
-      <c r="D119" s="54"/>
-      <c r="E119" s="68" t="s">
+      <c r="A119" s="50"/>
+      <c r="B119" s="64"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="66" t="s">
         <v>462</v>
       </c>
       <c r="F119" s="30"/>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="52"/>
-      <c r="B120" s="66"/>
-      <c r="C120" s="53"/>
-      <c r="D120" s="54"/>
-      <c r="E120" s="68" t="s">
+      <c r="A120" s="50"/>
+      <c r="B120" s="64"/>
+      <c r="C120" s="51"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="66" t="s">
         <v>463</v>
       </c>
       <c r="F120" s="30"/>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="52"/>
-      <c r="B121" s="66"/>
-      <c r="C121" s="53"/>
-      <c r="D121" s="54"/>
-      <c r="E121" s="68" t="s">
+      <c r="A121" s="50"/>
+      <c r="B121" s="64"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="66" t="s">
         <v>464</v>
       </c>
       <c r="F121" s="30"/>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="52"/>
-      <c r="B122" s="66"/>
-      <c r="C122" s="53"/>
-      <c r="D122" s="54"/>
-      <c r="E122" s="68" t="s">
+      <c r="A122" s="50"/>
+      <c r="B122" s="64"/>
+      <c r="C122" s="51"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="66" t="s">
         <v>465</v>
       </c>
       <c r="F122" s="30"/>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="52"/>
-      <c r="B123" s="66"/>
-      <c r="C123" s="53"/>
-      <c r="D123" s="54"/>
-      <c r="E123" s="68" t="s">
+      <c r="A123" s="50"/>
+      <c r="B123" s="64"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="66" t="s">
         <v>466</v>
       </c>
       <c r="F123" s="30"/>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="52"/>
-      <c r="B124" s="66"/>
-      <c r="C124" s="53"/>
-      <c r="D124" s="54"/>
-      <c r="E124" s="68" t="s">
+      <c r="A124" s="50"/>
+      <c r="B124" s="64"/>
+      <c r="C124" s="51"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="66" t="s">
         <v>467</v>
       </c>
       <c r="F124" s="30"/>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="52"/>
-      <c r="B125" s="66"/>
-      <c r="C125" s="53"/>
-      <c r="D125" s="54"/>
-      <c r="E125" s="68" t="s">
+      <c r="A125" s="50"/>
+      <c r="B125" s="64"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="66" t="s">
         <v>468</v>
       </c>
       <c r="F125" s="30"/>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="52"/>
-      <c r="B126" s="66"/>
-      <c r="C126" s="53"/>
-      <c r="D126" s="54"/>
-      <c r="E126" s="68" t="s">
+      <c r="A126" s="50"/>
+      <c r="B126" s="64"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="66" t="s">
         <v>469</v>
       </c>
       <c r="F126" s="30"/>
     </row>
     <row r="127" spans="1:6">
-      <c r="A127" s="52"/>
-      <c r="B127" s="66"/>
-      <c r="C127" s="53"/>
-      <c r="D127" s="54"/>
-      <c r="E127" s="68" t="s">
+      <c r="A127" s="50"/>
+      <c r="B127" s="64"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="66" t="s">
         <v>470</v>
       </c>
       <c r="F127" s="30"/>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="52"/>
-      <c r="B128" s="66"/>
-      <c r="C128" s="53"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="68" t="s">
+      <c r="A128" s="50"/>
+      <c r="B128" s="64"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="66" t="s">
         <v>471</v>
       </c>
       <c r="F128" s="30"/>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="52"/>
-      <c r="B129" s="66"/>
-      <c r="C129" s="53"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="68" t="s">
+      <c r="A129" s="50"/>
+      <c r="B129" s="64"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="66" t="s">
         <v>472</v>
       </c>
       <c r="F129" s="30"/>
     </row>
     <row r="130" spans="1:6">
-      <c r="A130" s="52"/>
-      <c r="B130" s="66"/>
-      <c r="C130" s="53"/>
-      <c r="D130" s="54"/>
-      <c r="E130" s="68" t="s">
+      <c r="A130" s="50"/>
+      <c r="B130" s="64"/>
+      <c r="C130" s="51"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="66" t="s">
         <v>473</v>
       </c>
       <c r="F130" s="30"/>
     </row>
     <row r="131" spans="1:6">
-      <c r="A131" s="52"/>
-      <c r="B131" s="66"/>
-      <c r="C131" s="53"/>
-      <c r="D131" s="54"/>
-      <c r="E131" s="68" t="s">
+      <c r="A131" s="50"/>
+      <c r="B131" s="64"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="66" t="s">
         <v>474</v>
       </c>
       <c r="F131" s="30"/>
     </row>
     <row r="132" spans="1:6">
-      <c r="A132" s="52"/>
-      <c r="B132" s="66"/>
-      <c r="C132" s="53"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="68" t="s">
+      <c r="A132" s="50"/>
+      <c r="B132" s="64"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="66" t="s">
         <v>475</v>
       </c>
       <c r="F132" s="30"/>
     </row>
     <row r="133" ht="16.2" customHeight="1" spans="1:6">
-      <c r="A133" s="52"/>
-      <c r="B133" s="66"/>
-      <c r="C133" s="53"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="55" t="s">
+      <c r="A133" s="50"/>
+      <c r="B133" s="64"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="53" t="s">
         <v>476</v>
       </c>
       <c r="F133" s="30"/>
     </row>
     <row r="134" ht="21" customHeight="1" spans="1:6">
-      <c r="A134" s="52"/>
-      <c r="B134" s="66"/>
-      <c r="C134" s="53"/>
-      <c r="D134" s="57" t="s">
+      <c r="A134" s="50"/>
+      <c r="B134" s="64"/>
+      <c r="C134" s="51"/>
+      <c r="D134" s="55" t="s">
         <v>477</v>
       </c>
-      <c r="E134" s="70" t="s">
+      <c r="E134" s="68" t="s">
         <v>265</v>
       </c>
       <c r="F134" s="30"/>
     </row>
     <row r="135" ht="21" customHeight="1" spans="1:6">
-      <c r="A135" s="52"/>
-      <c r="B135" s="66"/>
-      <c r="C135" s="53"/>
-      <c r="D135" s="64"/>
-      <c r="E135" s="70" t="s">
+      <c r="A135" s="50"/>
+      <c r="B135" s="64"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="62"/>
+      <c r="E135" s="68" t="s">
         <v>478</v>
       </c>
       <c r="F135" s="30"/>
     </row>
     <row r="136" ht="19.2" customHeight="1" spans="1:6">
-      <c r="A136" s="52"/>
-      <c r="B136" s="66"/>
-      <c r="C136" s="53"/>
-      <c r="D136" s="71"/>
-      <c r="E136" s="55" t="s">
+      <c r="A136" s="50"/>
+      <c r="B136" s="64"/>
+      <c r="C136" s="51"/>
+      <c r="D136" s="69"/>
+      <c r="E136" s="53" t="s">
         <v>479</v>
       </c>
       <c r="F136" s="30"/>
     </row>
     <row r="137" spans="1:6">
-      <c r="A137" s="52"/>
-      <c r="B137" s="66"/>
-      <c r="C137" s="53"/>
-      <c r="D137" s="57" t="s">
+      <c r="A137" s="50"/>
+      <c r="B137" s="64"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="55" t="s">
         <v>480</v>
       </c>
-      <c r="E137" s="55" t="s">
+      <c r="E137" s="53" t="s">
         <v>481</v>
       </c>
       <c r="F137" s="30"/>
     </row>
     <row r="138" spans="1:6">
-      <c r="A138" s="52"/>
-      <c r="B138" s="66"/>
-      <c r="C138" s="53"/>
-      <c r="D138" s="64"/>
-      <c r="E138" s="55" t="s">
+      <c r="A138" s="50"/>
+      <c r="B138" s="64"/>
+      <c r="C138" s="51"/>
+      <c r="D138" s="62"/>
+      <c r="E138" s="53" t="s">
         <v>482</v>
       </c>
       <c r="F138" s="30"/>
     </row>
     <row r="139" spans="1:6">
-      <c r="A139" s="52"/>
-      <c r="B139" s="66"/>
-      <c r="C139" s="53"/>
-      <c r="D139" s="64"/>
-      <c r="E139" s="70" t="s">
+      <c r="A139" s="50"/>
+      <c r="B139" s="64"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="68" t="s">
         <v>483</v>
       </c>
       <c r="F139" s="30"/>
     </row>
     <row r="140" spans="1:6">
-      <c r="A140" s="52"/>
-      <c r="B140" s="66"/>
-      <c r="C140" s="53"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="72" t="s">
+      <c r="A140" s="50"/>
+      <c r="B140" s="64"/>
+      <c r="C140" s="51"/>
+      <c r="D140" s="62"/>
+      <c r="E140" s="70" t="s">
         <v>484</v>
       </c>
       <c r="F140" s="30"/>
     </row>
     <row r="141" spans="1:6">
-      <c r="A141" s="52"/>
-      <c r="B141" s="66"/>
-      <c r="C141" s="53"/>
-      <c r="D141" s="64"/>
-      <c r="E141" s="72" t="s">
+      <c r="A141" s="50"/>
+      <c r="B141" s="64"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="62"/>
+      <c r="E141" s="70" t="s">
         <v>485</v>
       </c>
       <c r="F141" s="30"/>
     </row>
     <row r="142" spans="1:6">
-      <c r="A142" s="52"/>
-      <c r="B142" s="66"/>
-      <c r="C142" s="53"/>
-      <c r="D142" s="64"/>
-      <c r="E142" s="72" t="s">
+      <c r="A142" s="50"/>
+      <c r="B142" s="64"/>
+      <c r="C142" s="51"/>
+      <c r="D142" s="62"/>
+      <c r="E142" s="70" t="s">
         <v>486</v>
       </c>
       <c r="F142" s="30"/>
     </row>
     <row r="143" spans="1:6">
-      <c r="A143" s="52"/>
-      <c r="B143" s="66"/>
-      <c r="C143" s="53"/>
-      <c r="D143" s="64"/>
-      <c r="E143" s="72" t="s">
+      <c r="A143" s="50"/>
+      <c r="B143" s="64"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="62"/>
+      <c r="E143" s="70" t="s">
         <v>487</v>
       </c>
       <c r="F143" s="30"/>
     </row>
     <row r="144" spans="1:6">
-      <c r="A144" s="52"/>
-      <c r="B144" s="66"/>
-      <c r="C144" s="53"/>
-      <c r="D144" s="64"/>
-      <c r="E144" s="72" t="s">
+      <c r="A144" s="50"/>
+      <c r="B144" s="64"/>
+      <c r="C144" s="51"/>
+      <c r="D144" s="62"/>
+      <c r="E144" s="70" t="s">
         <v>488</v>
       </c>
       <c r="F144" s="30"/>
     </row>
     <row r="145" spans="1:6">
-      <c r="A145" s="52"/>
-      <c r="B145" s="66"/>
-      <c r="C145" s="53"/>
-      <c r="D145" s="64"/>
-      <c r="E145" s="72" t="s">
+      <c r="A145" s="50"/>
+      <c r="B145" s="64"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="70" t="s">
         <v>489</v>
       </c>
       <c r="F145" s="30"/>
     </row>
     <row r="146" spans="1:6">
-      <c r="A146" s="52"/>
-      <c r="B146" s="66"/>
-      <c r="C146" s="53"/>
-      <c r="D146" s="64"/>
-      <c r="E146" s="72" t="s">
+      <c r="A146" s="50"/>
+      <c r="B146" s="64"/>
+      <c r="C146" s="51"/>
+      <c r="D146" s="62"/>
+      <c r="E146" s="70" t="s">
         <v>490</v>
       </c>
       <c r="F146" s="30"/>
     </row>
     <row r="147" spans="1:6">
-      <c r="A147" s="52"/>
-      <c r="B147" s="66"/>
-      <c r="C147" s="53"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="72" t="s">
+      <c r="A147" s="50"/>
+      <c r="B147" s="64"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="62"/>
+      <c r="E147" s="70" t="s">
         <v>491</v>
       </c>
       <c r="F147" s="30"/>
     </row>
     <row r="148" spans="1:6">
-      <c r="A148" s="52"/>
-      <c r="B148" s="66"/>
-      <c r="C148" s="53"/>
-      <c r="D148" s="71"/>
-      <c r="E148" s="72" t="s">
+      <c r="A148" s="50"/>
+      <c r="B148" s="64"/>
+      <c r="C148" s="51"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="70" t="s">
         <v>492</v>
       </c>
       <c r="F148" s="30"/>
     </row>
     <row r="149" ht="15.15" spans="1:5">
-      <c r="A149" s="73"/>
-      <c r="B149" s="74"/>
-      <c r="C149" s="61"/>
-      <c r="D149" s="62"/>
-      <c r="E149" s="75"/>
+      <c r="A149" s="71"/>
+      <c r="B149" s="72"/>
+      <c r="C149" s="59"/>
+      <c r="D149" s="60"/>
+      <c r="E149" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7502,8 +7490,8 @@
   <sheetPr/>
   <dimension ref="A1:F95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="5"/>
@@ -7601,7 +7589,7 @@
     <row r="7" ht="57.6" spans="1:6">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="37"/>
+      <c r="C7" s="32"/>
       <c r="D7" s="35" t="s">
         <v>504</v>
       </c>
@@ -7613,7 +7601,7 @@
     <row r="8" ht="72" spans="1:6">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="37"/>
+      <c r="C8" s="32"/>
       <c r="D8" s="35" t="s">
         <v>506</v>
       </c>
@@ -7625,7 +7613,7 @@
     <row r="9" ht="43.2" spans="1:6">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
-      <c r="C9" s="37"/>
+      <c r="C9" s="32"/>
       <c r="D9" s="35" t="s">
         <v>508</v>
       </c>
@@ -7637,7 +7625,7 @@
     <row r="10" ht="28.8" spans="1:6">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="37"/>
+      <c r="C10" s="32"/>
       <c r="D10" s="35" t="s">
         <v>510</v>
       </c>
@@ -7649,7 +7637,7 @@
     <row r="11" ht="72" spans="1:6">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
-      <c r="C11" s="37"/>
+      <c r="C11" s="32"/>
       <c r="D11" s="35" t="s">
         <v>512</v>
       </c>
@@ -7661,7 +7649,7 @@
     <row r="12" ht="43.2" spans="1:6">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
-      <c r="C12" s="37"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="35" t="s">
         <v>514</v>
       </c>
@@ -7670,28 +7658,36 @@
       </c>
       <c r="F12" s="30"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" ht="43.2" spans="1:5">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="C13" s="32"/>
+      <c r="D13" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" ht="43.2" spans="1:5">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="39"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="15" ht="29.55" spans="1:6">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="39" t="s">
         <v>382</v>
       </c>
-      <c r="E15" s="42" t="s">
+      <c r="E15" s="40" t="s">
         <v>383</v>
       </c>
       <c r="F15" s="30"/>
@@ -7702,7 +7698,7 @@
       <c r="C16" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="43" t="s">
+      <c r="D16" s="41" t="s">
         <v>384</v>
       </c>
       <c r="E16" s="29"/>
@@ -7728,7 +7724,7 @@
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
       <c r="D19" s="28" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E19" s="36"/>
     </row>
@@ -7736,19 +7732,17 @@
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="32"/>
-      <c r="D20" s="28" t="s">
-        <v>394</v>
-      </c>
+      <c r="D20" s="28"/>
       <c r="E20" s="36"/>
     </row>
     <row r="21" ht="37" customHeight="1" spans="1:5">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="41" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" ht="28.8" spans="1:5">
       <c r="A22" s="31"/>
@@ -7756,11 +7750,11 @@
       <c r="C22" s="27" t="s">
         <v>375</v>
       </c>
-      <c r="D22" s="43" t="s">
-        <v>517</v>
+      <c r="D22" s="41" t="s">
+        <v>521</v>
       </c>
       <c r="E22" s="29" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="23" ht="43.2" spans="1:5">
@@ -7768,10 +7762,10 @@
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
       <c r="D23" s="28" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="24" ht="74.4" customHeight="1" spans="1:5">
@@ -7779,18 +7773,22 @@
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
       <c r="D24" s="28" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" ht="38.4" customHeight="1" spans="1:5">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="36"/>
+      <c r="D25" s="28" t="s">
+        <v>527</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="31"/>
@@ -7851,434 +7849,434 @@
     <row r="34" ht="15.15" spans="1:5">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="42"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="40"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
-      <c r="C35" s="44"/>
+      <c r="C35" s="42"/>
       <c r="D35" s="33"/>
       <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
-      <c r="C36" s="45"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="28"/>
       <c r="E36" s="28"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
-      <c r="C37" s="45"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="28"/>
       <c r="E37" s="28"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="45"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="28"/>
       <c r="E38" s="28"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="31"/>
       <c r="B39" s="31"/>
-      <c r="C39" s="45"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="28"/>
       <c r="E39" s="28"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="31"/>
       <c r="B40" s="31"/>
-      <c r="C40" s="45"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="28"/>
       <c r="E40" s="28"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="31"/>
       <c r="B41" s="31"/>
-      <c r="C41" s="45"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="28"/>
       <c r="E41" s="28"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="31"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="45"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="28"/>
       <c r="E42" s="28"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31"/>
       <c r="B43" s="31"/>
-      <c r="C43" s="45"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="28"/>
       <c r="E43" s="28"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="31"/>
       <c r="B44" s="31"/>
-      <c r="C44" s="45"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="28"/>
       <c r="E44" s="28"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="31"/>
       <c r="B45" s="31"/>
-      <c r="C45" s="45"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="28"/>
       <c r="E45" s="28"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="31"/>
       <c r="B46" s="31"/>
-      <c r="C46" s="45"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="28"/>
       <c r="E46" s="28"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="31"/>
       <c r="B47" s="31"/>
-      <c r="C47" s="45"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="28"/>
       <c r="E47" s="28"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="31"/>
       <c r="B48" s="31"/>
-      <c r="C48" s="45"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="28"/>
       <c r="E48" s="28"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="31"/>
       <c r="B49" s="31"/>
-      <c r="C49" s="45"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="28"/>
       <c r="E49" s="28"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="31"/>
       <c r="B50" s="31"/>
-      <c r="C50" s="45"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="28"/>
       <c r="E50" s="28"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="31"/>
       <c r="B51" s="31"/>
-      <c r="C51" s="45"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="28"/>
       <c r="E51" s="28"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="31"/>
       <c r="B52" s="31"/>
-      <c r="C52" s="45"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="28"/>
       <c r="E52" s="28"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="31"/>
       <c r="B53" s="31"/>
-      <c r="C53" s="45"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="28"/>
       <c r="E53" s="28"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="31"/>
       <c r="B54" s="31"/>
-      <c r="C54" s="45"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="28"/>
       <c r="E54" s="28"/>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="31"/>
       <c r="B55" s="31"/>
-      <c r="C55" s="45"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="28"/>
       <c r="E55" s="28"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="31"/>
       <c r="B56" s="31"/>
-      <c r="C56" s="45"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="28"/>
       <c r="E56" s="28"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="31"/>
       <c r="B57" s="31"/>
-      <c r="C57" s="45"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="28"/>
       <c r="E57" s="28"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="31"/>
       <c r="B58" s="31"/>
-      <c r="C58" s="45"/>
+      <c r="C58" s="43"/>
       <c r="D58" s="28"/>
       <c r="E58" s="28"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="31"/>
       <c r="B59" s="31"/>
-      <c r="C59" s="45"/>
+      <c r="C59" s="43"/>
       <c r="D59" s="28"/>
       <c r="E59" s="28"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="31"/>
       <c r="B60" s="31"/>
-      <c r="C60" s="45"/>
+      <c r="C60" s="43"/>
       <c r="D60" s="28"/>
       <c r="E60" s="28"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="31"/>
       <c r="B61" s="31"/>
-      <c r="C61" s="45"/>
+      <c r="C61" s="43"/>
       <c r="D61" s="28"/>
       <c r="E61" s="28"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="31"/>
       <c r="B62" s="31"/>
-      <c r="C62" s="45"/>
+      <c r="C62" s="43"/>
       <c r="D62" s="28"/>
       <c r="E62" s="28"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="31"/>
       <c r="B63" s="31"/>
-      <c r="C63" s="45"/>
+      <c r="C63" s="43"/>
       <c r="D63" s="28"/>
       <c r="E63" s="28"/>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="31"/>
       <c r="B64" s="31"/>
-      <c r="C64" s="45"/>
+      <c r="C64" s="43"/>
       <c r="D64" s="28"/>
       <c r="E64" s="28"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="31"/>
       <c r="B65" s="31"/>
-      <c r="C65" s="45"/>
+      <c r="C65" s="43"/>
       <c r="D65" s="28"/>
       <c r="E65" s="28"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="31"/>
       <c r="B66" s="31"/>
-      <c r="C66" s="45"/>
+      <c r="C66" s="43"/>
       <c r="D66" s="28"/>
       <c r="E66" s="28"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="31"/>
       <c r="B67" s="31"/>
-      <c r="C67" s="45"/>
+      <c r="C67" s="43"/>
       <c r="D67" s="28"/>
       <c r="E67" s="28"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="31"/>
       <c r="B68" s="31"/>
-      <c r="C68" s="45"/>
+      <c r="C68" s="43"/>
       <c r="D68" s="28"/>
       <c r="E68" s="28"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="31"/>
       <c r="B69" s="31"/>
-      <c r="C69" s="45"/>
+      <c r="C69" s="43"/>
       <c r="D69" s="28"/>
       <c r="E69" s="28"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="31"/>
       <c r="B70" s="31"/>
-      <c r="C70" s="45"/>
+      <c r="C70" s="43"/>
       <c r="D70" s="28"/>
       <c r="E70" s="28"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="31"/>
       <c r="B71" s="31"/>
-      <c r="C71" s="45"/>
+      <c r="C71" s="43"/>
       <c r="D71" s="28"/>
       <c r="E71" s="28"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="31"/>
       <c r="B72" s="31"/>
-      <c r="C72" s="45"/>
+      <c r="C72" s="43"/>
       <c r="D72" s="28"/>
       <c r="E72" s="28"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="31"/>
       <c r="B73" s="31"/>
-      <c r="C73" s="45"/>
+      <c r="C73" s="43"/>
       <c r="D73" s="28"/>
       <c r="E73" s="28"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="31"/>
       <c r="B74" s="31"/>
-      <c r="C74" s="45"/>
+      <c r="C74" s="43"/>
       <c r="D74" s="28"/>
       <c r="E74" s="28"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="31"/>
       <c r="B75" s="31"/>
-      <c r="C75" s="45"/>
+      <c r="C75" s="43"/>
       <c r="D75" s="28"/>
       <c r="E75" s="28"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="31"/>
       <c r="B76" s="31"/>
-      <c r="C76" s="45"/>
+      <c r="C76" s="43"/>
       <c r="D76" s="28"/>
       <c r="E76" s="28"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="31"/>
       <c r="B77" s="31"/>
-      <c r="C77" s="45"/>
+      <c r="C77" s="43"/>
       <c r="D77" s="28"/>
       <c r="E77" s="28"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="31"/>
       <c r="B78" s="31"/>
-      <c r="C78" s="45"/>
+      <c r="C78" s="43"/>
       <c r="D78" s="28"/>
       <c r="E78" s="28"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="31"/>
       <c r="B79" s="31"/>
-      <c r="C79" s="45"/>
+      <c r="C79" s="43"/>
       <c r="D79" s="28"/>
       <c r="E79" s="28"/>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="31"/>
       <c r="B80" s="31"/>
-      <c r="C80" s="45"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="28"/>
       <c r="E80" s="28"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="31"/>
       <c r="B81" s="31"/>
-      <c r="C81" s="45"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="28"/>
       <c r="E81" s="28"/>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="31"/>
       <c r="B82" s="31"/>
-      <c r="C82" s="45"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="28"/>
       <c r="E82" s="28"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="31"/>
       <c r="B83" s="31"/>
-      <c r="C83" s="45"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="28"/>
       <c r="E83" s="28"/>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="31"/>
       <c r="B84" s="31"/>
-      <c r="C84" s="45"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="28"/>
       <c r="E84" s="28"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="31"/>
       <c r="B85" s="31"/>
-      <c r="C85" s="45"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="28"/>
       <c r="E85" s="28"/>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="31"/>
       <c r="B86" s="31"/>
-      <c r="C86" s="45"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="28"/>
       <c r="E86" s="28"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="31"/>
       <c r="B87" s="31"/>
-      <c r="C87" s="45"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="28"/>
       <c r="E87" s="28"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="31"/>
       <c r="B88" s="31"/>
-      <c r="C88" s="45"/>
+      <c r="C88" s="43"/>
       <c r="D88" s="28"/>
       <c r="E88" s="28"/>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="31"/>
       <c r="B89" s="31"/>
-      <c r="C89" s="45"/>
+      <c r="C89" s="43"/>
       <c r="D89" s="28"/>
       <c r="E89" s="28"/>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="31"/>
       <c r="B90" s="31"/>
-      <c r="C90" s="45"/>
+      <c r="C90" s="43"/>
       <c r="D90" s="28"/>
       <c r="E90" s="28"/>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="31"/>
       <c r="B91" s="31"/>
-      <c r="C91" s="45"/>
+      <c r="C91" s="43"/>
       <c r="D91" s="28"/>
       <c r="E91" s="28"/>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="31"/>
       <c r="B92" s="31"/>
-      <c r="C92" s="45"/>
+      <c r="C92" s="43"/>
       <c r="D92" s="28"/>
       <c r="E92" s="28"/>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="31"/>
       <c r="B93" s="31"/>
-      <c r="C93" s="45"/>
+      <c r="C93" s="43"/>
       <c r="D93" s="28"/>
       <c r="E93" s="28"/>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="31"/>
       <c r="B94" s="31"/>
-      <c r="C94" s="45"/>
+      <c r="C94" s="43"/>
       <c r="D94" s="28"/>
       <c r="E94" s="28"/>
     </row>
     <row r="95" ht="15.15" spans="1:5">
-      <c r="A95" s="46"/>
-      <c r="B95" s="46"/>
-      <c r="C95" s="45"/>
+      <c r="A95" s="44"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="43"/>
       <c r="D95" s="28"/>
       <c r="E95" s="28"/>
     </row>
@@ -8301,7 +8299,7 @@
   <sheetPr/>
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
@@ -8336,7 +8334,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="20"/>
@@ -8974,7 +8972,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="12"/>
@@ -9612,7 +9610,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="4"/>
